--- a/Graf_et_al_supp_ inf.xlsx
+++ b/Graf_et_al_supp_ inf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="read_me" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="559">
   <si>
     <t xml:space="preserve">Do agricultural pesticides in streams affect riparian spiders?</t>
   </si>
@@ -1206,6 +1206,9 @@
     <t xml:space="preserve">Longitude east</t>
   </si>
   <si>
+    <t xml:space="preserve">Altitude [m]</t>
+  </si>
+  <si>
     <t xml:space="preserve">A </t>
   </si>
   <si>
@@ -1749,6 +1752,12 @@
     <t xml:space="preserve">species</t>
   </si>
   <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web1</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
@@ -1756,6 +1765,9 @@
   </si>
   <si>
     <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWM.web1</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1778,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1855,6 +1867,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1898,7 +1915,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1960,6 +1977,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2042,15 +2063,15 @@
   </sheetPr>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D126" activeCellId="0" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
@@ -3499,7 +3520,7 @@
         <v>73</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -4571,226 +4592,286 @@
       <c r="C190" s="5" t="s">
         <v>370</v>
       </c>
+      <c r="D190" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="D191" s="1" t="n">
+        <v>565</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="D192" s="1" t="n">
+        <v>576</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <v>361</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <v>415</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="D195" s="1" t="n">
+        <v>168</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="D199" s="1" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="D200" s="1" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="D201" s="1" t="n">
+        <v>448</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <v>553</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <v>465</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <v>472</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <v>527</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <v>527</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4811,7 +4892,7 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -4838,7 +4919,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>15</v>
@@ -4868,7 +4949,7 @@
         <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>33</v>
@@ -4891,13 +4972,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0.5</v>
@@ -4947,13 +5028,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>433</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>432</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>11</v>
@@ -5003,13 +5084,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>28</v>
@@ -5059,13 +5140,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>9</v>
@@ -5115,13 +5196,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>439</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>14</v>
@@ -5171,13 +5252,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>16</v>
@@ -5227,13 +5308,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>6</v>
@@ -5283,13 +5364,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>11</v>
@@ -5339,13 +5420,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>12</v>
@@ -5395,13 +5476,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>2</v>
@@ -5451,13 +5532,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>453</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>452</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>3</v>
@@ -5507,13 +5588,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>18</v>
@@ -5563,13 +5644,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>458</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>457</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>45</v>
@@ -5619,13 +5700,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>10</v>
@@ -5675,13 +5756,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>36</v>
@@ -5731,13 +5812,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>465</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>10</v>
@@ -5787,13 +5868,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>14</v>
@@ -5899,7 +5980,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>-5.54240188331805</v>
@@ -5908,7 +5989,7 @@
         <v>-1.70821956098814</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>94757</v>
@@ -5917,18 +5998,18 @@
         <v>1850</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>-3.79679928002839</v>
@@ -5937,7 +6018,7 @@
         <v>-2.46597694368304</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>135410207</v>
@@ -5946,18 +6027,18 @@
         <v>3.35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>-6.63295466922295</v>
@@ -5966,7 +6047,7 @@
         <v>-3.9690467621004</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>15972608</v>
@@ -5975,18 +6056,18 @@
         <v>2500</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>-3.03476210625921</v>
@@ -5995,7 +6076,7 @@
         <v>-2.62258165847256</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>67375308</v>
@@ -6004,18 +6085,18 @@
         <v>0.013</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>-3.15786232724012</v>
@@ -6024,7 +6105,7 @@
         <v>-0.00534136984582043</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1912249</v>
@@ -6033,18 +6114,18 @@
         <v>0.6</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>-5.88925656551739</v>
@@ -6053,7 +6134,7 @@
         <v>-4.19550926422764</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>131860338</v>
@@ -6062,18 +6143,18 @@
         <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>-6.75242599588804</v>
@@ -6082,7 +6163,7 @@
         <v>-6.28981016121924</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>188425856</v>
@@ -6091,18 +6172,18 @@
         <v>3810</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>-5.15002196324245</v>
@@ -6111,7 +6192,7 @@
         <v>-3.28767060120074</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>10605217</v>
@@ -6120,18 +6201,18 @@
         <v>98</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>-3.76591679396663</v>
@@ -6140,7 +6221,7 @@
         <v>-2.27925022134074</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>2921882</v>
@@ -6149,18 +6230,18 @@
         <v>0.035</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>-7.73347850634438</v>
@@ -6169,7 +6250,7 @@
         <v>-4.99948824191295</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>15545489</v>
@@ -6178,18 +6259,18 @@
         <v>67000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>-3.86637941160395</v>
@@ -6198,7 +6279,7 @@
         <v>-1.7124395108698</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>210880925</v>
@@ -6207,18 +6288,18 @@
         <v>1.85</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>-2.36797678529459</v>
@@ -6227,7 +6308,7 @@
         <v>-2.36797678529459</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>91465086</v>
@@ -6236,18 +6317,18 @@
         <v>0.0028</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>-9.05068527213865</v>
@@ -6256,7 +6337,7 @@
         <v>-4.4886672035987</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>94361065</v>
@@ -6265,18 +6346,18 @@
         <v>9600</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>-5.35547104442547</v>
@@ -6285,7 +6366,7 @@
         <v>-5.04061817395331</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>121552612</v>
@@ -6294,18 +6375,18 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>-2.65844409535562</v>
@@ -6314,7 +6395,7 @@
         <v>-0.0250427295928696</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>333415</v>
@@ -6323,18 +6404,18 @@
         <v>0.07</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>-3.07075087985335</v>
@@ -6343,7 +6424,7 @@
         <v>-0.548772487872798</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>62737</v>
@@ -6352,18 +6433,18 @@
         <v>0.066</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>-2.89140121215289</v>
@@ -6372,7 +6453,7 @@
         <v>-2.63973895187115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>119446683</v>
@@ -6381,18 +6462,18 @@
         <v>0.298</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>-7.4672433621189</v>
@@ -6401,7 +6482,7 @@
         <v>-3.51104635352708</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>87674688</v>
@@ -6410,18 +6491,18 @@
         <v>4800</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>-3.68726940063275</v>
@@ -6430,7 +6511,7 @@
         <v>-0.85697927617948</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>60515</v>
@@ -6439,18 +6520,18 @@
         <v>1.29</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>-8.24982156722741</v>
@@ -6459,7 +6540,7 @@
         <v>-5.6336415468244</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>110488705</v>
@@ -6468,18 +6549,18 @@
         <v>10600</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>-5.73528397717665</v>
@@ -6488,7 +6569,7 @@
         <v>-4.36174669029418</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>330541</v>
@@ -6497,18 +6578,18 @@
         <v>160</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>-5.99784334363052</v>
@@ -6517,7 +6598,7 @@
         <v>-4.53719930251352</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>135319732</v>
@@ -6526,18 +6607,18 @@
         <v>62.5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>-5.91576183930437</v>
@@ -6546,7 +6627,7 @@
         <v>-4.05967207760488</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>161326347</v>
@@ -6555,18 +6636,18 @@
         <v>48.7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>-6.76525597517522</v>
@@ -6575,7 +6656,7 @@
         <v>-5.9543677126834</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>239110157</v>
@@ -6584,18 +6665,18 @@
         <v>1700</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>-6.09638834027564</v>
@@ -6604,7 +6685,7 @@
         <v>-5.26901994846952</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>658066354</v>
@@ -6613,18 +6694,18 @@
         <v>510</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>-3.16261507783314</v>
@@ -6633,7 +6714,7 @@
         <v>-0.377525276263204</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>138261413</v>
@@ -6642,18 +6723,18 @@
         <v>0.65</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>-4.8809603449837</v>
@@ -6662,7 +6743,7 @@
         <v>-3.93153140073098</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>28159980</v>
@@ -6671,18 +6752,18 @@
         <v>5.9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>-5.52036901152673</v>
@@ -6691,7 +6772,7 @@
         <v>-4.33237413605308</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>34123596</v>
@@ -6700,18 +6781,18 @@
         <v>580</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>-6.68299461033139</v>
@@ -6720,7 +6801,7 @@
         <v>-4.8563362775564</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>2164081</v>
@@ -6729,18 +6810,18 @@
         <v>8400</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>-5.9184437912891</v>
@@ -6749,7 +6830,7 @@
         <v>-5.41171124868268</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>374726622</v>
@@ -6758,18 +6839,18 @@
         <v>1700</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>-5.16704790284731</v>
@@ -6778,7 +6859,7 @@
         <v>-5.12613222938799</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>94746</v>
@@ -6787,18 +6868,18 @@
         <v>1000</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>-5.89568699913027</v>
@@ -6807,7 +6888,7 @@
         <v>-4.4121133617753</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>57837191</v>
@@ -6816,18 +6897,18 @@
         <v>1500</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>-7.92177279986355</v>
@@ -6836,7 +6917,7 @@
         <v>-7.032304314572</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>41394052</v>
@@ -6845,18 +6926,18 @@
         <v>5700</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>-2.8124521986581</v>
@@ -6865,7 +6946,7 @@
         <v>-2.8124521986581</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>950378</v>
@@ -6874,18 +6955,18 @@
         <v>0.7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>-6.56551350645382</v>
@@ -6894,7 +6975,7 @@
         <v>-2.99744783405303</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>51218452</v>
@@ -6903,18 +6984,18 @@
         <v>1100</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>-6.64775119966788</v>
@@ -6923,7 +7004,7 @@
         <v>-3.75739104175975</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>21087649</v>
@@ -6932,18 +7013,18 @@
         <v>14400</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>-5.35327641173027</v>
@@ -6952,7 +7033,7 @@
         <v>-5.35327641173027</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>88671890</v>
@@ -6961,18 +7042,18 @@
         <v>240</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>-7.065482679757</v>
@@ -6981,7 +7062,7 @@
         <v>-5.40948399259704</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E39" s="3" t="n">
         <v>111991094</v>
@@ -6990,18 +7071,18 @@
         <v>90000</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>-7.74148906779241</v>
@@ -7010,7 +7091,7 @@
         <v>-5.27994123952773</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>66063056</v>
@@ -7019,18 +7100,18 @@
         <v>10000</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>-5.27558099114011</v>
@@ -7039,7 +7120,7 @@
         <v>-1.49531805198376</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>117428225</v>
@@ -7048,18 +7129,18 @@
         <v>24</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>-6.74923035947365</v>
@@ -7068,7 +7149,7 @@
         <v>-4.72077771969166</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>67747095</v>
@@ -7077,18 +7158,18 @@
         <v>770</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>-6.84717434124372</v>
@@ -7097,7 +7178,7 @@
         <v>-6.34394665331491</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E43" s="3" t="n">
         <v>24579735</v>
@@ -7106,18 +7187,18 @@
         <v>104700</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>-6.40339249842639</v>
@@ -7126,7 +7207,7 @@
         <v>-4.14226432627169</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E44" s="3" t="n">
         <v>60207901</v>
@@ -7135,18 +7216,18 @@
         <v>180</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>-6.65216533297453</v>
@@ -7155,7 +7236,7 @@
         <v>-4.08666901149185</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>52888809</v>
@@ -7164,18 +7245,18 @@
         <v>510</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>-7.60944730277849</v>
@@ -7184,7 +7265,7 @@
         <v>-6.13866954923938</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>53112280</v>
@@ -7193,18 +7274,18 @@
         <v>2900</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>-6.90463177100808</v>
@@ -7213,7 +7294,7 @@
         <v>-3.97098360687478</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E47" s="3" t="n">
         <v>122349</v>
@@ -7222,18 +7303,18 @@
         <v>1000</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>-5.96209685747866</v>
@@ -7242,7 +7323,7 @@
         <v>-3.10928486465397</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>107534963</v>
@@ -7251,18 +7332,18 @@
         <v>460</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>-4.52073066848116</v>
@@ -7271,7 +7352,7 @@
         <v>-1.74899960668371</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>5915413</v>
@@ -7280,18 +7361,18 @@
         <v>109</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>-7.20317549389385</v>
@@ -7300,7 +7381,7 @@
         <v>-4.3535699861986</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>886500</v>
@@ -7309,18 +7390,18 @@
         <v>740</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>-6.16185081994107</v>
@@ -7329,7 +7410,7 @@
         <v>-6.16185081994107</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>7696120</v>
@@ -7338,18 +7419,18 @@
         <v>45</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>-4.3981498577311</v>
@@ -7358,7 +7439,7 @@
         <v>-1.32193315536123</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E52" s="3" t="n">
         <v>111988499</v>
@@ -7367,18 +7448,18 @@
         <v>4.6</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>-4.74107473666135</v>
@@ -7387,7 +7468,7 @@
         <v>-2.41799373554858</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E53" s="3" t="n">
         <v>153719234</v>
@@ -7396,18 +7477,18 @@
         <v>20</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>-4.1726516329977</v>
@@ -7416,7 +7497,7 @@
         <v>-2.04381509045443</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>141517217</v>
@@ -7425,13 +7506,13 @@
         <v>8.62</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -7453,11 +7534,11 @@
   <dimension ref="A1:DN18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="DB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="DB1" activeCellId="0" sqref="DB1"/>
+      <selection pane="topRight" activeCell="BC1" activeCellId="0" sqref="BC1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DU43" activeCellId="0" sqref="DU43"/>
+      <selection pane="bottomRight" activeCell="BV19" activeCellId="0" sqref="BV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7571,7 +7652,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>71</v>
@@ -7927,7 +8008,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>0</v>
@@ -8283,7 +8364,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0</v>
@@ -8639,7 +8720,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
@@ -8995,7 +9076,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0</v>
@@ -9351,7 +9432,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
@@ -9707,7 +9788,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
@@ -10063,7 +10144,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>0</v>
@@ -10419,7 +10500,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
@@ -10775,7 +10856,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>0</v>
@@ -11131,7 +11212,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0</v>
@@ -11487,7 +11568,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>1</v>
@@ -11843,7 +11924,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>0</v>
@@ -12199,7 +12280,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>0</v>
@@ -12555,7 +12636,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>0</v>
@@ -12911,7 +12992,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>0</v>
@@ -13267,7 +13348,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0</v>
@@ -13623,7 +13704,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0</v>
@@ -13993,10 +14074,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I126" activeCellId="0" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14011,9 +14092,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>328</v>
@@ -14033,8 +14114,14 @@
       <c r="G1" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -14048,7 +14135,7 @@
         <v>0.74</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
@@ -14056,8 +14143,14 @@
       <c r="G2" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -14071,7 +14164,7 @@
         <v>0.42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
@@ -14079,8 +14172,14 @@
       <c r="G3" s="3" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -14094,7 +14193,7 @@
         <v>0.23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>-1</v>
@@ -14102,8 +14201,14 @@
       <c r="G4" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I4" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -14117,7 +14222,7 @@
         <v>0.56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>-1</v>
@@ -14125,8 +14230,14 @@
       <c r="G5" s="3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I5" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
@@ -14140,7 +14251,7 @@
         <v>0.28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>-1</v>
@@ -14148,8 +14259,14 @@
       <c r="G6" s="3" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
@@ -14157,22 +14274,28 @@
         <v>12.5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -14186,7 +14309,7 @@
         <v>0.39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
@@ -14194,8 +14317,14 @@
       <c r="G8" s="3" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -14209,7 +14338,7 @@
         <v>0.17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
@@ -14217,8 +14346,14 @@
       <c r="G9" s="3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
@@ -14232,7 +14367,7 @@
         <v>0.28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
@@ -14240,8 +14375,14 @@
       <c r="G10" s="3" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>92</v>
       </c>
@@ -14255,7 +14396,7 @@
         <v>0.28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
@@ -14263,8 +14404,14 @@
       <c r="G11" s="3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -14278,7 +14425,7 @@
         <v>0.46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>-1</v>
@@ -14286,8 +14433,14 @@
       <c r="G12" s="3" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I12" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
@@ -14295,22 +14448,28 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I13" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>99</v>
       </c>
@@ -14324,7 +14483,7 @@
         <v>0.35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>-1</v>
@@ -14332,8 +14491,14 @@
       <c r="G14" s="3" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
@@ -14347,7 +14512,7 @@
         <v>0.38</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>-1</v>
@@ -14355,8 +14520,14 @@
       <c r="G15" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>104</v>
       </c>
@@ -14364,22 +14535,28 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
@@ -14393,7 +14570,7 @@
         <v>0.26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>-1</v>
@@ -14401,8 +14578,14 @@
       <c r="G17" s="3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
@@ -14416,7 +14599,7 @@
         <v>0.11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>-1</v>
@@ -14424,8 +14607,14 @@
       <c r="G18" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
@@ -14439,7 +14628,7 @@
         <v>0.27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>-1</v>
@@ -14447,8 +14636,14 @@
       <c r="G19" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>113</v>
       </c>
@@ -14462,7 +14657,7 @@
         <v>0.34</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>-1</v>
@@ -14470,8 +14665,14 @@
       <c r="G20" s="3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>115</v>
       </c>
@@ -14479,22 +14680,28 @@
         <v>3.5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I21" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>118</v>
       </c>
@@ -14508,7 +14715,7 @@
         <v>0.28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>1</v>
@@ -14516,8 +14723,14 @@
       <c r="G22" s="3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I22" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>120</v>
       </c>
@@ -14531,7 +14744,7 @@
         <v>0.31</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>1</v>
@@ -14539,8 +14752,14 @@
       <c r="G23" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I23" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>122</v>
       </c>
@@ -14554,7 +14773,7 @@
         <v>0.32</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>-1</v>
@@ -14562,8 +14781,14 @@
       <c r="G24" s="3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I24" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -14577,7 +14802,7 @@
         <v>0.33</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>1</v>
@@ -14585,8 +14810,14 @@
       <c r="G25" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I25" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>126</v>
       </c>
@@ -14600,7 +14831,7 @@
         <v>0.32</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>-1</v>
@@ -14608,8 +14839,14 @@
       <c r="G26" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I26" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
@@ -14623,7 +14860,7 @@
         <v>0.32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>1</v>
@@ -14631,8 +14868,14 @@
       <c r="G27" s="3" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I27" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>130</v>
       </c>
@@ -14646,7 +14889,7 @@
         <v>0.35</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>1</v>
@@ -14654,8 +14897,14 @@
       <c r="G28" s="3" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I28" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>132</v>
       </c>
@@ -14669,7 +14918,7 @@
         <v>0.29</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>1</v>
@@ -14677,8 +14926,14 @@
       <c r="G29" s="3" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>135</v>
       </c>
@@ -14692,7 +14947,7 @@
         <v>0.5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
@@ -14700,8 +14955,14 @@
       <c r="G30" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>137</v>
       </c>
@@ -14709,22 +14970,28 @@
         <v>7.5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>140</v>
       </c>
@@ -14738,7 +15005,7 @@
         <v>0.34</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>-1</v>
@@ -14746,8 +15013,14 @@
       <c r="G32" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I32" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>142</v>
       </c>
@@ -14761,7 +15034,7 @@
         <v>0.31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>1</v>
@@ -14769,8 +15042,14 @@
       <c r="G33" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I33" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>144</v>
       </c>
@@ -14784,7 +15063,7 @@
         <v>0.54</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>-1</v>
@@ -14792,8 +15071,14 @@
       <c r="G34" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>147</v>
       </c>
@@ -14807,7 +15092,7 @@
         <v>0.17</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>1</v>
@@ -14815,8 +15100,14 @@
       <c r="G35" s="3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I35" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
@@ -14830,7 +15121,7 @@
         <v>0.2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>1</v>
@@ -14838,8 +15129,14 @@
       <c r="G36" s="3" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I36" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>151</v>
       </c>
@@ -14853,7 +15150,7 @@
         <v>0.21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>-1</v>
@@ -14861,8 +15158,14 @@
       <c r="G37" s="3" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I37" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>153</v>
       </c>
@@ -14876,7 +15179,7 @@
         <v>0.56</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>-1</v>
@@ -14884,8 +15187,14 @@
       <c r="G38" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I38" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>155</v>
       </c>
@@ -14899,7 +15208,7 @@
         <v>0.45</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>-1</v>
@@ -14907,8 +15216,14 @@
       <c r="G39" s="3" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I39" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>157</v>
       </c>
@@ -14916,22 +15231,28 @@
         <v>3.75</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>159</v>
       </c>
@@ -14945,16 +15266,22 @@
         <v>0.18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>161</v>
       </c>
@@ -14962,22 +15289,28 @@
         <v>2.75</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I42" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>163</v>
       </c>
@@ -14991,7 +15324,7 @@
         <v>0.12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>1</v>
@@ -14999,8 +15332,14 @@
       <c r="G43" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I43" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>165</v>
       </c>
@@ -15008,22 +15347,28 @@
         <v>5.25</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I44" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
@@ -15037,7 +15382,7 @@
         <v>0.22</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>1</v>
@@ -15045,8 +15390,14 @@
       <c r="G45" s="3" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I45" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>169</v>
       </c>
@@ -15060,7 +15411,7 @@
         <v>0.38</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>-1</v>
@@ -15068,8 +15419,14 @@
       <c r="G46" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>172</v>
       </c>
@@ -15083,7 +15440,7 @@
         <v>0.62</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>1</v>
@@ -15091,8 +15448,14 @@
       <c r="G47" s="3" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I47" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>174</v>
       </c>
@@ -15106,7 +15469,7 @@
         <v>0.37</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>-1</v>
@@ -15114,31 +15477,43 @@
       <c r="G48" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I48" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I49" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>178</v>
       </c>
@@ -15152,7 +15527,7 @@
         <v>0.75</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>1</v>
@@ -15160,8 +15535,14 @@
       <c r="G50" s="3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>180</v>
       </c>
@@ -15175,7 +15556,7 @@
         <v>0.36</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>1</v>
@@ -15183,8 +15564,14 @@
       <c r="G51" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>182</v>
       </c>
@@ -15192,22 +15579,28 @@
         <v>6.25</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>184</v>
       </c>
@@ -15215,22 +15608,28 @@
         <v>1.65</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I53" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>186</v>
       </c>
@@ -15244,7 +15643,7 @@
         <v>0.36</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>1</v>
@@ -15252,8 +15651,14 @@
       <c r="G54" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I54" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>188</v>
       </c>
@@ -15267,7 +15672,7 @@
         <v>0.38</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>1</v>
@@ -15275,8 +15680,14 @@
       <c r="G55" s="3" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>191</v>
       </c>
@@ -15284,22 +15695,28 @@
         <v>2.25</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F56" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I56" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>193</v>
       </c>
@@ -15313,7 +15730,7 @@
         <v>0.4</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>-1</v>
@@ -15321,8 +15738,14 @@
       <c r="G57" s="3" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>195</v>
       </c>
@@ -15336,7 +15759,7 @@
         <v>0.37</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>1</v>
@@ -15344,8 +15767,14 @@
       <c r="G58" s="3" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>197</v>
       </c>
@@ -15359,7 +15788,7 @@
         <v>0.31</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>1</v>
@@ -15367,8 +15796,14 @@
       <c r="G59" s="3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I59" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>199</v>
       </c>
@@ -15382,7 +15817,7 @@
         <v>0.27</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>-1</v>
@@ -15390,8 +15825,14 @@
       <c r="G60" s="3" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I60" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>201</v>
       </c>
@@ -15405,7 +15846,7 @@
         <v>0.24</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>1</v>
@@ -15413,8 +15854,14 @@
       <c r="G61" s="3" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>204</v>
       </c>
@@ -15428,7 +15875,7 @@
         <v>0.29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>1</v>
@@ -15436,8 +15883,14 @@
       <c r="G62" s="3" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>206</v>
       </c>
@@ -15451,7 +15904,7 @@
         <v>0.28</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>1</v>
@@ -15459,8 +15912,14 @@
       <c r="G63" s="3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>208</v>
       </c>
@@ -15474,7 +15933,7 @@
         <v>0.22</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>1</v>
@@ -15482,8 +15941,14 @@
       <c r="G64" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>210</v>
       </c>
@@ -15497,7 +15962,7 @@
         <v>0.18</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F65" s="3" t="n">
         <v>1</v>
@@ -15505,8 +15970,14 @@
       <c r="G65" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>212</v>
       </c>
@@ -15520,16 +15991,22 @@
         <v>0.66</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>215</v>
       </c>
@@ -15543,7 +16020,7 @@
         <v>0.34</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>-1</v>
@@ -15551,8 +16028,14 @@
       <c r="G67" s="3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>217</v>
       </c>
@@ -15566,7 +16049,7 @@
         <v>0.26</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F68" s="3" t="n">
         <v>1</v>
@@ -15574,8 +16057,14 @@
       <c r="G68" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I68" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
         <v>220</v>
       </c>
@@ -15589,7 +16078,7 @@
         <v>0.38</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F69" s="3" t="n">
         <v>1</v>
@@ -15597,8 +16086,14 @@
       <c r="G69" s="3" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I69" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>222</v>
       </c>
@@ -15612,7 +16107,7 @@
         <v>0.35</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F70" s="3" t="n">
         <v>1</v>
@@ -15620,8 +16115,14 @@
       <c r="G70" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I70" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>224</v>
       </c>
@@ -15635,7 +16136,7 @@
         <v>0.3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F71" s="3" t="n">
         <v>1</v>
@@ -15643,8 +16144,14 @@
       <c r="G71" s="3" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>226</v>
       </c>
@@ -15658,7 +16165,7 @@
         <v>0.54</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F72" s="3" t="n">
         <v>1</v>
@@ -15666,8 +16173,14 @@
       <c r="G72" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>228</v>
       </c>
@@ -15681,16 +16194,22 @@
         <v>0.85</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F73" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
         <v>230</v>
       </c>
@@ -15704,7 +16223,7 @@
         <v>0.26</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F74" s="3" t="n">
         <v>1</v>
@@ -15712,8 +16231,14 @@
       <c r="G74" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
         <v>232</v>
       </c>
@@ -15727,7 +16252,7 @@
         <v>0.47</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F75" s="3" t="n">
         <v>1</v>
@@ -15735,8 +16260,14 @@
       <c r="G75" s="3" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>234</v>
       </c>
@@ -15750,7 +16281,7 @@
         <v>0.42</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F76" s="3" t="n">
         <v>1</v>
@@ -15758,8 +16289,14 @@
       <c r="G76" s="3" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
         <v>236</v>
       </c>
@@ -15773,7 +16310,7 @@
         <v>0.33</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>1</v>
@@ -15781,8 +16318,14 @@
       <c r="G77" s="3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>238</v>
       </c>
@@ -15796,7 +16339,7 @@
         <v>0.26</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F78" s="3" t="n">
         <v>1</v>
@@ -15804,8 +16347,14 @@
       <c r="G78" s="3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
         <v>240</v>
       </c>
@@ -15813,22 +16362,28 @@
         <v>7.5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F79" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>242</v>
       </c>
@@ -15842,7 +16397,7 @@
         <v>0.36</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F80" s="3" t="n">
         <v>1</v>
@@ -15850,8 +16405,14 @@
       <c r="G80" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
         <v>244</v>
       </c>
@@ -15859,22 +16420,28 @@
         <v>5.5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F81" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
         <v>246</v>
       </c>
@@ -15882,22 +16449,28 @@
         <v>3</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F82" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>249</v>
       </c>
@@ -15911,7 +16484,7 @@
         <v>0.43</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F83" s="3" t="n">
         <v>-1</v>
@@ -15919,8 +16492,14 @@
       <c r="G83" s="3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>251</v>
       </c>
@@ -15934,7 +16513,7 @@
         <v>0.21</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F84" s="3" t="n">
         <v>1</v>
@@ -15942,8 +16521,14 @@
       <c r="G84" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>253</v>
       </c>
@@ -15957,7 +16542,7 @@
         <v>0.28</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F85" s="3" t="n">
         <v>1</v>
@@ -15965,8 +16550,14 @@
       <c r="G85" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>255</v>
       </c>
@@ -15974,22 +16565,28 @@
         <v>3</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F86" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>257</v>
       </c>
@@ -16003,16 +16600,22 @@
         <v>0.21</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F87" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>259</v>
       </c>
@@ -16026,7 +16629,7 @@
         <v>0.3</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>1</v>
@@ -16034,8 +16637,14 @@
       <c r="G88" s="3" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
         <v>261</v>
       </c>
@@ -16049,7 +16658,7 @@
         <v>0.44</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F89" s="3" t="n">
         <v>1</v>
@@ -16057,8 +16666,14 @@
       <c r="G89" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I89" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>264</v>
       </c>
@@ -16066,22 +16681,28 @@
         <v>3.25</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F90" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
         <v>266</v>
       </c>
@@ -16095,7 +16716,7 @@
         <v>0.29</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F91" s="3" t="n">
         <v>-1</v>
@@ -16103,8 +16724,14 @@
       <c r="G91" s="3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I91" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>268</v>
       </c>
@@ -16118,7 +16745,7 @@
         <v>0.29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F92" s="3" t="n">
         <v>1</v>
@@ -16126,8 +16753,14 @@
       <c r="G92" s="3" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I92" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>270</v>
       </c>
@@ -16141,7 +16774,7 @@
         <v>0.21</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F93" s="3" t="n">
         <v>1</v>
@@ -16149,8 +16782,14 @@
       <c r="G93" s="3" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I93" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>272</v>
       </c>
@@ -16164,7 +16803,7 @@
         <v>0.33</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F94" s="3" t="n">
         <v>-1</v>
@@ -16172,8 +16811,14 @@
       <c r="G94" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
         <v>274</v>
       </c>
@@ -16187,7 +16832,7 @@
         <v>0.32</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F95" s="3" t="n">
         <v>1</v>
@@ -16195,8 +16840,14 @@
       <c r="G95" s="3" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
         <v>276</v>
       </c>
@@ -16210,16 +16861,22 @@
         <v>0.17</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F96" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
         <v>278</v>
       </c>
@@ -16233,7 +16890,7 @@
         <v>0.62</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F97" s="3" t="n">
         <v>-1</v>
@@ -16241,8 +16898,14 @@
       <c r="G97" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
         <v>280</v>
       </c>
@@ -16256,7 +16919,7 @@
         <v>0.43</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F98" s="3" t="n">
         <v>1</v>
@@ -16264,8 +16927,14 @@
       <c r="G98" s="3" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I98" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
         <v>282</v>
       </c>
@@ -16273,22 +16942,28 @@
         <v>5.75</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F99" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I99" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>284</v>
       </c>
@@ -16302,16 +16977,22 @@
         <v>0.49</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F100" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
         <v>286</v>
       </c>
@@ -16325,16 +17006,22 @@
         <v>0.32</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F101" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
         <v>288</v>
       </c>
@@ -16348,7 +17035,7 @@
         <v>0.23</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F102" s="3" t="n">
         <v>1</v>
@@ -16356,8 +17043,14 @@
       <c r="G102" s="3" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I102" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
         <v>290</v>
       </c>
@@ -16371,7 +17064,7 @@
         <v>0.38</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F103" s="3" t="n">
         <v>1</v>
@@ -16379,8 +17072,14 @@
       <c r="G103" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I103" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>292</v>
       </c>
@@ -16394,7 +17093,7 @@
         <v>0.36</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F104" s="3" t="n">
         <v>1</v>
@@ -16402,8 +17101,14 @@
       <c r="G104" s="3" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I104" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
         <v>294</v>
       </c>
@@ -16417,7 +17122,7 @@
         <v>0.31</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F105" s="3" t="n">
         <v>1</v>
@@ -16425,8 +17130,14 @@
       <c r="G105" s="3" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H105" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I105" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>296</v>
       </c>
@@ -16440,7 +17151,7 @@
         <v>0.3</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F106" s="3" t="n">
         <v>1</v>
@@ -16448,8 +17159,14 @@
       <c r="G106" s="3" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H106" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I106" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>298</v>
       </c>
@@ -16463,7 +17180,7 @@
         <v>0.43</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F107" s="3" t="n">
         <v>1</v>
@@ -16471,8 +17188,14 @@
       <c r="G107" s="3" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H107" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I107" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>300</v>
       </c>
@@ -16486,7 +17209,7 @@
         <v>0.47</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F108" s="3" t="n">
         <v>1</v>
@@ -16494,8 +17217,14 @@
       <c r="G108" s="3" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I108" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
         <v>302</v>
       </c>
@@ -16509,7 +17238,7 @@
         <v>0.75</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F109" s="3" t="n">
         <v>1</v>
@@ -16517,8 +17246,14 @@
       <c r="G109" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I109" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
         <v>304</v>
       </c>
@@ -16532,16 +17267,22 @@
         <v>0.08</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F110" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I110" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
         <v>307</v>
       </c>
@@ -16555,7 +17296,7 @@
         <v>0.32</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F111" s="3" t="n">
         <v>-1</v>
@@ -16563,8 +17304,14 @@
       <c r="G111" s="3" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>309</v>
       </c>
@@ -16578,7 +17325,7 @@
         <v>0.28</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F112" s="3" t="n">
         <v>-1</v>
@@ -16586,8 +17333,14 @@
       <c r="G112" s="3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H112" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
         <v>311</v>
       </c>
@@ -16601,7 +17354,7 @@
         <v>0.44</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F113" s="3" t="n">
         <v>1</v>
@@ -16609,8 +17362,14 @@
       <c r="G113" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H113" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I113" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>313</v>
       </c>
@@ -16624,7 +17383,7 @@
         <v>0.53</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F114" s="3" t="n">
         <v>1</v>
@@ -16632,8 +17391,14 @@
       <c r="G114" s="3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
         <v>315</v>
       </c>
@@ -16647,7 +17412,7 @@
         <v>0.42</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F115" s="3" t="n">
         <v>1</v>
@@ -16655,8 +17420,14 @@
       <c r="G115" s="3" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H115" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
         <v>317</v>
       </c>
@@ -16670,7 +17441,7 @@
         <v>0.42</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F116" s="3" t="n">
         <v>1</v>
@@ -16678,8 +17449,14 @@
       <c r="G116" s="3" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
         <v>319</v>
       </c>
@@ -16693,7 +17470,7 @@
         <v>0.28</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F117" s="3" t="n">
         <v>1</v>
@@ -16701,8 +17478,14 @@
       <c r="G117" s="3" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H117" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
         <v>321</v>
       </c>
@@ -16716,13 +17499,19 @@
         <v>0.39</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F118" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G118" s="3" t="n">
         <v>0.25</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -16741,10 +17530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16760,7 +17549,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="14" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -16801,10 +17591,13 @@
       <c r="L1" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-0.782748437310526</v>
@@ -16839,10 +17632,13 @@
       <c r="L2" s="3" t="n">
         <v>0.2251937984</v>
       </c>
+      <c r="M2" s="0" t="n">
+        <v>-0.605839416058394</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-2.60331449586261</v>
@@ -16877,10 +17673,13 @@
       <c r="L3" s="3" t="n">
         <v>0.2383333333</v>
       </c>
+      <c r="M3" s="0" t="n">
+        <v>-0.850931677018634</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1.45088400035219</v>
@@ -16915,10 +17714,13 @@
       <c r="L4" s="3" t="n">
         <v>0.24484375</v>
       </c>
+      <c r="M4" s="0" t="n">
+        <v>-0.442622950819672</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-1.9579766594302</v>
@@ -16953,10 +17755,13 @@
       <c r="L5" s="3" t="n">
         <v>0.2190666667</v>
       </c>
+      <c r="M5" s="0" t="n">
+        <v>-0.196078431372549</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-0.925061303610227</v>
@@ -16991,10 +17796,13 @@
       <c r="L6" s="3" t="n">
         <v>0.2178723404</v>
       </c>
+      <c r="M6" s="0" t="n">
+        <v>-0.333333333333333</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-2.1610291410822</v>
@@ -17029,10 +17837,13 @@
       <c r="L7" s="3" t="n">
         <v>0.2383333333</v>
       </c>
+      <c r="M7" s="0" t="n">
+        <v>0.096774193548387</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-1.75035047425261</v>
@@ -17067,10 +17878,13 @@
       <c r="L8" s="3" t="n">
         <v>0.2325675676</v>
       </c>
+      <c r="M8" s="0" t="n">
+        <v>-0.766233766233766</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-0.843139507680584</v>
@@ -17105,10 +17919,13 @@
       <c r="L9" s="3" t="n">
         <v>0.2405</v>
       </c>
+      <c r="M9" s="0" t="n">
+        <v>-0.304347826086957</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-0.11379430161424</v>
@@ -17143,10 +17960,13 @@
       <c r="L10" s="3" t="n">
         <v>0.2225263158</v>
       </c>
+      <c r="M10" s="0" t="n">
+        <v>-0.247706422018349</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.0230921894678988</v>
@@ -17181,10 +18001,13 @@
       <c r="L11" s="3" t="n">
         <v>0.2365079365</v>
       </c>
+      <c r="M11" s="0" t="n">
+        <v>-0.190839694656489</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.435318063285502</v>
@@ -17219,10 +18042,13 @@
       <c r="L12" s="3" t="n">
         <v>0.2272727273</v>
       </c>
+      <c r="M12" s="0" t="n">
+        <v>-0.349397590361446</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1.82835218816</v>
@@ -17257,10 +18083,13 @@
       <c r="L13" s="3" t="n">
         <v>0.2349206349</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>-0.411764705882353</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3.37217782819135</v>
@@ -17295,10 +18124,13 @@
       <c r="L14" s="3" t="n">
         <v>0.2272033898</v>
       </c>
+      <c r="M14" s="0" t="n">
+        <v>-0.302325581395349</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-0.236488130285978</v>
@@ -17333,10 +18165,13 @@
       <c r="L15" s="3" t="n">
         <v>0.2487671233</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>-0.48780487804878</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.19799825532968</v>
@@ -17371,10 +18206,13 @@
       <c r="L16" s="3" t="n">
         <v>0.2434756098</v>
       </c>
+      <c r="M16" s="0" t="n">
+        <v>-0.47239263803681</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1.97756740708819</v>
@@ -17409,10 +18247,13 @@
       <c r="L17" s="3" t="n">
         <v>0.2312903226</v>
       </c>
+      <c r="M17" s="0" t="n">
+        <v>-0.421052631578947</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.400776943687842</v>
@@ -17446,6 +18287,9 @@
       </c>
       <c r="L18" s="3" t="n">
         <v>0.2396052632</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>-0.075268817204301</v>
       </c>
     </row>
   </sheetData>

--- a/Graf_et_al_supp_ inf.xlsx
+++ b/Graf_et_al_supp_ inf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="read_me" sheetId="1" state="visible" r:id="rId2"/>
@@ -122,13 +122,13 @@
     <t>no2</t>
   </si>
   <si>
-    <t>Nitrate [mg/L]</t>
+    <t>Nitrite [mg/L]</t>
   </si>
   <si>
     <t>no3</t>
   </si>
   <si>
-    <t>Nitrite [mg/L]</t>
+    <t>Nitrate [mg/L]</t>
   </si>
   <si>
     <t>po4</t>
@@ -2025,8 +2025,8 @@
   </sheetPr>
   <dimension ref="1:209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D126" activeCellId="1" sqref="A6:I6 D126"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -2229,8 +2229,1029 @@
         <v>42</v>
       </c>
       <c r="C29" s="4"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AF29" s="0"/>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
+      <c r="AK29" s="0"/>
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="0"/>
+      <c r="AN29" s="0"/>
+      <c r="AO29" s="0"/>
+      <c r="AP29" s="0"/>
+      <c r="AQ29" s="0"/>
+      <c r="AR29" s="0"/>
+      <c r="AS29" s="0"/>
+      <c r="AT29" s="0"/>
+      <c r="AU29" s="0"/>
+      <c r="AV29" s="0"/>
+      <c r="AW29" s="0"/>
+      <c r="AX29" s="0"/>
+      <c r="AY29" s="0"/>
+      <c r="AZ29" s="0"/>
+      <c r="BA29" s="0"/>
+      <c r="BB29" s="0"/>
+      <c r="BC29" s="0"/>
+      <c r="BD29" s="0"/>
+      <c r="BE29" s="0"/>
+      <c r="BF29" s="0"/>
+      <c r="BG29" s="0"/>
+      <c r="BH29" s="0"/>
+      <c r="BI29" s="0"/>
+      <c r="BJ29" s="0"/>
+      <c r="BK29" s="0"/>
+      <c r="BL29" s="0"/>
+      <c r="BM29" s="0"/>
+      <c r="BN29" s="0"/>
+      <c r="BO29" s="0"/>
+      <c r="BP29" s="0"/>
+      <c r="BQ29" s="0"/>
+      <c r="BR29" s="0"/>
+      <c r="BS29" s="0"/>
+      <c r="BT29" s="0"/>
+      <c r="BU29" s="0"/>
+      <c r="BV29" s="0"/>
+      <c r="BW29" s="0"/>
+      <c r="BX29" s="0"/>
+      <c r="BY29" s="0"/>
+      <c r="BZ29" s="0"/>
+      <c r="CA29" s="0"/>
+      <c r="CB29" s="0"/>
+      <c r="CC29" s="0"/>
+      <c r="CD29" s="0"/>
+      <c r="CE29" s="0"/>
+      <c r="CF29" s="0"/>
+      <c r="CG29" s="0"/>
+      <c r="CH29" s="0"/>
+      <c r="CI29" s="0"/>
+      <c r="CJ29" s="0"/>
+      <c r="CK29" s="0"/>
+      <c r="CL29" s="0"/>
+      <c r="CM29" s="0"/>
+      <c r="CN29" s="0"/>
+      <c r="CO29" s="0"/>
+      <c r="CP29" s="0"/>
+      <c r="CQ29" s="0"/>
+      <c r="CR29" s="0"/>
+      <c r="CS29" s="0"/>
+      <c r="CT29" s="0"/>
+      <c r="CU29" s="0"/>
+      <c r="CV29" s="0"/>
+      <c r="CW29" s="0"/>
+      <c r="CX29" s="0"/>
+      <c r="CY29" s="0"/>
+      <c r="CZ29" s="0"/>
+      <c r="DA29" s="0"/>
+      <c r="DB29" s="0"/>
+      <c r="DC29" s="0"/>
+      <c r="DD29" s="0"/>
+      <c r="DE29" s="0"/>
+      <c r="DF29" s="0"/>
+      <c r="DG29" s="0"/>
+      <c r="DH29" s="0"/>
+      <c r="DI29" s="0"/>
+      <c r="DJ29" s="0"/>
+      <c r="DK29" s="0"/>
+      <c r="DL29" s="0"/>
+      <c r="DM29" s="0"/>
+      <c r="DN29" s="0"/>
+      <c r="DO29" s="0"/>
+      <c r="DP29" s="0"/>
+      <c r="DQ29" s="0"/>
+      <c r="DR29" s="0"/>
+      <c r="DS29" s="0"/>
+      <c r="DT29" s="0"/>
+      <c r="DU29" s="0"/>
+      <c r="DV29" s="0"/>
+      <c r="DW29" s="0"/>
+      <c r="DX29" s="0"/>
+      <c r="DY29" s="0"/>
+      <c r="DZ29" s="0"/>
+      <c r="EA29" s="0"/>
+      <c r="EB29" s="0"/>
+      <c r="EC29" s="0"/>
+      <c r="ED29" s="0"/>
+      <c r="EE29" s="0"/>
+      <c r="EF29" s="0"/>
+      <c r="EG29" s="0"/>
+      <c r="EH29" s="0"/>
+      <c r="EI29" s="0"/>
+      <c r="EJ29" s="0"/>
+      <c r="EK29" s="0"/>
+      <c r="EL29" s="0"/>
+      <c r="EM29" s="0"/>
+      <c r="EN29" s="0"/>
+      <c r="EO29" s="0"/>
+      <c r="EP29" s="0"/>
+      <c r="EQ29" s="0"/>
+      <c r="ER29" s="0"/>
+      <c r="ES29" s="0"/>
+      <c r="ET29" s="0"/>
+      <c r="EU29" s="0"/>
+      <c r="EV29" s="0"/>
+      <c r="EW29" s="0"/>
+      <c r="EX29" s="0"/>
+      <c r="EY29" s="0"/>
+      <c r="EZ29" s="0"/>
+      <c r="FA29" s="0"/>
+      <c r="FB29" s="0"/>
+      <c r="FC29" s="0"/>
+      <c r="FD29" s="0"/>
+      <c r="FE29" s="0"/>
+      <c r="FF29" s="0"/>
+      <c r="FG29" s="0"/>
+      <c r="FH29" s="0"/>
+      <c r="FI29" s="0"/>
+      <c r="FJ29" s="0"/>
+      <c r="FK29" s="0"/>
+      <c r="FL29" s="0"/>
+      <c r="FM29" s="0"/>
+      <c r="FN29" s="0"/>
+      <c r="FO29" s="0"/>
+      <c r="FP29" s="0"/>
+      <c r="FQ29" s="0"/>
+      <c r="FR29" s="0"/>
+      <c r="FS29" s="0"/>
+      <c r="FT29" s="0"/>
+      <c r="FU29" s="0"/>
+      <c r="FV29" s="0"/>
+      <c r="FW29" s="0"/>
+      <c r="FX29" s="0"/>
+      <c r="FY29" s="0"/>
+      <c r="FZ29" s="0"/>
+      <c r="GA29" s="0"/>
+      <c r="GB29" s="0"/>
+      <c r="GC29" s="0"/>
+      <c r="GD29" s="0"/>
+      <c r="GE29" s="0"/>
+      <c r="GF29" s="0"/>
+      <c r="GG29" s="0"/>
+      <c r="GH29" s="0"/>
+      <c r="GI29" s="0"/>
+      <c r="GJ29" s="0"/>
+      <c r="GK29" s="0"/>
+      <c r="GL29" s="0"/>
+      <c r="GM29" s="0"/>
+      <c r="GN29" s="0"/>
+      <c r="GO29" s="0"/>
+      <c r="GP29" s="0"/>
+      <c r="GQ29" s="0"/>
+      <c r="GR29" s="0"/>
+      <c r="GS29" s="0"/>
+      <c r="GT29" s="0"/>
+      <c r="GU29" s="0"/>
+      <c r="GV29" s="0"/>
+      <c r="GW29" s="0"/>
+      <c r="GX29" s="0"/>
+      <c r="GY29" s="0"/>
+      <c r="GZ29" s="0"/>
+      <c r="HA29" s="0"/>
+      <c r="HB29" s="0"/>
+      <c r="HC29" s="0"/>
+      <c r="HD29" s="0"/>
+      <c r="HE29" s="0"/>
+      <c r="HF29" s="0"/>
+      <c r="HG29" s="0"/>
+      <c r="HH29" s="0"/>
+      <c r="HI29" s="0"/>
+      <c r="HJ29" s="0"/>
+      <c r="HK29" s="0"/>
+      <c r="HL29" s="0"/>
+      <c r="HM29" s="0"/>
+      <c r="HN29" s="0"/>
+      <c r="HO29" s="0"/>
+      <c r="HP29" s="0"/>
+      <c r="HQ29" s="0"/>
+      <c r="HR29" s="0"/>
+      <c r="HS29" s="0"/>
+      <c r="HT29" s="0"/>
+      <c r="HU29" s="0"/>
+      <c r="HV29" s="0"/>
+      <c r="HW29" s="0"/>
+      <c r="HX29" s="0"/>
+      <c r="HY29" s="0"/>
+      <c r="HZ29" s="0"/>
+      <c r="IA29" s="0"/>
+      <c r="IB29" s="0"/>
+      <c r="IC29" s="0"/>
+      <c r="ID29" s="0"/>
+      <c r="IE29" s="0"/>
+      <c r="IF29" s="0"/>
+      <c r="IG29" s="0"/>
+      <c r="IH29" s="0"/>
+      <c r="II29" s="0"/>
+      <c r="IJ29" s="0"/>
+      <c r="IK29" s="0"/>
+      <c r="IL29" s="0"/>
+      <c r="IM29" s="0"/>
+      <c r="IN29" s="0"/>
+      <c r="IO29" s="0"/>
+      <c r="IP29" s="0"/>
+      <c r="IQ29" s="0"/>
+      <c r="IR29" s="0"/>
+      <c r="IS29" s="0"/>
+      <c r="IT29" s="0"/>
+      <c r="IU29" s="0"/>
+      <c r="IV29" s="0"/>
+      <c r="IW29" s="0"/>
+      <c r="IX29" s="0"/>
+      <c r="IY29" s="0"/>
+      <c r="IZ29" s="0"/>
+      <c r="JA29" s="0"/>
+      <c r="JB29" s="0"/>
+      <c r="JC29" s="0"/>
+      <c r="JD29" s="0"/>
+      <c r="JE29" s="0"/>
+      <c r="JF29" s="0"/>
+      <c r="JG29" s="0"/>
+      <c r="JH29" s="0"/>
+      <c r="JI29" s="0"/>
+      <c r="JJ29" s="0"/>
+      <c r="JK29" s="0"/>
+      <c r="JL29" s="0"/>
+      <c r="JM29" s="0"/>
+      <c r="JN29" s="0"/>
+      <c r="JO29" s="0"/>
+      <c r="JP29" s="0"/>
+      <c r="JQ29" s="0"/>
+      <c r="JR29" s="0"/>
+      <c r="JS29" s="0"/>
+      <c r="JT29" s="0"/>
+      <c r="JU29" s="0"/>
+      <c r="JV29" s="0"/>
+      <c r="JW29" s="0"/>
+      <c r="JX29" s="0"/>
+      <c r="JY29" s="0"/>
+      <c r="JZ29" s="0"/>
+      <c r="KA29" s="0"/>
+      <c r="KB29" s="0"/>
+      <c r="KC29" s="0"/>
+      <c r="KD29" s="0"/>
+      <c r="KE29" s="0"/>
+      <c r="KF29" s="0"/>
+      <c r="KG29" s="0"/>
+      <c r="KH29" s="0"/>
+      <c r="KI29" s="0"/>
+      <c r="KJ29" s="0"/>
+      <c r="KK29" s="0"/>
+      <c r="KL29" s="0"/>
+      <c r="KM29" s="0"/>
+      <c r="KN29" s="0"/>
+      <c r="KO29" s="0"/>
+      <c r="KP29" s="0"/>
+      <c r="KQ29" s="0"/>
+      <c r="KR29" s="0"/>
+      <c r="KS29" s="0"/>
+      <c r="KT29" s="0"/>
+      <c r="KU29" s="0"/>
+      <c r="KV29" s="0"/>
+      <c r="KW29" s="0"/>
+      <c r="KX29" s="0"/>
+      <c r="KY29" s="0"/>
+      <c r="KZ29" s="0"/>
+      <c r="LA29" s="0"/>
+      <c r="LB29" s="0"/>
+      <c r="LC29" s="0"/>
+      <c r="LD29" s="0"/>
+      <c r="LE29" s="0"/>
+      <c r="LF29" s="0"/>
+      <c r="LG29" s="0"/>
+      <c r="LH29" s="0"/>
+      <c r="LI29" s="0"/>
+      <c r="LJ29" s="0"/>
+      <c r="LK29" s="0"/>
+      <c r="LL29" s="0"/>
+      <c r="LM29" s="0"/>
+      <c r="LN29" s="0"/>
+      <c r="LO29" s="0"/>
+      <c r="LP29" s="0"/>
+      <c r="LQ29" s="0"/>
+      <c r="LR29" s="0"/>
+      <c r="LS29" s="0"/>
+      <c r="LT29" s="0"/>
+      <c r="LU29" s="0"/>
+      <c r="LV29" s="0"/>
+      <c r="LW29" s="0"/>
+      <c r="LX29" s="0"/>
+      <c r="LY29" s="0"/>
+      <c r="LZ29" s="0"/>
+      <c r="MA29" s="0"/>
+      <c r="MB29" s="0"/>
+      <c r="MC29" s="0"/>
+      <c r="MD29" s="0"/>
+      <c r="ME29" s="0"/>
+      <c r="MF29" s="0"/>
+      <c r="MG29" s="0"/>
+      <c r="MH29" s="0"/>
+      <c r="MI29" s="0"/>
+      <c r="MJ29" s="0"/>
+      <c r="MK29" s="0"/>
+      <c r="ML29" s="0"/>
+      <c r="MM29" s="0"/>
+      <c r="MN29" s="0"/>
+      <c r="MO29" s="0"/>
+      <c r="MP29" s="0"/>
+      <c r="MQ29" s="0"/>
+      <c r="MR29" s="0"/>
+      <c r="MS29" s="0"/>
+      <c r="MT29" s="0"/>
+      <c r="MU29" s="0"/>
+      <c r="MV29" s="0"/>
+      <c r="MW29" s="0"/>
+      <c r="MX29" s="0"/>
+      <c r="MY29" s="0"/>
+      <c r="MZ29" s="0"/>
+      <c r="NA29" s="0"/>
+      <c r="NB29" s="0"/>
+      <c r="NC29" s="0"/>
+      <c r="ND29" s="0"/>
+      <c r="NE29" s="0"/>
+      <c r="NF29" s="0"/>
+      <c r="NG29" s="0"/>
+      <c r="NH29" s="0"/>
+      <c r="NI29" s="0"/>
+      <c r="NJ29" s="0"/>
+      <c r="NK29" s="0"/>
+      <c r="NL29" s="0"/>
+      <c r="NM29" s="0"/>
+      <c r="NN29" s="0"/>
+      <c r="NO29" s="0"/>
+      <c r="NP29" s="0"/>
+      <c r="NQ29" s="0"/>
+      <c r="NR29" s="0"/>
+      <c r="NS29" s="0"/>
+      <c r="NT29" s="0"/>
+      <c r="NU29" s="0"/>
+      <c r="NV29" s="0"/>
+      <c r="NW29" s="0"/>
+      <c r="NX29" s="0"/>
+      <c r="NY29" s="0"/>
+      <c r="NZ29" s="0"/>
+      <c r="OA29" s="0"/>
+      <c r="OB29" s="0"/>
+      <c r="OC29" s="0"/>
+      <c r="OD29" s="0"/>
+      <c r="OE29" s="0"/>
+      <c r="OF29" s="0"/>
+      <c r="OG29" s="0"/>
+      <c r="OH29" s="0"/>
+      <c r="OI29" s="0"/>
+      <c r="OJ29" s="0"/>
+      <c r="OK29" s="0"/>
+      <c r="OL29" s="0"/>
+      <c r="OM29" s="0"/>
+      <c r="ON29" s="0"/>
+      <c r="OO29" s="0"/>
+      <c r="OP29" s="0"/>
+      <c r="OQ29" s="0"/>
+      <c r="OR29" s="0"/>
+      <c r="OS29" s="0"/>
+      <c r="OT29" s="0"/>
+      <c r="OU29" s="0"/>
+      <c r="OV29" s="0"/>
+      <c r="OW29" s="0"/>
+      <c r="OX29" s="0"/>
+      <c r="OY29" s="0"/>
+      <c r="OZ29" s="0"/>
+      <c r="PA29" s="0"/>
+      <c r="PB29" s="0"/>
+      <c r="PC29" s="0"/>
+      <c r="PD29" s="0"/>
+      <c r="PE29" s="0"/>
+      <c r="PF29" s="0"/>
+      <c r="PG29" s="0"/>
+      <c r="PH29" s="0"/>
+      <c r="PI29" s="0"/>
+      <c r="PJ29" s="0"/>
+      <c r="PK29" s="0"/>
+      <c r="PL29" s="0"/>
+      <c r="PM29" s="0"/>
+      <c r="PN29" s="0"/>
+      <c r="PO29" s="0"/>
+      <c r="PP29" s="0"/>
+      <c r="PQ29" s="0"/>
+      <c r="PR29" s="0"/>
+      <c r="PS29" s="0"/>
+      <c r="PT29" s="0"/>
+      <c r="PU29" s="0"/>
+      <c r="PV29" s="0"/>
+      <c r="PW29" s="0"/>
+      <c r="PX29" s="0"/>
+      <c r="PY29" s="0"/>
+      <c r="PZ29" s="0"/>
+      <c r="QA29" s="0"/>
+      <c r="QB29" s="0"/>
+      <c r="QC29" s="0"/>
+      <c r="QD29" s="0"/>
+      <c r="QE29" s="0"/>
+      <c r="QF29" s="0"/>
+      <c r="QG29" s="0"/>
+      <c r="QH29" s="0"/>
+      <c r="QI29" s="0"/>
+      <c r="QJ29" s="0"/>
+      <c r="QK29" s="0"/>
+      <c r="QL29" s="0"/>
+      <c r="QM29" s="0"/>
+      <c r="QN29" s="0"/>
+      <c r="QO29" s="0"/>
+      <c r="QP29" s="0"/>
+      <c r="QQ29" s="0"/>
+      <c r="QR29" s="0"/>
+      <c r="QS29" s="0"/>
+      <c r="QT29" s="0"/>
+      <c r="QU29" s="0"/>
+      <c r="QV29" s="0"/>
+      <c r="QW29" s="0"/>
+      <c r="QX29" s="0"/>
+      <c r="QY29" s="0"/>
+      <c r="QZ29" s="0"/>
+      <c r="RA29" s="0"/>
+      <c r="RB29" s="0"/>
+      <c r="RC29" s="0"/>
+      <c r="RD29" s="0"/>
+      <c r="RE29" s="0"/>
+      <c r="RF29" s="0"/>
+      <c r="RG29" s="0"/>
+      <c r="RH29" s="0"/>
+      <c r="RI29" s="0"/>
+      <c r="RJ29" s="0"/>
+      <c r="RK29" s="0"/>
+      <c r="RL29" s="0"/>
+      <c r="RM29" s="0"/>
+      <c r="RN29" s="0"/>
+      <c r="RO29" s="0"/>
+      <c r="RP29" s="0"/>
+      <c r="RQ29" s="0"/>
+      <c r="RR29" s="0"/>
+      <c r="RS29" s="0"/>
+      <c r="RT29" s="0"/>
+      <c r="RU29" s="0"/>
+      <c r="RV29" s="0"/>
+      <c r="RW29" s="0"/>
+      <c r="RX29" s="0"/>
+      <c r="RY29" s="0"/>
+      <c r="RZ29" s="0"/>
+      <c r="SA29" s="0"/>
+      <c r="SB29" s="0"/>
+      <c r="SC29" s="0"/>
+      <c r="SD29" s="0"/>
+      <c r="SE29" s="0"/>
+      <c r="SF29" s="0"/>
+      <c r="SG29" s="0"/>
+      <c r="SH29" s="0"/>
+      <c r="SI29" s="0"/>
+      <c r="SJ29" s="0"/>
+      <c r="SK29" s="0"/>
+      <c r="SL29" s="0"/>
+      <c r="SM29" s="0"/>
+      <c r="SN29" s="0"/>
+      <c r="SO29" s="0"/>
+      <c r="SP29" s="0"/>
+      <c r="SQ29" s="0"/>
+      <c r="SR29" s="0"/>
+      <c r="SS29" s="0"/>
+      <c r="ST29" s="0"/>
+      <c r="SU29" s="0"/>
+      <c r="SV29" s="0"/>
+      <c r="SW29" s="0"/>
+      <c r="SX29" s="0"/>
+      <c r="SY29" s="0"/>
+      <c r="SZ29" s="0"/>
+      <c r="TA29" s="0"/>
+      <c r="TB29" s="0"/>
+      <c r="TC29" s="0"/>
+      <c r="TD29" s="0"/>
+      <c r="TE29" s="0"/>
+      <c r="TF29" s="0"/>
+      <c r="TG29" s="0"/>
+      <c r="TH29" s="0"/>
+      <c r="TI29" s="0"/>
+      <c r="TJ29" s="0"/>
+      <c r="TK29" s="0"/>
+      <c r="TL29" s="0"/>
+      <c r="TM29" s="0"/>
+      <c r="TN29" s="0"/>
+      <c r="TO29" s="0"/>
+      <c r="TP29" s="0"/>
+      <c r="TQ29" s="0"/>
+      <c r="TR29" s="0"/>
+      <c r="TS29" s="0"/>
+      <c r="TT29" s="0"/>
+      <c r="TU29" s="0"/>
+      <c r="TV29" s="0"/>
+      <c r="TW29" s="0"/>
+      <c r="TX29" s="0"/>
+      <c r="TY29" s="0"/>
+      <c r="TZ29" s="0"/>
+      <c r="UA29" s="0"/>
+      <c r="UB29" s="0"/>
+      <c r="UC29" s="0"/>
+      <c r="UD29" s="0"/>
+      <c r="UE29" s="0"/>
+      <c r="UF29" s="0"/>
+      <c r="UG29" s="0"/>
+      <c r="UH29" s="0"/>
+      <c r="UI29" s="0"/>
+      <c r="UJ29" s="0"/>
+      <c r="UK29" s="0"/>
+      <c r="UL29" s="0"/>
+      <c r="UM29" s="0"/>
+      <c r="UN29" s="0"/>
+      <c r="UO29" s="0"/>
+      <c r="UP29" s="0"/>
+      <c r="UQ29" s="0"/>
+      <c r="UR29" s="0"/>
+      <c r="US29" s="0"/>
+      <c r="UT29" s="0"/>
+      <c r="UU29" s="0"/>
+      <c r="UV29" s="0"/>
+      <c r="UW29" s="0"/>
+      <c r="UX29" s="0"/>
+      <c r="UY29" s="0"/>
+      <c r="UZ29" s="0"/>
+      <c r="VA29" s="0"/>
+      <c r="VB29" s="0"/>
+      <c r="VC29" s="0"/>
+      <c r="VD29" s="0"/>
+      <c r="VE29" s="0"/>
+      <c r="VF29" s="0"/>
+      <c r="VG29" s="0"/>
+      <c r="VH29" s="0"/>
+      <c r="VI29" s="0"/>
+      <c r="VJ29" s="0"/>
+      <c r="VK29" s="0"/>
+      <c r="VL29" s="0"/>
+      <c r="VM29" s="0"/>
+      <c r="VN29" s="0"/>
+      <c r="VO29" s="0"/>
+      <c r="VP29" s="0"/>
+      <c r="VQ29" s="0"/>
+      <c r="VR29" s="0"/>
+      <c r="VS29" s="0"/>
+      <c r="VT29" s="0"/>
+      <c r="VU29" s="0"/>
+      <c r="VV29" s="0"/>
+      <c r="VW29" s="0"/>
+      <c r="VX29" s="0"/>
+      <c r="VY29" s="0"/>
+      <c r="VZ29" s="0"/>
+      <c r="WA29" s="0"/>
+      <c r="WB29" s="0"/>
+      <c r="WC29" s="0"/>
+      <c r="WD29" s="0"/>
+      <c r="WE29" s="0"/>
+      <c r="WF29" s="0"/>
+      <c r="WG29" s="0"/>
+      <c r="WH29" s="0"/>
+      <c r="WI29" s="0"/>
+      <c r="WJ29" s="0"/>
+      <c r="WK29" s="0"/>
+      <c r="WL29" s="0"/>
+      <c r="WM29" s="0"/>
+      <c r="WN29" s="0"/>
+      <c r="WO29" s="0"/>
+      <c r="WP29" s="0"/>
+      <c r="WQ29" s="0"/>
+      <c r="WR29" s="0"/>
+      <c r="WS29" s="0"/>
+      <c r="WT29" s="0"/>
+      <c r="WU29" s="0"/>
+      <c r="WV29" s="0"/>
+      <c r="WW29" s="0"/>
+      <c r="WX29" s="0"/>
+      <c r="WY29" s="0"/>
+      <c r="WZ29" s="0"/>
+      <c r="XA29" s="0"/>
+      <c r="XB29" s="0"/>
+      <c r="XC29" s="0"/>
+      <c r="XD29" s="0"/>
+      <c r="XE29" s="0"/>
+      <c r="XF29" s="0"/>
+      <c r="XG29" s="0"/>
+      <c r="XH29" s="0"/>
+      <c r="XI29" s="0"/>
+      <c r="XJ29" s="0"/>
+      <c r="XK29" s="0"/>
+      <c r="XL29" s="0"/>
+      <c r="XM29" s="0"/>
+      <c r="XN29" s="0"/>
+      <c r="XO29" s="0"/>
+      <c r="XP29" s="0"/>
+      <c r="XQ29" s="0"/>
+      <c r="XR29" s="0"/>
+      <c r="XS29" s="0"/>
+      <c r="XT29" s="0"/>
+      <c r="XU29" s="0"/>
+      <c r="XV29" s="0"/>
+      <c r="XW29" s="0"/>
+      <c r="XX29" s="0"/>
+      <c r="XY29" s="0"/>
+      <c r="XZ29" s="0"/>
+      <c r="YA29" s="0"/>
+      <c r="YB29" s="0"/>
+      <c r="YC29" s="0"/>
+      <c r="YD29" s="0"/>
+      <c r="YE29" s="0"/>
+      <c r="YF29" s="0"/>
+      <c r="YG29" s="0"/>
+      <c r="YH29" s="0"/>
+      <c r="YI29" s="0"/>
+      <c r="YJ29" s="0"/>
+      <c r="YK29" s="0"/>
+      <c r="YL29" s="0"/>
+      <c r="YM29" s="0"/>
+      <c r="YN29" s="0"/>
+      <c r="YO29" s="0"/>
+      <c r="YP29" s="0"/>
+      <c r="YQ29" s="0"/>
+      <c r="YR29" s="0"/>
+      <c r="YS29" s="0"/>
+      <c r="YT29" s="0"/>
+      <c r="YU29" s="0"/>
+      <c r="YV29" s="0"/>
+      <c r="YW29" s="0"/>
+      <c r="YX29" s="0"/>
+      <c r="YY29" s="0"/>
+      <c r="YZ29" s="0"/>
+      <c r="ZA29" s="0"/>
+      <c r="ZB29" s="0"/>
+      <c r="ZC29" s="0"/>
+      <c r="ZD29" s="0"/>
+      <c r="ZE29" s="0"/>
+      <c r="ZF29" s="0"/>
+      <c r="ZG29" s="0"/>
+      <c r="ZH29" s="0"/>
+      <c r="ZI29" s="0"/>
+      <c r="ZJ29" s="0"/>
+      <c r="ZK29" s="0"/>
+      <c r="ZL29" s="0"/>
+      <c r="ZM29" s="0"/>
+      <c r="ZN29" s="0"/>
+      <c r="ZO29" s="0"/>
+      <c r="ZP29" s="0"/>
+      <c r="ZQ29" s="0"/>
+      <c r="ZR29" s="0"/>
+      <c r="ZS29" s="0"/>
+      <c r="ZT29" s="0"/>
+      <c r="ZU29" s="0"/>
+      <c r="ZV29" s="0"/>
+      <c r="ZW29" s="0"/>
+      <c r="ZX29" s="0"/>
+      <c r="ZY29" s="0"/>
+      <c r="ZZ29" s="0"/>
+      <c r="AAA29" s="0"/>
+      <c r="AAB29" s="0"/>
+      <c r="AAC29" s="0"/>
+      <c r="AAD29" s="0"/>
+      <c r="AAE29" s="0"/>
+      <c r="AAF29" s="0"/>
+      <c r="AAG29" s="0"/>
+      <c r="AAH29" s="0"/>
+      <c r="AAI29" s="0"/>
+      <c r="AAJ29" s="0"/>
+      <c r="AAK29" s="0"/>
+      <c r="AAL29" s="0"/>
+      <c r="AAM29" s="0"/>
+      <c r="AAN29" s="0"/>
+      <c r="AAO29" s="0"/>
+      <c r="AAP29" s="0"/>
+      <c r="AAQ29" s="0"/>
+      <c r="AAR29" s="0"/>
+      <c r="AAS29" s="0"/>
+      <c r="AAT29" s="0"/>
+      <c r="AAU29" s="0"/>
+      <c r="AAV29" s="0"/>
+      <c r="AAW29" s="0"/>
+      <c r="AAX29" s="0"/>
+      <c r="AAY29" s="0"/>
+      <c r="AAZ29" s="0"/>
+      <c r="ABA29" s="0"/>
+      <c r="ABB29" s="0"/>
+      <c r="ABC29" s="0"/>
+      <c r="ABD29" s="0"/>
+      <c r="ABE29" s="0"/>
+      <c r="ABF29" s="0"/>
+      <c r="ABG29" s="0"/>
+      <c r="ABH29" s="0"/>
+      <c r="ABI29" s="0"/>
+      <c r="ABJ29" s="0"/>
+      <c r="ABK29" s="0"/>
+      <c r="ABL29" s="0"/>
+      <c r="ABM29" s="0"/>
+      <c r="ABN29" s="0"/>
+      <c r="ABO29" s="0"/>
+      <c r="ABP29" s="0"/>
+      <c r="ABQ29" s="0"/>
+      <c r="ABR29" s="0"/>
+      <c r="ABS29" s="0"/>
+      <c r="ABT29" s="0"/>
+      <c r="ABU29" s="0"/>
+      <c r="ABV29" s="0"/>
+      <c r="ABW29" s="0"/>
+      <c r="ABX29" s="0"/>
+      <c r="ABY29" s="0"/>
+      <c r="ABZ29" s="0"/>
+      <c r="ACA29" s="0"/>
+      <c r="ACB29" s="0"/>
+      <c r="ACC29" s="0"/>
+      <c r="ACD29" s="0"/>
+      <c r="ACE29" s="0"/>
+      <c r="ACF29" s="0"/>
+      <c r="ACG29" s="0"/>
+      <c r="ACH29" s="0"/>
+      <c r="ACI29" s="0"/>
+      <c r="ACJ29" s="0"/>
+      <c r="ACK29" s="0"/>
+      <c r="ACL29" s="0"/>
+      <c r="ACM29" s="0"/>
+      <c r="ACN29" s="0"/>
+      <c r="ACO29" s="0"/>
+      <c r="ACP29" s="0"/>
+      <c r="ACQ29" s="0"/>
+      <c r="ACR29" s="0"/>
+      <c r="ACS29" s="0"/>
+      <c r="ACT29" s="0"/>
+      <c r="ACU29" s="0"/>
+      <c r="ACV29" s="0"/>
+      <c r="ACW29" s="0"/>
+      <c r="ACX29" s="0"/>
+      <c r="ACY29" s="0"/>
+      <c r="ACZ29" s="0"/>
+      <c r="ADA29" s="0"/>
+      <c r="ADB29" s="0"/>
+      <c r="ADC29" s="0"/>
+      <c r="ADD29" s="0"/>
+      <c r="ADE29" s="0"/>
+      <c r="ADF29" s="0"/>
+      <c r="ADG29" s="0"/>
+      <c r="ADH29" s="0"/>
+      <c r="ADI29" s="0"/>
+      <c r="ADJ29" s="0"/>
+      <c r="ADK29" s="0"/>
+      <c r="ADL29" s="0"/>
+      <c r="ADM29" s="0"/>
+      <c r="ADN29" s="0"/>
+      <c r="ADO29" s="0"/>
+      <c r="ADP29" s="0"/>
+      <c r="ADQ29" s="0"/>
+      <c r="ADR29" s="0"/>
+      <c r="ADS29" s="0"/>
+      <c r="ADT29" s="0"/>
+      <c r="ADU29" s="0"/>
+      <c r="ADV29" s="0"/>
+      <c r="ADW29" s="0"/>
+      <c r="ADX29" s="0"/>
+      <c r="ADY29" s="0"/>
+      <c r="ADZ29" s="0"/>
+      <c r="AEA29" s="0"/>
+      <c r="AEB29" s="0"/>
+      <c r="AEC29" s="0"/>
+      <c r="AED29" s="0"/>
+      <c r="AEE29" s="0"/>
+      <c r="AEF29" s="0"/>
+      <c r="AEG29" s="0"/>
+      <c r="AEH29" s="0"/>
+      <c r="AEI29" s="0"/>
+      <c r="AEJ29" s="0"/>
+      <c r="AEK29" s="0"/>
+      <c r="AEL29" s="0"/>
+      <c r="AEM29" s="0"/>
+      <c r="AEN29" s="0"/>
+      <c r="AEO29" s="0"/>
+      <c r="AEP29" s="0"/>
+      <c r="AEQ29" s="0"/>
+      <c r="AER29" s="0"/>
+      <c r="AES29" s="0"/>
+      <c r="AET29" s="0"/>
+      <c r="AEU29" s="0"/>
+      <c r="AEV29" s="0"/>
+      <c r="AEW29" s="0"/>
+      <c r="AEX29" s="0"/>
+      <c r="AEY29" s="0"/>
+      <c r="AEZ29" s="0"/>
+      <c r="AFA29" s="0"/>
+      <c r="AFB29" s="0"/>
+      <c r="AFC29" s="0"/>
+      <c r="AFD29" s="0"/>
+      <c r="AFE29" s="0"/>
+      <c r="AFF29" s="0"/>
+      <c r="AFG29" s="0"/>
+      <c r="AFH29" s="0"/>
+      <c r="AFI29" s="0"/>
+      <c r="AFJ29" s="0"/>
+      <c r="AFK29" s="0"/>
+      <c r="AFL29" s="0"/>
+      <c r="AFM29" s="0"/>
+      <c r="AFN29" s="0"/>
+      <c r="AFO29" s="0"/>
+      <c r="AFP29" s="0"/>
+      <c r="AFQ29" s="0"/>
+      <c r="AFR29" s="0"/>
+      <c r="AFS29" s="0"/>
+      <c r="AFT29" s="0"/>
+      <c r="AFU29" s="0"/>
+      <c r="AFV29" s="0"/>
+      <c r="AFW29" s="0"/>
+      <c r="AFX29" s="0"/>
+      <c r="AFY29" s="0"/>
+      <c r="AFZ29" s="0"/>
+      <c r="AGA29" s="0"/>
+      <c r="AGB29" s="0"/>
+      <c r="AGC29" s="0"/>
+      <c r="AGD29" s="0"/>
+      <c r="AGE29" s="0"/>
+      <c r="AGF29" s="0"/>
+      <c r="AGG29" s="0"/>
+      <c r="AGH29" s="0"/>
+      <c r="AGI29" s="0"/>
+      <c r="AGJ29" s="0"/>
+      <c r="AGK29" s="0"/>
+      <c r="AGL29" s="0"/>
+      <c r="AGM29" s="0"/>
+      <c r="AGN29" s="0"/>
+      <c r="AGO29" s="0"/>
+      <c r="AGP29" s="0"/>
+      <c r="AGQ29" s="0"/>
+      <c r="AGR29" s="0"/>
+      <c r="AGS29" s="0"/>
+      <c r="AGT29" s="0"/>
+      <c r="AGU29" s="0"/>
+      <c r="AGV29" s="0"/>
+      <c r="AGW29" s="0"/>
+      <c r="AGX29" s="0"/>
+      <c r="AGY29" s="0"/>
+      <c r="AGZ29" s="0"/>
+      <c r="AHA29" s="0"/>
+      <c r="AHB29" s="0"/>
+      <c r="AHC29" s="0"/>
+      <c r="AHD29" s="0"/>
+      <c r="AHE29" s="0"/>
+      <c r="AHF29" s="0"/>
+      <c r="AHG29" s="0"/>
+      <c r="AHH29" s="0"/>
+      <c r="AHI29" s="0"/>
+      <c r="AHJ29" s="0"/>
+      <c r="AHK29" s="0"/>
+      <c r="AHL29" s="0"/>
+      <c r="AHM29" s="0"/>
+      <c r="AHN29" s="0"/>
+      <c r="AHO29" s="0"/>
+      <c r="AHP29" s="0"/>
+      <c r="AHQ29" s="0"/>
+      <c r="AHR29" s="0"/>
+      <c r="AHS29" s="0"/>
+      <c r="AHT29" s="0"/>
+      <c r="AHU29" s="0"/>
+      <c r="AHV29" s="0"/>
+      <c r="AHW29" s="0"/>
+      <c r="AHX29" s="0"/>
+      <c r="AHY29" s="0"/>
+      <c r="AHZ29" s="0"/>
+      <c r="AIA29" s="0"/>
+      <c r="AIB29" s="0"/>
+      <c r="AIC29" s="0"/>
+      <c r="AID29" s="0"/>
+      <c r="AIE29" s="0"/>
+      <c r="AIF29" s="0"/>
+      <c r="AIG29" s="0"/>
+      <c r="AIH29" s="0"/>
+      <c r="AII29" s="0"/>
+      <c r="AIJ29" s="0"/>
+      <c r="AIK29" s="0"/>
+      <c r="AIL29" s="0"/>
+      <c r="AIM29" s="0"/>
+      <c r="AIN29" s="0"/>
+      <c r="AIO29" s="0"/>
+      <c r="AIP29" s="0"/>
+      <c r="AIQ29" s="0"/>
+      <c r="AIR29" s="0"/>
+      <c r="AIS29" s="0"/>
+      <c r="AIT29" s="0"/>
+      <c r="AIU29" s="0"/>
+      <c r="AIV29" s="0"/>
+      <c r="AIW29" s="0"/>
+      <c r="AIX29" s="0"/>
+      <c r="AIY29" s="0"/>
+      <c r="AIZ29" s="0"/>
+      <c r="AJA29" s="0"/>
+      <c r="AJB29" s="0"/>
+      <c r="AJC29" s="0"/>
+      <c r="AJD29" s="0"/>
+      <c r="AJE29" s="0"/>
+      <c r="AJF29" s="0"/>
+      <c r="AJG29" s="0"/>
+      <c r="AJH29" s="0"/>
+      <c r="AJI29" s="0"/>
+      <c r="AJJ29" s="0"/>
+      <c r="AJK29" s="0"/>
+      <c r="AJL29" s="0"/>
+      <c r="AJM29" s="0"/>
+      <c r="AJN29" s="0"/>
+      <c r="AJO29" s="0"/>
+      <c r="AJP29" s="0"/>
+      <c r="AJQ29" s="0"/>
+      <c r="AJR29" s="0"/>
+      <c r="AJS29" s="0"/>
+      <c r="AJT29" s="0"/>
+      <c r="AJU29" s="0"/>
+      <c r="AJV29" s="0"/>
+      <c r="AJW29" s="0"/>
+      <c r="AJX29" s="0"/>
+      <c r="AJY29" s="0"/>
+      <c r="AJZ29" s="0"/>
+      <c r="AKA29" s="0"/>
+      <c r="AKB29" s="0"/>
+      <c r="AKC29" s="0"/>
+      <c r="AKD29" s="0"/>
+      <c r="AKE29" s="0"/>
+      <c r="AKF29" s="0"/>
+      <c r="AKG29" s="0"/>
+      <c r="AKH29" s="0"/>
+      <c r="AKI29" s="0"/>
+      <c r="AKJ29" s="0"/>
+      <c r="AKK29" s="0"/>
+      <c r="AKL29" s="0"/>
+      <c r="AKM29" s="0"/>
+      <c r="AKN29" s="0"/>
+      <c r="AKO29" s="0"/>
+      <c r="AKP29" s="0"/>
+      <c r="AKQ29" s="0"/>
+      <c r="AKR29" s="0"/>
+      <c r="AKS29" s="0"/>
+      <c r="AKT29" s="0"/>
+      <c r="AKU29" s="0"/>
+      <c r="AKV29" s="0"/>
+      <c r="AKW29" s="0"/>
+      <c r="AKX29" s="0"/>
+      <c r="AKY29" s="0"/>
+      <c r="AKZ29" s="0"/>
+      <c r="ALA29" s="0"/>
+      <c r="ALB29" s="0"/>
+      <c r="ALC29" s="0"/>
+      <c r="ALD29" s="0"/>
+      <c r="ALE29" s="0"/>
+      <c r="ALF29" s="0"/>
+      <c r="ALG29" s="0"/>
+      <c r="ALH29" s="0"/>
+      <c r="ALI29" s="0"/>
+      <c r="ALJ29" s="0"/>
+      <c r="ALK29" s="0"/>
+      <c r="ALL29" s="0"/>
+      <c r="ALM29" s="0"/>
+      <c r="ALN29" s="0"/>
+      <c r="ALO29" s="0"/>
+      <c r="ALP29" s="0"/>
+      <c r="ALQ29" s="0"/>
+      <c r="ALR29" s="0"/>
+      <c r="ALS29" s="0"/>
+      <c r="ALT29" s="0"/>
+      <c r="ALU29" s="0"/>
+      <c r="ALV29" s="0"/>
+      <c r="ALW29" s="0"/>
+      <c r="ALX29" s="0"/>
+      <c r="ALY29" s="0"/>
+      <c r="ALZ29" s="0"/>
+      <c r="AMA29" s="0"/>
+      <c r="AMB29" s="0"/>
+      <c r="AMC29" s="0"/>
+      <c r="AMD29" s="0"/>
+      <c r="AME29" s="0"/>
+      <c r="AMF29" s="0"/>
+      <c r="AMG29" s="0"/>
+      <c r="AMH29" s="0"/>
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -2238,18 +3259,3081 @@
         <v>44</v>
       </c>
       <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+      <c r="AN30" s="0"/>
+      <c r="AO30" s="0"/>
+      <c r="AP30" s="0"/>
+      <c r="AQ30" s="0"/>
+      <c r="AR30" s="0"/>
+      <c r="AS30" s="0"/>
+      <c r="AT30" s="0"/>
+      <c r="AU30" s="0"/>
+      <c r="AV30" s="0"/>
+      <c r="AW30" s="0"/>
+      <c r="AX30" s="0"/>
+      <c r="AY30" s="0"/>
+      <c r="AZ30" s="0"/>
+      <c r="BA30" s="0"/>
+      <c r="BB30" s="0"/>
+      <c r="BC30" s="0"/>
+      <c r="BD30" s="0"/>
+      <c r="BE30" s="0"/>
+      <c r="BF30" s="0"/>
+      <c r="BG30" s="0"/>
+      <c r="BH30" s="0"/>
+      <c r="BI30" s="0"/>
+      <c r="BJ30" s="0"/>
+      <c r="BK30" s="0"/>
+      <c r="BL30" s="0"/>
+      <c r="BM30" s="0"/>
+      <c r="BN30" s="0"/>
+      <c r="BO30" s="0"/>
+      <c r="BP30" s="0"/>
+      <c r="BQ30" s="0"/>
+      <c r="BR30" s="0"/>
+      <c r="BS30" s="0"/>
+      <c r="BT30" s="0"/>
+      <c r="BU30" s="0"/>
+      <c r="BV30" s="0"/>
+      <c r="BW30" s="0"/>
+      <c r="BX30" s="0"/>
+      <c r="BY30" s="0"/>
+      <c r="BZ30" s="0"/>
+      <c r="CA30" s="0"/>
+      <c r="CB30" s="0"/>
+      <c r="CC30" s="0"/>
+      <c r="CD30" s="0"/>
+      <c r="CE30" s="0"/>
+      <c r="CF30" s="0"/>
+      <c r="CG30" s="0"/>
+      <c r="CH30" s="0"/>
+      <c r="CI30" s="0"/>
+      <c r="CJ30" s="0"/>
+      <c r="CK30" s="0"/>
+      <c r="CL30" s="0"/>
+      <c r="CM30" s="0"/>
+      <c r="CN30" s="0"/>
+      <c r="CO30" s="0"/>
+      <c r="CP30" s="0"/>
+      <c r="CQ30" s="0"/>
+      <c r="CR30" s="0"/>
+      <c r="CS30" s="0"/>
+      <c r="CT30" s="0"/>
+      <c r="CU30" s="0"/>
+      <c r="CV30" s="0"/>
+      <c r="CW30" s="0"/>
+      <c r="CX30" s="0"/>
+      <c r="CY30" s="0"/>
+      <c r="CZ30" s="0"/>
+      <c r="DA30" s="0"/>
+      <c r="DB30" s="0"/>
+      <c r="DC30" s="0"/>
+      <c r="DD30" s="0"/>
+      <c r="DE30" s="0"/>
+      <c r="DF30" s="0"/>
+      <c r="DG30" s="0"/>
+      <c r="DH30" s="0"/>
+      <c r="DI30" s="0"/>
+      <c r="DJ30" s="0"/>
+      <c r="DK30" s="0"/>
+      <c r="DL30" s="0"/>
+      <c r="DM30" s="0"/>
+      <c r="DN30" s="0"/>
+      <c r="DO30" s="0"/>
+      <c r="DP30" s="0"/>
+      <c r="DQ30" s="0"/>
+      <c r="DR30" s="0"/>
+      <c r="DS30" s="0"/>
+      <c r="DT30" s="0"/>
+      <c r="DU30" s="0"/>
+      <c r="DV30" s="0"/>
+      <c r="DW30" s="0"/>
+      <c r="DX30" s="0"/>
+      <c r="DY30" s="0"/>
+      <c r="DZ30" s="0"/>
+      <c r="EA30" s="0"/>
+      <c r="EB30" s="0"/>
+      <c r="EC30" s="0"/>
+      <c r="ED30" s="0"/>
+      <c r="EE30" s="0"/>
+      <c r="EF30" s="0"/>
+      <c r="EG30" s="0"/>
+      <c r="EH30" s="0"/>
+      <c r="EI30" s="0"/>
+      <c r="EJ30" s="0"/>
+      <c r="EK30" s="0"/>
+      <c r="EL30" s="0"/>
+      <c r="EM30" s="0"/>
+      <c r="EN30" s="0"/>
+      <c r="EO30" s="0"/>
+      <c r="EP30" s="0"/>
+      <c r="EQ30" s="0"/>
+      <c r="ER30" s="0"/>
+      <c r="ES30" s="0"/>
+      <c r="ET30" s="0"/>
+      <c r="EU30" s="0"/>
+      <c r="EV30" s="0"/>
+      <c r="EW30" s="0"/>
+      <c r="EX30" s="0"/>
+      <c r="EY30" s="0"/>
+      <c r="EZ30" s="0"/>
+      <c r="FA30" s="0"/>
+      <c r="FB30" s="0"/>
+      <c r="FC30" s="0"/>
+      <c r="FD30" s="0"/>
+      <c r="FE30" s="0"/>
+      <c r="FF30" s="0"/>
+      <c r="FG30" s="0"/>
+      <c r="FH30" s="0"/>
+      <c r="FI30" s="0"/>
+      <c r="FJ30" s="0"/>
+      <c r="FK30" s="0"/>
+      <c r="FL30" s="0"/>
+      <c r="FM30" s="0"/>
+      <c r="FN30" s="0"/>
+      <c r="FO30" s="0"/>
+      <c r="FP30" s="0"/>
+      <c r="FQ30" s="0"/>
+      <c r="FR30" s="0"/>
+      <c r="FS30" s="0"/>
+      <c r="FT30" s="0"/>
+      <c r="FU30" s="0"/>
+      <c r="FV30" s="0"/>
+      <c r="FW30" s="0"/>
+      <c r="FX30" s="0"/>
+      <c r="FY30" s="0"/>
+      <c r="FZ30" s="0"/>
+      <c r="GA30" s="0"/>
+      <c r="GB30" s="0"/>
+      <c r="GC30" s="0"/>
+      <c r="GD30" s="0"/>
+      <c r="GE30" s="0"/>
+      <c r="GF30" s="0"/>
+      <c r="GG30" s="0"/>
+      <c r="GH30" s="0"/>
+      <c r="GI30" s="0"/>
+      <c r="GJ30" s="0"/>
+      <c r="GK30" s="0"/>
+      <c r="GL30" s="0"/>
+      <c r="GM30" s="0"/>
+      <c r="GN30" s="0"/>
+      <c r="GO30" s="0"/>
+      <c r="GP30" s="0"/>
+      <c r="GQ30" s="0"/>
+      <c r="GR30" s="0"/>
+      <c r="GS30" s="0"/>
+      <c r="GT30" s="0"/>
+      <c r="GU30" s="0"/>
+      <c r="GV30" s="0"/>
+      <c r="GW30" s="0"/>
+      <c r="GX30" s="0"/>
+      <c r="GY30" s="0"/>
+      <c r="GZ30" s="0"/>
+      <c r="HA30" s="0"/>
+      <c r="HB30" s="0"/>
+      <c r="HC30" s="0"/>
+      <c r="HD30" s="0"/>
+      <c r="HE30" s="0"/>
+      <c r="HF30" s="0"/>
+      <c r="HG30" s="0"/>
+      <c r="HH30" s="0"/>
+      <c r="HI30" s="0"/>
+      <c r="HJ30" s="0"/>
+      <c r="HK30" s="0"/>
+      <c r="HL30" s="0"/>
+      <c r="HM30" s="0"/>
+      <c r="HN30" s="0"/>
+      <c r="HO30" s="0"/>
+      <c r="HP30" s="0"/>
+      <c r="HQ30" s="0"/>
+      <c r="HR30" s="0"/>
+      <c r="HS30" s="0"/>
+      <c r="HT30" s="0"/>
+      <c r="HU30" s="0"/>
+      <c r="HV30" s="0"/>
+      <c r="HW30" s="0"/>
+      <c r="HX30" s="0"/>
+      <c r="HY30" s="0"/>
+      <c r="HZ30" s="0"/>
+      <c r="IA30" s="0"/>
+      <c r="IB30" s="0"/>
+      <c r="IC30" s="0"/>
+      <c r="ID30" s="0"/>
+      <c r="IE30" s="0"/>
+      <c r="IF30" s="0"/>
+      <c r="IG30" s="0"/>
+      <c r="IH30" s="0"/>
+      <c r="II30" s="0"/>
+      <c r="IJ30" s="0"/>
+      <c r="IK30" s="0"/>
+      <c r="IL30" s="0"/>
+      <c r="IM30" s="0"/>
+      <c r="IN30" s="0"/>
+      <c r="IO30" s="0"/>
+      <c r="IP30" s="0"/>
+      <c r="IQ30" s="0"/>
+      <c r="IR30" s="0"/>
+      <c r="IS30" s="0"/>
+      <c r="IT30" s="0"/>
+      <c r="IU30" s="0"/>
+      <c r="IV30" s="0"/>
+      <c r="IW30" s="0"/>
+      <c r="IX30" s="0"/>
+      <c r="IY30" s="0"/>
+      <c r="IZ30" s="0"/>
+      <c r="JA30" s="0"/>
+      <c r="JB30" s="0"/>
+      <c r="JC30" s="0"/>
+      <c r="JD30" s="0"/>
+      <c r="JE30" s="0"/>
+      <c r="JF30" s="0"/>
+      <c r="JG30" s="0"/>
+      <c r="JH30" s="0"/>
+      <c r="JI30" s="0"/>
+      <c r="JJ30" s="0"/>
+      <c r="JK30" s="0"/>
+      <c r="JL30" s="0"/>
+      <c r="JM30" s="0"/>
+      <c r="JN30" s="0"/>
+      <c r="JO30" s="0"/>
+      <c r="JP30" s="0"/>
+      <c r="JQ30" s="0"/>
+      <c r="JR30" s="0"/>
+      <c r="JS30" s="0"/>
+      <c r="JT30" s="0"/>
+      <c r="JU30" s="0"/>
+      <c r="JV30" s="0"/>
+      <c r="JW30" s="0"/>
+      <c r="JX30" s="0"/>
+      <c r="JY30" s="0"/>
+      <c r="JZ30" s="0"/>
+      <c r="KA30" s="0"/>
+      <c r="KB30" s="0"/>
+      <c r="KC30" s="0"/>
+      <c r="KD30" s="0"/>
+      <c r="KE30" s="0"/>
+      <c r="KF30" s="0"/>
+      <c r="KG30" s="0"/>
+      <c r="KH30" s="0"/>
+      <c r="KI30" s="0"/>
+      <c r="KJ30" s="0"/>
+      <c r="KK30" s="0"/>
+      <c r="KL30" s="0"/>
+      <c r="KM30" s="0"/>
+      <c r="KN30" s="0"/>
+      <c r="KO30" s="0"/>
+      <c r="KP30" s="0"/>
+      <c r="KQ30" s="0"/>
+      <c r="KR30" s="0"/>
+      <c r="KS30" s="0"/>
+      <c r="KT30" s="0"/>
+      <c r="KU30" s="0"/>
+      <c r="KV30" s="0"/>
+      <c r="KW30" s="0"/>
+      <c r="KX30" s="0"/>
+      <c r="KY30" s="0"/>
+      <c r="KZ30" s="0"/>
+      <c r="LA30" s="0"/>
+      <c r="LB30" s="0"/>
+      <c r="LC30" s="0"/>
+      <c r="LD30" s="0"/>
+      <c r="LE30" s="0"/>
+      <c r="LF30" s="0"/>
+      <c r="LG30" s="0"/>
+      <c r="LH30" s="0"/>
+      <c r="LI30" s="0"/>
+      <c r="LJ30" s="0"/>
+      <c r="LK30" s="0"/>
+      <c r="LL30" s="0"/>
+      <c r="LM30" s="0"/>
+      <c r="LN30" s="0"/>
+      <c r="LO30" s="0"/>
+      <c r="LP30" s="0"/>
+      <c r="LQ30" s="0"/>
+      <c r="LR30" s="0"/>
+      <c r="LS30" s="0"/>
+      <c r="LT30" s="0"/>
+      <c r="LU30" s="0"/>
+      <c r="LV30" s="0"/>
+      <c r="LW30" s="0"/>
+      <c r="LX30" s="0"/>
+      <c r="LY30" s="0"/>
+      <c r="LZ30" s="0"/>
+      <c r="MA30" s="0"/>
+      <c r="MB30" s="0"/>
+      <c r="MC30" s="0"/>
+      <c r="MD30" s="0"/>
+      <c r="ME30" s="0"/>
+      <c r="MF30" s="0"/>
+      <c r="MG30" s="0"/>
+      <c r="MH30" s="0"/>
+      <c r="MI30" s="0"/>
+      <c r="MJ30" s="0"/>
+      <c r="MK30" s="0"/>
+      <c r="ML30" s="0"/>
+      <c r="MM30" s="0"/>
+      <c r="MN30" s="0"/>
+      <c r="MO30" s="0"/>
+      <c r="MP30" s="0"/>
+      <c r="MQ30" s="0"/>
+      <c r="MR30" s="0"/>
+      <c r="MS30" s="0"/>
+      <c r="MT30" s="0"/>
+      <c r="MU30" s="0"/>
+      <c r="MV30" s="0"/>
+      <c r="MW30" s="0"/>
+      <c r="MX30" s="0"/>
+      <c r="MY30" s="0"/>
+      <c r="MZ30" s="0"/>
+      <c r="NA30" s="0"/>
+      <c r="NB30" s="0"/>
+      <c r="NC30" s="0"/>
+      <c r="ND30" s="0"/>
+      <c r="NE30" s="0"/>
+      <c r="NF30" s="0"/>
+      <c r="NG30" s="0"/>
+      <c r="NH30" s="0"/>
+      <c r="NI30" s="0"/>
+      <c r="NJ30" s="0"/>
+      <c r="NK30" s="0"/>
+      <c r="NL30" s="0"/>
+      <c r="NM30" s="0"/>
+      <c r="NN30" s="0"/>
+      <c r="NO30" s="0"/>
+      <c r="NP30" s="0"/>
+      <c r="NQ30" s="0"/>
+      <c r="NR30" s="0"/>
+      <c r="NS30" s="0"/>
+      <c r="NT30" s="0"/>
+      <c r="NU30" s="0"/>
+      <c r="NV30" s="0"/>
+      <c r="NW30" s="0"/>
+      <c r="NX30" s="0"/>
+      <c r="NY30" s="0"/>
+      <c r="NZ30" s="0"/>
+      <c r="OA30" s="0"/>
+      <c r="OB30" s="0"/>
+      <c r="OC30" s="0"/>
+      <c r="OD30" s="0"/>
+      <c r="OE30" s="0"/>
+      <c r="OF30" s="0"/>
+      <c r="OG30" s="0"/>
+      <c r="OH30" s="0"/>
+      <c r="OI30" s="0"/>
+      <c r="OJ30" s="0"/>
+      <c r="OK30" s="0"/>
+      <c r="OL30" s="0"/>
+      <c r="OM30" s="0"/>
+      <c r="ON30" s="0"/>
+      <c r="OO30" s="0"/>
+      <c r="OP30" s="0"/>
+      <c r="OQ30" s="0"/>
+      <c r="OR30" s="0"/>
+      <c r="OS30" s="0"/>
+      <c r="OT30" s="0"/>
+      <c r="OU30" s="0"/>
+      <c r="OV30" s="0"/>
+      <c r="OW30" s="0"/>
+      <c r="OX30" s="0"/>
+      <c r="OY30" s="0"/>
+      <c r="OZ30" s="0"/>
+      <c r="PA30" s="0"/>
+      <c r="PB30" s="0"/>
+      <c r="PC30" s="0"/>
+      <c r="PD30" s="0"/>
+      <c r="PE30" s="0"/>
+      <c r="PF30" s="0"/>
+      <c r="PG30" s="0"/>
+      <c r="PH30" s="0"/>
+      <c r="PI30" s="0"/>
+      <c r="PJ30" s="0"/>
+      <c r="PK30" s="0"/>
+      <c r="PL30" s="0"/>
+      <c r="PM30" s="0"/>
+      <c r="PN30" s="0"/>
+      <c r="PO30" s="0"/>
+      <c r="PP30" s="0"/>
+      <c r="PQ30" s="0"/>
+      <c r="PR30" s="0"/>
+      <c r="PS30" s="0"/>
+      <c r="PT30" s="0"/>
+      <c r="PU30" s="0"/>
+      <c r="PV30" s="0"/>
+      <c r="PW30" s="0"/>
+      <c r="PX30" s="0"/>
+      <c r="PY30" s="0"/>
+      <c r="PZ30" s="0"/>
+      <c r="QA30" s="0"/>
+      <c r="QB30" s="0"/>
+      <c r="QC30" s="0"/>
+      <c r="QD30" s="0"/>
+      <c r="QE30" s="0"/>
+      <c r="QF30" s="0"/>
+      <c r="QG30" s="0"/>
+      <c r="QH30" s="0"/>
+      <c r="QI30" s="0"/>
+      <c r="QJ30" s="0"/>
+      <c r="QK30" s="0"/>
+      <c r="QL30" s="0"/>
+      <c r="QM30" s="0"/>
+      <c r="QN30" s="0"/>
+      <c r="QO30" s="0"/>
+      <c r="QP30" s="0"/>
+      <c r="QQ30" s="0"/>
+      <c r="QR30" s="0"/>
+      <c r="QS30" s="0"/>
+      <c r="QT30" s="0"/>
+      <c r="QU30" s="0"/>
+      <c r="QV30" s="0"/>
+      <c r="QW30" s="0"/>
+      <c r="QX30" s="0"/>
+      <c r="QY30" s="0"/>
+      <c r="QZ30" s="0"/>
+      <c r="RA30" s="0"/>
+      <c r="RB30" s="0"/>
+      <c r="RC30" s="0"/>
+      <c r="RD30" s="0"/>
+      <c r="RE30" s="0"/>
+      <c r="RF30" s="0"/>
+      <c r="RG30" s="0"/>
+      <c r="RH30" s="0"/>
+      <c r="RI30" s="0"/>
+      <c r="RJ30" s="0"/>
+      <c r="RK30" s="0"/>
+      <c r="RL30" s="0"/>
+      <c r="RM30" s="0"/>
+      <c r="RN30" s="0"/>
+      <c r="RO30" s="0"/>
+      <c r="RP30" s="0"/>
+      <c r="RQ30" s="0"/>
+      <c r="RR30" s="0"/>
+      <c r="RS30" s="0"/>
+      <c r="RT30" s="0"/>
+      <c r="RU30" s="0"/>
+      <c r="RV30" s="0"/>
+      <c r="RW30" s="0"/>
+      <c r="RX30" s="0"/>
+      <c r="RY30" s="0"/>
+      <c r="RZ30" s="0"/>
+      <c r="SA30" s="0"/>
+      <c r="SB30" s="0"/>
+      <c r="SC30" s="0"/>
+      <c r="SD30" s="0"/>
+      <c r="SE30" s="0"/>
+      <c r="SF30" s="0"/>
+      <c r="SG30" s="0"/>
+      <c r="SH30" s="0"/>
+      <c r="SI30" s="0"/>
+      <c r="SJ30" s="0"/>
+      <c r="SK30" s="0"/>
+      <c r="SL30" s="0"/>
+      <c r="SM30" s="0"/>
+      <c r="SN30" s="0"/>
+      <c r="SO30" s="0"/>
+      <c r="SP30" s="0"/>
+      <c r="SQ30" s="0"/>
+      <c r="SR30" s="0"/>
+      <c r="SS30" s="0"/>
+      <c r="ST30" s="0"/>
+      <c r="SU30" s="0"/>
+      <c r="SV30" s="0"/>
+      <c r="SW30" s="0"/>
+      <c r="SX30" s="0"/>
+      <c r="SY30" s="0"/>
+      <c r="SZ30" s="0"/>
+      <c r="TA30" s="0"/>
+      <c r="TB30" s="0"/>
+      <c r="TC30" s="0"/>
+      <c r="TD30" s="0"/>
+      <c r="TE30" s="0"/>
+      <c r="TF30" s="0"/>
+      <c r="TG30" s="0"/>
+      <c r="TH30" s="0"/>
+      <c r="TI30" s="0"/>
+      <c r="TJ30" s="0"/>
+      <c r="TK30" s="0"/>
+      <c r="TL30" s="0"/>
+      <c r="TM30" s="0"/>
+      <c r="TN30" s="0"/>
+      <c r="TO30" s="0"/>
+      <c r="TP30" s="0"/>
+      <c r="TQ30" s="0"/>
+      <c r="TR30" s="0"/>
+      <c r="TS30" s="0"/>
+      <c r="TT30" s="0"/>
+      <c r="TU30" s="0"/>
+      <c r="TV30" s="0"/>
+      <c r="TW30" s="0"/>
+      <c r="TX30" s="0"/>
+      <c r="TY30" s="0"/>
+      <c r="TZ30" s="0"/>
+      <c r="UA30" s="0"/>
+      <c r="UB30" s="0"/>
+      <c r="UC30" s="0"/>
+      <c r="UD30" s="0"/>
+      <c r="UE30" s="0"/>
+      <c r="UF30" s="0"/>
+      <c r="UG30" s="0"/>
+      <c r="UH30" s="0"/>
+      <c r="UI30" s="0"/>
+      <c r="UJ30" s="0"/>
+      <c r="UK30" s="0"/>
+      <c r="UL30" s="0"/>
+      <c r="UM30" s="0"/>
+      <c r="UN30" s="0"/>
+      <c r="UO30" s="0"/>
+      <c r="UP30" s="0"/>
+      <c r="UQ30" s="0"/>
+      <c r="UR30" s="0"/>
+      <c r="US30" s="0"/>
+      <c r="UT30" s="0"/>
+      <c r="UU30" s="0"/>
+      <c r="UV30" s="0"/>
+      <c r="UW30" s="0"/>
+      <c r="UX30" s="0"/>
+      <c r="UY30" s="0"/>
+      <c r="UZ30" s="0"/>
+      <c r="VA30" s="0"/>
+      <c r="VB30" s="0"/>
+      <c r="VC30" s="0"/>
+      <c r="VD30" s="0"/>
+      <c r="VE30" s="0"/>
+      <c r="VF30" s="0"/>
+      <c r="VG30" s="0"/>
+      <c r="VH30" s="0"/>
+      <c r="VI30" s="0"/>
+      <c r="VJ30" s="0"/>
+      <c r="VK30" s="0"/>
+      <c r="VL30" s="0"/>
+      <c r="VM30" s="0"/>
+      <c r="VN30" s="0"/>
+      <c r="VO30" s="0"/>
+      <c r="VP30" s="0"/>
+      <c r="VQ30" s="0"/>
+      <c r="VR30" s="0"/>
+      <c r="VS30" s="0"/>
+      <c r="VT30" s="0"/>
+      <c r="VU30" s="0"/>
+      <c r="VV30" s="0"/>
+      <c r="VW30" s="0"/>
+      <c r="VX30" s="0"/>
+      <c r="VY30" s="0"/>
+      <c r="VZ30" s="0"/>
+      <c r="WA30" s="0"/>
+      <c r="WB30" s="0"/>
+      <c r="WC30" s="0"/>
+      <c r="WD30" s="0"/>
+      <c r="WE30" s="0"/>
+      <c r="WF30" s="0"/>
+      <c r="WG30" s="0"/>
+      <c r="WH30" s="0"/>
+      <c r="WI30" s="0"/>
+      <c r="WJ30" s="0"/>
+      <c r="WK30" s="0"/>
+      <c r="WL30" s="0"/>
+      <c r="WM30" s="0"/>
+      <c r="WN30" s="0"/>
+      <c r="WO30" s="0"/>
+      <c r="WP30" s="0"/>
+      <c r="WQ30" s="0"/>
+      <c r="WR30" s="0"/>
+      <c r="WS30" s="0"/>
+      <c r="WT30" s="0"/>
+      <c r="WU30" s="0"/>
+      <c r="WV30" s="0"/>
+      <c r="WW30" s="0"/>
+      <c r="WX30" s="0"/>
+      <c r="WY30" s="0"/>
+      <c r="WZ30" s="0"/>
+      <c r="XA30" s="0"/>
+      <c r="XB30" s="0"/>
+      <c r="XC30" s="0"/>
+      <c r="XD30" s="0"/>
+      <c r="XE30" s="0"/>
+      <c r="XF30" s="0"/>
+      <c r="XG30" s="0"/>
+      <c r="XH30" s="0"/>
+      <c r="XI30" s="0"/>
+      <c r="XJ30" s="0"/>
+      <c r="XK30" s="0"/>
+      <c r="XL30" s="0"/>
+      <c r="XM30" s="0"/>
+      <c r="XN30" s="0"/>
+      <c r="XO30" s="0"/>
+      <c r="XP30" s="0"/>
+      <c r="XQ30" s="0"/>
+      <c r="XR30" s="0"/>
+      <c r="XS30" s="0"/>
+      <c r="XT30" s="0"/>
+      <c r="XU30" s="0"/>
+      <c r="XV30" s="0"/>
+      <c r="XW30" s="0"/>
+      <c r="XX30" s="0"/>
+      <c r="XY30" s="0"/>
+      <c r="XZ30" s="0"/>
+      <c r="YA30" s="0"/>
+      <c r="YB30" s="0"/>
+      <c r="YC30" s="0"/>
+      <c r="YD30" s="0"/>
+      <c r="YE30" s="0"/>
+      <c r="YF30" s="0"/>
+      <c r="YG30" s="0"/>
+      <c r="YH30" s="0"/>
+      <c r="YI30" s="0"/>
+      <c r="YJ30" s="0"/>
+      <c r="YK30" s="0"/>
+      <c r="YL30" s="0"/>
+      <c r="YM30" s="0"/>
+      <c r="YN30" s="0"/>
+      <c r="YO30" s="0"/>
+      <c r="YP30" s="0"/>
+      <c r="YQ30" s="0"/>
+      <c r="YR30" s="0"/>
+      <c r="YS30" s="0"/>
+      <c r="YT30" s="0"/>
+      <c r="YU30" s="0"/>
+      <c r="YV30" s="0"/>
+      <c r="YW30" s="0"/>
+      <c r="YX30" s="0"/>
+      <c r="YY30" s="0"/>
+      <c r="YZ30" s="0"/>
+      <c r="ZA30" s="0"/>
+      <c r="ZB30" s="0"/>
+      <c r="ZC30" s="0"/>
+      <c r="ZD30" s="0"/>
+      <c r="ZE30" s="0"/>
+      <c r="ZF30" s="0"/>
+      <c r="ZG30" s="0"/>
+      <c r="ZH30" s="0"/>
+      <c r="ZI30" s="0"/>
+      <c r="ZJ30" s="0"/>
+      <c r="ZK30" s="0"/>
+      <c r="ZL30" s="0"/>
+      <c r="ZM30" s="0"/>
+      <c r="ZN30" s="0"/>
+      <c r="ZO30" s="0"/>
+      <c r="ZP30" s="0"/>
+      <c r="ZQ30" s="0"/>
+      <c r="ZR30" s="0"/>
+      <c r="ZS30" s="0"/>
+      <c r="ZT30" s="0"/>
+      <c r="ZU30" s="0"/>
+      <c r="ZV30" s="0"/>
+      <c r="ZW30" s="0"/>
+      <c r="ZX30" s="0"/>
+      <c r="ZY30" s="0"/>
+      <c r="ZZ30" s="0"/>
+      <c r="AAA30" s="0"/>
+      <c r="AAB30" s="0"/>
+      <c r="AAC30" s="0"/>
+      <c r="AAD30" s="0"/>
+      <c r="AAE30" s="0"/>
+      <c r="AAF30" s="0"/>
+      <c r="AAG30" s="0"/>
+      <c r="AAH30" s="0"/>
+      <c r="AAI30" s="0"/>
+      <c r="AAJ30" s="0"/>
+      <c r="AAK30" s="0"/>
+      <c r="AAL30" s="0"/>
+      <c r="AAM30" s="0"/>
+      <c r="AAN30" s="0"/>
+      <c r="AAO30" s="0"/>
+      <c r="AAP30" s="0"/>
+      <c r="AAQ30" s="0"/>
+      <c r="AAR30" s="0"/>
+      <c r="AAS30" s="0"/>
+      <c r="AAT30" s="0"/>
+      <c r="AAU30" s="0"/>
+      <c r="AAV30" s="0"/>
+      <c r="AAW30" s="0"/>
+      <c r="AAX30" s="0"/>
+      <c r="AAY30" s="0"/>
+      <c r="AAZ30" s="0"/>
+      <c r="ABA30" s="0"/>
+      <c r="ABB30" s="0"/>
+      <c r="ABC30" s="0"/>
+      <c r="ABD30" s="0"/>
+      <c r="ABE30" s="0"/>
+      <c r="ABF30" s="0"/>
+      <c r="ABG30" s="0"/>
+      <c r="ABH30" s="0"/>
+      <c r="ABI30" s="0"/>
+      <c r="ABJ30" s="0"/>
+      <c r="ABK30" s="0"/>
+      <c r="ABL30" s="0"/>
+      <c r="ABM30" s="0"/>
+      <c r="ABN30" s="0"/>
+      <c r="ABO30" s="0"/>
+      <c r="ABP30" s="0"/>
+      <c r="ABQ30" s="0"/>
+      <c r="ABR30" s="0"/>
+      <c r="ABS30" s="0"/>
+      <c r="ABT30" s="0"/>
+      <c r="ABU30" s="0"/>
+      <c r="ABV30" s="0"/>
+      <c r="ABW30" s="0"/>
+      <c r="ABX30" s="0"/>
+      <c r="ABY30" s="0"/>
+      <c r="ABZ30" s="0"/>
+      <c r="ACA30" s="0"/>
+      <c r="ACB30" s="0"/>
+      <c r="ACC30" s="0"/>
+      <c r="ACD30" s="0"/>
+      <c r="ACE30" s="0"/>
+      <c r="ACF30" s="0"/>
+      <c r="ACG30" s="0"/>
+      <c r="ACH30" s="0"/>
+      <c r="ACI30" s="0"/>
+      <c r="ACJ30" s="0"/>
+      <c r="ACK30" s="0"/>
+      <c r="ACL30" s="0"/>
+      <c r="ACM30" s="0"/>
+      <c r="ACN30" s="0"/>
+      <c r="ACO30" s="0"/>
+      <c r="ACP30" s="0"/>
+      <c r="ACQ30" s="0"/>
+      <c r="ACR30" s="0"/>
+      <c r="ACS30" s="0"/>
+      <c r="ACT30" s="0"/>
+      <c r="ACU30" s="0"/>
+      <c r="ACV30" s="0"/>
+      <c r="ACW30" s="0"/>
+      <c r="ACX30" s="0"/>
+      <c r="ACY30" s="0"/>
+      <c r="ACZ30" s="0"/>
+      <c r="ADA30" s="0"/>
+      <c r="ADB30" s="0"/>
+      <c r="ADC30" s="0"/>
+      <c r="ADD30" s="0"/>
+      <c r="ADE30" s="0"/>
+      <c r="ADF30" s="0"/>
+      <c r="ADG30" s="0"/>
+      <c r="ADH30" s="0"/>
+      <c r="ADI30" s="0"/>
+      <c r="ADJ30" s="0"/>
+      <c r="ADK30" s="0"/>
+      <c r="ADL30" s="0"/>
+      <c r="ADM30" s="0"/>
+      <c r="ADN30" s="0"/>
+      <c r="ADO30" s="0"/>
+      <c r="ADP30" s="0"/>
+      <c r="ADQ30" s="0"/>
+      <c r="ADR30" s="0"/>
+      <c r="ADS30" s="0"/>
+      <c r="ADT30" s="0"/>
+      <c r="ADU30" s="0"/>
+      <c r="ADV30" s="0"/>
+      <c r="ADW30" s="0"/>
+      <c r="ADX30" s="0"/>
+      <c r="ADY30" s="0"/>
+      <c r="ADZ30" s="0"/>
+      <c r="AEA30" s="0"/>
+      <c r="AEB30" s="0"/>
+      <c r="AEC30" s="0"/>
+      <c r="AED30" s="0"/>
+      <c r="AEE30" s="0"/>
+      <c r="AEF30" s="0"/>
+      <c r="AEG30" s="0"/>
+      <c r="AEH30" s="0"/>
+      <c r="AEI30" s="0"/>
+      <c r="AEJ30" s="0"/>
+      <c r="AEK30" s="0"/>
+      <c r="AEL30" s="0"/>
+      <c r="AEM30" s="0"/>
+      <c r="AEN30" s="0"/>
+      <c r="AEO30" s="0"/>
+      <c r="AEP30" s="0"/>
+      <c r="AEQ30" s="0"/>
+      <c r="AER30" s="0"/>
+      <c r="AES30" s="0"/>
+      <c r="AET30" s="0"/>
+      <c r="AEU30" s="0"/>
+      <c r="AEV30" s="0"/>
+      <c r="AEW30" s="0"/>
+      <c r="AEX30" s="0"/>
+      <c r="AEY30" s="0"/>
+      <c r="AEZ30" s="0"/>
+      <c r="AFA30" s="0"/>
+      <c r="AFB30" s="0"/>
+      <c r="AFC30" s="0"/>
+      <c r="AFD30" s="0"/>
+      <c r="AFE30" s="0"/>
+      <c r="AFF30" s="0"/>
+      <c r="AFG30" s="0"/>
+      <c r="AFH30" s="0"/>
+      <c r="AFI30" s="0"/>
+      <c r="AFJ30" s="0"/>
+      <c r="AFK30" s="0"/>
+      <c r="AFL30" s="0"/>
+      <c r="AFM30" s="0"/>
+      <c r="AFN30" s="0"/>
+      <c r="AFO30" s="0"/>
+      <c r="AFP30" s="0"/>
+      <c r="AFQ30" s="0"/>
+      <c r="AFR30" s="0"/>
+      <c r="AFS30" s="0"/>
+      <c r="AFT30" s="0"/>
+      <c r="AFU30" s="0"/>
+      <c r="AFV30" s="0"/>
+      <c r="AFW30" s="0"/>
+      <c r="AFX30" s="0"/>
+      <c r="AFY30" s="0"/>
+      <c r="AFZ30" s="0"/>
+      <c r="AGA30" s="0"/>
+      <c r="AGB30" s="0"/>
+      <c r="AGC30" s="0"/>
+      <c r="AGD30" s="0"/>
+      <c r="AGE30" s="0"/>
+      <c r="AGF30" s="0"/>
+      <c r="AGG30" s="0"/>
+      <c r="AGH30" s="0"/>
+      <c r="AGI30" s="0"/>
+      <c r="AGJ30" s="0"/>
+      <c r="AGK30" s="0"/>
+      <c r="AGL30" s="0"/>
+      <c r="AGM30" s="0"/>
+      <c r="AGN30" s="0"/>
+      <c r="AGO30" s="0"/>
+      <c r="AGP30" s="0"/>
+      <c r="AGQ30" s="0"/>
+      <c r="AGR30" s="0"/>
+      <c r="AGS30" s="0"/>
+      <c r="AGT30" s="0"/>
+      <c r="AGU30" s="0"/>
+      <c r="AGV30" s="0"/>
+      <c r="AGW30" s="0"/>
+      <c r="AGX30" s="0"/>
+      <c r="AGY30" s="0"/>
+      <c r="AGZ30" s="0"/>
+      <c r="AHA30" s="0"/>
+      <c r="AHB30" s="0"/>
+      <c r="AHC30" s="0"/>
+      <c r="AHD30" s="0"/>
+      <c r="AHE30" s="0"/>
+      <c r="AHF30" s="0"/>
+      <c r="AHG30" s="0"/>
+      <c r="AHH30" s="0"/>
+      <c r="AHI30" s="0"/>
+      <c r="AHJ30" s="0"/>
+      <c r="AHK30" s="0"/>
+      <c r="AHL30" s="0"/>
+      <c r="AHM30" s="0"/>
+      <c r="AHN30" s="0"/>
+      <c r="AHO30" s="0"/>
+      <c r="AHP30" s="0"/>
+      <c r="AHQ30" s="0"/>
+      <c r="AHR30" s="0"/>
+      <c r="AHS30" s="0"/>
+      <c r="AHT30" s="0"/>
+      <c r="AHU30" s="0"/>
+      <c r="AHV30" s="0"/>
+      <c r="AHW30" s="0"/>
+      <c r="AHX30" s="0"/>
+      <c r="AHY30" s="0"/>
+      <c r="AHZ30" s="0"/>
+      <c r="AIA30" s="0"/>
+      <c r="AIB30" s="0"/>
+      <c r="AIC30" s="0"/>
+      <c r="AID30" s="0"/>
+      <c r="AIE30" s="0"/>
+      <c r="AIF30" s="0"/>
+      <c r="AIG30" s="0"/>
+      <c r="AIH30" s="0"/>
+      <c r="AII30" s="0"/>
+      <c r="AIJ30" s="0"/>
+      <c r="AIK30" s="0"/>
+      <c r="AIL30" s="0"/>
+      <c r="AIM30" s="0"/>
+      <c r="AIN30" s="0"/>
+      <c r="AIO30" s="0"/>
+      <c r="AIP30" s="0"/>
+      <c r="AIQ30" s="0"/>
+      <c r="AIR30" s="0"/>
+      <c r="AIS30" s="0"/>
+      <c r="AIT30" s="0"/>
+      <c r="AIU30" s="0"/>
+      <c r="AIV30" s="0"/>
+      <c r="AIW30" s="0"/>
+      <c r="AIX30" s="0"/>
+      <c r="AIY30" s="0"/>
+      <c r="AIZ30" s="0"/>
+      <c r="AJA30" s="0"/>
+      <c r="AJB30" s="0"/>
+      <c r="AJC30" s="0"/>
+      <c r="AJD30" s="0"/>
+      <c r="AJE30" s="0"/>
+      <c r="AJF30" s="0"/>
+      <c r="AJG30" s="0"/>
+      <c r="AJH30" s="0"/>
+      <c r="AJI30" s="0"/>
+      <c r="AJJ30" s="0"/>
+      <c r="AJK30" s="0"/>
+      <c r="AJL30" s="0"/>
+      <c r="AJM30" s="0"/>
+      <c r="AJN30" s="0"/>
+      <c r="AJO30" s="0"/>
+      <c r="AJP30" s="0"/>
+      <c r="AJQ30" s="0"/>
+      <c r="AJR30" s="0"/>
+      <c r="AJS30" s="0"/>
+      <c r="AJT30" s="0"/>
+      <c r="AJU30" s="0"/>
+      <c r="AJV30" s="0"/>
+      <c r="AJW30" s="0"/>
+      <c r="AJX30" s="0"/>
+      <c r="AJY30" s="0"/>
+      <c r="AJZ30" s="0"/>
+      <c r="AKA30" s="0"/>
+      <c r="AKB30" s="0"/>
+      <c r="AKC30" s="0"/>
+      <c r="AKD30" s="0"/>
+      <c r="AKE30" s="0"/>
+      <c r="AKF30" s="0"/>
+      <c r="AKG30" s="0"/>
+      <c r="AKH30" s="0"/>
+      <c r="AKI30" s="0"/>
+      <c r="AKJ30" s="0"/>
+      <c r="AKK30" s="0"/>
+      <c r="AKL30" s="0"/>
+      <c r="AKM30" s="0"/>
+      <c r="AKN30" s="0"/>
+      <c r="AKO30" s="0"/>
+      <c r="AKP30" s="0"/>
+      <c r="AKQ30" s="0"/>
+      <c r="AKR30" s="0"/>
+      <c r="AKS30" s="0"/>
+      <c r="AKT30" s="0"/>
+      <c r="AKU30" s="0"/>
+      <c r="AKV30" s="0"/>
+      <c r="AKW30" s="0"/>
+      <c r="AKX30" s="0"/>
+      <c r="AKY30" s="0"/>
+      <c r="AKZ30" s="0"/>
+      <c r="ALA30" s="0"/>
+      <c r="ALB30" s="0"/>
+      <c r="ALC30" s="0"/>
+      <c r="ALD30" s="0"/>
+      <c r="ALE30" s="0"/>
+      <c r="ALF30" s="0"/>
+      <c r="ALG30" s="0"/>
+      <c r="ALH30" s="0"/>
+      <c r="ALI30" s="0"/>
+      <c r="ALJ30" s="0"/>
+      <c r="ALK30" s="0"/>
+      <c r="ALL30" s="0"/>
+      <c r="ALM30" s="0"/>
+      <c r="ALN30" s="0"/>
+      <c r="ALO30" s="0"/>
+      <c r="ALP30" s="0"/>
+      <c r="ALQ30" s="0"/>
+      <c r="ALR30" s="0"/>
+      <c r="ALS30" s="0"/>
+      <c r="ALT30" s="0"/>
+      <c r="ALU30" s="0"/>
+      <c r="ALV30" s="0"/>
+      <c r="ALW30" s="0"/>
+      <c r="ALX30" s="0"/>
+      <c r="ALY30" s="0"/>
+      <c r="ALZ30" s="0"/>
+      <c r="AMA30" s="0"/>
+      <c r="AMB30" s="0"/>
+      <c r="AMC30" s="0"/>
+      <c r="AMD30" s="0"/>
+      <c r="AME30" s="0"/>
+      <c r="AMF30" s="0"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="6"/>
       <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
+      <c r="AL31" s="0"/>
+      <c r="AM31" s="0"/>
+      <c r="AN31" s="0"/>
+      <c r="AO31" s="0"/>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+      <c r="AR31" s="0"/>
+      <c r="AS31" s="0"/>
+      <c r="AT31" s="0"/>
+      <c r="AU31" s="0"/>
+      <c r="AV31" s="0"/>
+      <c r="AW31" s="0"/>
+      <c r="AX31" s="0"/>
+      <c r="AY31" s="0"/>
+      <c r="AZ31" s="0"/>
+      <c r="BA31" s="0"/>
+      <c r="BB31" s="0"/>
+      <c r="BC31" s="0"/>
+      <c r="BD31" s="0"/>
+      <c r="BE31" s="0"/>
+      <c r="BF31" s="0"/>
+      <c r="BG31" s="0"/>
+      <c r="BH31" s="0"/>
+      <c r="BI31" s="0"/>
+      <c r="BJ31" s="0"/>
+      <c r="BK31" s="0"/>
+      <c r="BL31" s="0"/>
+      <c r="BM31" s="0"/>
+      <c r="BN31" s="0"/>
+      <c r="BO31" s="0"/>
+      <c r="BP31" s="0"/>
+      <c r="BQ31" s="0"/>
+      <c r="BR31" s="0"/>
+      <c r="BS31" s="0"/>
+      <c r="BT31" s="0"/>
+      <c r="BU31" s="0"/>
+      <c r="BV31" s="0"/>
+      <c r="BW31" s="0"/>
+      <c r="BX31" s="0"/>
+      <c r="BY31" s="0"/>
+      <c r="BZ31" s="0"/>
+      <c r="CA31" s="0"/>
+      <c r="CB31" s="0"/>
+      <c r="CC31" s="0"/>
+      <c r="CD31" s="0"/>
+      <c r="CE31" s="0"/>
+      <c r="CF31" s="0"/>
+      <c r="CG31" s="0"/>
+      <c r="CH31" s="0"/>
+      <c r="CI31" s="0"/>
+      <c r="CJ31" s="0"/>
+      <c r="CK31" s="0"/>
+      <c r="CL31" s="0"/>
+      <c r="CM31" s="0"/>
+      <c r="CN31" s="0"/>
+      <c r="CO31" s="0"/>
+      <c r="CP31" s="0"/>
+      <c r="CQ31" s="0"/>
+      <c r="CR31" s="0"/>
+      <c r="CS31" s="0"/>
+      <c r="CT31" s="0"/>
+      <c r="CU31" s="0"/>
+      <c r="CV31" s="0"/>
+      <c r="CW31" s="0"/>
+      <c r="CX31" s="0"/>
+      <c r="CY31" s="0"/>
+      <c r="CZ31" s="0"/>
+      <c r="DA31" s="0"/>
+      <c r="DB31" s="0"/>
+      <c r="DC31" s="0"/>
+      <c r="DD31" s="0"/>
+      <c r="DE31" s="0"/>
+      <c r="DF31" s="0"/>
+      <c r="DG31" s="0"/>
+      <c r="DH31" s="0"/>
+      <c r="DI31" s="0"/>
+      <c r="DJ31" s="0"/>
+      <c r="DK31" s="0"/>
+      <c r="DL31" s="0"/>
+      <c r="DM31" s="0"/>
+      <c r="DN31" s="0"/>
+      <c r="DO31" s="0"/>
+      <c r="DP31" s="0"/>
+      <c r="DQ31" s="0"/>
+      <c r="DR31" s="0"/>
+      <c r="DS31" s="0"/>
+      <c r="DT31" s="0"/>
+      <c r="DU31" s="0"/>
+      <c r="DV31" s="0"/>
+      <c r="DW31" s="0"/>
+      <c r="DX31" s="0"/>
+      <c r="DY31" s="0"/>
+      <c r="DZ31" s="0"/>
+      <c r="EA31" s="0"/>
+      <c r="EB31" s="0"/>
+      <c r="EC31" s="0"/>
+      <c r="ED31" s="0"/>
+      <c r="EE31" s="0"/>
+      <c r="EF31" s="0"/>
+      <c r="EG31" s="0"/>
+      <c r="EH31" s="0"/>
+      <c r="EI31" s="0"/>
+      <c r="EJ31" s="0"/>
+      <c r="EK31" s="0"/>
+      <c r="EL31" s="0"/>
+      <c r="EM31" s="0"/>
+      <c r="EN31" s="0"/>
+      <c r="EO31" s="0"/>
+      <c r="EP31" s="0"/>
+      <c r="EQ31" s="0"/>
+      <c r="ER31" s="0"/>
+      <c r="ES31" s="0"/>
+      <c r="ET31" s="0"/>
+      <c r="EU31" s="0"/>
+      <c r="EV31" s="0"/>
+      <c r="EW31" s="0"/>
+      <c r="EX31" s="0"/>
+      <c r="EY31" s="0"/>
+      <c r="EZ31" s="0"/>
+      <c r="FA31" s="0"/>
+      <c r="FB31" s="0"/>
+      <c r="FC31" s="0"/>
+      <c r="FD31" s="0"/>
+      <c r="FE31" s="0"/>
+      <c r="FF31" s="0"/>
+      <c r="FG31" s="0"/>
+      <c r="FH31" s="0"/>
+      <c r="FI31" s="0"/>
+      <c r="FJ31" s="0"/>
+      <c r="FK31" s="0"/>
+      <c r="FL31" s="0"/>
+      <c r="FM31" s="0"/>
+      <c r="FN31" s="0"/>
+      <c r="FO31" s="0"/>
+      <c r="FP31" s="0"/>
+      <c r="FQ31" s="0"/>
+      <c r="FR31" s="0"/>
+      <c r="FS31" s="0"/>
+      <c r="FT31" s="0"/>
+      <c r="FU31" s="0"/>
+      <c r="FV31" s="0"/>
+      <c r="FW31" s="0"/>
+      <c r="FX31" s="0"/>
+      <c r="FY31" s="0"/>
+      <c r="FZ31" s="0"/>
+      <c r="GA31" s="0"/>
+      <c r="GB31" s="0"/>
+      <c r="GC31" s="0"/>
+      <c r="GD31" s="0"/>
+      <c r="GE31" s="0"/>
+      <c r="GF31" s="0"/>
+      <c r="GG31" s="0"/>
+      <c r="GH31" s="0"/>
+      <c r="GI31" s="0"/>
+      <c r="GJ31" s="0"/>
+      <c r="GK31" s="0"/>
+      <c r="GL31" s="0"/>
+      <c r="GM31" s="0"/>
+      <c r="GN31" s="0"/>
+      <c r="GO31" s="0"/>
+      <c r="GP31" s="0"/>
+      <c r="GQ31" s="0"/>
+      <c r="GR31" s="0"/>
+      <c r="GS31" s="0"/>
+      <c r="GT31" s="0"/>
+      <c r="GU31" s="0"/>
+      <c r="GV31" s="0"/>
+      <c r="GW31" s="0"/>
+      <c r="GX31" s="0"/>
+      <c r="GY31" s="0"/>
+      <c r="GZ31" s="0"/>
+      <c r="HA31" s="0"/>
+      <c r="HB31" s="0"/>
+      <c r="HC31" s="0"/>
+      <c r="HD31" s="0"/>
+      <c r="HE31" s="0"/>
+      <c r="HF31" s="0"/>
+      <c r="HG31" s="0"/>
+      <c r="HH31" s="0"/>
+      <c r="HI31" s="0"/>
+      <c r="HJ31" s="0"/>
+      <c r="HK31" s="0"/>
+      <c r="HL31" s="0"/>
+      <c r="HM31" s="0"/>
+      <c r="HN31" s="0"/>
+      <c r="HO31" s="0"/>
+      <c r="HP31" s="0"/>
+      <c r="HQ31" s="0"/>
+      <c r="HR31" s="0"/>
+      <c r="HS31" s="0"/>
+      <c r="HT31" s="0"/>
+      <c r="HU31" s="0"/>
+      <c r="HV31" s="0"/>
+      <c r="HW31" s="0"/>
+      <c r="HX31" s="0"/>
+      <c r="HY31" s="0"/>
+      <c r="HZ31" s="0"/>
+      <c r="IA31" s="0"/>
+      <c r="IB31" s="0"/>
+      <c r="IC31" s="0"/>
+      <c r="ID31" s="0"/>
+      <c r="IE31" s="0"/>
+      <c r="IF31" s="0"/>
+      <c r="IG31" s="0"/>
+      <c r="IH31" s="0"/>
+      <c r="II31" s="0"/>
+      <c r="IJ31" s="0"/>
+      <c r="IK31" s="0"/>
+      <c r="IL31" s="0"/>
+      <c r="IM31" s="0"/>
+      <c r="IN31" s="0"/>
+      <c r="IO31" s="0"/>
+      <c r="IP31" s="0"/>
+      <c r="IQ31" s="0"/>
+      <c r="IR31" s="0"/>
+      <c r="IS31" s="0"/>
+      <c r="IT31" s="0"/>
+      <c r="IU31" s="0"/>
+      <c r="IV31" s="0"/>
+      <c r="IW31" s="0"/>
+      <c r="IX31" s="0"/>
+      <c r="IY31" s="0"/>
+      <c r="IZ31" s="0"/>
+      <c r="JA31" s="0"/>
+      <c r="JB31" s="0"/>
+      <c r="JC31" s="0"/>
+      <c r="JD31" s="0"/>
+      <c r="JE31" s="0"/>
+      <c r="JF31" s="0"/>
+      <c r="JG31" s="0"/>
+      <c r="JH31" s="0"/>
+      <c r="JI31" s="0"/>
+      <c r="JJ31" s="0"/>
+      <c r="JK31" s="0"/>
+      <c r="JL31" s="0"/>
+      <c r="JM31" s="0"/>
+      <c r="JN31" s="0"/>
+      <c r="JO31" s="0"/>
+      <c r="JP31" s="0"/>
+      <c r="JQ31" s="0"/>
+      <c r="JR31" s="0"/>
+      <c r="JS31" s="0"/>
+      <c r="JT31" s="0"/>
+      <c r="JU31" s="0"/>
+      <c r="JV31" s="0"/>
+      <c r="JW31" s="0"/>
+      <c r="JX31" s="0"/>
+      <c r="JY31" s="0"/>
+      <c r="JZ31" s="0"/>
+      <c r="KA31" s="0"/>
+      <c r="KB31" s="0"/>
+      <c r="KC31" s="0"/>
+      <c r="KD31" s="0"/>
+      <c r="KE31" s="0"/>
+      <c r="KF31" s="0"/>
+      <c r="KG31" s="0"/>
+      <c r="KH31" s="0"/>
+      <c r="KI31" s="0"/>
+      <c r="KJ31" s="0"/>
+      <c r="KK31" s="0"/>
+      <c r="KL31" s="0"/>
+      <c r="KM31" s="0"/>
+      <c r="KN31" s="0"/>
+      <c r="KO31" s="0"/>
+      <c r="KP31" s="0"/>
+      <c r="KQ31" s="0"/>
+      <c r="KR31" s="0"/>
+      <c r="KS31" s="0"/>
+      <c r="KT31" s="0"/>
+      <c r="KU31" s="0"/>
+      <c r="KV31" s="0"/>
+      <c r="KW31" s="0"/>
+      <c r="KX31" s="0"/>
+      <c r="KY31" s="0"/>
+      <c r="KZ31" s="0"/>
+      <c r="LA31" s="0"/>
+      <c r="LB31" s="0"/>
+      <c r="LC31" s="0"/>
+      <c r="LD31" s="0"/>
+      <c r="LE31" s="0"/>
+      <c r="LF31" s="0"/>
+      <c r="LG31" s="0"/>
+      <c r="LH31" s="0"/>
+      <c r="LI31" s="0"/>
+      <c r="LJ31" s="0"/>
+      <c r="LK31" s="0"/>
+      <c r="LL31" s="0"/>
+      <c r="LM31" s="0"/>
+      <c r="LN31" s="0"/>
+      <c r="LO31" s="0"/>
+      <c r="LP31" s="0"/>
+      <c r="LQ31" s="0"/>
+      <c r="LR31" s="0"/>
+      <c r="LS31" s="0"/>
+      <c r="LT31" s="0"/>
+      <c r="LU31" s="0"/>
+      <c r="LV31" s="0"/>
+      <c r="LW31" s="0"/>
+      <c r="LX31" s="0"/>
+      <c r="LY31" s="0"/>
+      <c r="LZ31" s="0"/>
+      <c r="MA31" s="0"/>
+      <c r="MB31" s="0"/>
+      <c r="MC31" s="0"/>
+      <c r="MD31" s="0"/>
+      <c r="ME31" s="0"/>
+      <c r="MF31" s="0"/>
+      <c r="MG31" s="0"/>
+      <c r="MH31" s="0"/>
+      <c r="MI31" s="0"/>
+      <c r="MJ31" s="0"/>
+      <c r="MK31" s="0"/>
+      <c r="ML31" s="0"/>
+      <c r="MM31" s="0"/>
+      <c r="MN31" s="0"/>
+      <c r="MO31" s="0"/>
+      <c r="MP31" s="0"/>
+      <c r="MQ31" s="0"/>
+      <c r="MR31" s="0"/>
+      <c r="MS31" s="0"/>
+      <c r="MT31" s="0"/>
+      <c r="MU31" s="0"/>
+      <c r="MV31" s="0"/>
+      <c r="MW31" s="0"/>
+      <c r="MX31" s="0"/>
+      <c r="MY31" s="0"/>
+      <c r="MZ31" s="0"/>
+      <c r="NA31" s="0"/>
+      <c r="NB31" s="0"/>
+      <c r="NC31" s="0"/>
+      <c r="ND31" s="0"/>
+      <c r="NE31" s="0"/>
+      <c r="NF31" s="0"/>
+      <c r="NG31" s="0"/>
+      <c r="NH31" s="0"/>
+      <c r="NI31" s="0"/>
+      <c r="NJ31" s="0"/>
+      <c r="NK31" s="0"/>
+      <c r="NL31" s="0"/>
+      <c r="NM31" s="0"/>
+      <c r="NN31" s="0"/>
+      <c r="NO31" s="0"/>
+      <c r="NP31" s="0"/>
+      <c r="NQ31" s="0"/>
+      <c r="NR31" s="0"/>
+      <c r="NS31" s="0"/>
+      <c r="NT31" s="0"/>
+      <c r="NU31" s="0"/>
+      <c r="NV31" s="0"/>
+      <c r="NW31" s="0"/>
+      <c r="NX31" s="0"/>
+      <c r="NY31" s="0"/>
+      <c r="NZ31" s="0"/>
+      <c r="OA31" s="0"/>
+      <c r="OB31" s="0"/>
+      <c r="OC31" s="0"/>
+      <c r="OD31" s="0"/>
+      <c r="OE31" s="0"/>
+      <c r="OF31" s="0"/>
+      <c r="OG31" s="0"/>
+      <c r="OH31" s="0"/>
+      <c r="OI31" s="0"/>
+      <c r="OJ31" s="0"/>
+      <c r="OK31" s="0"/>
+      <c r="OL31" s="0"/>
+      <c r="OM31" s="0"/>
+      <c r="ON31" s="0"/>
+      <c r="OO31" s="0"/>
+      <c r="OP31" s="0"/>
+      <c r="OQ31" s="0"/>
+      <c r="OR31" s="0"/>
+      <c r="OS31" s="0"/>
+      <c r="OT31" s="0"/>
+      <c r="OU31" s="0"/>
+      <c r="OV31" s="0"/>
+      <c r="OW31" s="0"/>
+      <c r="OX31" s="0"/>
+      <c r="OY31" s="0"/>
+      <c r="OZ31" s="0"/>
+      <c r="PA31" s="0"/>
+      <c r="PB31" s="0"/>
+      <c r="PC31" s="0"/>
+      <c r="PD31" s="0"/>
+      <c r="PE31" s="0"/>
+      <c r="PF31" s="0"/>
+      <c r="PG31" s="0"/>
+      <c r="PH31" s="0"/>
+      <c r="PI31" s="0"/>
+      <c r="PJ31" s="0"/>
+      <c r="PK31" s="0"/>
+      <c r="PL31" s="0"/>
+      <c r="PM31" s="0"/>
+      <c r="PN31" s="0"/>
+      <c r="PO31" s="0"/>
+      <c r="PP31" s="0"/>
+      <c r="PQ31" s="0"/>
+      <c r="PR31" s="0"/>
+      <c r="PS31" s="0"/>
+      <c r="PT31" s="0"/>
+      <c r="PU31" s="0"/>
+      <c r="PV31" s="0"/>
+      <c r="PW31" s="0"/>
+      <c r="PX31" s="0"/>
+      <c r="PY31" s="0"/>
+      <c r="PZ31" s="0"/>
+      <c r="QA31" s="0"/>
+      <c r="QB31" s="0"/>
+      <c r="QC31" s="0"/>
+      <c r="QD31" s="0"/>
+      <c r="QE31" s="0"/>
+      <c r="QF31" s="0"/>
+      <c r="QG31" s="0"/>
+      <c r="QH31" s="0"/>
+      <c r="QI31" s="0"/>
+      <c r="QJ31" s="0"/>
+      <c r="QK31" s="0"/>
+      <c r="QL31" s="0"/>
+      <c r="QM31" s="0"/>
+      <c r="QN31" s="0"/>
+      <c r="QO31" s="0"/>
+      <c r="QP31" s="0"/>
+      <c r="QQ31" s="0"/>
+      <c r="QR31" s="0"/>
+      <c r="QS31" s="0"/>
+      <c r="QT31" s="0"/>
+      <c r="QU31" s="0"/>
+      <c r="QV31" s="0"/>
+      <c r="QW31" s="0"/>
+      <c r="QX31" s="0"/>
+      <c r="QY31" s="0"/>
+      <c r="QZ31" s="0"/>
+      <c r="RA31" s="0"/>
+      <c r="RB31" s="0"/>
+      <c r="RC31" s="0"/>
+      <c r="RD31" s="0"/>
+      <c r="RE31" s="0"/>
+      <c r="RF31" s="0"/>
+      <c r="RG31" s="0"/>
+      <c r="RH31" s="0"/>
+      <c r="RI31" s="0"/>
+      <c r="RJ31" s="0"/>
+      <c r="RK31" s="0"/>
+      <c r="RL31" s="0"/>
+      <c r="RM31" s="0"/>
+      <c r="RN31" s="0"/>
+      <c r="RO31" s="0"/>
+      <c r="RP31" s="0"/>
+      <c r="RQ31" s="0"/>
+      <c r="RR31" s="0"/>
+      <c r="RS31" s="0"/>
+      <c r="RT31" s="0"/>
+      <c r="RU31" s="0"/>
+      <c r="RV31" s="0"/>
+      <c r="RW31" s="0"/>
+      <c r="RX31" s="0"/>
+      <c r="RY31" s="0"/>
+      <c r="RZ31" s="0"/>
+      <c r="SA31" s="0"/>
+      <c r="SB31" s="0"/>
+      <c r="SC31" s="0"/>
+      <c r="SD31" s="0"/>
+      <c r="SE31" s="0"/>
+      <c r="SF31" s="0"/>
+      <c r="SG31" s="0"/>
+      <c r="SH31" s="0"/>
+      <c r="SI31" s="0"/>
+      <c r="SJ31" s="0"/>
+      <c r="SK31" s="0"/>
+      <c r="SL31" s="0"/>
+      <c r="SM31" s="0"/>
+      <c r="SN31" s="0"/>
+      <c r="SO31" s="0"/>
+      <c r="SP31" s="0"/>
+      <c r="SQ31" s="0"/>
+      <c r="SR31" s="0"/>
+      <c r="SS31" s="0"/>
+      <c r="ST31" s="0"/>
+      <c r="SU31" s="0"/>
+      <c r="SV31" s="0"/>
+      <c r="SW31" s="0"/>
+      <c r="SX31" s="0"/>
+      <c r="SY31" s="0"/>
+      <c r="SZ31" s="0"/>
+      <c r="TA31" s="0"/>
+      <c r="TB31" s="0"/>
+      <c r="TC31" s="0"/>
+      <c r="TD31" s="0"/>
+      <c r="TE31" s="0"/>
+      <c r="TF31" s="0"/>
+      <c r="TG31" s="0"/>
+      <c r="TH31" s="0"/>
+      <c r="TI31" s="0"/>
+      <c r="TJ31" s="0"/>
+      <c r="TK31" s="0"/>
+      <c r="TL31" s="0"/>
+      <c r="TM31" s="0"/>
+      <c r="TN31" s="0"/>
+      <c r="TO31" s="0"/>
+      <c r="TP31" s="0"/>
+      <c r="TQ31" s="0"/>
+      <c r="TR31" s="0"/>
+      <c r="TS31" s="0"/>
+      <c r="TT31" s="0"/>
+      <c r="TU31" s="0"/>
+      <c r="TV31" s="0"/>
+      <c r="TW31" s="0"/>
+      <c r="TX31" s="0"/>
+      <c r="TY31" s="0"/>
+      <c r="TZ31" s="0"/>
+      <c r="UA31" s="0"/>
+      <c r="UB31" s="0"/>
+      <c r="UC31" s="0"/>
+      <c r="UD31" s="0"/>
+      <c r="UE31" s="0"/>
+      <c r="UF31" s="0"/>
+      <c r="UG31" s="0"/>
+      <c r="UH31" s="0"/>
+      <c r="UI31" s="0"/>
+      <c r="UJ31" s="0"/>
+      <c r="UK31" s="0"/>
+      <c r="UL31" s="0"/>
+      <c r="UM31" s="0"/>
+      <c r="UN31" s="0"/>
+      <c r="UO31" s="0"/>
+      <c r="UP31" s="0"/>
+      <c r="UQ31" s="0"/>
+      <c r="UR31" s="0"/>
+      <c r="US31" s="0"/>
+      <c r="UT31" s="0"/>
+      <c r="UU31" s="0"/>
+      <c r="UV31" s="0"/>
+      <c r="UW31" s="0"/>
+      <c r="UX31" s="0"/>
+      <c r="UY31" s="0"/>
+      <c r="UZ31" s="0"/>
+      <c r="VA31" s="0"/>
+      <c r="VB31" s="0"/>
+      <c r="VC31" s="0"/>
+      <c r="VD31" s="0"/>
+      <c r="VE31" s="0"/>
+      <c r="VF31" s="0"/>
+      <c r="VG31" s="0"/>
+      <c r="VH31" s="0"/>
+      <c r="VI31" s="0"/>
+      <c r="VJ31" s="0"/>
+      <c r="VK31" s="0"/>
+      <c r="VL31" s="0"/>
+      <c r="VM31" s="0"/>
+      <c r="VN31" s="0"/>
+      <c r="VO31" s="0"/>
+      <c r="VP31" s="0"/>
+      <c r="VQ31" s="0"/>
+      <c r="VR31" s="0"/>
+      <c r="VS31" s="0"/>
+      <c r="VT31" s="0"/>
+      <c r="VU31" s="0"/>
+      <c r="VV31" s="0"/>
+      <c r="VW31" s="0"/>
+      <c r="VX31" s="0"/>
+      <c r="VY31" s="0"/>
+      <c r="VZ31" s="0"/>
+      <c r="WA31" s="0"/>
+      <c r="WB31" s="0"/>
+      <c r="WC31" s="0"/>
+      <c r="WD31" s="0"/>
+      <c r="WE31" s="0"/>
+      <c r="WF31" s="0"/>
+      <c r="WG31" s="0"/>
+      <c r="WH31" s="0"/>
+      <c r="WI31" s="0"/>
+      <c r="WJ31" s="0"/>
+      <c r="WK31" s="0"/>
+      <c r="WL31" s="0"/>
+      <c r="WM31" s="0"/>
+      <c r="WN31" s="0"/>
+      <c r="WO31" s="0"/>
+      <c r="WP31" s="0"/>
+      <c r="WQ31" s="0"/>
+      <c r="WR31" s="0"/>
+      <c r="WS31" s="0"/>
+      <c r="WT31" s="0"/>
+      <c r="WU31" s="0"/>
+      <c r="WV31" s="0"/>
+      <c r="WW31" s="0"/>
+      <c r="WX31" s="0"/>
+      <c r="WY31" s="0"/>
+      <c r="WZ31" s="0"/>
+      <c r="XA31" s="0"/>
+      <c r="XB31" s="0"/>
+      <c r="XC31" s="0"/>
+      <c r="XD31" s="0"/>
+      <c r="XE31" s="0"/>
+      <c r="XF31" s="0"/>
+      <c r="XG31" s="0"/>
+      <c r="XH31" s="0"/>
+      <c r="XI31" s="0"/>
+      <c r="XJ31" s="0"/>
+      <c r="XK31" s="0"/>
+      <c r="XL31" s="0"/>
+      <c r="XM31" s="0"/>
+      <c r="XN31" s="0"/>
+      <c r="XO31" s="0"/>
+      <c r="XP31" s="0"/>
+      <c r="XQ31" s="0"/>
+      <c r="XR31" s="0"/>
+      <c r="XS31" s="0"/>
+      <c r="XT31" s="0"/>
+      <c r="XU31" s="0"/>
+      <c r="XV31" s="0"/>
+      <c r="XW31" s="0"/>
+      <c r="XX31" s="0"/>
+      <c r="XY31" s="0"/>
+      <c r="XZ31" s="0"/>
+      <c r="YA31" s="0"/>
+      <c r="YB31" s="0"/>
+      <c r="YC31" s="0"/>
+      <c r="YD31" s="0"/>
+      <c r="YE31" s="0"/>
+      <c r="YF31" s="0"/>
+      <c r="YG31" s="0"/>
+      <c r="YH31" s="0"/>
+      <c r="YI31" s="0"/>
+      <c r="YJ31" s="0"/>
+      <c r="YK31" s="0"/>
+      <c r="YL31" s="0"/>
+      <c r="YM31" s="0"/>
+      <c r="YN31" s="0"/>
+      <c r="YO31" s="0"/>
+      <c r="YP31" s="0"/>
+      <c r="YQ31" s="0"/>
+      <c r="YR31" s="0"/>
+      <c r="YS31" s="0"/>
+      <c r="YT31" s="0"/>
+      <c r="YU31" s="0"/>
+      <c r="YV31" s="0"/>
+      <c r="YW31" s="0"/>
+      <c r="YX31" s="0"/>
+      <c r="YY31" s="0"/>
+      <c r="YZ31" s="0"/>
+      <c r="ZA31" s="0"/>
+      <c r="ZB31" s="0"/>
+      <c r="ZC31" s="0"/>
+      <c r="ZD31" s="0"/>
+      <c r="ZE31" s="0"/>
+      <c r="ZF31" s="0"/>
+      <c r="ZG31" s="0"/>
+      <c r="ZH31" s="0"/>
+      <c r="ZI31" s="0"/>
+      <c r="ZJ31" s="0"/>
+      <c r="ZK31" s="0"/>
+      <c r="ZL31" s="0"/>
+      <c r="ZM31" s="0"/>
+      <c r="ZN31" s="0"/>
+      <c r="ZO31" s="0"/>
+      <c r="ZP31" s="0"/>
+      <c r="ZQ31" s="0"/>
+      <c r="ZR31" s="0"/>
+      <c r="ZS31" s="0"/>
+      <c r="ZT31" s="0"/>
+      <c r="ZU31" s="0"/>
+      <c r="ZV31" s="0"/>
+      <c r="ZW31" s="0"/>
+      <c r="ZX31" s="0"/>
+      <c r="ZY31" s="0"/>
+      <c r="ZZ31" s="0"/>
+      <c r="AAA31" s="0"/>
+      <c r="AAB31" s="0"/>
+      <c r="AAC31" s="0"/>
+      <c r="AAD31" s="0"/>
+      <c r="AAE31" s="0"/>
+      <c r="AAF31" s="0"/>
+      <c r="AAG31" s="0"/>
+      <c r="AAH31" s="0"/>
+      <c r="AAI31" s="0"/>
+      <c r="AAJ31" s="0"/>
+      <c r="AAK31" s="0"/>
+      <c r="AAL31" s="0"/>
+      <c r="AAM31" s="0"/>
+      <c r="AAN31" s="0"/>
+      <c r="AAO31" s="0"/>
+      <c r="AAP31" s="0"/>
+      <c r="AAQ31" s="0"/>
+      <c r="AAR31" s="0"/>
+      <c r="AAS31" s="0"/>
+      <c r="AAT31" s="0"/>
+      <c r="AAU31" s="0"/>
+      <c r="AAV31" s="0"/>
+      <c r="AAW31" s="0"/>
+      <c r="AAX31" s="0"/>
+      <c r="AAY31" s="0"/>
+      <c r="AAZ31" s="0"/>
+      <c r="ABA31" s="0"/>
+      <c r="ABB31" s="0"/>
+      <c r="ABC31" s="0"/>
+      <c r="ABD31" s="0"/>
+      <c r="ABE31" s="0"/>
+      <c r="ABF31" s="0"/>
+      <c r="ABG31" s="0"/>
+      <c r="ABH31" s="0"/>
+      <c r="ABI31" s="0"/>
+      <c r="ABJ31" s="0"/>
+      <c r="ABK31" s="0"/>
+      <c r="ABL31" s="0"/>
+      <c r="ABM31" s="0"/>
+      <c r="ABN31" s="0"/>
+      <c r="ABO31" s="0"/>
+      <c r="ABP31" s="0"/>
+      <c r="ABQ31" s="0"/>
+      <c r="ABR31" s="0"/>
+      <c r="ABS31" s="0"/>
+      <c r="ABT31" s="0"/>
+      <c r="ABU31" s="0"/>
+      <c r="ABV31" s="0"/>
+      <c r="ABW31" s="0"/>
+      <c r="ABX31" s="0"/>
+      <c r="ABY31" s="0"/>
+      <c r="ABZ31" s="0"/>
+      <c r="ACA31" s="0"/>
+      <c r="ACB31" s="0"/>
+      <c r="ACC31" s="0"/>
+      <c r="ACD31" s="0"/>
+      <c r="ACE31" s="0"/>
+      <c r="ACF31" s="0"/>
+      <c r="ACG31" s="0"/>
+      <c r="ACH31" s="0"/>
+      <c r="ACI31" s="0"/>
+      <c r="ACJ31" s="0"/>
+      <c r="ACK31" s="0"/>
+      <c r="ACL31" s="0"/>
+      <c r="ACM31" s="0"/>
+      <c r="ACN31" s="0"/>
+      <c r="ACO31" s="0"/>
+      <c r="ACP31" s="0"/>
+      <c r="ACQ31" s="0"/>
+      <c r="ACR31" s="0"/>
+      <c r="ACS31" s="0"/>
+      <c r="ACT31" s="0"/>
+      <c r="ACU31" s="0"/>
+      <c r="ACV31" s="0"/>
+      <c r="ACW31" s="0"/>
+      <c r="ACX31" s="0"/>
+      <c r="ACY31" s="0"/>
+      <c r="ACZ31" s="0"/>
+      <c r="ADA31" s="0"/>
+      <c r="ADB31" s="0"/>
+      <c r="ADC31" s="0"/>
+      <c r="ADD31" s="0"/>
+      <c r="ADE31" s="0"/>
+      <c r="ADF31" s="0"/>
+      <c r="ADG31" s="0"/>
+      <c r="ADH31" s="0"/>
+      <c r="ADI31" s="0"/>
+      <c r="ADJ31" s="0"/>
+      <c r="ADK31" s="0"/>
+      <c r="ADL31" s="0"/>
+      <c r="ADM31" s="0"/>
+      <c r="ADN31" s="0"/>
+      <c r="ADO31" s="0"/>
+      <c r="ADP31" s="0"/>
+      <c r="ADQ31" s="0"/>
+      <c r="ADR31" s="0"/>
+      <c r="ADS31" s="0"/>
+      <c r="ADT31" s="0"/>
+      <c r="ADU31" s="0"/>
+      <c r="ADV31" s="0"/>
+      <c r="ADW31" s="0"/>
+      <c r="ADX31" s="0"/>
+      <c r="ADY31" s="0"/>
+      <c r="ADZ31" s="0"/>
+      <c r="AEA31" s="0"/>
+      <c r="AEB31" s="0"/>
+      <c r="AEC31" s="0"/>
+      <c r="AED31" s="0"/>
+      <c r="AEE31" s="0"/>
+      <c r="AEF31" s="0"/>
+      <c r="AEG31" s="0"/>
+      <c r="AEH31" s="0"/>
+      <c r="AEI31" s="0"/>
+      <c r="AEJ31" s="0"/>
+      <c r="AEK31" s="0"/>
+      <c r="AEL31" s="0"/>
+      <c r="AEM31" s="0"/>
+      <c r="AEN31" s="0"/>
+      <c r="AEO31" s="0"/>
+      <c r="AEP31" s="0"/>
+      <c r="AEQ31" s="0"/>
+      <c r="AER31" s="0"/>
+      <c r="AES31" s="0"/>
+      <c r="AET31" s="0"/>
+      <c r="AEU31" s="0"/>
+      <c r="AEV31" s="0"/>
+      <c r="AEW31" s="0"/>
+      <c r="AEX31" s="0"/>
+      <c r="AEY31" s="0"/>
+      <c r="AEZ31" s="0"/>
+      <c r="AFA31" s="0"/>
+      <c r="AFB31" s="0"/>
+      <c r="AFC31" s="0"/>
+      <c r="AFD31" s="0"/>
+      <c r="AFE31" s="0"/>
+      <c r="AFF31" s="0"/>
+      <c r="AFG31" s="0"/>
+      <c r="AFH31" s="0"/>
+      <c r="AFI31" s="0"/>
+      <c r="AFJ31" s="0"/>
+      <c r="AFK31" s="0"/>
+      <c r="AFL31" s="0"/>
+      <c r="AFM31" s="0"/>
+      <c r="AFN31" s="0"/>
+      <c r="AFO31" s="0"/>
+      <c r="AFP31" s="0"/>
+      <c r="AFQ31" s="0"/>
+      <c r="AFR31" s="0"/>
+      <c r="AFS31" s="0"/>
+      <c r="AFT31" s="0"/>
+      <c r="AFU31" s="0"/>
+      <c r="AFV31" s="0"/>
+      <c r="AFW31" s="0"/>
+      <c r="AFX31" s="0"/>
+      <c r="AFY31" s="0"/>
+      <c r="AFZ31" s="0"/>
+      <c r="AGA31" s="0"/>
+      <c r="AGB31" s="0"/>
+      <c r="AGC31" s="0"/>
+      <c r="AGD31" s="0"/>
+      <c r="AGE31" s="0"/>
+      <c r="AGF31" s="0"/>
+      <c r="AGG31" s="0"/>
+      <c r="AGH31" s="0"/>
+      <c r="AGI31" s="0"/>
+      <c r="AGJ31" s="0"/>
+      <c r="AGK31" s="0"/>
+      <c r="AGL31" s="0"/>
+      <c r="AGM31" s="0"/>
+      <c r="AGN31" s="0"/>
+      <c r="AGO31" s="0"/>
+      <c r="AGP31" s="0"/>
+      <c r="AGQ31" s="0"/>
+      <c r="AGR31" s="0"/>
+      <c r="AGS31" s="0"/>
+      <c r="AGT31" s="0"/>
+      <c r="AGU31" s="0"/>
+      <c r="AGV31" s="0"/>
+      <c r="AGW31" s="0"/>
+      <c r="AGX31" s="0"/>
+      <c r="AGY31" s="0"/>
+      <c r="AGZ31" s="0"/>
+      <c r="AHA31" s="0"/>
+      <c r="AHB31" s="0"/>
+      <c r="AHC31" s="0"/>
+      <c r="AHD31" s="0"/>
+      <c r="AHE31" s="0"/>
+      <c r="AHF31" s="0"/>
+      <c r="AHG31" s="0"/>
+      <c r="AHH31" s="0"/>
+      <c r="AHI31" s="0"/>
+      <c r="AHJ31" s="0"/>
+      <c r="AHK31" s="0"/>
+      <c r="AHL31" s="0"/>
+      <c r="AHM31" s="0"/>
+      <c r="AHN31" s="0"/>
+      <c r="AHO31" s="0"/>
+      <c r="AHP31" s="0"/>
+      <c r="AHQ31" s="0"/>
+      <c r="AHR31" s="0"/>
+      <c r="AHS31" s="0"/>
+      <c r="AHT31" s="0"/>
+      <c r="AHU31" s="0"/>
+      <c r="AHV31" s="0"/>
+      <c r="AHW31" s="0"/>
+      <c r="AHX31" s="0"/>
+      <c r="AHY31" s="0"/>
+      <c r="AHZ31" s="0"/>
+      <c r="AIA31" s="0"/>
+      <c r="AIB31" s="0"/>
+      <c r="AIC31" s="0"/>
+      <c r="AID31" s="0"/>
+      <c r="AIE31" s="0"/>
+      <c r="AIF31" s="0"/>
+      <c r="AIG31" s="0"/>
+      <c r="AIH31" s="0"/>
+      <c r="AII31" s="0"/>
+      <c r="AIJ31" s="0"/>
+      <c r="AIK31" s="0"/>
+      <c r="AIL31" s="0"/>
+      <c r="AIM31" s="0"/>
+      <c r="AIN31" s="0"/>
+      <c r="AIO31" s="0"/>
+      <c r="AIP31" s="0"/>
+      <c r="AIQ31" s="0"/>
+      <c r="AIR31" s="0"/>
+      <c r="AIS31" s="0"/>
+      <c r="AIT31" s="0"/>
+      <c r="AIU31" s="0"/>
+      <c r="AIV31" s="0"/>
+      <c r="AIW31" s="0"/>
+      <c r="AIX31" s="0"/>
+      <c r="AIY31" s="0"/>
+      <c r="AIZ31" s="0"/>
+      <c r="AJA31" s="0"/>
+      <c r="AJB31" s="0"/>
+      <c r="AJC31" s="0"/>
+      <c r="AJD31" s="0"/>
+      <c r="AJE31" s="0"/>
+      <c r="AJF31" s="0"/>
+      <c r="AJG31" s="0"/>
+      <c r="AJH31" s="0"/>
+      <c r="AJI31" s="0"/>
+      <c r="AJJ31" s="0"/>
+      <c r="AJK31" s="0"/>
+      <c r="AJL31" s="0"/>
+      <c r="AJM31" s="0"/>
+      <c r="AJN31" s="0"/>
+      <c r="AJO31" s="0"/>
+      <c r="AJP31" s="0"/>
+      <c r="AJQ31" s="0"/>
+      <c r="AJR31" s="0"/>
+      <c r="AJS31" s="0"/>
+      <c r="AJT31" s="0"/>
+      <c r="AJU31" s="0"/>
+      <c r="AJV31" s="0"/>
+      <c r="AJW31" s="0"/>
+      <c r="AJX31" s="0"/>
+      <c r="AJY31" s="0"/>
+      <c r="AJZ31" s="0"/>
+      <c r="AKA31" s="0"/>
+      <c r="AKB31" s="0"/>
+      <c r="AKC31" s="0"/>
+      <c r="AKD31" s="0"/>
+      <c r="AKE31" s="0"/>
+      <c r="AKF31" s="0"/>
+      <c r="AKG31" s="0"/>
+      <c r="AKH31" s="0"/>
+      <c r="AKI31" s="0"/>
+      <c r="AKJ31" s="0"/>
+      <c r="AKK31" s="0"/>
+      <c r="AKL31" s="0"/>
+      <c r="AKM31" s="0"/>
+      <c r="AKN31" s="0"/>
+      <c r="AKO31" s="0"/>
+      <c r="AKP31" s="0"/>
+      <c r="AKQ31" s="0"/>
+      <c r="AKR31" s="0"/>
+      <c r="AKS31" s="0"/>
+      <c r="AKT31" s="0"/>
+      <c r="AKU31" s="0"/>
+      <c r="AKV31" s="0"/>
+      <c r="AKW31" s="0"/>
+      <c r="AKX31" s="0"/>
+      <c r="AKY31" s="0"/>
+      <c r="AKZ31" s="0"/>
+      <c r="ALA31" s="0"/>
+      <c r="ALB31" s="0"/>
+      <c r="ALC31" s="0"/>
+      <c r="ALD31" s="0"/>
+      <c r="ALE31" s="0"/>
+      <c r="ALF31" s="0"/>
+      <c r="ALG31" s="0"/>
+      <c r="ALH31" s="0"/>
+      <c r="ALI31" s="0"/>
+      <c r="ALJ31" s="0"/>
+      <c r="ALK31" s="0"/>
+      <c r="ALL31" s="0"/>
+      <c r="ALM31" s="0"/>
+      <c r="ALN31" s="0"/>
+      <c r="ALO31" s="0"/>
+      <c r="ALP31" s="0"/>
+      <c r="ALQ31" s="0"/>
+      <c r="ALR31" s="0"/>
+      <c r="ALS31" s="0"/>
+      <c r="ALT31" s="0"/>
+      <c r="ALU31" s="0"/>
+      <c r="ALV31" s="0"/>
+      <c r="ALW31" s="0"/>
+      <c r="ALX31" s="0"/>
+      <c r="ALY31" s="0"/>
+      <c r="ALZ31" s="0"/>
+      <c r="AMA31" s="0"/>
+      <c r="AMB31" s="0"/>
+      <c r="AMC31" s="0"/>
+      <c r="AMD31" s="0"/>
+      <c r="AME31" s="0"/>
+      <c r="AMF31" s="0"/>
+      <c r="AMG31" s="0"/>
+      <c r="AMH31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+      <c r="AX32" s="0"/>
+      <c r="AY32" s="0"/>
+      <c r="AZ32" s="0"/>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+      <c r="BM32" s="0"/>
+      <c r="BN32" s="0"/>
+      <c r="BO32" s="0"/>
+      <c r="BP32" s="0"/>
+      <c r="BQ32" s="0"/>
+      <c r="BR32" s="0"/>
+      <c r="BS32" s="0"/>
+      <c r="BT32" s="0"/>
+      <c r="BU32" s="0"/>
+      <c r="BV32" s="0"/>
+      <c r="BW32" s="0"/>
+      <c r="BX32" s="0"/>
+      <c r="BY32" s="0"/>
+      <c r="BZ32" s="0"/>
+      <c r="CA32" s="0"/>
+      <c r="CB32" s="0"/>
+      <c r="CC32" s="0"/>
+      <c r="CD32" s="0"/>
+      <c r="CE32" s="0"/>
+      <c r="CF32" s="0"/>
+      <c r="CG32" s="0"/>
+      <c r="CH32" s="0"/>
+      <c r="CI32" s="0"/>
+      <c r="CJ32" s="0"/>
+      <c r="CK32" s="0"/>
+      <c r="CL32" s="0"/>
+      <c r="CM32" s="0"/>
+      <c r="CN32" s="0"/>
+      <c r="CO32" s="0"/>
+      <c r="CP32" s="0"/>
+      <c r="CQ32" s="0"/>
+      <c r="CR32" s="0"/>
+      <c r="CS32" s="0"/>
+      <c r="CT32" s="0"/>
+      <c r="CU32" s="0"/>
+      <c r="CV32" s="0"/>
+      <c r="CW32" s="0"/>
+      <c r="CX32" s="0"/>
+      <c r="CY32" s="0"/>
+      <c r="CZ32" s="0"/>
+      <c r="DA32" s="0"/>
+      <c r="DB32" s="0"/>
+      <c r="DC32" s="0"/>
+      <c r="DD32" s="0"/>
+      <c r="DE32" s="0"/>
+      <c r="DF32" s="0"/>
+      <c r="DG32" s="0"/>
+      <c r="DH32" s="0"/>
+      <c r="DI32" s="0"/>
+      <c r="DJ32" s="0"/>
+      <c r="DK32" s="0"/>
+      <c r="DL32" s="0"/>
+      <c r="DM32" s="0"/>
+      <c r="DN32" s="0"/>
+      <c r="DO32" s="0"/>
+      <c r="DP32" s="0"/>
+      <c r="DQ32" s="0"/>
+      <c r="DR32" s="0"/>
+      <c r="DS32" s="0"/>
+      <c r="DT32" s="0"/>
+      <c r="DU32" s="0"/>
+      <c r="DV32" s="0"/>
+      <c r="DW32" s="0"/>
+      <c r="DX32" s="0"/>
+      <c r="DY32" s="0"/>
+      <c r="DZ32" s="0"/>
+      <c r="EA32" s="0"/>
+      <c r="EB32" s="0"/>
+      <c r="EC32" s="0"/>
+      <c r="ED32" s="0"/>
+      <c r="EE32" s="0"/>
+      <c r="EF32" s="0"/>
+      <c r="EG32" s="0"/>
+      <c r="EH32" s="0"/>
+      <c r="EI32" s="0"/>
+      <c r="EJ32" s="0"/>
+      <c r="EK32" s="0"/>
+      <c r="EL32" s="0"/>
+      <c r="EM32" s="0"/>
+      <c r="EN32" s="0"/>
+      <c r="EO32" s="0"/>
+      <c r="EP32" s="0"/>
+      <c r="EQ32" s="0"/>
+      <c r="ER32" s="0"/>
+      <c r="ES32" s="0"/>
+      <c r="ET32" s="0"/>
+      <c r="EU32" s="0"/>
+      <c r="EV32" s="0"/>
+      <c r="EW32" s="0"/>
+      <c r="EX32" s="0"/>
+      <c r="EY32" s="0"/>
+      <c r="EZ32" s="0"/>
+      <c r="FA32" s="0"/>
+      <c r="FB32" s="0"/>
+      <c r="FC32" s="0"/>
+      <c r="FD32" s="0"/>
+      <c r="FE32" s="0"/>
+      <c r="FF32" s="0"/>
+      <c r="FG32" s="0"/>
+      <c r="FH32" s="0"/>
+      <c r="FI32" s="0"/>
+      <c r="FJ32" s="0"/>
+      <c r="FK32" s="0"/>
+      <c r="FL32" s="0"/>
+      <c r="FM32" s="0"/>
+      <c r="FN32" s="0"/>
+      <c r="FO32" s="0"/>
+      <c r="FP32" s="0"/>
+      <c r="FQ32" s="0"/>
+      <c r="FR32" s="0"/>
+      <c r="FS32" s="0"/>
+      <c r="FT32" s="0"/>
+      <c r="FU32" s="0"/>
+      <c r="FV32" s="0"/>
+      <c r="FW32" s="0"/>
+      <c r="FX32" s="0"/>
+      <c r="FY32" s="0"/>
+      <c r="FZ32" s="0"/>
+      <c r="GA32" s="0"/>
+      <c r="GB32" s="0"/>
+      <c r="GC32" s="0"/>
+      <c r="GD32" s="0"/>
+      <c r="GE32" s="0"/>
+      <c r="GF32" s="0"/>
+      <c r="GG32" s="0"/>
+      <c r="GH32" s="0"/>
+      <c r="GI32" s="0"/>
+      <c r="GJ32" s="0"/>
+      <c r="GK32" s="0"/>
+      <c r="GL32" s="0"/>
+      <c r="GM32" s="0"/>
+      <c r="GN32" s="0"/>
+      <c r="GO32" s="0"/>
+      <c r="GP32" s="0"/>
+      <c r="GQ32" s="0"/>
+      <c r="GR32" s="0"/>
+      <c r="GS32" s="0"/>
+      <c r="GT32" s="0"/>
+      <c r="GU32" s="0"/>
+      <c r="GV32" s="0"/>
+      <c r="GW32" s="0"/>
+      <c r="GX32" s="0"/>
+      <c r="GY32" s="0"/>
+      <c r="GZ32" s="0"/>
+      <c r="HA32" s="0"/>
+      <c r="HB32" s="0"/>
+      <c r="HC32" s="0"/>
+      <c r="HD32" s="0"/>
+      <c r="HE32" s="0"/>
+      <c r="HF32" s="0"/>
+      <c r="HG32" s="0"/>
+      <c r="HH32" s="0"/>
+      <c r="HI32" s="0"/>
+      <c r="HJ32" s="0"/>
+      <c r="HK32" s="0"/>
+      <c r="HL32" s="0"/>
+      <c r="HM32" s="0"/>
+      <c r="HN32" s="0"/>
+      <c r="HO32" s="0"/>
+      <c r="HP32" s="0"/>
+      <c r="HQ32" s="0"/>
+      <c r="HR32" s="0"/>
+      <c r="HS32" s="0"/>
+      <c r="HT32" s="0"/>
+      <c r="HU32" s="0"/>
+      <c r="HV32" s="0"/>
+      <c r="HW32" s="0"/>
+      <c r="HX32" s="0"/>
+      <c r="HY32" s="0"/>
+      <c r="HZ32" s="0"/>
+      <c r="IA32" s="0"/>
+      <c r="IB32" s="0"/>
+      <c r="IC32" s="0"/>
+      <c r="ID32" s="0"/>
+      <c r="IE32" s="0"/>
+      <c r="IF32" s="0"/>
+      <c r="IG32" s="0"/>
+      <c r="IH32" s="0"/>
+      <c r="II32" s="0"/>
+      <c r="IJ32" s="0"/>
+      <c r="IK32" s="0"/>
+      <c r="IL32" s="0"/>
+      <c r="IM32" s="0"/>
+      <c r="IN32" s="0"/>
+      <c r="IO32" s="0"/>
+      <c r="IP32" s="0"/>
+      <c r="IQ32" s="0"/>
+      <c r="IR32" s="0"/>
+      <c r="IS32" s="0"/>
+      <c r="IT32" s="0"/>
+      <c r="IU32" s="0"/>
+      <c r="IV32" s="0"/>
+      <c r="IW32" s="0"/>
+      <c r="IX32" s="0"/>
+      <c r="IY32" s="0"/>
+      <c r="IZ32" s="0"/>
+      <c r="JA32" s="0"/>
+      <c r="JB32" s="0"/>
+      <c r="JC32" s="0"/>
+      <c r="JD32" s="0"/>
+      <c r="JE32" s="0"/>
+      <c r="JF32" s="0"/>
+      <c r="JG32" s="0"/>
+      <c r="JH32" s="0"/>
+      <c r="JI32" s="0"/>
+      <c r="JJ32" s="0"/>
+      <c r="JK32" s="0"/>
+      <c r="JL32" s="0"/>
+      <c r="JM32" s="0"/>
+      <c r="JN32" s="0"/>
+      <c r="JO32" s="0"/>
+      <c r="JP32" s="0"/>
+      <c r="JQ32" s="0"/>
+      <c r="JR32" s="0"/>
+      <c r="JS32" s="0"/>
+      <c r="JT32" s="0"/>
+      <c r="JU32" s="0"/>
+      <c r="JV32" s="0"/>
+      <c r="JW32" s="0"/>
+      <c r="JX32" s="0"/>
+      <c r="JY32" s="0"/>
+      <c r="JZ32" s="0"/>
+      <c r="KA32" s="0"/>
+      <c r="KB32" s="0"/>
+      <c r="KC32" s="0"/>
+      <c r="KD32" s="0"/>
+      <c r="KE32" s="0"/>
+      <c r="KF32" s="0"/>
+      <c r="KG32" s="0"/>
+      <c r="KH32" s="0"/>
+      <c r="KI32" s="0"/>
+      <c r="KJ32" s="0"/>
+      <c r="KK32" s="0"/>
+      <c r="KL32" s="0"/>
+      <c r="KM32" s="0"/>
+      <c r="KN32" s="0"/>
+      <c r="KO32" s="0"/>
+      <c r="KP32" s="0"/>
+      <c r="KQ32" s="0"/>
+      <c r="KR32" s="0"/>
+      <c r="KS32" s="0"/>
+      <c r="KT32" s="0"/>
+      <c r="KU32" s="0"/>
+      <c r="KV32" s="0"/>
+      <c r="KW32" s="0"/>
+      <c r="KX32" s="0"/>
+      <c r="KY32" s="0"/>
+      <c r="KZ32" s="0"/>
+      <c r="LA32" s="0"/>
+      <c r="LB32" s="0"/>
+      <c r="LC32" s="0"/>
+      <c r="LD32" s="0"/>
+      <c r="LE32" s="0"/>
+      <c r="LF32" s="0"/>
+      <c r="LG32" s="0"/>
+      <c r="LH32" s="0"/>
+      <c r="LI32" s="0"/>
+      <c r="LJ32" s="0"/>
+      <c r="LK32" s="0"/>
+      <c r="LL32" s="0"/>
+      <c r="LM32" s="0"/>
+      <c r="LN32" s="0"/>
+      <c r="LO32" s="0"/>
+      <c r="LP32" s="0"/>
+      <c r="LQ32" s="0"/>
+      <c r="LR32" s="0"/>
+      <c r="LS32" s="0"/>
+      <c r="LT32" s="0"/>
+      <c r="LU32" s="0"/>
+      <c r="LV32" s="0"/>
+      <c r="LW32" s="0"/>
+      <c r="LX32" s="0"/>
+      <c r="LY32" s="0"/>
+      <c r="LZ32" s="0"/>
+      <c r="MA32" s="0"/>
+      <c r="MB32" s="0"/>
+      <c r="MC32" s="0"/>
+      <c r="MD32" s="0"/>
+      <c r="ME32" s="0"/>
+      <c r="MF32" s="0"/>
+      <c r="MG32" s="0"/>
+      <c r="MH32" s="0"/>
+      <c r="MI32" s="0"/>
+      <c r="MJ32" s="0"/>
+      <c r="MK32" s="0"/>
+      <c r="ML32" s="0"/>
+      <c r="MM32" s="0"/>
+      <c r="MN32" s="0"/>
+      <c r="MO32" s="0"/>
+      <c r="MP32" s="0"/>
+      <c r="MQ32" s="0"/>
+      <c r="MR32" s="0"/>
+      <c r="MS32" s="0"/>
+      <c r="MT32" s="0"/>
+      <c r="MU32" s="0"/>
+      <c r="MV32" s="0"/>
+      <c r="MW32" s="0"/>
+      <c r="MX32" s="0"/>
+      <c r="MY32" s="0"/>
+      <c r="MZ32" s="0"/>
+      <c r="NA32" s="0"/>
+      <c r="NB32" s="0"/>
+      <c r="NC32" s="0"/>
+      <c r="ND32" s="0"/>
+      <c r="NE32" s="0"/>
+      <c r="NF32" s="0"/>
+      <c r="NG32" s="0"/>
+      <c r="NH32" s="0"/>
+      <c r="NI32" s="0"/>
+      <c r="NJ32" s="0"/>
+      <c r="NK32" s="0"/>
+      <c r="NL32" s="0"/>
+      <c r="NM32" s="0"/>
+      <c r="NN32" s="0"/>
+      <c r="NO32" s="0"/>
+      <c r="NP32" s="0"/>
+      <c r="NQ32" s="0"/>
+      <c r="NR32" s="0"/>
+      <c r="NS32" s="0"/>
+      <c r="NT32" s="0"/>
+      <c r="NU32" s="0"/>
+      <c r="NV32" s="0"/>
+      <c r="NW32" s="0"/>
+      <c r="NX32" s="0"/>
+      <c r="NY32" s="0"/>
+      <c r="NZ32" s="0"/>
+      <c r="OA32" s="0"/>
+      <c r="OB32" s="0"/>
+      <c r="OC32" s="0"/>
+      <c r="OD32" s="0"/>
+      <c r="OE32" s="0"/>
+      <c r="OF32" s="0"/>
+      <c r="OG32" s="0"/>
+      <c r="OH32" s="0"/>
+      <c r="OI32" s="0"/>
+      <c r="OJ32" s="0"/>
+      <c r="OK32" s="0"/>
+      <c r="OL32" s="0"/>
+      <c r="OM32" s="0"/>
+      <c r="ON32" s="0"/>
+      <c r="OO32" s="0"/>
+      <c r="OP32" s="0"/>
+      <c r="OQ32" s="0"/>
+      <c r="OR32" s="0"/>
+      <c r="OS32" s="0"/>
+      <c r="OT32" s="0"/>
+      <c r="OU32" s="0"/>
+      <c r="OV32" s="0"/>
+      <c r="OW32" s="0"/>
+      <c r="OX32" s="0"/>
+      <c r="OY32" s="0"/>
+      <c r="OZ32" s="0"/>
+      <c r="PA32" s="0"/>
+      <c r="PB32" s="0"/>
+      <c r="PC32" s="0"/>
+      <c r="PD32" s="0"/>
+      <c r="PE32" s="0"/>
+      <c r="PF32" s="0"/>
+      <c r="PG32" s="0"/>
+      <c r="PH32" s="0"/>
+      <c r="PI32" s="0"/>
+      <c r="PJ32" s="0"/>
+      <c r="PK32" s="0"/>
+      <c r="PL32" s="0"/>
+      <c r="PM32" s="0"/>
+      <c r="PN32" s="0"/>
+      <c r="PO32" s="0"/>
+      <c r="PP32" s="0"/>
+      <c r="PQ32" s="0"/>
+      <c r="PR32" s="0"/>
+      <c r="PS32" s="0"/>
+      <c r="PT32" s="0"/>
+      <c r="PU32" s="0"/>
+      <c r="PV32" s="0"/>
+      <c r="PW32" s="0"/>
+      <c r="PX32" s="0"/>
+      <c r="PY32" s="0"/>
+      <c r="PZ32" s="0"/>
+      <c r="QA32" s="0"/>
+      <c r="QB32" s="0"/>
+      <c r="QC32" s="0"/>
+      <c r="QD32" s="0"/>
+      <c r="QE32" s="0"/>
+      <c r="QF32" s="0"/>
+      <c r="QG32" s="0"/>
+      <c r="QH32" s="0"/>
+      <c r="QI32" s="0"/>
+      <c r="QJ32" s="0"/>
+      <c r="QK32" s="0"/>
+      <c r="QL32" s="0"/>
+      <c r="QM32" s="0"/>
+      <c r="QN32" s="0"/>
+      <c r="QO32" s="0"/>
+      <c r="QP32" s="0"/>
+      <c r="QQ32" s="0"/>
+      <c r="QR32" s="0"/>
+      <c r="QS32" s="0"/>
+      <c r="QT32" s="0"/>
+      <c r="QU32" s="0"/>
+      <c r="QV32" s="0"/>
+      <c r="QW32" s="0"/>
+      <c r="QX32" s="0"/>
+      <c r="QY32" s="0"/>
+      <c r="QZ32" s="0"/>
+      <c r="RA32" s="0"/>
+      <c r="RB32" s="0"/>
+      <c r="RC32" s="0"/>
+      <c r="RD32" s="0"/>
+      <c r="RE32" s="0"/>
+      <c r="RF32" s="0"/>
+      <c r="RG32" s="0"/>
+      <c r="RH32" s="0"/>
+      <c r="RI32" s="0"/>
+      <c r="RJ32" s="0"/>
+      <c r="RK32" s="0"/>
+      <c r="RL32" s="0"/>
+      <c r="RM32" s="0"/>
+      <c r="RN32" s="0"/>
+      <c r="RO32" s="0"/>
+      <c r="RP32" s="0"/>
+      <c r="RQ32" s="0"/>
+      <c r="RR32" s="0"/>
+      <c r="RS32" s="0"/>
+      <c r="RT32" s="0"/>
+      <c r="RU32" s="0"/>
+      <c r="RV32" s="0"/>
+      <c r="RW32" s="0"/>
+      <c r="RX32" s="0"/>
+      <c r="RY32" s="0"/>
+      <c r="RZ32" s="0"/>
+      <c r="SA32" s="0"/>
+      <c r="SB32" s="0"/>
+      <c r="SC32" s="0"/>
+      <c r="SD32" s="0"/>
+      <c r="SE32" s="0"/>
+      <c r="SF32" s="0"/>
+      <c r="SG32" s="0"/>
+      <c r="SH32" s="0"/>
+      <c r="SI32" s="0"/>
+      <c r="SJ32" s="0"/>
+      <c r="SK32" s="0"/>
+      <c r="SL32" s="0"/>
+      <c r="SM32" s="0"/>
+      <c r="SN32" s="0"/>
+      <c r="SO32" s="0"/>
+      <c r="SP32" s="0"/>
+      <c r="SQ32" s="0"/>
+      <c r="SR32" s="0"/>
+      <c r="SS32" s="0"/>
+      <c r="ST32" s="0"/>
+      <c r="SU32" s="0"/>
+      <c r="SV32" s="0"/>
+      <c r="SW32" s="0"/>
+      <c r="SX32" s="0"/>
+      <c r="SY32" s="0"/>
+      <c r="SZ32" s="0"/>
+      <c r="TA32" s="0"/>
+      <c r="TB32" s="0"/>
+      <c r="TC32" s="0"/>
+      <c r="TD32" s="0"/>
+      <c r="TE32" s="0"/>
+      <c r="TF32" s="0"/>
+      <c r="TG32" s="0"/>
+      <c r="TH32" s="0"/>
+      <c r="TI32" s="0"/>
+      <c r="TJ32" s="0"/>
+      <c r="TK32" s="0"/>
+      <c r="TL32" s="0"/>
+      <c r="TM32" s="0"/>
+      <c r="TN32" s="0"/>
+      <c r="TO32" s="0"/>
+      <c r="TP32" s="0"/>
+      <c r="TQ32" s="0"/>
+      <c r="TR32" s="0"/>
+      <c r="TS32" s="0"/>
+      <c r="TT32" s="0"/>
+      <c r="TU32" s="0"/>
+      <c r="TV32" s="0"/>
+      <c r="TW32" s="0"/>
+      <c r="TX32" s="0"/>
+      <c r="TY32" s="0"/>
+      <c r="TZ32" s="0"/>
+      <c r="UA32" s="0"/>
+      <c r="UB32" s="0"/>
+      <c r="UC32" s="0"/>
+      <c r="UD32" s="0"/>
+      <c r="UE32" s="0"/>
+      <c r="UF32" s="0"/>
+      <c r="UG32" s="0"/>
+      <c r="UH32" s="0"/>
+      <c r="UI32" s="0"/>
+      <c r="UJ32" s="0"/>
+      <c r="UK32" s="0"/>
+      <c r="UL32" s="0"/>
+      <c r="UM32" s="0"/>
+      <c r="UN32" s="0"/>
+      <c r="UO32" s="0"/>
+      <c r="UP32" s="0"/>
+      <c r="UQ32" s="0"/>
+      <c r="UR32" s="0"/>
+      <c r="US32" s="0"/>
+      <c r="UT32" s="0"/>
+      <c r="UU32" s="0"/>
+      <c r="UV32" s="0"/>
+      <c r="UW32" s="0"/>
+      <c r="UX32" s="0"/>
+      <c r="UY32" s="0"/>
+      <c r="UZ32" s="0"/>
+      <c r="VA32" s="0"/>
+      <c r="VB32" s="0"/>
+      <c r="VC32" s="0"/>
+      <c r="VD32" s="0"/>
+      <c r="VE32" s="0"/>
+      <c r="VF32" s="0"/>
+      <c r="VG32" s="0"/>
+      <c r="VH32" s="0"/>
+      <c r="VI32" s="0"/>
+      <c r="VJ32" s="0"/>
+      <c r="VK32" s="0"/>
+      <c r="VL32" s="0"/>
+      <c r="VM32" s="0"/>
+      <c r="VN32" s="0"/>
+      <c r="VO32" s="0"/>
+      <c r="VP32" s="0"/>
+      <c r="VQ32" s="0"/>
+      <c r="VR32" s="0"/>
+      <c r="VS32" s="0"/>
+      <c r="VT32" s="0"/>
+      <c r="VU32" s="0"/>
+      <c r="VV32" s="0"/>
+      <c r="VW32" s="0"/>
+      <c r="VX32" s="0"/>
+      <c r="VY32" s="0"/>
+      <c r="VZ32" s="0"/>
+      <c r="WA32" s="0"/>
+      <c r="WB32" s="0"/>
+      <c r="WC32" s="0"/>
+      <c r="WD32" s="0"/>
+      <c r="WE32" s="0"/>
+      <c r="WF32" s="0"/>
+      <c r="WG32" s="0"/>
+      <c r="WH32" s="0"/>
+      <c r="WI32" s="0"/>
+      <c r="WJ32" s="0"/>
+      <c r="WK32" s="0"/>
+      <c r="WL32" s="0"/>
+      <c r="WM32" s="0"/>
+      <c r="WN32" s="0"/>
+      <c r="WO32" s="0"/>
+      <c r="WP32" s="0"/>
+      <c r="WQ32" s="0"/>
+      <c r="WR32" s="0"/>
+      <c r="WS32" s="0"/>
+      <c r="WT32" s="0"/>
+      <c r="WU32" s="0"/>
+      <c r="WV32" s="0"/>
+      <c r="WW32" s="0"/>
+      <c r="WX32" s="0"/>
+      <c r="WY32" s="0"/>
+      <c r="WZ32" s="0"/>
+      <c r="XA32" s="0"/>
+      <c r="XB32" s="0"/>
+      <c r="XC32" s="0"/>
+      <c r="XD32" s="0"/>
+      <c r="XE32" s="0"/>
+      <c r="XF32" s="0"/>
+      <c r="XG32" s="0"/>
+      <c r="XH32" s="0"/>
+      <c r="XI32" s="0"/>
+      <c r="XJ32" s="0"/>
+      <c r="XK32" s="0"/>
+      <c r="XL32" s="0"/>
+      <c r="XM32" s="0"/>
+      <c r="XN32" s="0"/>
+      <c r="XO32" s="0"/>
+      <c r="XP32" s="0"/>
+      <c r="XQ32" s="0"/>
+      <c r="XR32" s="0"/>
+      <c r="XS32" s="0"/>
+      <c r="XT32" s="0"/>
+      <c r="XU32" s="0"/>
+      <c r="XV32" s="0"/>
+      <c r="XW32" s="0"/>
+      <c r="XX32" s="0"/>
+      <c r="XY32" s="0"/>
+      <c r="XZ32" s="0"/>
+      <c r="YA32" s="0"/>
+      <c r="YB32" s="0"/>
+      <c r="YC32" s="0"/>
+      <c r="YD32" s="0"/>
+      <c r="YE32" s="0"/>
+      <c r="YF32" s="0"/>
+      <c r="YG32" s="0"/>
+      <c r="YH32" s="0"/>
+      <c r="YI32" s="0"/>
+      <c r="YJ32" s="0"/>
+      <c r="YK32" s="0"/>
+      <c r="YL32" s="0"/>
+      <c r="YM32" s="0"/>
+      <c r="YN32" s="0"/>
+      <c r="YO32" s="0"/>
+      <c r="YP32" s="0"/>
+      <c r="YQ32" s="0"/>
+      <c r="YR32" s="0"/>
+      <c r="YS32" s="0"/>
+      <c r="YT32" s="0"/>
+      <c r="YU32" s="0"/>
+      <c r="YV32" s="0"/>
+      <c r="YW32" s="0"/>
+      <c r="YX32" s="0"/>
+      <c r="YY32" s="0"/>
+      <c r="YZ32" s="0"/>
+      <c r="ZA32" s="0"/>
+      <c r="ZB32" s="0"/>
+      <c r="ZC32" s="0"/>
+      <c r="ZD32" s="0"/>
+      <c r="ZE32" s="0"/>
+      <c r="ZF32" s="0"/>
+      <c r="ZG32" s="0"/>
+      <c r="ZH32" s="0"/>
+      <c r="ZI32" s="0"/>
+      <c r="ZJ32" s="0"/>
+      <c r="ZK32" s="0"/>
+      <c r="ZL32" s="0"/>
+      <c r="ZM32" s="0"/>
+      <c r="ZN32" s="0"/>
+      <c r="ZO32" s="0"/>
+      <c r="ZP32" s="0"/>
+      <c r="ZQ32" s="0"/>
+      <c r="ZR32" s="0"/>
+      <c r="ZS32" s="0"/>
+      <c r="ZT32" s="0"/>
+      <c r="ZU32" s="0"/>
+      <c r="ZV32" s="0"/>
+      <c r="ZW32" s="0"/>
+      <c r="ZX32" s="0"/>
+      <c r="ZY32" s="0"/>
+      <c r="ZZ32" s="0"/>
+      <c r="AAA32" s="0"/>
+      <c r="AAB32" s="0"/>
+      <c r="AAC32" s="0"/>
+      <c r="AAD32" s="0"/>
+      <c r="AAE32" s="0"/>
+      <c r="AAF32" s="0"/>
+      <c r="AAG32" s="0"/>
+      <c r="AAH32" s="0"/>
+      <c r="AAI32" s="0"/>
+      <c r="AAJ32" s="0"/>
+      <c r="AAK32" s="0"/>
+      <c r="AAL32" s="0"/>
+      <c r="AAM32" s="0"/>
+      <c r="AAN32" s="0"/>
+      <c r="AAO32" s="0"/>
+      <c r="AAP32" s="0"/>
+      <c r="AAQ32" s="0"/>
+      <c r="AAR32" s="0"/>
+      <c r="AAS32" s="0"/>
+      <c r="AAT32" s="0"/>
+      <c r="AAU32" s="0"/>
+      <c r="AAV32" s="0"/>
+      <c r="AAW32" s="0"/>
+      <c r="AAX32" s="0"/>
+      <c r="AAY32" s="0"/>
+      <c r="AAZ32" s="0"/>
+      <c r="ABA32" s="0"/>
+      <c r="ABB32" s="0"/>
+      <c r="ABC32" s="0"/>
+      <c r="ABD32" s="0"/>
+      <c r="ABE32" s="0"/>
+      <c r="ABF32" s="0"/>
+      <c r="ABG32" s="0"/>
+      <c r="ABH32" s="0"/>
+      <c r="ABI32" s="0"/>
+      <c r="ABJ32" s="0"/>
+      <c r="ABK32" s="0"/>
+      <c r="ABL32" s="0"/>
+      <c r="ABM32" s="0"/>
+      <c r="ABN32" s="0"/>
+      <c r="ABO32" s="0"/>
+      <c r="ABP32" s="0"/>
+      <c r="ABQ32" s="0"/>
+      <c r="ABR32" s="0"/>
+      <c r="ABS32" s="0"/>
+      <c r="ABT32" s="0"/>
+      <c r="ABU32" s="0"/>
+      <c r="ABV32" s="0"/>
+      <c r="ABW32" s="0"/>
+      <c r="ABX32" s="0"/>
+      <c r="ABY32" s="0"/>
+      <c r="ABZ32" s="0"/>
+      <c r="ACA32" s="0"/>
+      <c r="ACB32" s="0"/>
+      <c r="ACC32" s="0"/>
+      <c r="ACD32" s="0"/>
+      <c r="ACE32" s="0"/>
+      <c r="ACF32" s="0"/>
+      <c r="ACG32" s="0"/>
+      <c r="ACH32" s="0"/>
+      <c r="ACI32" s="0"/>
+      <c r="ACJ32" s="0"/>
+      <c r="ACK32" s="0"/>
+      <c r="ACL32" s="0"/>
+      <c r="ACM32" s="0"/>
+      <c r="ACN32" s="0"/>
+      <c r="ACO32" s="0"/>
+      <c r="ACP32" s="0"/>
+      <c r="ACQ32" s="0"/>
+      <c r="ACR32" s="0"/>
+      <c r="ACS32" s="0"/>
+      <c r="ACT32" s="0"/>
+      <c r="ACU32" s="0"/>
+      <c r="ACV32" s="0"/>
+      <c r="ACW32" s="0"/>
+      <c r="ACX32" s="0"/>
+      <c r="ACY32" s="0"/>
+      <c r="ACZ32" s="0"/>
+      <c r="ADA32" s="0"/>
+      <c r="ADB32" s="0"/>
+      <c r="ADC32" s="0"/>
+      <c r="ADD32" s="0"/>
+      <c r="ADE32" s="0"/>
+      <c r="ADF32" s="0"/>
+      <c r="ADG32" s="0"/>
+      <c r="ADH32" s="0"/>
+      <c r="ADI32" s="0"/>
+      <c r="ADJ32" s="0"/>
+      <c r="ADK32" s="0"/>
+      <c r="ADL32" s="0"/>
+      <c r="ADM32" s="0"/>
+      <c r="ADN32" s="0"/>
+      <c r="ADO32" s="0"/>
+      <c r="ADP32" s="0"/>
+      <c r="ADQ32" s="0"/>
+      <c r="ADR32" s="0"/>
+      <c r="ADS32" s="0"/>
+      <c r="ADT32" s="0"/>
+      <c r="ADU32" s="0"/>
+      <c r="ADV32" s="0"/>
+      <c r="ADW32" s="0"/>
+      <c r="ADX32" s="0"/>
+      <c r="ADY32" s="0"/>
+      <c r="ADZ32" s="0"/>
+      <c r="AEA32" s="0"/>
+      <c r="AEB32" s="0"/>
+      <c r="AEC32" s="0"/>
+      <c r="AED32" s="0"/>
+      <c r="AEE32" s="0"/>
+      <c r="AEF32" s="0"/>
+      <c r="AEG32" s="0"/>
+      <c r="AEH32" s="0"/>
+      <c r="AEI32" s="0"/>
+      <c r="AEJ32" s="0"/>
+      <c r="AEK32" s="0"/>
+      <c r="AEL32" s="0"/>
+      <c r="AEM32" s="0"/>
+      <c r="AEN32" s="0"/>
+      <c r="AEO32" s="0"/>
+      <c r="AEP32" s="0"/>
+      <c r="AEQ32" s="0"/>
+      <c r="AER32" s="0"/>
+      <c r="AES32" s="0"/>
+      <c r="AET32" s="0"/>
+      <c r="AEU32" s="0"/>
+      <c r="AEV32" s="0"/>
+      <c r="AEW32" s="0"/>
+      <c r="AEX32" s="0"/>
+      <c r="AEY32" s="0"/>
+      <c r="AEZ32" s="0"/>
+      <c r="AFA32" s="0"/>
+      <c r="AFB32" s="0"/>
+      <c r="AFC32" s="0"/>
+      <c r="AFD32" s="0"/>
+      <c r="AFE32" s="0"/>
+      <c r="AFF32" s="0"/>
+      <c r="AFG32" s="0"/>
+      <c r="AFH32" s="0"/>
+      <c r="AFI32" s="0"/>
+      <c r="AFJ32" s="0"/>
+      <c r="AFK32" s="0"/>
+      <c r="AFL32" s="0"/>
+      <c r="AFM32" s="0"/>
+      <c r="AFN32" s="0"/>
+      <c r="AFO32" s="0"/>
+      <c r="AFP32" s="0"/>
+      <c r="AFQ32" s="0"/>
+      <c r="AFR32" s="0"/>
+      <c r="AFS32" s="0"/>
+      <c r="AFT32" s="0"/>
+      <c r="AFU32" s="0"/>
+      <c r="AFV32" s="0"/>
+      <c r="AFW32" s="0"/>
+      <c r="AFX32" s="0"/>
+      <c r="AFY32" s="0"/>
+      <c r="AFZ32" s="0"/>
+      <c r="AGA32" s="0"/>
+      <c r="AGB32" s="0"/>
+      <c r="AGC32" s="0"/>
+      <c r="AGD32" s="0"/>
+      <c r="AGE32" s="0"/>
+      <c r="AGF32" s="0"/>
+      <c r="AGG32" s="0"/>
+      <c r="AGH32" s="0"/>
+      <c r="AGI32" s="0"/>
+      <c r="AGJ32" s="0"/>
+      <c r="AGK32" s="0"/>
+      <c r="AGL32" s="0"/>
+      <c r="AGM32" s="0"/>
+      <c r="AGN32" s="0"/>
+      <c r="AGO32" s="0"/>
+      <c r="AGP32" s="0"/>
+      <c r="AGQ32" s="0"/>
+      <c r="AGR32" s="0"/>
+      <c r="AGS32" s="0"/>
+      <c r="AGT32" s="0"/>
+      <c r="AGU32" s="0"/>
+      <c r="AGV32" s="0"/>
+      <c r="AGW32" s="0"/>
+      <c r="AGX32" s="0"/>
+      <c r="AGY32" s="0"/>
+      <c r="AGZ32" s="0"/>
+      <c r="AHA32" s="0"/>
+      <c r="AHB32" s="0"/>
+      <c r="AHC32" s="0"/>
+      <c r="AHD32" s="0"/>
+      <c r="AHE32" s="0"/>
+      <c r="AHF32" s="0"/>
+      <c r="AHG32" s="0"/>
+      <c r="AHH32" s="0"/>
+      <c r="AHI32" s="0"/>
+      <c r="AHJ32" s="0"/>
+      <c r="AHK32" s="0"/>
+      <c r="AHL32" s="0"/>
+      <c r="AHM32" s="0"/>
+      <c r="AHN32" s="0"/>
+      <c r="AHO32" s="0"/>
+      <c r="AHP32" s="0"/>
+      <c r="AHQ32" s="0"/>
+      <c r="AHR32" s="0"/>
+      <c r="AHS32" s="0"/>
+      <c r="AHT32" s="0"/>
+      <c r="AHU32" s="0"/>
+      <c r="AHV32" s="0"/>
+      <c r="AHW32" s="0"/>
+      <c r="AHX32" s="0"/>
+      <c r="AHY32" s="0"/>
+      <c r="AHZ32" s="0"/>
+      <c r="AIA32" s="0"/>
+      <c r="AIB32" s="0"/>
+      <c r="AIC32" s="0"/>
+      <c r="AID32" s="0"/>
+      <c r="AIE32" s="0"/>
+      <c r="AIF32" s="0"/>
+      <c r="AIG32" s="0"/>
+      <c r="AIH32" s="0"/>
+      <c r="AII32" s="0"/>
+      <c r="AIJ32" s="0"/>
+      <c r="AIK32" s="0"/>
+      <c r="AIL32" s="0"/>
+      <c r="AIM32" s="0"/>
+      <c r="AIN32" s="0"/>
+      <c r="AIO32" s="0"/>
+      <c r="AIP32" s="0"/>
+      <c r="AIQ32" s="0"/>
+      <c r="AIR32" s="0"/>
+      <c r="AIS32" s="0"/>
+      <c r="AIT32" s="0"/>
+      <c r="AIU32" s="0"/>
+      <c r="AIV32" s="0"/>
+      <c r="AIW32" s="0"/>
+      <c r="AIX32" s="0"/>
+      <c r="AIY32" s="0"/>
+      <c r="AIZ32" s="0"/>
+      <c r="AJA32" s="0"/>
+      <c r="AJB32" s="0"/>
+      <c r="AJC32" s="0"/>
+      <c r="AJD32" s="0"/>
+      <c r="AJE32" s="0"/>
+      <c r="AJF32" s="0"/>
+      <c r="AJG32" s="0"/>
+      <c r="AJH32" s="0"/>
+      <c r="AJI32" s="0"/>
+      <c r="AJJ32" s="0"/>
+      <c r="AJK32" s="0"/>
+      <c r="AJL32" s="0"/>
+      <c r="AJM32" s="0"/>
+      <c r="AJN32" s="0"/>
+      <c r="AJO32" s="0"/>
+      <c r="AJP32" s="0"/>
+      <c r="AJQ32" s="0"/>
+      <c r="AJR32" s="0"/>
+      <c r="AJS32" s="0"/>
+      <c r="AJT32" s="0"/>
+      <c r="AJU32" s="0"/>
+      <c r="AJV32" s="0"/>
+      <c r="AJW32" s="0"/>
+      <c r="AJX32" s="0"/>
+      <c r="AJY32" s="0"/>
+      <c r="AJZ32" s="0"/>
+      <c r="AKA32" s="0"/>
+      <c r="AKB32" s="0"/>
+      <c r="AKC32" s="0"/>
+      <c r="AKD32" s="0"/>
+      <c r="AKE32" s="0"/>
+      <c r="AKF32" s="0"/>
+      <c r="AKG32" s="0"/>
+      <c r="AKH32" s="0"/>
+      <c r="AKI32" s="0"/>
+      <c r="AKJ32" s="0"/>
+      <c r="AKK32" s="0"/>
+      <c r="AKL32" s="0"/>
+      <c r="AKM32" s="0"/>
+      <c r="AKN32" s="0"/>
+      <c r="AKO32" s="0"/>
+      <c r="AKP32" s="0"/>
+      <c r="AKQ32" s="0"/>
+      <c r="AKR32" s="0"/>
+      <c r="AKS32" s="0"/>
+      <c r="AKT32" s="0"/>
+      <c r="AKU32" s="0"/>
+      <c r="AKV32" s="0"/>
+      <c r="AKW32" s="0"/>
+      <c r="AKX32" s="0"/>
+      <c r="AKY32" s="0"/>
+      <c r="AKZ32" s="0"/>
+      <c r="ALA32" s="0"/>
+      <c r="ALB32" s="0"/>
+      <c r="ALC32" s="0"/>
+      <c r="ALD32" s="0"/>
+      <c r="ALE32" s="0"/>
+      <c r="ALF32" s="0"/>
+      <c r="ALG32" s="0"/>
+      <c r="ALH32" s="0"/>
+      <c r="ALI32" s="0"/>
+      <c r="ALJ32" s="0"/>
+      <c r="ALK32" s="0"/>
+      <c r="ALL32" s="0"/>
+      <c r="ALM32" s="0"/>
+      <c r="ALN32" s="0"/>
+      <c r="ALO32" s="0"/>
+      <c r="ALP32" s="0"/>
+      <c r="ALQ32" s="0"/>
+      <c r="ALR32" s="0"/>
+      <c r="ALS32" s="0"/>
+      <c r="ALT32" s="0"/>
+      <c r="ALU32" s="0"/>
+      <c r="ALV32" s="0"/>
+      <c r="ALW32" s="0"/>
+      <c r="ALX32" s="0"/>
+      <c r="ALY32" s="0"/>
+      <c r="ALZ32" s="0"/>
+      <c r="AMA32" s="0"/>
+      <c r="AMB32" s="0"/>
+      <c r="AMC32" s="0"/>
+      <c r="AMD32" s="0"/>
+      <c r="AME32" s="0"/>
+      <c r="AMF32" s="0"/>
+      <c r="AMG32" s="0"/>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -53868,7 +57952,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J43" activeCellId="1" sqref="A6:I6 J43"/>
+      <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -54915,8 +58999,8 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -56513,7 +60597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="BC1" activeCellId="0" sqref="BC1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BV19" activeCellId="1" sqref="A6:I6 BV19"/>
+      <selection pane="bottomRight" activeCell="BV19" activeCellId="0" sqref="BV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -63052,7 +67136,7 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I126" activeCellId="1" sqref="A6:I6 I126"/>
+      <selection pane="topLeft" activeCell="I126" activeCellId="0" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -66508,7 +70592,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="1" sqref="A6:I6 K37"/>
+      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Graf_et_al_supp_ inf.xlsx
+++ b/Graf_et_al_supp_ inf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="read_me" sheetId="1" state="visible" r:id="rId2"/>
@@ -1558,7 +1558,7 @@
     <t>Chironomus dilutus</t>
   </si>
   <si>
-    <t>Cyhalothrin (Summe Isomere)</t>
+    <t>Cyhalothrin (sum of isomers)</t>
   </si>
   <si>
     <t>Chaoborus obscuripes</t>
@@ -2025,7 +2025,7 @@
   </sheetPr>
   <dimension ref="1:209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2181,45 +2181,5155 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="CR24" s="0"/>
+      <c r="CS24" s="0"/>
+      <c r="CT24" s="0"/>
+      <c r="CU24" s="0"/>
+      <c r="CV24" s="0"/>
+      <c r="CW24" s="0"/>
+      <c r="CX24" s="0"/>
+      <c r="CY24" s="0"/>
+      <c r="CZ24" s="0"/>
+      <c r="DA24" s="0"/>
+      <c r="DB24" s="0"/>
+      <c r="DC24" s="0"/>
+      <c r="DD24" s="0"/>
+      <c r="DE24" s="0"/>
+      <c r="DF24" s="0"/>
+      <c r="DG24" s="0"/>
+      <c r="DH24" s="0"/>
+      <c r="DI24" s="0"/>
+      <c r="DJ24" s="0"/>
+      <c r="DK24" s="0"/>
+      <c r="DL24" s="0"/>
+      <c r="DM24" s="0"/>
+      <c r="DN24" s="0"/>
+      <c r="DO24" s="0"/>
+      <c r="DP24" s="0"/>
+      <c r="DQ24" s="0"/>
+      <c r="DR24" s="0"/>
+      <c r="DS24" s="0"/>
+      <c r="DT24" s="0"/>
+      <c r="DU24" s="0"/>
+      <c r="DV24" s="0"/>
+      <c r="DW24" s="0"/>
+      <c r="DX24" s="0"/>
+      <c r="DY24" s="0"/>
+      <c r="DZ24" s="0"/>
+      <c r="EA24" s="0"/>
+      <c r="EB24" s="0"/>
+      <c r="EC24" s="0"/>
+      <c r="ED24" s="0"/>
+      <c r="EE24" s="0"/>
+      <c r="EF24" s="0"/>
+      <c r="EG24" s="0"/>
+      <c r="EH24" s="0"/>
+      <c r="EI24" s="0"/>
+      <c r="EJ24" s="0"/>
+      <c r="EK24" s="0"/>
+      <c r="EL24" s="0"/>
+      <c r="EM24" s="0"/>
+      <c r="EN24" s="0"/>
+      <c r="EO24" s="0"/>
+      <c r="EP24" s="0"/>
+      <c r="EQ24" s="0"/>
+      <c r="ER24" s="0"/>
+      <c r="ES24" s="0"/>
+      <c r="ET24" s="0"/>
+      <c r="EU24" s="0"/>
+      <c r="EV24" s="0"/>
+      <c r="EW24" s="0"/>
+      <c r="EX24" s="0"/>
+      <c r="EY24" s="0"/>
+      <c r="EZ24" s="0"/>
+      <c r="FA24" s="0"/>
+      <c r="FB24" s="0"/>
+      <c r="FC24" s="0"/>
+      <c r="FD24" s="0"/>
+      <c r="FE24" s="0"/>
+      <c r="FF24" s="0"/>
+      <c r="FG24" s="0"/>
+      <c r="FH24" s="0"/>
+      <c r="FI24" s="0"/>
+      <c r="FJ24" s="0"/>
+      <c r="FK24" s="0"/>
+      <c r="FL24" s="0"/>
+      <c r="FM24" s="0"/>
+      <c r="FN24" s="0"/>
+      <c r="FO24" s="0"/>
+      <c r="FP24" s="0"/>
+      <c r="FQ24" s="0"/>
+      <c r="FR24" s="0"/>
+      <c r="FS24" s="0"/>
+      <c r="FT24" s="0"/>
+      <c r="FU24" s="0"/>
+      <c r="FV24" s="0"/>
+      <c r="FW24" s="0"/>
+      <c r="FX24" s="0"/>
+      <c r="FY24" s="0"/>
+      <c r="FZ24" s="0"/>
+      <c r="GA24" s="0"/>
+      <c r="GB24" s="0"/>
+      <c r="GC24" s="0"/>
+      <c r="GD24" s="0"/>
+      <c r="GE24" s="0"/>
+      <c r="GF24" s="0"/>
+      <c r="GG24" s="0"/>
+      <c r="GH24" s="0"/>
+      <c r="GI24" s="0"/>
+      <c r="GJ24" s="0"/>
+      <c r="GK24" s="0"/>
+      <c r="GL24" s="0"/>
+      <c r="GM24" s="0"/>
+      <c r="GN24" s="0"/>
+      <c r="GO24" s="0"/>
+      <c r="GP24" s="0"/>
+      <c r="GQ24" s="0"/>
+      <c r="GR24" s="0"/>
+      <c r="GS24" s="0"/>
+      <c r="GT24" s="0"/>
+      <c r="GU24" s="0"/>
+      <c r="GV24" s="0"/>
+      <c r="GW24" s="0"/>
+      <c r="GX24" s="0"/>
+      <c r="GY24" s="0"/>
+      <c r="GZ24" s="0"/>
+      <c r="HA24" s="0"/>
+      <c r="HB24" s="0"/>
+      <c r="HC24" s="0"/>
+      <c r="HD24" s="0"/>
+      <c r="HE24" s="0"/>
+      <c r="HF24" s="0"/>
+      <c r="HG24" s="0"/>
+      <c r="HH24" s="0"/>
+      <c r="HI24" s="0"/>
+      <c r="HJ24" s="0"/>
+      <c r="HK24" s="0"/>
+      <c r="HL24" s="0"/>
+      <c r="HM24" s="0"/>
+      <c r="HN24" s="0"/>
+      <c r="HO24" s="0"/>
+      <c r="HP24" s="0"/>
+      <c r="HQ24" s="0"/>
+      <c r="HR24" s="0"/>
+      <c r="HS24" s="0"/>
+      <c r="HT24" s="0"/>
+      <c r="HU24" s="0"/>
+      <c r="HV24" s="0"/>
+      <c r="HW24" s="0"/>
+      <c r="HX24" s="0"/>
+      <c r="HY24" s="0"/>
+      <c r="HZ24" s="0"/>
+      <c r="IA24" s="0"/>
+      <c r="IB24" s="0"/>
+      <c r="IC24" s="0"/>
+      <c r="ID24" s="0"/>
+      <c r="IE24" s="0"/>
+      <c r="IF24" s="0"/>
+      <c r="IG24" s="0"/>
+      <c r="IH24" s="0"/>
+      <c r="II24" s="0"/>
+      <c r="IJ24" s="0"/>
+      <c r="IK24" s="0"/>
+      <c r="IL24" s="0"/>
+      <c r="IM24" s="0"/>
+      <c r="IN24" s="0"/>
+      <c r="IO24" s="0"/>
+      <c r="IP24" s="0"/>
+      <c r="IQ24" s="0"/>
+      <c r="IR24" s="0"/>
+      <c r="IS24" s="0"/>
+      <c r="IT24" s="0"/>
+      <c r="IU24" s="0"/>
+      <c r="IV24" s="0"/>
+      <c r="IW24" s="0"/>
+      <c r="IX24" s="0"/>
+      <c r="IY24" s="0"/>
+      <c r="IZ24" s="0"/>
+      <c r="JA24" s="0"/>
+      <c r="JB24" s="0"/>
+      <c r="JC24" s="0"/>
+      <c r="JD24" s="0"/>
+      <c r="JE24" s="0"/>
+      <c r="JF24" s="0"/>
+      <c r="JG24" s="0"/>
+      <c r="JH24" s="0"/>
+      <c r="JI24" s="0"/>
+      <c r="JJ24" s="0"/>
+      <c r="JK24" s="0"/>
+      <c r="JL24" s="0"/>
+      <c r="JM24" s="0"/>
+      <c r="JN24" s="0"/>
+      <c r="JO24" s="0"/>
+      <c r="JP24" s="0"/>
+      <c r="JQ24" s="0"/>
+      <c r="JR24" s="0"/>
+      <c r="JS24" s="0"/>
+      <c r="JT24" s="0"/>
+      <c r="JU24" s="0"/>
+      <c r="JV24" s="0"/>
+      <c r="JW24" s="0"/>
+      <c r="JX24" s="0"/>
+      <c r="JY24" s="0"/>
+      <c r="JZ24" s="0"/>
+      <c r="KA24" s="0"/>
+      <c r="KB24" s="0"/>
+      <c r="KC24" s="0"/>
+      <c r="KD24" s="0"/>
+      <c r="KE24" s="0"/>
+      <c r="KF24" s="0"/>
+      <c r="KG24" s="0"/>
+      <c r="KH24" s="0"/>
+      <c r="KI24" s="0"/>
+      <c r="KJ24" s="0"/>
+      <c r="KK24" s="0"/>
+      <c r="KL24" s="0"/>
+      <c r="KM24" s="0"/>
+      <c r="KN24" s="0"/>
+      <c r="KO24" s="0"/>
+      <c r="KP24" s="0"/>
+      <c r="KQ24" s="0"/>
+      <c r="KR24" s="0"/>
+      <c r="KS24" s="0"/>
+      <c r="KT24" s="0"/>
+      <c r="KU24" s="0"/>
+      <c r="KV24" s="0"/>
+      <c r="KW24" s="0"/>
+      <c r="KX24" s="0"/>
+      <c r="KY24" s="0"/>
+      <c r="KZ24" s="0"/>
+      <c r="LA24" s="0"/>
+      <c r="LB24" s="0"/>
+      <c r="LC24" s="0"/>
+      <c r="LD24" s="0"/>
+      <c r="LE24" s="0"/>
+      <c r="LF24" s="0"/>
+      <c r="LG24" s="0"/>
+      <c r="LH24" s="0"/>
+      <c r="LI24" s="0"/>
+      <c r="LJ24" s="0"/>
+      <c r="LK24" s="0"/>
+      <c r="LL24" s="0"/>
+      <c r="LM24" s="0"/>
+      <c r="LN24" s="0"/>
+      <c r="LO24" s="0"/>
+      <c r="LP24" s="0"/>
+      <c r="LQ24" s="0"/>
+      <c r="LR24" s="0"/>
+      <c r="LS24" s="0"/>
+      <c r="LT24" s="0"/>
+      <c r="LU24" s="0"/>
+      <c r="LV24" s="0"/>
+      <c r="LW24" s="0"/>
+      <c r="LX24" s="0"/>
+      <c r="LY24" s="0"/>
+      <c r="LZ24" s="0"/>
+      <c r="MA24" s="0"/>
+      <c r="MB24" s="0"/>
+      <c r="MC24" s="0"/>
+      <c r="MD24" s="0"/>
+      <c r="ME24" s="0"/>
+      <c r="MF24" s="0"/>
+      <c r="MG24" s="0"/>
+      <c r="MH24" s="0"/>
+      <c r="MI24" s="0"/>
+      <c r="MJ24" s="0"/>
+      <c r="MK24" s="0"/>
+      <c r="ML24" s="0"/>
+      <c r="MM24" s="0"/>
+      <c r="MN24" s="0"/>
+      <c r="MO24" s="0"/>
+      <c r="MP24" s="0"/>
+      <c r="MQ24" s="0"/>
+      <c r="MR24" s="0"/>
+      <c r="MS24" s="0"/>
+      <c r="MT24" s="0"/>
+      <c r="MU24" s="0"/>
+      <c r="MV24" s="0"/>
+      <c r="MW24" s="0"/>
+      <c r="MX24" s="0"/>
+      <c r="MY24" s="0"/>
+      <c r="MZ24" s="0"/>
+      <c r="NA24" s="0"/>
+      <c r="NB24" s="0"/>
+      <c r="NC24" s="0"/>
+      <c r="ND24" s="0"/>
+      <c r="NE24" s="0"/>
+      <c r="NF24" s="0"/>
+      <c r="NG24" s="0"/>
+      <c r="NH24" s="0"/>
+      <c r="NI24" s="0"/>
+      <c r="NJ24" s="0"/>
+      <c r="NK24" s="0"/>
+      <c r="NL24" s="0"/>
+      <c r="NM24" s="0"/>
+      <c r="NN24" s="0"/>
+      <c r="NO24" s="0"/>
+      <c r="NP24" s="0"/>
+      <c r="NQ24" s="0"/>
+      <c r="NR24" s="0"/>
+      <c r="NS24" s="0"/>
+      <c r="NT24" s="0"/>
+      <c r="NU24" s="0"/>
+      <c r="NV24" s="0"/>
+      <c r="NW24" s="0"/>
+      <c r="NX24" s="0"/>
+      <c r="NY24" s="0"/>
+      <c r="NZ24" s="0"/>
+      <c r="OA24" s="0"/>
+      <c r="OB24" s="0"/>
+      <c r="OC24" s="0"/>
+      <c r="OD24" s="0"/>
+      <c r="OE24" s="0"/>
+      <c r="OF24" s="0"/>
+      <c r="OG24" s="0"/>
+      <c r="OH24" s="0"/>
+      <c r="OI24" s="0"/>
+      <c r="OJ24" s="0"/>
+      <c r="OK24" s="0"/>
+      <c r="OL24" s="0"/>
+      <c r="OM24" s="0"/>
+      <c r="ON24" s="0"/>
+      <c r="OO24" s="0"/>
+      <c r="OP24" s="0"/>
+      <c r="OQ24" s="0"/>
+      <c r="OR24" s="0"/>
+      <c r="OS24" s="0"/>
+      <c r="OT24" s="0"/>
+      <c r="OU24" s="0"/>
+      <c r="OV24" s="0"/>
+      <c r="OW24" s="0"/>
+      <c r="OX24" s="0"/>
+      <c r="OY24" s="0"/>
+      <c r="OZ24" s="0"/>
+      <c r="PA24" s="0"/>
+      <c r="PB24" s="0"/>
+      <c r="PC24" s="0"/>
+      <c r="PD24" s="0"/>
+      <c r="PE24" s="0"/>
+      <c r="PF24" s="0"/>
+      <c r="PG24" s="0"/>
+      <c r="PH24" s="0"/>
+      <c r="PI24" s="0"/>
+      <c r="PJ24" s="0"/>
+      <c r="PK24" s="0"/>
+      <c r="PL24" s="0"/>
+      <c r="PM24" s="0"/>
+      <c r="PN24" s="0"/>
+      <c r="PO24" s="0"/>
+      <c r="PP24" s="0"/>
+      <c r="PQ24" s="0"/>
+      <c r="PR24" s="0"/>
+      <c r="PS24" s="0"/>
+      <c r="PT24" s="0"/>
+      <c r="PU24" s="0"/>
+      <c r="PV24" s="0"/>
+      <c r="PW24" s="0"/>
+      <c r="PX24" s="0"/>
+      <c r="PY24" s="0"/>
+      <c r="PZ24" s="0"/>
+      <c r="QA24" s="0"/>
+      <c r="QB24" s="0"/>
+      <c r="QC24" s="0"/>
+      <c r="QD24" s="0"/>
+      <c r="QE24" s="0"/>
+      <c r="QF24" s="0"/>
+      <c r="QG24" s="0"/>
+      <c r="QH24" s="0"/>
+      <c r="QI24" s="0"/>
+      <c r="QJ24" s="0"/>
+      <c r="QK24" s="0"/>
+      <c r="QL24" s="0"/>
+      <c r="QM24" s="0"/>
+      <c r="QN24" s="0"/>
+      <c r="QO24" s="0"/>
+      <c r="QP24" s="0"/>
+      <c r="QQ24" s="0"/>
+      <c r="QR24" s="0"/>
+      <c r="QS24" s="0"/>
+      <c r="QT24" s="0"/>
+      <c r="QU24" s="0"/>
+      <c r="QV24" s="0"/>
+      <c r="QW24" s="0"/>
+      <c r="QX24" s="0"/>
+      <c r="QY24" s="0"/>
+      <c r="QZ24" s="0"/>
+      <c r="RA24" s="0"/>
+      <c r="RB24" s="0"/>
+      <c r="RC24" s="0"/>
+      <c r="RD24" s="0"/>
+      <c r="RE24" s="0"/>
+      <c r="RF24" s="0"/>
+      <c r="RG24" s="0"/>
+      <c r="RH24" s="0"/>
+      <c r="RI24" s="0"/>
+      <c r="RJ24" s="0"/>
+      <c r="RK24" s="0"/>
+      <c r="RL24" s="0"/>
+      <c r="RM24" s="0"/>
+      <c r="RN24" s="0"/>
+      <c r="RO24" s="0"/>
+      <c r="RP24" s="0"/>
+      <c r="RQ24" s="0"/>
+      <c r="RR24" s="0"/>
+      <c r="RS24" s="0"/>
+      <c r="RT24" s="0"/>
+      <c r="RU24" s="0"/>
+      <c r="RV24" s="0"/>
+      <c r="RW24" s="0"/>
+      <c r="RX24" s="0"/>
+      <c r="RY24" s="0"/>
+      <c r="RZ24" s="0"/>
+      <c r="SA24" s="0"/>
+      <c r="SB24" s="0"/>
+      <c r="SC24" s="0"/>
+      <c r="SD24" s="0"/>
+      <c r="SE24" s="0"/>
+      <c r="SF24" s="0"/>
+      <c r="SG24" s="0"/>
+      <c r="SH24" s="0"/>
+      <c r="SI24" s="0"/>
+      <c r="SJ24" s="0"/>
+      <c r="SK24" s="0"/>
+      <c r="SL24" s="0"/>
+      <c r="SM24" s="0"/>
+      <c r="SN24" s="0"/>
+      <c r="SO24" s="0"/>
+      <c r="SP24" s="0"/>
+      <c r="SQ24" s="0"/>
+      <c r="SR24" s="0"/>
+      <c r="SS24" s="0"/>
+      <c r="ST24" s="0"/>
+      <c r="SU24" s="0"/>
+      <c r="SV24" s="0"/>
+      <c r="SW24" s="0"/>
+      <c r="SX24" s="0"/>
+      <c r="SY24" s="0"/>
+      <c r="SZ24" s="0"/>
+      <c r="TA24" s="0"/>
+      <c r="TB24" s="0"/>
+      <c r="TC24" s="0"/>
+      <c r="TD24" s="0"/>
+      <c r="TE24" s="0"/>
+      <c r="TF24" s="0"/>
+      <c r="TG24" s="0"/>
+      <c r="TH24" s="0"/>
+      <c r="TI24" s="0"/>
+      <c r="TJ24" s="0"/>
+      <c r="TK24" s="0"/>
+      <c r="TL24" s="0"/>
+      <c r="TM24" s="0"/>
+      <c r="TN24" s="0"/>
+      <c r="TO24" s="0"/>
+      <c r="TP24" s="0"/>
+      <c r="TQ24" s="0"/>
+      <c r="TR24" s="0"/>
+      <c r="TS24" s="0"/>
+      <c r="TT24" s="0"/>
+      <c r="TU24" s="0"/>
+      <c r="TV24" s="0"/>
+      <c r="TW24" s="0"/>
+      <c r="TX24" s="0"/>
+      <c r="TY24" s="0"/>
+      <c r="TZ24" s="0"/>
+      <c r="UA24" s="0"/>
+      <c r="UB24" s="0"/>
+      <c r="UC24" s="0"/>
+      <c r="UD24" s="0"/>
+      <c r="UE24" s="0"/>
+      <c r="UF24" s="0"/>
+      <c r="UG24" s="0"/>
+      <c r="UH24" s="0"/>
+      <c r="UI24" s="0"/>
+      <c r="UJ24" s="0"/>
+      <c r="UK24" s="0"/>
+      <c r="UL24" s="0"/>
+      <c r="UM24" s="0"/>
+      <c r="UN24" s="0"/>
+      <c r="UO24" s="0"/>
+      <c r="UP24" s="0"/>
+      <c r="UQ24" s="0"/>
+      <c r="UR24" s="0"/>
+      <c r="US24" s="0"/>
+      <c r="UT24" s="0"/>
+      <c r="UU24" s="0"/>
+      <c r="UV24" s="0"/>
+      <c r="UW24" s="0"/>
+      <c r="UX24" s="0"/>
+      <c r="UY24" s="0"/>
+      <c r="UZ24" s="0"/>
+      <c r="VA24" s="0"/>
+      <c r="VB24" s="0"/>
+      <c r="VC24" s="0"/>
+      <c r="VD24" s="0"/>
+      <c r="VE24" s="0"/>
+      <c r="VF24" s="0"/>
+      <c r="VG24" s="0"/>
+      <c r="VH24" s="0"/>
+      <c r="VI24" s="0"/>
+      <c r="VJ24" s="0"/>
+      <c r="VK24" s="0"/>
+      <c r="VL24" s="0"/>
+      <c r="VM24" s="0"/>
+      <c r="VN24" s="0"/>
+      <c r="VO24" s="0"/>
+      <c r="VP24" s="0"/>
+      <c r="VQ24" s="0"/>
+      <c r="VR24" s="0"/>
+      <c r="VS24" s="0"/>
+      <c r="VT24" s="0"/>
+      <c r="VU24" s="0"/>
+      <c r="VV24" s="0"/>
+      <c r="VW24" s="0"/>
+      <c r="VX24" s="0"/>
+      <c r="VY24" s="0"/>
+      <c r="VZ24" s="0"/>
+      <c r="WA24" s="0"/>
+      <c r="WB24" s="0"/>
+      <c r="WC24" s="0"/>
+      <c r="WD24" s="0"/>
+      <c r="WE24" s="0"/>
+      <c r="WF24" s="0"/>
+      <c r="WG24" s="0"/>
+      <c r="WH24" s="0"/>
+      <c r="WI24" s="0"/>
+      <c r="WJ24" s="0"/>
+      <c r="WK24" s="0"/>
+      <c r="WL24" s="0"/>
+      <c r="WM24" s="0"/>
+      <c r="WN24" s="0"/>
+      <c r="WO24" s="0"/>
+      <c r="WP24" s="0"/>
+      <c r="WQ24" s="0"/>
+      <c r="WR24" s="0"/>
+      <c r="WS24" s="0"/>
+      <c r="WT24" s="0"/>
+      <c r="WU24" s="0"/>
+      <c r="WV24" s="0"/>
+      <c r="WW24" s="0"/>
+      <c r="WX24" s="0"/>
+      <c r="WY24" s="0"/>
+      <c r="WZ24" s="0"/>
+      <c r="XA24" s="0"/>
+      <c r="XB24" s="0"/>
+      <c r="XC24" s="0"/>
+      <c r="XD24" s="0"/>
+      <c r="XE24" s="0"/>
+      <c r="XF24" s="0"/>
+      <c r="XG24" s="0"/>
+      <c r="XH24" s="0"/>
+      <c r="XI24" s="0"/>
+      <c r="XJ24" s="0"/>
+      <c r="XK24" s="0"/>
+      <c r="XL24" s="0"/>
+      <c r="XM24" s="0"/>
+      <c r="XN24" s="0"/>
+      <c r="XO24" s="0"/>
+      <c r="XP24" s="0"/>
+      <c r="XQ24" s="0"/>
+      <c r="XR24" s="0"/>
+      <c r="XS24" s="0"/>
+      <c r="XT24" s="0"/>
+      <c r="XU24" s="0"/>
+      <c r="XV24" s="0"/>
+      <c r="XW24" s="0"/>
+      <c r="XX24" s="0"/>
+      <c r="XY24" s="0"/>
+      <c r="XZ24" s="0"/>
+      <c r="YA24" s="0"/>
+      <c r="YB24" s="0"/>
+      <c r="YC24" s="0"/>
+      <c r="YD24" s="0"/>
+      <c r="YE24" s="0"/>
+      <c r="YF24" s="0"/>
+      <c r="YG24" s="0"/>
+      <c r="YH24" s="0"/>
+      <c r="YI24" s="0"/>
+      <c r="YJ24" s="0"/>
+      <c r="YK24" s="0"/>
+      <c r="YL24" s="0"/>
+      <c r="YM24" s="0"/>
+      <c r="YN24" s="0"/>
+      <c r="YO24" s="0"/>
+      <c r="YP24" s="0"/>
+      <c r="YQ24" s="0"/>
+      <c r="YR24" s="0"/>
+      <c r="YS24" s="0"/>
+      <c r="YT24" s="0"/>
+      <c r="YU24" s="0"/>
+      <c r="YV24" s="0"/>
+      <c r="YW24" s="0"/>
+      <c r="YX24" s="0"/>
+      <c r="YY24" s="0"/>
+      <c r="YZ24" s="0"/>
+      <c r="ZA24" s="0"/>
+      <c r="ZB24" s="0"/>
+      <c r="ZC24" s="0"/>
+      <c r="ZD24" s="0"/>
+      <c r="ZE24" s="0"/>
+      <c r="ZF24" s="0"/>
+      <c r="ZG24" s="0"/>
+      <c r="ZH24" s="0"/>
+      <c r="ZI24" s="0"/>
+      <c r="ZJ24" s="0"/>
+      <c r="ZK24" s="0"/>
+      <c r="ZL24" s="0"/>
+      <c r="ZM24" s="0"/>
+      <c r="ZN24" s="0"/>
+      <c r="ZO24" s="0"/>
+      <c r="ZP24" s="0"/>
+      <c r="ZQ24" s="0"/>
+      <c r="ZR24" s="0"/>
+      <c r="ZS24" s="0"/>
+      <c r="ZT24" s="0"/>
+      <c r="ZU24" s="0"/>
+      <c r="ZV24" s="0"/>
+      <c r="ZW24" s="0"/>
+      <c r="ZX24" s="0"/>
+      <c r="ZY24" s="0"/>
+      <c r="ZZ24" s="0"/>
+      <c r="AAA24" s="0"/>
+      <c r="AAB24" s="0"/>
+      <c r="AAC24" s="0"/>
+      <c r="AAD24" s="0"/>
+      <c r="AAE24" s="0"/>
+      <c r="AAF24" s="0"/>
+      <c r="AAG24" s="0"/>
+      <c r="AAH24" s="0"/>
+      <c r="AAI24" s="0"/>
+      <c r="AAJ24" s="0"/>
+      <c r="AAK24" s="0"/>
+      <c r="AAL24" s="0"/>
+      <c r="AAM24" s="0"/>
+      <c r="AAN24" s="0"/>
+      <c r="AAO24" s="0"/>
+      <c r="AAP24" s="0"/>
+      <c r="AAQ24" s="0"/>
+      <c r="AAR24" s="0"/>
+      <c r="AAS24" s="0"/>
+      <c r="AAT24" s="0"/>
+      <c r="AAU24" s="0"/>
+      <c r="AAV24" s="0"/>
+      <c r="AAW24" s="0"/>
+      <c r="AAX24" s="0"/>
+      <c r="AAY24" s="0"/>
+      <c r="AAZ24" s="0"/>
+      <c r="ABA24" s="0"/>
+      <c r="ABB24" s="0"/>
+      <c r="ABC24" s="0"/>
+      <c r="ABD24" s="0"/>
+      <c r="ABE24" s="0"/>
+      <c r="ABF24" s="0"/>
+      <c r="ABG24" s="0"/>
+      <c r="ABH24" s="0"/>
+      <c r="ABI24" s="0"/>
+      <c r="ABJ24" s="0"/>
+      <c r="ABK24" s="0"/>
+      <c r="ABL24" s="0"/>
+      <c r="ABM24" s="0"/>
+      <c r="ABN24" s="0"/>
+      <c r="ABO24" s="0"/>
+      <c r="ABP24" s="0"/>
+      <c r="ABQ24" s="0"/>
+      <c r="ABR24" s="0"/>
+      <c r="ABS24" s="0"/>
+      <c r="ABT24" s="0"/>
+      <c r="ABU24" s="0"/>
+      <c r="ABV24" s="0"/>
+      <c r="ABW24" s="0"/>
+      <c r="ABX24" s="0"/>
+      <c r="ABY24" s="0"/>
+      <c r="ABZ24" s="0"/>
+      <c r="ACA24" s="0"/>
+      <c r="ACB24" s="0"/>
+      <c r="ACC24" s="0"/>
+      <c r="ACD24" s="0"/>
+      <c r="ACE24" s="0"/>
+      <c r="ACF24" s="0"/>
+      <c r="ACG24" s="0"/>
+      <c r="ACH24" s="0"/>
+      <c r="ACI24" s="0"/>
+      <c r="ACJ24" s="0"/>
+      <c r="ACK24" s="0"/>
+      <c r="ACL24" s="0"/>
+      <c r="ACM24" s="0"/>
+      <c r="ACN24" s="0"/>
+      <c r="ACO24" s="0"/>
+      <c r="ACP24" s="0"/>
+      <c r="ACQ24" s="0"/>
+      <c r="ACR24" s="0"/>
+      <c r="ACS24" s="0"/>
+      <c r="ACT24" s="0"/>
+      <c r="ACU24" s="0"/>
+      <c r="ACV24" s="0"/>
+      <c r="ACW24" s="0"/>
+      <c r="ACX24" s="0"/>
+      <c r="ACY24" s="0"/>
+      <c r="ACZ24" s="0"/>
+      <c r="ADA24" s="0"/>
+      <c r="ADB24" s="0"/>
+      <c r="ADC24" s="0"/>
+      <c r="ADD24" s="0"/>
+      <c r="ADE24" s="0"/>
+      <c r="ADF24" s="0"/>
+      <c r="ADG24" s="0"/>
+      <c r="ADH24" s="0"/>
+      <c r="ADI24" s="0"/>
+      <c r="ADJ24" s="0"/>
+      <c r="ADK24" s="0"/>
+      <c r="ADL24" s="0"/>
+      <c r="ADM24" s="0"/>
+      <c r="ADN24" s="0"/>
+      <c r="ADO24" s="0"/>
+      <c r="ADP24" s="0"/>
+      <c r="ADQ24" s="0"/>
+      <c r="ADR24" s="0"/>
+      <c r="ADS24" s="0"/>
+      <c r="ADT24" s="0"/>
+      <c r="ADU24" s="0"/>
+      <c r="ADV24" s="0"/>
+      <c r="ADW24" s="0"/>
+      <c r="ADX24" s="0"/>
+      <c r="ADY24" s="0"/>
+      <c r="ADZ24" s="0"/>
+      <c r="AEA24" s="0"/>
+      <c r="AEB24" s="0"/>
+      <c r="AEC24" s="0"/>
+      <c r="AED24" s="0"/>
+      <c r="AEE24" s="0"/>
+      <c r="AEF24" s="0"/>
+      <c r="AEG24" s="0"/>
+      <c r="AEH24" s="0"/>
+      <c r="AEI24" s="0"/>
+      <c r="AEJ24" s="0"/>
+      <c r="AEK24" s="0"/>
+      <c r="AEL24" s="0"/>
+      <c r="AEM24" s="0"/>
+      <c r="AEN24" s="0"/>
+      <c r="AEO24" s="0"/>
+      <c r="AEP24" s="0"/>
+      <c r="AEQ24" s="0"/>
+      <c r="AER24" s="0"/>
+      <c r="AES24" s="0"/>
+      <c r="AET24" s="0"/>
+      <c r="AEU24" s="0"/>
+      <c r="AEV24" s="0"/>
+      <c r="AEW24" s="0"/>
+      <c r="AEX24" s="0"/>
+      <c r="AEY24" s="0"/>
+      <c r="AEZ24" s="0"/>
+      <c r="AFA24" s="0"/>
+      <c r="AFB24" s="0"/>
+      <c r="AFC24" s="0"/>
+      <c r="AFD24" s="0"/>
+      <c r="AFE24" s="0"/>
+      <c r="AFF24" s="0"/>
+      <c r="AFG24" s="0"/>
+      <c r="AFH24" s="0"/>
+      <c r="AFI24" s="0"/>
+      <c r="AFJ24" s="0"/>
+      <c r="AFK24" s="0"/>
+      <c r="AFL24" s="0"/>
+      <c r="AFM24" s="0"/>
+      <c r="AFN24" s="0"/>
+      <c r="AFO24" s="0"/>
+      <c r="AFP24" s="0"/>
+      <c r="AFQ24" s="0"/>
+      <c r="AFR24" s="0"/>
+      <c r="AFS24" s="0"/>
+      <c r="AFT24" s="0"/>
+      <c r="AFU24" s="0"/>
+      <c r="AFV24" s="0"/>
+      <c r="AFW24" s="0"/>
+      <c r="AFX24" s="0"/>
+      <c r="AFY24" s="0"/>
+      <c r="AFZ24" s="0"/>
+      <c r="AGA24" s="0"/>
+      <c r="AGB24" s="0"/>
+      <c r="AGC24" s="0"/>
+      <c r="AGD24" s="0"/>
+      <c r="AGE24" s="0"/>
+      <c r="AGF24" s="0"/>
+      <c r="AGG24" s="0"/>
+      <c r="AGH24" s="0"/>
+      <c r="AGI24" s="0"/>
+      <c r="AGJ24" s="0"/>
+      <c r="AGK24" s="0"/>
+      <c r="AGL24" s="0"/>
+      <c r="AGM24" s="0"/>
+      <c r="AGN24" s="0"/>
+      <c r="AGO24" s="0"/>
+      <c r="AGP24" s="0"/>
+      <c r="AGQ24" s="0"/>
+      <c r="AGR24" s="0"/>
+      <c r="AGS24" s="0"/>
+      <c r="AGT24" s="0"/>
+      <c r="AGU24" s="0"/>
+      <c r="AGV24" s="0"/>
+      <c r="AGW24" s="0"/>
+      <c r="AGX24" s="0"/>
+      <c r="AGY24" s="0"/>
+      <c r="AGZ24" s="0"/>
+      <c r="AHA24" s="0"/>
+      <c r="AHB24" s="0"/>
+      <c r="AHC24" s="0"/>
+      <c r="AHD24" s="0"/>
+      <c r="AHE24" s="0"/>
+      <c r="AHF24" s="0"/>
+      <c r="AHG24" s="0"/>
+      <c r="AHH24" s="0"/>
+      <c r="AHI24" s="0"/>
+      <c r="AHJ24" s="0"/>
+      <c r="AHK24" s="0"/>
+      <c r="AHL24" s="0"/>
+      <c r="AHM24" s="0"/>
+      <c r="AHN24" s="0"/>
+      <c r="AHO24" s="0"/>
+      <c r="AHP24" s="0"/>
+      <c r="AHQ24" s="0"/>
+      <c r="AHR24" s="0"/>
+      <c r="AHS24" s="0"/>
+      <c r="AHT24" s="0"/>
+      <c r="AHU24" s="0"/>
+      <c r="AHV24" s="0"/>
+      <c r="AHW24" s="0"/>
+      <c r="AHX24" s="0"/>
+      <c r="AHY24" s="0"/>
+      <c r="AHZ24" s="0"/>
+      <c r="AIA24" s="0"/>
+      <c r="AIB24" s="0"/>
+      <c r="AIC24" s="0"/>
+      <c r="AID24" s="0"/>
+      <c r="AIE24" s="0"/>
+      <c r="AIF24" s="0"/>
+      <c r="AIG24" s="0"/>
+      <c r="AIH24" s="0"/>
+      <c r="AII24" s="0"/>
+      <c r="AIJ24" s="0"/>
+      <c r="AIK24" s="0"/>
+      <c r="AIL24" s="0"/>
+      <c r="AIM24" s="0"/>
+      <c r="AIN24" s="0"/>
+      <c r="AIO24" s="0"/>
+      <c r="AIP24" s="0"/>
+      <c r="AIQ24" s="0"/>
+      <c r="AIR24" s="0"/>
+      <c r="AIS24" s="0"/>
+      <c r="AIT24" s="0"/>
+      <c r="AIU24" s="0"/>
+      <c r="AIV24" s="0"/>
+      <c r="AIW24" s="0"/>
+      <c r="AIX24" s="0"/>
+      <c r="AIY24" s="0"/>
+      <c r="AIZ24" s="0"/>
+      <c r="AJA24" s="0"/>
+      <c r="AJB24" s="0"/>
+      <c r="AJC24" s="0"/>
+      <c r="AJD24" s="0"/>
+      <c r="AJE24" s="0"/>
+      <c r="AJF24" s="0"/>
+      <c r="AJG24" s="0"/>
+      <c r="AJH24" s="0"/>
+      <c r="AJI24" s="0"/>
+      <c r="AJJ24" s="0"/>
+      <c r="AJK24" s="0"/>
+      <c r="AJL24" s="0"/>
+      <c r="AJM24" s="0"/>
+      <c r="AJN24" s="0"/>
+      <c r="AJO24" s="0"/>
+      <c r="AJP24" s="0"/>
+      <c r="AJQ24" s="0"/>
+      <c r="AJR24" s="0"/>
+      <c r="AJS24" s="0"/>
+      <c r="AJT24" s="0"/>
+      <c r="AJU24" s="0"/>
+      <c r="AJV24" s="0"/>
+      <c r="AJW24" s="0"/>
+      <c r="AJX24" s="0"/>
+      <c r="AJY24" s="0"/>
+      <c r="AJZ24" s="0"/>
+      <c r="AKA24" s="0"/>
+      <c r="AKB24" s="0"/>
+      <c r="AKC24" s="0"/>
+      <c r="AKD24" s="0"/>
+      <c r="AKE24" s="0"/>
+      <c r="AKF24" s="0"/>
+      <c r="AKG24" s="0"/>
+      <c r="AKH24" s="0"/>
+      <c r="AKI24" s="0"/>
+      <c r="AKJ24" s="0"/>
+      <c r="AKK24" s="0"/>
+      <c r="AKL24" s="0"/>
+      <c r="AKM24" s="0"/>
+      <c r="AKN24" s="0"/>
+      <c r="AKO24" s="0"/>
+      <c r="AKP24" s="0"/>
+      <c r="AKQ24" s="0"/>
+      <c r="AKR24" s="0"/>
+      <c r="AKS24" s="0"/>
+      <c r="AKT24" s="0"/>
+      <c r="AKU24" s="0"/>
+      <c r="AKV24" s="0"/>
+      <c r="AKW24" s="0"/>
+      <c r="AKX24" s="0"/>
+      <c r="AKY24" s="0"/>
+      <c r="AKZ24" s="0"/>
+      <c r="ALA24" s="0"/>
+      <c r="ALB24" s="0"/>
+      <c r="ALC24" s="0"/>
+      <c r="ALD24" s="0"/>
+      <c r="ALE24" s="0"/>
+      <c r="ALF24" s="0"/>
+      <c r="ALG24" s="0"/>
+      <c r="ALH24" s="0"/>
+      <c r="ALI24" s="0"/>
+      <c r="ALJ24" s="0"/>
+      <c r="ALK24" s="0"/>
+      <c r="ALL24" s="0"/>
+      <c r="ALM24" s="0"/>
+      <c r="ALN24" s="0"/>
+      <c r="ALO24" s="0"/>
+      <c r="ALP24" s="0"/>
+      <c r="ALQ24" s="0"/>
+      <c r="ALR24" s="0"/>
+      <c r="ALS24" s="0"/>
+      <c r="ALT24" s="0"/>
+      <c r="ALU24" s="0"/>
+      <c r="ALV24" s="0"/>
+      <c r="ALW24" s="0"/>
+      <c r="ALX24" s="0"/>
+      <c r="ALY24" s="0"/>
+      <c r="ALZ24" s="0"/>
+      <c r="AMA24" s="0"/>
+      <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+      <c r="AX25" s="0"/>
+      <c r="AY25" s="0"/>
+      <c r="AZ25" s="0"/>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+      <c r="BN25" s="0"/>
+      <c r="BO25" s="0"/>
+      <c r="BP25" s="0"/>
+      <c r="BQ25" s="0"/>
+      <c r="BR25" s="0"/>
+      <c r="BS25" s="0"/>
+      <c r="BT25" s="0"/>
+      <c r="BU25" s="0"/>
+      <c r="BV25" s="0"/>
+      <c r="BW25" s="0"/>
+      <c r="BX25" s="0"/>
+      <c r="BY25" s="0"/>
+      <c r="BZ25" s="0"/>
+      <c r="CA25" s="0"/>
+      <c r="CB25" s="0"/>
+      <c r="CC25" s="0"/>
+      <c r="CD25" s="0"/>
+      <c r="CE25" s="0"/>
+      <c r="CF25" s="0"/>
+      <c r="CG25" s="0"/>
+      <c r="CH25" s="0"/>
+      <c r="CI25" s="0"/>
+      <c r="CJ25" s="0"/>
+      <c r="CK25" s="0"/>
+      <c r="CL25" s="0"/>
+      <c r="CM25" s="0"/>
+      <c r="CN25" s="0"/>
+      <c r="CO25" s="0"/>
+      <c r="CP25" s="0"/>
+      <c r="CQ25" s="0"/>
+      <c r="CR25" s="0"/>
+      <c r="CS25" s="0"/>
+      <c r="CT25" s="0"/>
+      <c r="CU25" s="0"/>
+      <c r="CV25" s="0"/>
+      <c r="CW25" s="0"/>
+      <c r="CX25" s="0"/>
+      <c r="CY25" s="0"/>
+      <c r="CZ25" s="0"/>
+      <c r="DA25" s="0"/>
+      <c r="DB25" s="0"/>
+      <c r="DC25" s="0"/>
+      <c r="DD25" s="0"/>
+      <c r="DE25" s="0"/>
+      <c r="DF25" s="0"/>
+      <c r="DG25" s="0"/>
+      <c r="DH25" s="0"/>
+      <c r="DI25" s="0"/>
+      <c r="DJ25" s="0"/>
+      <c r="DK25" s="0"/>
+      <c r="DL25" s="0"/>
+      <c r="DM25" s="0"/>
+      <c r="DN25" s="0"/>
+      <c r="DO25" s="0"/>
+      <c r="DP25" s="0"/>
+      <c r="DQ25" s="0"/>
+      <c r="DR25" s="0"/>
+      <c r="DS25" s="0"/>
+      <c r="DT25" s="0"/>
+      <c r="DU25" s="0"/>
+      <c r="DV25" s="0"/>
+      <c r="DW25" s="0"/>
+      <c r="DX25" s="0"/>
+      <c r="DY25" s="0"/>
+      <c r="DZ25" s="0"/>
+      <c r="EA25" s="0"/>
+      <c r="EB25" s="0"/>
+      <c r="EC25" s="0"/>
+      <c r="ED25" s="0"/>
+      <c r="EE25" s="0"/>
+      <c r="EF25" s="0"/>
+      <c r="EG25" s="0"/>
+      <c r="EH25" s="0"/>
+      <c r="EI25" s="0"/>
+      <c r="EJ25" s="0"/>
+      <c r="EK25" s="0"/>
+      <c r="EL25" s="0"/>
+      <c r="EM25" s="0"/>
+      <c r="EN25" s="0"/>
+      <c r="EO25" s="0"/>
+      <c r="EP25" s="0"/>
+      <c r="EQ25" s="0"/>
+      <c r="ER25" s="0"/>
+      <c r="ES25" s="0"/>
+      <c r="ET25" s="0"/>
+      <c r="EU25" s="0"/>
+      <c r="EV25" s="0"/>
+      <c r="EW25" s="0"/>
+      <c r="EX25" s="0"/>
+      <c r="EY25" s="0"/>
+      <c r="EZ25" s="0"/>
+      <c r="FA25" s="0"/>
+      <c r="FB25" s="0"/>
+      <c r="FC25" s="0"/>
+      <c r="FD25" s="0"/>
+      <c r="FE25" s="0"/>
+      <c r="FF25" s="0"/>
+      <c r="FG25" s="0"/>
+      <c r="FH25" s="0"/>
+      <c r="FI25" s="0"/>
+      <c r="FJ25" s="0"/>
+      <c r="FK25" s="0"/>
+      <c r="FL25" s="0"/>
+      <c r="FM25" s="0"/>
+      <c r="FN25" s="0"/>
+      <c r="FO25" s="0"/>
+      <c r="FP25" s="0"/>
+      <c r="FQ25" s="0"/>
+      <c r="FR25" s="0"/>
+      <c r="FS25" s="0"/>
+      <c r="FT25" s="0"/>
+      <c r="FU25" s="0"/>
+      <c r="FV25" s="0"/>
+      <c r="FW25" s="0"/>
+      <c r="FX25" s="0"/>
+      <c r="FY25" s="0"/>
+      <c r="FZ25" s="0"/>
+      <c r="GA25" s="0"/>
+      <c r="GB25" s="0"/>
+      <c r="GC25" s="0"/>
+      <c r="GD25" s="0"/>
+      <c r="GE25" s="0"/>
+      <c r="GF25" s="0"/>
+      <c r="GG25" s="0"/>
+      <c r="GH25" s="0"/>
+      <c r="GI25" s="0"/>
+      <c r="GJ25" s="0"/>
+      <c r="GK25" s="0"/>
+      <c r="GL25" s="0"/>
+      <c r="GM25" s="0"/>
+      <c r="GN25" s="0"/>
+      <c r="GO25" s="0"/>
+      <c r="GP25" s="0"/>
+      <c r="GQ25" s="0"/>
+      <c r="GR25" s="0"/>
+      <c r="GS25" s="0"/>
+      <c r="GT25" s="0"/>
+      <c r="GU25" s="0"/>
+      <c r="GV25" s="0"/>
+      <c r="GW25" s="0"/>
+      <c r="GX25" s="0"/>
+      <c r="GY25" s="0"/>
+      <c r="GZ25" s="0"/>
+      <c r="HA25" s="0"/>
+      <c r="HB25" s="0"/>
+      <c r="HC25" s="0"/>
+      <c r="HD25" s="0"/>
+      <c r="HE25" s="0"/>
+      <c r="HF25" s="0"/>
+      <c r="HG25" s="0"/>
+      <c r="HH25" s="0"/>
+      <c r="HI25" s="0"/>
+      <c r="HJ25" s="0"/>
+      <c r="HK25" s="0"/>
+      <c r="HL25" s="0"/>
+      <c r="HM25" s="0"/>
+      <c r="HN25" s="0"/>
+      <c r="HO25" s="0"/>
+      <c r="HP25" s="0"/>
+      <c r="HQ25" s="0"/>
+      <c r="HR25" s="0"/>
+      <c r="HS25" s="0"/>
+      <c r="HT25" s="0"/>
+      <c r="HU25" s="0"/>
+      <c r="HV25" s="0"/>
+      <c r="HW25" s="0"/>
+      <c r="HX25" s="0"/>
+      <c r="HY25" s="0"/>
+      <c r="HZ25" s="0"/>
+      <c r="IA25" s="0"/>
+      <c r="IB25" s="0"/>
+      <c r="IC25" s="0"/>
+      <c r="ID25" s="0"/>
+      <c r="IE25" s="0"/>
+      <c r="IF25" s="0"/>
+      <c r="IG25" s="0"/>
+      <c r="IH25" s="0"/>
+      <c r="II25" s="0"/>
+      <c r="IJ25" s="0"/>
+      <c r="IK25" s="0"/>
+      <c r="IL25" s="0"/>
+      <c r="IM25" s="0"/>
+      <c r="IN25" s="0"/>
+      <c r="IO25" s="0"/>
+      <c r="IP25" s="0"/>
+      <c r="IQ25" s="0"/>
+      <c r="IR25" s="0"/>
+      <c r="IS25" s="0"/>
+      <c r="IT25" s="0"/>
+      <c r="IU25" s="0"/>
+      <c r="IV25" s="0"/>
+      <c r="IW25" s="0"/>
+      <c r="IX25" s="0"/>
+      <c r="IY25" s="0"/>
+      <c r="IZ25" s="0"/>
+      <c r="JA25" s="0"/>
+      <c r="JB25" s="0"/>
+      <c r="JC25" s="0"/>
+      <c r="JD25" s="0"/>
+      <c r="JE25" s="0"/>
+      <c r="JF25" s="0"/>
+      <c r="JG25" s="0"/>
+      <c r="JH25" s="0"/>
+      <c r="JI25" s="0"/>
+      <c r="JJ25" s="0"/>
+      <c r="JK25" s="0"/>
+      <c r="JL25" s="0"/>
+      <c r="JM25" s="0"/>
+      <c r="JN25" s="0"/>
+      <c r="JO25" s="0"/>
+      <c r="JP25" s="0"/>
+      <c r="JQ25" s="0"/>
+      <c r="JR25" s="0"/>
+      <c r="JS25" s="0"/>
+      <c r="JT25" s="0"/>
+      <c r="JU25" s="0"/>
+      <c r="JV25" s="0"/>
+      <c r="JW25" s="0"/>
+      <c r="JX25" s="0"/>
+      <c r="JY25" s="0"/>
+      <c r="JZ25" s="0"/>
+      <c r="KA25" s="0"/>
+      <c r="KB25" s="0"/>
+      <c r="KC25" s="0"/>
+      <c r="KD25" s="0"/>
+      <c r="KE25" s="0"/>
+      <c r="KF25" s="0"/>
+      <c r="KG25" s="0"/>
+      <c r="KH25" s="0"/>
+      <c r="KI25" s="0"/>
+      <c r="KJ25" s="0"/>
+      <c r="KK25" s="0"/>
+      <c r="KL25" s="0"/>
+      <c r="KM25" s="0"/>
+      <c r="KN25" s="0"/>
+      <c r="KO25" s="0"/>
+      <c r="KP25" s="0"/>
+      <c r="KQ25" s="0"/>
+      <c r="KR25" s="0"/>
+      <c r="KS25" s="0"/>
+      <c r="KT25" s="0"/>
+      <c r="KU25" s="0"/>
+      <c r="KV25" s="0"/>
+      <c r="KW25" s="0"/>
+      <c r="KX25" s="0"/>
+      <c r="KY25" s="0"/>
+      <c r="KZ25" s="0"/>
+      <c r="LA25" s="0"/>
+      <c r="LB25" s="0"/>
+      <c r="LC25" s="0"/>
+      <c r="LD25" s="0"/>
+      <c r="LE25" s="0"/>
+      <c r="LF25" s="0"/>
+      <c r="LG25" s="0"/>
+      <c r="LH25" s="0"/>
+      <c r="LI25" s="0"/>
+      <c r="LJ25" s="0"/>
+      <c r="LK25" s="0"/>
+      <c r="LL25" s="0"/>
+      <c r="LM25" s="0"/>
+      <c r="LN25" s="0"/>
+      <c r="LO25" s="0"/>
+      <c r="LP25" s="0"/>
+      <c r="LQ25" s="0"/>
+      <c r="LR25" s="0"/>
+      <c r="LS25" s="0"/>
+      <c r="LT25" s="0"/>
+      <c r="LU25" s="0"/>
+      <c r="LV25" s="0"/>
+      <c r="LW25" s="0"/>
+      <c r="LX25" s="0"/>
+      <c r="LY25" s="0"/>
+      <c r="LZ25" s="0"/>
+      <c r="MA25" s="0"/>
+      <c r="MB25" s="0"/>
+      <c r="MC25" s="0"/>
+      <c r="MD25" s="0"/>
+      <c r="ME25" s="0"/>
+      <c r="MF25" s="0"/>
+      <c r="MG25" s="0"/>
+      <c r="MH25" s="0"/>
+      <c r="MI25" s="0"/>
+      <c r="MJ25" s="0"/>
+      <c r="MK25" s="0"/>
+      <c r="ML25" s="0"/>
+      <c r="MM25" s="0"/>
+      <c r="MN25" s="0"/>
+      <c r="MO25" s="0"/>
+      <c r="MP25" s="0"/>
+      <c r="MQ25" s="0"/>
+      <c r="MR25" s="0"/>
+      <c r="MS25" s="0"/>
+      <c r="MT25" s="0"/>
+      <c r="MU25" s="0"/>
+      <c r="MV25" s="0"/>
+      <c r="MW25" s="0"/>
+      <c r="MX25" s="0"/>
+      <c r="MY25" s="0"/>
+      <c r="MZ25" s="0"/>
+      <c r="NA25" s="0"/>
+      <c r="NB25" s="0"/>
+      <c r="NC25" s="0"/>
+      <c r="ND25" s="0"/>
+      <c r="NE25" s="0"/>
+      <c r="NF25" s="0"/>
+      <c r="NG25" s="0"/>
+      <c r="NH25" s="0"/>
+      <c r="NI25" s="0"/>
+      <c r="NJ25" s="0"/>
+      <c r="NK25" s="0"/>
+      <c r="NL25" s="0"/>
+      <c r="NM25" s="0"/>
+      <c r="NN25" s="0"/>
+      <c r="NO25" s="0"/>
+      <c r="NP25" s="0"/>
+      <c r="NQ25" s="0"/>
+      <c r="NR25" s="0"/>
+      <c r="NS25" s="0"/>
+      <c r="NT25" s="0"/>
+      <c r="NU25" s="0"/>
+      <c r="NV25" s="0"/>
+      <c r="NW25" s="0"/>
+      <c r="NX25" s="0"/>
+      <c r="NY25" s="0"/>
+      <c r="NZ25" s="0"/>
+      <c r="OA25" s="0"/>
+      <c r="OB25" s="0"/>
+      <c r="OC25" s="0"/>
+      <c r="OD25" s="0"/>
+      <c r="OE25" s="0"/>
+      <c r="OF25" s="0"/>
+      <c r="OG25" s="0"/>
+      <c r="OH25" s="0"/>
+      <c r="OI25" s="0"/>
+      <c r="OJ25" s="0"/>
+      <c r="OK25" s="0"/>
+      <c r="OL25" s="0"/>
+      <c r="OM25" s="0"/>
+      <c r="ON25" s="0"/>
+      <c r="OO25" s="0"/>
+      <c r="OP25" s="0"/>
+      <c r="OQ25" s="0"/>
+      <c r="OR25" s="0"/>
+      <c r="OS25" s="0"/>
+      <c r="OT25" s="0"/>
+      <c r="OU25" s="0"/>
+      <c r="OV25" s="0"/>
+      <c r="OW25" s="0"/>
+      <c r="OX25" s="0"/>
+      <c r="OY25" s="0"/>
+      <c r="OZ25" s="0"/>
+      <c r="PA25" s="0"/>
+      <c r="PB25" s="0"/>
+      <c r="PC25" s="0"/>
+      <c r="PD25" s="0"/>
+      <c r="PE25" s="0"/>
+      <c r="PF25" s="0"/>
+      <c r="PG25" s="0"/>
+      <c r="PH25" s="0"/>
+      <c r="PI25" s="0"/>
+      <c r="PJ25" s="0"/>
+      <c r="PK25" s="0"/>
+      <c r="PL25" s="0"/>
+      <c r="PM25" s="0"/>
+      <c r="PN25" s="0"/>
+      <c r="PO25" s="0"/>
+      <c r="PP25" s="0"/>
+      <c r="PQ25" s="0"/>
+      <c r="PR25" s="0"/>
+      <c r="PS25" s="0"/>
+      <c r="PT25" s="0"/>
+      <c r="PU25" s="0"/>
+      <c r="PV25" s="0"/>
+      <c r="PW25" s="0"/>
+      <c r="PX25" s="0"/>
+      <c r="PY25" s="0"/>
+      <c r="PZ25" s="0"/>
+      <c r="QA25" s="0"/>
+      <c r="QB25" s="0"/>
+      <c r="QC25" s="0"/>
+      <c r="QD25" s="0"/>
+      <c r="QE25" s="0"/>
+      <c r="QF25" s="0"/>
+      <c r="QG25" s="0"/>
+      <c r="QH25" s="0"/>
+      <c r="QI25" s="0"/>
+      <c r="QJ25" s="0"/>
+      <c r="QK25" s="0"/>
+      <c r="QL25" s="0"/>
+      <c r="QM25" s="0"/>
+      <c r="QN25" s="0"/>
+      <c r="QO25" s="0"/>
+      <c r="QP25" s="0"/>
+      <c r="QQ25" s="0"/>
+      <c r="QR25" s="0"/>
+      <c r="QS25" s="0"/>
+      <c r="QT25" s="0"/>
+      <c r="QU25" s="0"/>
+      <c r="QV25" s="0"/>
+      <c r="QW25" s="0"/>
+      <c r="QX25" s="0"/>
+      <c r="QY25" s="0"/>
+      <c r="QZ25" s="0"/>
+      <c r="RA25" s="0"/>
+      <c r="RB25" s="0"/>
+      <c r="RC25" s="0"/>
+      <c r="RD25" s="0"/>
+      <c r="RE25" s="0"/>
+      <c r="RF25" s="0"/>
+      <c r="RG25" s="0"/>
+      <c r="RH25" s="0"/>
+      <c r="RI25" s="0"/>
+      <c r="RJ25" s="0"/>
+      <c r="RK25" s="0"/>
+      <c r="RL25" s="0"/>
+      <c r="RM25" s="0"/>
+      <c r="RN25" s="0"/>
+      <c r="RO25" s="0"/>
+      <c r="RP25" s="0"/>
+      <c r="RQ25" s="0"/>
+      <c r="RR25" s="0"/>
+      <c r="RS25" s="0"/>
+      <c r="RT25" s="0"/>
+      <c r="RU25" s="0"/>
+      <c r="RV25" s="0"/>
+      <c r="RW25" s="0"/>
+      <c r="RX25" s="0"/>
+      <c r="RY25" s="0"/>
+      <c r="RZ25" s="0"/>
+      <c r="SA25" s="0"/>
+      <c r="SB25" s="0"/>
+      <c r="SC25" s="0"/>
+      <c r="SD25" s="0"/>
+      <c r="SE25" s="0"/>
+      <c r="SF25" s="0"/>
+      <c r="SG25" s="0"/>
+      <c r="SH25" s="0"/>
+      <c r="SI25" s="0"/>
+      <c r="SJ25" s="0"/>
+      <c r="SK25" s="0"/>
+      <c r="SL25" s="0"/>
+      <c r="SM25" s="0"/>
+      <c r="SN25" s="0"/>
+      <c r="SO25" s="0"/>
+      <c r="SP25" s="0"/>
+      <c r="SQ25" s="0"/>
+      <c r="SR25" s="0"/>
+      <c r="SS25" s="0"/>
+      <c r="ST25" s="0"/>
+      <c r="SU25" s="0"/>
+      <c r="SV25" s="0"/>
+      <c r="SW25" s="0"/>
+      <c r="SX25" s="0"/>
+      <c r="SY25" s="0"/>
+      <c r="SZ25" s="0"/>
+      <c r="TA25" s="0"/>
+      <c r="TB25" s="0"/>
+      <c r="TC25" s="0"/>
+      <c r="TD25" s="0"/>
+      <c r="TE25" s="0"/>
+      <c r="TF25" s="0"/>
+      <c r="TG25" s="0"/>
+      <c r="TH25" s="0"/>
+      <c r="TI25" s="0"/>
+      <c r="TJ25" s="0"/>
+      <c r="TK25" s="0"/>
+      <c r="TL25" s="0"/>
+      <c r="TM25" s="0"/>
+      <c r="TN25" s="0"/>
+      <c r="TO25" s="0"/>
+      <c r="TP25" s="0"/>
+      <c r="TQ25" s="0"/>
+      <c r="TR25" s="0"/>
+      <c r="TS25" s="0"/>
+      <c r="TT25" s="0"/>
+      <c r="TU25" s="0"/>
+      <c r="TV25" s="0"/>
+      <c r="TW25" s="0"/>
+      <c r="TX25" s="0"/>
+      <c r="TY25" s="0"/>
+      <c r="TZ25" s="0"/>
+      <c r="UA25" s="0"/>
+      <c r="UB25" s="0"/>
+      <c r="UC25" s="0"/>
+      <c r="UD25" s="0"/>
+      <c r="UE25" s="0"/>
+      <c r="UF25" s="0"/>
+      <c r="UG25" s="0"/>
+      <c r="UH25" s="0"/>
+      <c r="UI25" s="0"/>
+      <c r="UJ25" s="0"/>
+      <c r="UK25" s="0"/>
+      <c r="UL25" s="0"/>
+      <c r="UM25" s="0"/>
+      <c r="UN25" s="0"/>
+      <c r="UO25" s="0"/>
+      <c r="UP25" s="0"/>
+      <c r="UQ25" s="0"/>
+      <c r="UR25" s="0"/>
+      <c r="US25" s="0"/>
+      <c r="UT25" s="0"/>
+      <c r="UU25" s="0"/>
+      <c r="UV25" s="0"/>
+      <c r="UW25" s="0"/>
+      <c r="UX25" s="0"/>
+      <c r="UY25" s="0"/>
+      <c r="UZ25" s="0"/>
+      <c r="VA25" s="0"/>
+      <c r="VB25" s="0"/>
+      <c r="VC25" s="0"/>
+      <c r="VD25" s="0"/>
+      <c r="VE25" s="0"/>
+      <c r="VF25" s="0"/>
+      <c r="VG25" s="0"/>
+      <c r="VH25" s="0"/>
+      <c r="VI25" s="0"/>
+      <c r="VJ25" s="0"/>
+      <c r="VK25" s="0"/>
+      <c r="VL25" s="0"/>
+      <c r="VM25" s="0"/>
+      <c r="VN25" s="0"/>
+      <c r="VO25" s="0"/>
+      <c r="VP25" s="0"/>
+      <c r="VQ25" s="0"/>
+      <c r="VR25" s="0"/>
+      <c r="VS25" s="0"/>
+      <c r="VT25" s="0"/>
+      <c r="VU25" s="0"/>
+      <c r="VV25" s="0"/>
+      <c r="VW25" s="0"/>
+      <c r="VX25" s="0"/>
+      <c r="VY25" s="0"/>
+      <c r="VZ25" s="0"/>
+      <c r="WA25" s="0"/>
+      <c r="WB25" s="0"/>
+      <c r="WC25" s="0"/>
+      <c r="WD25" s="0"/>
+      <c r="WE25" s="0"/>
+      <c r="WF25" s="0"/>
+      <c r="WG25" s="0"/>
+      <c r="WH25" s="0"/>
+      <c r="WI25" s="0"/>
+      <c r="WJ25" s="0"/>
+      <c r="WK25" s="0"/>
+      <c r="WL25" s="0"/>
+      <c r="WM25" s="0"/>
+      <c r="WN25" s="0"/>
+      <c r="WO25" s="0"/>
+      <c r="WP25" s="0"/>
+      <c r="WQ25" s="0"/>
+      <c r="WR25" s="0"/>
+      <c r="WS25" s="0"/>
+      <c r="WT25" s="0"/>
+      <c r="WU25" s="0"/>
+      <c r="WV25" s="0"/>
+      <c r="WW25" s="0"/>
+      <c r="WX25" s="0"/>
+      <c r="WY25" s="0"/>
+      <c r="WZ25" s="0"/>
+      <c r="XA25" s="0"/>
+      <c r="XB25" s="0"/>
+      <c r="XC25" s="0"/>
+      <c r="XD25" s="0"/>
+      <c r="XE25" s="0"/>
+      <c r="XF25" s="0"/>
+      <c r="XG25" s="0"/>
+      <c r="XH25" s="0"/>
+      <c r="XI25" s="0"/>
+      <c r="XJ25" s="0"/>
+      <c r="XK25" s="0"/>
+      <c r="XL25" s="0"/>
+      <c r="XM25" s="0"/>
+      <c r="XN25" s="0"/>
+      <c r="XO25" s="0"/>
+      <c r="XP25" s="0"/>
+      <c r="XQ25" s="0"/>
+      <c r="XR25" s="0"/>
+      <c r="XS25" s="0"/>
+      <c r="XT25" s="0"/>
+      <c r="XU25" s="0"/>
+      <c r="XV25" s="0"/>
+      <c r="XW25" s="0"/>
+      <c r="XX25" s="0"/>
+      <c r="XY25" s="0"/>
+      <c r="XZ25" s="0"/>
+      <c r="YA25" s="0"/>
+      <c r="YB25" s="0"/>
+      <c r="YC25" s="0"/>
+      <c r="YD25" s="0"/>
+      <c r="YE25" s="0"/>
+      <c r="YF25" s="0"/>
+      <c r="YG25" s="0"/>
+      <c r="YH25" s="0"/>
+      <c r="YI25" s="0"/>
+      <c r="YJ25" s="0"/>
+      <c r="YK25" s="0"/>
+      <c r="YL25" s="0"/>
+      <c r="YM25" s="0"/>
+      <c r="YN25" s="0"/>
+      <c r="YO25" s="0"/>
+      <c r="YP25" s="0"/>
+      <c r="YQ25" s="0"/>
+      <c r="YR25" s="0"/>
+      <c r="YS25" s="0"/>
+      <c r="YT25" s="0"/>
+      <c r="YU25" s="0"/>
+      <c r="YV25" s="0"/>
+      <c r="YW25" s="0"/>
+      <c r="YX25" s="0"/>
+      <c r="YY25" s="0"/>
+      <c r="YZ25" s="0"/>
+      <c r="ZA25" s="0"/>
+      <c r="ZB25" s="0"/>
+      <c r="ZC25" s="0"/>
+      <c r="ZD25" s="0"/>
+      <c r="ZE25" s="0"/>
+      <c r="ZF25" s="0"/>
+      <c r="ZG25" s="0"/>
+      <c r="ZH25" s="0"/>
+      <c r="ZI25" s="0"/>
+      <c r="ZJ25" s="0"/>
+      <c r="ZK25" s="0"/>
+      <c r="ZL25" s="0"/>
+      <c r="ZM25" s="0"/>
+      <c r="ZN25" s="0"/>
+      <c r="ZO25" s="0"/>
+      <c r="ZP25" s="0"/>
+      <c r="ZQ25" s="0"/>
+      <c r="ZR25" s="0"/>
+      <c r="ZS25" s="0"/>
+      <c r="ZT25" s="0"/>
+      <c r="ZU25" s="0"/>
+      <c r="ZV25" s="0"/>
+      <c r="ZW25" s="0"/>
+      <c r="ZX25" s="0"/>
+      <c r="ZY25" s="0"/>
+      <c r="ZZ25" s="0"/>
+      <c r="AAA25" s="0"/>
+      <c r="AAB25" s="0"/>
+      <c r="AAC25" s="0"/>
+      <c r="AAD25" s="0"/>
+      <c r="AAE25" s="0"/>
+      <c r="AAF25" s="0"/>
+      <c r="AAG25" s="0"/>
+      <c r="AAH25" s="0"/>
+      <c r="AAI25" s="0"/>
+      <c r="AAJ25" s="0"/>
+      <c r="AAK25" s="0"/>
+      <c r="AAL25" s="0"/>
+      <c r="AAM25" s="0"/>
+      <c r="AAN25" s="0"/>
+      <c r="AAO25" s="0"/>
+      <c r="AAP25" s="0"/>
+      <c r="AAQ25" s="0"/>
+      <c r="AAR25" s="0"/>
+      <c r="AAS25" s="0"/>
+      <c r="AAT25" s="0"/>
+      <c r="AAU25" s="0"/>
+      <c r="AAV25" s="0"/>
+      <c r="AAW25" s="0"/>
+      <c r="AAX25" s="0"/>
+      <c r="AAY25" s="0"/>
+      <c r="AAZ25" s="0"/>
+      <c r="ABA25" s="0"/>
+      <c r="ABB25" s="0"/>
+      <c r="ABC25" s="0"/>
+      <c r="ABD25" s="0"/>
+      <c r="ABE25" s="0"/>
+      <c r="ABF25" s="0"/>
+      <c r="ABG25" s="0"/>
+      <c r="ABH25" s="0"/>
+      <c r="ABI25" s="0"/>
+      <c r="ABJ25" s="0"/>
+      <c r="ABK25" s="0"/>
+      <c r="ABL25" s="0"/>
+      <c r="ABM25" s="0"/>
+      <c r="ABN25" s="0"/>
+      <c r="ABO25" s="0"/>
+      <c r="ABP25" s="0"/>
+      <c r="ABQ25" s="0"/>
+      <c r="ABR25" s="0"/>
+      <c r="ABS25" s="0"/>
+      <c r="ABT25" s="0"/>
+      <c r="ABU25" s="0"/>
+      <c r="ABV25" s="0"/>
+      <c r="ABW25" s="0"/>
+      <c r="ABX25" s="0"/>
+      <c r="ABY25" s="0"/>
+      <c r="ABZ25" s="0"/>
+      <c r="ACA25" s="0"/>
+      <c r="ACB25" s="0"/>
+      <c r="ACC25" s="0"/>
+      <c r="ACD25" s="0"/>
+      <c r="ACE25" s="0"/>
+      <c r="ACF25" s="0"/>
+      <c r="ACG25" s="0"/>
+      <c r="ACH25" s="0"/>
+      <c r="ACI25" s="0"/>
+      <c r="ACJ25" s="0"/>
+      <c r="ACK25" s="0"/>
+      <c r="ACL25" s="0"/>
+      <c r="ACM25" s="0"/>
+      <c r="ACN25" s="0"/>
+      <c r="ACO25" s="0"/>
+      <c r="ACP25" s="0"/>
+      <c r="ACQ25" s="0"/>
+      <c r="ACR25" s="0"/>
+      <c r="ACS25" s="0"/>
+      <c r="ACT25" s="0"/>
+      <c r="ACU25" s="0"/>
+      <c r="ACV25" s="0"/>
+      <c r="ACW25" s="0"/>
+      <c r="ACX25" s="0"/>
+      <c r="ACY25" s="0"/>
+      <c r="ACZ25" s="0"/>
+      <c r="ADA25" s="0"/>
+      <c r="ADB25" s="0"/>
+      <c r="ADC25" s="0"/>
+      <c r="ADD25" s="0"/>
+      <c r="ADE25" s="0"/>
+      <c r="ADF25" s="0"/>
+      <c r="ADG25" s="0"/>
+      <c r="ADH25" s="0"/>
+      <c r="ADI25" s="0"/>
+      <c r="ADJ25" s="0"/>
+      <c r="ADK25" s="0"/>
+      <c r="ADL25" s="0"/>
+      <c r="ADM25" s="0"/>
+      <c r="ADN25" s="0"/>
+      <c r="ADO25" s="0"/>
+      <c r="ADP25" s="0"/>
+      <c r="ADQ25" s="0"/>
+      <c r="ADR25" s="0"/>
+      <c r="ADS25" s="0"/>
+      <c r="ADT25" s="0"/>
+      <c r="ADU25" s="0"/>
+      <c r="ADV25" s="0"/>
+      <c r="ADW25" s="0"/>
+      <c r="ADX25" s="0"/>
+      <c r="ADY25" s="0"/>
+      <c r="ADZ25" s="0"/>
+      <c r="AEA25" s="0"/>
+      <c r="AEB25" s="0"/>
+      <c r="AEC25" s="0"/>
+      <c r="AED25" s="0"/>
+      <c r="AEE25" s="0"/>
+      <c r="AEF25" s="0"/>
+      <c r="AEG25" s="0"/>
+      <c r="AEH25" s="0"/>
+      <c r="AEI25" s="0"/>
+      <c r="AEJ25" s="0"/>
+      <c r="AEK25" s="0"/>
+      <c r="AEL25" s="0"/>
+      <c r="AEM25" s="0"/>
+      <c r="AEN25" s="0"/>
+      <c r="AEO25" s="0"/>
+      <c r="AEP25" s="0"/>
+      <c r="AEQ25" s="0"/>
+      <c r="AER25" s="0"/>
+      <c r="AES25" s="0"/>
+      <c r="AET25" s="0"/>
+      <c r="AEU25" s="0"/>
+      <c r="AEV25" s="0"/>
+      <c r="AEW25" s="0"/>
+      <c r="AEX25" s="0"/>
+      <c r="AEY25" s="0"/>
+      <c r="AEZ25" s="0"/>
+      <c r="AFA25" s="0"/>
+      <c r="AFB25" s="0"/>
+      <c r="AFC25" s="0"/>
+      <c r="AFD25" s="0"/>
+      <c r="AFE25" s="0"/>
+      <c r="AFF25" s="0"/>
+      <c r="AFG25" s="0"/>
+      <c r="AFH25" s="0"/>
+      <c r="AFI25" s="0"/>
+      <c r="AFJ25" s="0"/>
+      <c r="AFK25" s="0"/>
+      <c r="AFL25" s="0"/>
+      <c r="AFM25" s="0"/>
+      <c r="AFN25" s="0"/>
+      <c r="AFO25" s="0"/>
+      <c r="AFP25" s="0"/>
+      <c r="AFQ25" s="0"/>
+      <c r="AFR25" s="0"/>
+      <c r="AFS25" s="0"/>
+      <c r="AFT25" s="0"/>
+      <c r="AFU25" s="0"/>
+      <c r="AFV25" s="0"/>
+      <c r="AFW25" s="0"/>
+      <c r="AFX25" s="0"/>
+      <c r="AFY25" s="0"/>
+      <c r="AFZ25" s="0"/>
+      <c r="AGA25" s="0"/>
+      <c r="AGB25" s="0"/>
+      <c r="AGC25" s="0"/>
+      <c r="AGD25" s="0"/>
+      <c r="AGE25" s="0"/>
+      <c r="AGF25" s="0"/>
+      <c r="AGG25" s="0"/>
+      <c r="AGH25" s="0"/>
+      <c r="AGI25" s="0"/>
+      <c r="AGJ25" s="0"/>
+      <c r="AGK25" s="0"/>
+      <c r="AGL25" s="0"/>
+      <c r="AGM25" s="0"/>
+      <c r="AGN25" s="0"/>
+      <c r="AGO25" s="0"/>
+      <c r="AGP25" s="0"/>
+      <c r="AGQ25" s="0"/>
+      <c r="AGR25" s="0"/>
+      <c r="AGS25" s="0"/>
+      <c r="AGT25" s="0"/>
+      <c r="AGU25" s="0"/>
+      <c r="AGV25" s="0"/>
+      <c r="AGW25" s="0"/>
+      <c r="AGX25" s="0"/>
+      <c r="AGY25" s="0"/>
+      <c r="AGZ25" s="0"/>
+      <c r="AHA25" s="0"/>
+      <c r="AHB25" s="0"/>
+      <c r="AHC25" s="0"/>
+      <c r="AHD25" s="0"/>
+      <c r="AHE25" s="0"/>
+      <c r="AHF25" s="0"/>
+      <c r="AHG25" s="0"/>
+      <c r="AHH25" s="0"/>
+      <c r="AHI25" s="0"/>
+      <c r="AHJ25" s="0"/>
+      <c r="AHK25" s="0"/>
+      <c r="AHL25" s="0"/>
+      <c r="AHM25" s="0"/>
+      <c r="AHN25" s="0"/>
+      <c r="AHO25" s="0"/>
+      <c r="AHP25" s="0"/>
+      <c r="AHQ25" s="0"/>
+      <c r="AHR25" s="0"/>
+      <c r="AHS25" s="0"/>
+      <c r="AHT25" s="0"/>
+      <c r="AHU25" s="0"/>
+      <c r="AHV25" s="0"/>
+      <c r="AHW25" s="0"/>
+      <c r="AHX25" s="0"/>
+      <c r="AHY25" s="0"/>
+      <c r="AHZ25" s="0"/>
+      <c r="AIA25" s="0"/>
+      <c r="AIB25" s="0"/>
+      <c r="AIC25" s="0"/>
+      <c r="AID25" s="0"/>
+      <c r="AIE25" s="0"/>
+      <c r="AIF25" s="0"/>
+      <c r="AIG25" s="0"/>
+      <c r="AIH25" s="0"/>
+      <c r="AII25" s="0"/>
+      <c r="AIJ25" s="0"/>
+      <c r="AIK25" s="0"/>
+      <c r="AIL25" s="0"/>
+      <c r="AIM25" s="0"/>
+      <c r="AIN25" s="0"/>
+      <c r="AIO25" s="0"/>
+      <c r="AIP25" s="0"/>
+      <c r="AIQ25" s="0"/>
+      <c r="AIR25" s="0"/>
+      <c r="AIS25" s="0"/>
+      <c r="AIT25" s="0"/>
+      <c r="AIU25" s="0"/>
+      <c r="AIV25" s="0"/>
+      <c r="AIW25" s="0"/>
+      <c r="AIX25" s="0"/>
+      <c r="AIY25" s="0"/>
+      <c r="AIZ25" s="0"/>
+      <c r="AJA25" s="0"/>
+      <c r="AJB25" s="0"/>
+      <c r="AJC25" s="0"/>
+      <c r="AJD25" s="0"/>
+      <c r="AJE25" s="0"/>
+      <c r="AJF25" s="0"/>
+      <c r="AJG25" s="0"/>
+      <c r="AJH25" s="0"/>
+      <c r="AJI25" s="0"/>
+      <c r="AJJ25" s="0"/>
+      <c r="AJK25" s="0"/>
+      <c r="AJL25" s="0"/>
+      <c r="AJM25" s="0"/>
+      <c r="AJN25" s="0"/>
+      <c r="AJO25" s="0"/>
+      <c r="AJP25" s="0"/>
+      <c r="AJQ25" s="0"/>
+      <c r="AJR25" s="0"/>
+      <c r="AJS25" s="0"/>
+      <c r="AJT25" s="0"/>
+      <c r="AJU25" s="0"/>
+      <c r="AJV25" s="0"/>
+      <c r="AJW25" s="0"/>
+      <c r="AJX25" s="0"/>
+      <c r="AJY25" s="0"/>
+      <c r="AJZ25" s="0"/>
+      <c r="AKA25" s="0"/>
+      <c r="AKB25" s="0"/>
+      <c r="AKC25" s="0"/>
+      <c r="AKD25" s="0"/>
+      <c r="AKE25" s="0"/>
+      <c r="AKF25" s="0"/>
+      <c r="AKG25" s="0"/>
+      <c r="AKH25" s="0"/>
+      <c r="AKI25" s="0"/>
+      <c r="AKJ25" s="0"/>
+      <c r="AKK25" s="0"/>
+      <c r="AKL25" s="0"/>
+      <c r="AKM25" s="0"/>
+      <c r="AKN25" s="0"/>
+      <c r="AKO25" s="0"/>
+      <c r="AKP25" s="0"/>
+      <c r="AKQ25" s="0"/>
+      <c r="AKR25" s="0"/>
+      <c r="AKS25" s="0"/>
+      <c r="AKT25" s="0"/>
+      <c r="AKU25" s="0"/>
+      <c r="AKV25" s="0"/>
+      <c r="AKW25" s="0"/>
+      <c r="AKX25" s="0"/>
+      <c r="AKY25" s="0"/>
+      <c r="AKZ25" s="0"/>
+      <c r="ALA25" s="0"/>
+      <c r="ALB25" s="0"/>
+      <c r="ALC25" s="0"/>
+      <c r="ALD25" s="0"/>
+      <c r="ALE25" s="0"/>
+      <c r="ALF25" s="0"/>
+      <c r="ALG25" s="0"/>
+      <c r="ALH25" s="0"/>
+      <c r="ALI25" s="0"/>
+      <c r="ALJ25" s="0"/>
+      <c r="ALK25" s="0"/>
+      <c r="ALL25" s="0"/>
+      <c r="ALM25" s="0"/>
+      <c r="ALN25" s="0"/>
+      <c r="ALO25" s="0"/>
+      <c r="ALP25" s="0"/>
+      <c r="ALQ25" s="0"/>
+      <c r="ALR25" s="0"/>
+      <c r="ALS25" s="0"/>
+      <c r="ALT25" s="0"/>
+      <c r="ALU25" s="0"/>
+      <c r="ALV25" s="0"/>
+      <c r="ALW25" s="0"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+      <c r="AE26" s="0"/>
+      <c r="AF26" s="0"/>
+      <c r="AG26" s="0"/>
+      <c r="AH26" s="0"/>
+      <c r="AI26" s="0"/>
+      <c r="AJ26" s="0"/>
+      <c r="AK26" s="0"/>
+      <c r="AL26" s="0"/>
+      <c r="AM26" s="0"/>
+      <c r="AN26" s="0"/>
+      <c r="AO26" s="0"/>
+      <c r="AP26" s="0"/>
+      <c r="AQ26" s="0"/>
+      <c r="AR26" s="0"/>
+      <c r="AS26" s="0"/>
+      <c r="AT26" s="0"/>
+      <c r="AU26" s="0"/>
+      <c r="AV26" s="0"/>
+      <c r="AW26" s="0"/>
+      <c r="AX26" s="0"/>
+      <c r="AY26" s="0"/>
+      <c r="AZ26" s="0"/>
+      <c r="BA26" s="0"/>
+      <c r="BB26" s="0"/>
+      <c r="BC26" s="0"/>
+      <c r="BD26" s="0"/>
+      <c r="BE26" s="0"/>
+      <c r="BF26" s="0"/>
+      <c r="BG26" s="0"/>
+      <c r="BH26" s="0"/>
+      <c r="BI26" s="0"/>
+      <c r="BJ26" s="0"/>
+      <c r="BK26" s="0"/>
+      <c r="BL26" s="0"/>
+      <c r="BM26" s="0"/>
+      <c r="BN26" s="0"/>
+      <c r="BO26" s="0"/>
+      <c r="BP26" s="0"/>
+      <c r="BQ26" s="0"/>
+      <c r="BR26" s="0"/>
+      <c r="BS26" s="0"/>
+      <c r="BT26" s="0"/>
+      <c r="BU26" s="0"/>
+      <c r="BV26" s="0"/>
+      <c r="BW26" s="0"/>
+      <c r="BX26" s="0"/>
+      <c r="BY26" s="0"/>
+      <c r="BZ26" s="0"/>
+      <c r="CA26" s="0"/>
+      <c r="CB26" s="0"/>
+      <c r="CC26" s="0"/>
+      <c r="CD26" s="0"/>
+      <c r="CE26" s="0"/>
+      <c r="CF26" s="0"/>
+      <c r="CG26" s="0"/>
+      <c r="CH26" s="0"/>
+      <c r="CI26" s="0"/>
+      <c r="CJ26" s="0"/>
+      <c r="CK26" s="0"/>
+      <c r="CL26" s="0"/>
+      <c r="CM26" s="0"/>
+      <c r="CN26" s="0"/>
+      <c r="CO26" s="0"/>
+      <c r="CP26" s="0"/>
+      <c r="CQ26" s="0"/>
+      <c r="CR26" s="0"/>
+      <c r="CS26" s="0"/>
+      <c r="CT26" s="0"/>
+      <c r="CU26" s="0"/>
+      <c r="CV26" s="0"/>
+      <c r="CW26" s="0"/>
+      <c r="CX26" s="0"/>
+      <c r="CY26" s="0"/>
+      <c r="CZ26" s="0"/>
+      <c r="DA26" s="0"/>
+      <c r="DB26" s="0"/>
+      <c r="DC26" s="0"/>
+      <c r="DD26" s="0"/>
+      <c r="DE26" s="0"/>
+      <c r="DF26" s="0"/>
+      <c r="DG26" s="0"/>
+      <c r="DH26" s="0"/>
+      <c r="DI26" s="0"/>
+      <c r="DJ26" s="0"/>
+      <c r="DK26" s="0"/>
+      <c r="DL26" s="0"/>
+      <c r="DM26" s="0"/>
+      <c r="DN26" s="0"/>
+      <c r="DO26" s="0"/>
+      <c r="DP26" s="0"/>
+      <c r="DQ26" s="0"/>
+      <c r="DR26" s="0"/>
+      <c r="DS26" s="0"/>
+      <c r="DT26" s="0"/>
+      <c r="DU26" s="0"/>
+      <c r="DV26" s="0"/>
+      <c r="DW26" s="0"/>
+      <c r="DX26" s="0"/>
+      <c r="DY26" s="0"/>
+      <c r="DZ26" s="0"/>
+      <c r="EA26" s="0"/>
+      <c r="EB26" s="0"/>
+      <c r="EC26" s="0"/>
+      <c r="ED26" s="0"/>
+      <c r="EE26" s="0"/>
+      <c r="EF26" s="0"/>
+      <c r="EG26" s="0"/>
+      <c r="EH26" s="0"/>
+      <c r="EI26" s="0"/>
+      <c r="EJ26" s="0"/>
+      <c r="EK26" s="0"/>
+      <c r="EL26" s="0"/>
+      <c r="EM26" s="0"/>
+      <c r="EN26" s="0"/>
+      <c r="EO26" s="0"/>
+      <c r="EP26" s="0"/>
+      <c r="EQ26" s="0"/>
+      <c r="ER26" s="0"/>
+      <c r="ES26" s="0"/>
+      <c r="ET26" s="0"/>
+      <c r="EU26" s="0"/>
+      <c r="EV26" s="0"/>
+      <c r="EW26" s="0"/>
+      <c r="EX26" s="0"/>
+      <c r="EY26" s="0"/>
+      <c r="EZ26" s="0"/>
+      <c r="FA26" s="0"/>
+      <c r="FB26" s="0"/>
+      <c r="FC26" s="0"/>
+      <c r="FD26" s="0"/>
+      <c r="FE26" s="0"/>
+      <c r="FF26" s="0"/>
+      <c r="FG26" s="0"/>
+      <c r="FH26" s="0"/>
+      <c r="FI26" s="0"/>
+      <c r="FJ26" s="0"/>
+      <c r="FK26" s="0"/>
+      <c r="FL26" s="0"/>
+      <c r="FM26" s="0"/>
+      <c r="FN26" s="0"/>
+      <c r="FO26" s="0"/>
+      <c r="FP26" s="0"/>
+      <c r="FQ26" s="0"/>
+      <c r="FR26" s="0"/>
+      <c r="FS26" s="0"/>
+      <c r="FT26" s="0"/>
+      <c r="FU26" s="0"/>
+      <c r="FV26" s="0"/>
+      <c r="FW26" s="0"/>
+      <c r="FX26" s="0"/>
+      <c r="FY26" s="0"/>
+      <c r="FZ26" s="0"/>
+      <c r="GA26" s="0"/>
+      <c r="GB26" s="0"/>
+      <c r="GC26" s="0"/>
+      <c r="GD26" s="0"/>
+      <c r="GE26" s="0"/>
+      <c r="GF26" s="0"/>
+      <c r="GG26" s="0"/>
+      <c r="GH26" s="0"/>
+      <c r="GI26" s="0"/>
+      <c r="GJ26" s="0"/>
+      <c r="GK26" s="0"/>
+      <c r="GL26" s="0"/>
+      <c r="GM26" s="0"/>
+      <c r="GN26" s="0"/>
+      <c r="GO26" s="0"/>
+      <c r="GP26" s="0"/>
+      <c r="GQ26" s="0"/>
+      <c r="GR26" s="0"/>
+      <c r="GS26" s="0"/>
+      <c r="GT26" s="0"/>
+      <c r="GU26" s="0"/>
+      <c r="GV26" s="0"/>
+      <c r="GW26" s="0"/>
+      <c r="GX26" s="0"/>
+      <c r="GY26" s="0"/>
+      <c r="GZ26" s="0"/>
+      <c r="HA26" s="0"/>
+      <c r="HB26" s="0"/>
+      <c r="HC26" s="0"/>
+      <c r="HD26" s="0"/>
+      <c r="HE26" s="0"/>
+      <c r="HF26" s="0"/>
+      <c r="HG26" s="0"/>
+      <c r="HH26" s="0"/>
+      <c r="HI26" s="0"/>
+      <c r="HJ26" s="0"/>
+      <c r="HK26" s="0"/>
+      <c r="HL26" s="0"/>
+      <c r="HM26" s="0"/>
+      <c r="HN26" s="0"/>
+      <c r="HO26" s="0"/>
+      <c r="HP26" s="0"/>
+      <c r="HQ26" s="0"/>
+      <c r="HR26" s="0"/>
+      <c r="HS26" s="0"/>
+      <c r="HT26" s="0"/>
+      <c r="HU26" s="0"/>
+      <c r="HV26" s="0"/>
+      <c r="HW26" s="0"/>
+      <c r="HX26" s="0"/>
+      <c r="HY26" s="0"/>
+      <c r="HZ26" s="0"/>
+      <c r="IA26" s="0"/>
+      <c r="IB26" s="0"/>
+      <c r="IC26" s="0"/>
+      <c r="ID26" s="0"/>
+      <c r="IE26" s="0"/>
+      <c r="IF26" s="0"/>
+      <c r="IG26" s="0"/>
+      <c r="IH26" s="0"/>
+      <c r="II26" s="0"/>
+      <c r="IJ26" s="0"/>
+      <c r="IK26" s="0"/>
+      <c r="IL26" s="0"/>
+      <c r="IM26" s="0"/>
+      <c r="IN26" s="0"/>
+      <c r="IO26" s="0"/>
+      <c r="IP26" s="0"/>
+      <c r="IQ26" s="0"/>
+      <c r="IR26" s="0"/>
+      <c r="IS26" s="0"/>
+      <c r="IT26" s="0"/>
+      <c r="IU26" s="0"/>
+      <c r="IV26" s="0"/>
+      <c r="IW26" s="0"/>
+      <c r="IX26" s="0"/>
+      <c r="IY26" s="0"/>
+      <c r="IZ26" s="0"/>
+      <c r="JA26" s="0"/>
+      <c r="JB26" s="0"/>
+      <c r="JC26" s="0"/>
+      <c r="JD26" s="0"/>
+      <c r="JE26" s="0"/>
+      <c r="JF26" s="0"/>
+      <c r="JG26" s="0"/>
+      <c r="JH26" s="0"/>
+      <c r="JI26" s="0"/>
+      <c r="JJ26" s="0"/>
+      <c r="JK26" s="0"/>
+      <c r="JL26" s="0"/>
+      <c r="JM26" s="0"/>
+      <c r="JN26" s="0"/>
+      <c r="JO26" s="0"/>
+      <c r="JP26" s="0"/>
+      <c r="JQ26" s="0"/>
+      <c r="JR26" s="0"/>
+      <c r="JS26" s="0"/>
+      <c r="JT26" s="0"/>
+      <c r="JU26" s="0"/>
+      <c r="JV26" s="0"/>
+      <c r="JW26" s="0"/>
+      <c r="JX26" s="0"/>
+      <c r="JY26" s="0"/>
+      <c r="JZ26" s="0"/>
+      <c r="KA26" s="0"/>
+      <c r="KB26" s="0"/>
+      <c r="KC26" s="0"/>
+      <c r="KD26" s="0"/>
+      <c r="KE26" s="0"/>
+      <c r="KF26" s="0"/>
+      <c r="KG26" s="0"/>
+      <c r="KH26" s="0"/>
+      <c r="KI26" s="0"/>
+      <c r="KJ26" s="0"/>
+      <c r="KK26" s="0"/>
+      <c r="KL26" s="0"/>
+      <c r="KM26" s="0"/>
+      <c r="KN26" s="0"/>
+      <c r="KO26" s="0"/>
+      <c r="KP26" s="0"/>
+      <c r="KQ26" s="0"/>
+      <c r="KR26" s="0"/>
+      <c r="KS26" s="0"/>
+      <c r="KT26" s="0"/>
+      <c r="KU26" s="0"/>
+      <c r="KV26" s="0"/>
+      <c r="KW26" s="0"/>
+      <c r="KX26" s="0"/>
+      <c r="KY26" s="0"/>
+      <c r="KZ26" s="0"/>
+      <c r="LA26" s="0"/>
+      <c r="LB26" s="0"/>
+      <c r="LC26" s="0"/>
+      <c r="LD26" s="0"/>
+      <c r="LE26" s="0"/>
+      <c r="LF26" s="0"/>
+      <c r="LG26" s="0"/>
+      <c r="LH26" s="0"/>
+      <c r="LI26" s="0"/>
+      <c r="LJ26" s="0"/>
+      <c r="LK26" s="0"/>
+      <c r="LL26" s="0"/>
+      <c r="LM26" s="0"/>
+      <c r="LN26" s="0"/>
+      <c r="LO26" s="0"/>
+      <c r="LP26" s="0"/>
+      <c r="LQ26" s="0"/>
+      <c r="LR26" s="0"/>
+      <c r="LS26" s="0"/>
+      <c r="LT26" s="0"/>
+      <c r="LU26" s="0"/>
+      <c r="LV26" s="0"/>
+      <c r="LW26" s="0"/>
+      <c r="LX26" s="0"/>
+      <c r="LY26" s="0"/>
+      <c r="LZ26" s="0"/>
+      <c r="MA26" s="0"/>
+      <c r="MB26" s="0"/>
+      <c r="MC26" s="0"/>
+      <c r="MD26" s="0"/>
+      <c r="ME26" s="0"/>
+      <c r="MF26" s="0"/>
+      <c r="MG26" s="0"/>
+      <c r="MH26" s="0"/>
+      <c r="MI26" s="0"/>
+      <c r="MJ26" s="0"/>
+      <c r="MK26" s="0"/>
+      <c r="ML26" s="0"/>
+      <c r="MM26" s="0"/>
+      <c r="MN26" s="0"/>
+      <c r="MO26" s="0"/>
+      <c r="MP26" s="0"/>
+      <c r="MQ26" s="0"/>
+      <c r="MR26" s="0"/>
+      <c r="MS26" s="0"/>
+      <c r="MT26" s="0"/>
+      <c r="MU26" s="0"/>
+      <c r="MV26" s="0"/>
+      <c r="MW26" s="0"/>
+      <c r="MX26" s="0"/>
+      <c r="MY26" s="0"/>
+      <c r="MZ26" s="0"/>
+      <c r="NA26" s="0"/>
+      <c r="NB26" s="0"/>
+      <c r="NC26" s="0"/>
+      <c r="ND26" s="0"/>
+      <c r="NE26" s="0"/>
+      <c r="NF26" s="0"/>
+      <c r="NG26" s="0"/>
+      <c r="NH26" s="0"/>
+      <c r="NI26" s="0"/>
+      <c r="NJ26" s="0"/>
+      <c r="NK26" s="0"/>
+      <c r="NL26" s="0"/>
+      <c r="NM26" s="0"/>
+      <c r="NN26" s="0"/>
+      <c r="NO26" s="0"/>
+      <c r="NP26" s="0"/>
+      <c r="NQ26" s="0"/>
+      <c r="NR26" s="0"/>
+      <c r="NS26" s="0"/>
+      <c r="NT26" s="0"/>
+      <c r="NU26" s="0"/>
+      <c r="NV26" s="0"/>
+      <c r="NW26" s="0"/>
+      <c r="NX26" s="0"/>
+      <c r="NY26" s="0"/>
+      <c r="NZ26" s="0"/>
+      <c r="OA26" s="0"/>
+      <c r="OB26" s="0"/>
+      <c r="OC26" s="0"/>
+      <c r="OD26" s="0"/>
+      <c r="OE26" s="0"/>
+      <c r="OF26" s="0"/>
+      <c r="OG26" s="0"/>
+      <c r="OH26" s="0"/>
+      <c r="OI26" s="0"/>
+      <c r="OJ26" s="0"/>
+      <c r="OK26" s="0"/>
+      <c r="OL26" s="0"/>
+      <c r="OM26" s="0"/>
+      <c r="ON26" s="0"/>
+      <c r="OO26" s="0"/>
+      <c r="OP26" s="0"/>
+      <c r="OQ26" s="0"/>
+      <c r="OR26" s="0"/>
+      <c r="OS26" s="0"/>
+      <c r="OT26" s="0"/>
+      <c r="OU26" s="0"/>
+      <c r="OV26" s="0"/>
+      <c r="OW26" s="0"/>
+      <c r="OX26" s="0"/>
+      <c r="OY26" s="0"/>
+      <c r="OZ26" s="0"/>
+      <c r="PA26" s="0"/>
+      <c r="PB26" s="0"/>
+      <c r="PC26" s="0"/>
+      <c r="PD26" s="0"/>
+      <c r="PE26" s="0"/>
+      <c r="PF26" s="0"/>
+      <c r="PG26" s="0"/>
+      <c r="PH26" s="0"/>
+      <c r="PI26" s="0"/>
+      <c r="PJ26" s="0"/>
+      <c r="PK26" s="0"/>
+      <c r="PL26" s="0"/>
+      <c r="PM26" s="0"/>
+      <c r="PN26" s="0"/>
+      <c r="PO26" s="0"/>
+      <c r="PP26" s="0"/>
+      <c r="PQ26" s="0"/>
+      <c r="PR26" s="0"/>
+      <c r="PS26" s="0"/>
+      <c r="PT26" s="0"/>
+      <c r="PU26" s="0"/>
+      <c r="PV26" s="0"/>
+      <c r="PW26" s="0"/>
+      <c r="PX26" s="0"/>
+      <c r="PY26" s="0"/>
+      <c r="PZ26" s="0"/>
+      <c r="QA26" s="0"/>
+      <c r="QB26" s="0"/>
+      <c r="QC26" s="0"/>
+      <c r="QD26" s="0"/>
+      <c r="QE26" s="0"/>
+      <c r="QF26" s="0"/>
+      <c r="QG26" s="0"/>
+      <c r="QH26" s="0"/>
+      <c r="QI26" s="0"/>
+      <c r="QJ26" s="0"/>
+      <c r="QK26" s="0"/>
+      <c r="QL26" s="0"/>
+      <c r="QM26" s="0"/>
+      <c r="QN26" s="0"/>
+      <c r="QO26" s="0"/>
+      <c r="QP26" s="0"/>
+      <c r="QQ26" s="0"/>
+      <c r="QR26" s="0"/>
+      <c r="QS26" s="0"/>
+      <c r="QT26" s="0"/>
+      <c r="QU26" s="0"/>
+      <c r="QV26" s="0"/>
+      <c r="QW26" s="0"/>
+      <c r="QX26" s="0"/>
+      <c r="QY26" s="0"/>
+      <c r="QZ26" s="0"/>
+      <c r="RA26" s="0"/>
+      <c r="RB26" s="0"/>
+      <c r="RC26" s="0"/>
+      <c r="RD26" s="0"/>
+      <c r="RE26" s="0"/>
+      <c r="RF26" s="0"/>
+      <c r="RG26" s="0"/>
+      <c r="RH26" s="0"/>
+      <c r="RI26" s="0"/>
+      <c r="RJ26" s="0"/>
+      <c r="RK26" s="0"/>
+      <c r="RL26" s="0"/>
+      <c r="RM26" s="0"/>
+      <c r="RN26" s="0"/>
+      <c r="RO26" s="0"/>
+      <c r="RP26" s="0"/>
+      <c r="RQ26" s="0"/>
+      <c r="RR26" s="0"/>
+      <c r="RS26" s="0"/>
+      <c r="RT26" s="0"/>
+      <c r="RU26" s="0"/>
+      <c r="RV26" s="0"/>
+      <c r="RW26" s="0"/>
+      <c r="RX26" s="0"/>
+      <c r="RY26" s="0"/>
+      <c r="RZ26" s="0"/>
+      <c r="SA26" s="0"/>
+      <c r="SB26" s="0"/>
+      <c r="SC26" s="0"/>
+      <c r="SD26" s="0"/>
+      <c r="SE26" s="0"/>
+      <c r="SF26" s="0"/>
+      <c r="SG26" s="0"/>
+      <c r="SH26" s="0"/>
+      <c r="SI26" s="0"/>
+      <c r="SJ26" s="0"/>
+      <c r="SK26" s="0"/>
+      <c r="SL26" s="0"/>
+      <c r="SM26" s="0"/>
+      <c r="SN26" s="0"/>
+      <c r="SO26" s="0"/>
+      <c r="SP26" s="0"/>
+      <c r="SQ26" s="0"/>
+      <c r="SR26" s="0"/>
+      <c r="SS26" s="0"/>
+      <c r="ST26" s="0"/>
+      <c r="SU26" s="0"/>
+      <c r="SV26" s="0"/>
+      <c r="SW26" s="0"/>
+      <c r="SX26" s="0"/>
+      <c r="SY26" s="0"/>
+      <c r="SZ26" s="0"/>
+      <c r="TA26" s="0"/>
+      <c r="TB26" s="0"/>
+      <c r="TC26" s="0"/>
+      <c r="TD26" s="0"/>
+      <c r="TE26" s="0"/>
+      <c r="TF26" s="0"/>
+      <c r="TG26" s="0"/>
+      <c r="TH26" s="0"/>
+      <c r="TI26" s="0"/>
+      <c r="TJ26" s="0"/>
+      <c r="TK26" s="0"/>
+      <c r="TL26" s="0"/>
+      <c r="TM26" s="0"/>
+      <c r="TN26" s="0"/>
+      <c r="TO26" s="0"/>
+      <c r="TP26" s="0"/>
+      <c r="TQ26" s="0"/>
+      <c r="TR26" s="0"/>
+      <c r="TS26" s="0"/>
+      <c r="TT26" s="0"/>
+      <c r="TU26" s="0"/>
+      <c r="TV26" s="0"/>
+      <c r="TW26" s="0"/>
+      <c r="TX26" s="0"/>
+      <c r="TY26" s="0"/>
+      <c r="TZ26" s="0"/>
+      <c r="UA26" s="0"/>
+      <c r="UB26" s="0"/>
+      <c r="UC26" s="0"/>
+      <c r="UD26" s="0"/>
+      <c r="UE26" s="0"/>
+      <c r="UF26" s="0"/>
+      <c r="UG26" s="0"/>
+      <c r="UH26" s="0"/>
+      <c r="UI26" s="0"/>
+      <c r="UJ26" s="0"/>
+      <c r="UK26" s="0"/>
+      <c r="UL26" s="0"/>
+      <c r="UM26" s="0"/>
+      <c r="UN26" s="0"/>
+      <c r="UO26" s="0"/>
+      <c r="UP26" s="0"/>
+      <c r="UQ26" s="0"/>
+      <c r="UR26" s="0"/>
+      <c r="US26" s="0"/>
+      <c r="UT26" s="0"/>
+      <c r="UU26" s="0"/>
+      <c r="UV26" s="0"/>
+      <c r="UW26" s="0"/>
+      <c r="UX26" s="0"/>
+      <c r="UY26" s="0"/>
+      <c r="UZ26" s="0"/>
+      <c r="VA26" s="0"/>
+      <c r="VB26" s="0"/>
+      <c r="VC26" s="0"/>
+      <c r="VD26" s="0"/>
+      <c r="VE26" s="0"/>
+      <c r="VF26" s="0"/>
+      <c r="VG26" s="0"/>
+      <c r="VH26" s="0"/>
+      <c r="VI26" s="0"/>
+      <c r="VJ26" s="0"/>
+      <c r="VK26" s="0"/>
+      <c r="VL26" s="0"/>
+      <c r="VM26" s="0"/>
+      <c r="VN26" s="0"/>
+      <c r="VO26" s="0"/>
+      <c r="VP26" s="0"/>
+      <c r="VQ26" s="0"/>
+      <c r="VR26" s="0"/>
+      <c r="VS26" s="0"/>
+      <c r="VT26" s="0"/>
+      <c r="VU26" s="0"/>
+      <c r="VV26" s="0"/>
+      <c r="VW26" s="0"/>
+      <c r="VX26" s="0"/>
+      <c r="VY26" s="0"/>
+      <c r="VZ26" s="0"/>
+      <c r="WA26" s="0"/>
+      <c r="WB26" s="0"/>
+      <c r="WC26" s="0"/>
+      <c r="WD26" s="0"/>
+      <c r="WE26" s="0"/>
+      <c r="WF26" s="0"/>
+      <c r="WG26" s="0"/>
+      <c r="WH26" s="0"/>
+      <c r="WI26" s="0"/>
+      <c r="WJ26" s="0"/>
+      <c r="WK26" s="0"/>
+      <c r="WL26" s="0"/>
+      <c r="WM26" s="0"/>
+      <c r="WN26" s="0"/>
+      <c r="WO26" s="0"/>
+      <c r="WP26" s="0"/>
+      <c r="WQ26" s="0"/>
+      <c r="WR26" s="0"/>
+      <c r="WS26" s="0"/>
+      <c r="WT26" s="0"/>
+      <c r="WU26" s="0"/>
+      <c r="WV26" s="0"/>
+      <c r="WW26" s="0"/>
+      <c r="WX26" s="0"/>
+      <c r="WY26" s="0"/>
+      <c r="WZ26" s="0"/>
+      <c r="XA26" s="0"/>
+      <c r="XB26" s="0"/>
+      <c r="XC26" s="0"/>
+      <c r="XD26" s="0"/>
+      <c r="XE26" s="0"/>
+      <c r="XF26" s="0"/>
+      <c r="XG26" s="0"/>
+      <c r="XH26" s="0"/>
+      <c r="XI26" s="0"/>
+      <c r="XJ26" s="0"/>
+      <c r="XK26" s="0"/>
+      <c r="XL26" s="0"/>
+      <c r="XM26" s="0"/>
+      <c r="XN26" s="0"/>
+      <c r="XO26" s="0"/>
+      <c r="XP26" s="0"/>
+      <c r="XQ26" s="0"/>
+      <c r="XR26" s="0"/>
+      <c r="XS26" s="0"/>
+      <c r="XT26" s="0"/>
+      <c r="XU26" s="0"/>
+      <c r="XV26" s="0"/>
+      <c r="XW26" s="0"/>
+      <c r="XX26" s="0"/>
+      <c r="XY26" s="0"/>
+      <c r="XZ26" s="0"/>
+      <c r="YA26" s="0"/>
+      <c r="YB26" s="0"/>
+      <c r="YC26" s="0"/>
+      <c r="YD26" s="0"/>
+      <c r="YE26" s="0"/>
+      <c r="YF26" s="0"/>
+      <c r="YG26" s="0"/>
+      <c r="YH26" s="0"/>
+      <c r="YI26" s="0"/>
+      <c r="YJ26" s="0"/>
+      <c r="YK26" s="0"/>
+      <c r="YL26" s="0"/>
+      <c r="YM26" s="0"/>
+      <c r="YN26" s="0"/>
+      <c r="YO26" s="0"/>
+      <c r="YP26" s="0"/>
+      <c r="YQ26" s="0"/>
+      <c r="YR26" s="0"/>
+      <c r="YS26" s="0"/>
+      <c r="YT26" s="0"/>
+      <c r="YU26" s="0"/>
+      <c r="YV26" s="0"/>
+      <c r="YW26" s="0"/>
+      <c r="YX26" s="0"/>
+      <c r="YY26" s="0"/>
+      <c r="YZ26" s="0"/>
+      <c r="ZA26" s="0"/>
+      <c r="ZB26" s="0"/>
+      <c r="ZC26" s="0"/>
+      <c r="ZD26" s="0"/>
+      <c r="ZE26" s="0"/>
+      <c r="ZF26" s="0"/>
+      <c r="ZG26" s="0"/>
+      <c r="ZH26" s="0"/>
+      <c r="ZI26" s="0"/>
+      <c r="ZJ26" s="0"/>
+      <c r="ZK26" s="0"/>
+      <c r="ZL26" s="0"/>
+      <c r="ZM26" s="0"/>
+      <c r="ZN26" s="0"/>
+      <c r="ZO26" s="0"/>
+      <c r="ZP26" s="0"/>
+      <c r="ZQ26" s="0"/>
+      <c r="ZR26" s="0"/>
+      <c r="ZS26" s="0"/>
+      <c r="ZT26" s="0"/>
+      <c r="ZU26" s="0"/>
+      <c r="ZV26" s="0"/>
+      <c r="ZW26" s="0"/>
+      <c r="ZX26" s="0"/>
+      <c r="ZY26" s="0"/>
+      <c r="ZZ26" s="0"/>
+      <c r="AAA26" s="0"/>
+      <c r="AAB26" s="0"/>
+      <c r="AAC26" s="0"/>
+      <c r="AAD26" s="0"/>
+      <c r="AAE26" s="0"/>
+      <c r="AAF26" s="0"/>
+      <c r="AAG26" s="0"/>
+      <c r="AAH26" s="0"/>
+      <c r="AAI26" s="0"/>
+      <c r="AAJ26" s="0"/>
+      <c r="AAK26" s="0"/>
+      <c r="AAL26" s="0"/>
+      <c r="AAM26" s="0"/>
+      <c r="AAN26" s="0"/>
+      <c r="AAO26" s="0"/>
+      <c r="AAP26" s="0"/>
+      <c r="AAQ26" s="0"/>
+      <c r="AAR26" s="0"/>
+      <c r="AAS26" s="0"/>
+      <c r="AAT26" s="0"/>
+      <c r="AAU26" s="0"/>
+      <c r="AAV26" s="0"/>
+      <c r="AAW26" s="0"/>
+      <c r="AAX26" s="0"/>
+      <c r="AAY26" s="0"/>
+      <c r="AAZ26" s="0"/>
+      <c r="ABA26" s="0"/>
+      <c r="ABB26" s="0"/>
+      <c r="ABC26" s="0"/>
+      <c r="ABD26" s="0"/>
+      <c r="ABE26" s="0"/>
+      <c r="ABF26" s="0"/>
+      <c r="ABG26" s="0"/>
+      <c r="ABH26" s="0"/>
+      <c r="ABI26" s="0"/>
+      <c r="ABJ26" s="0"/>
+      <c r="ABK26" s="0"/>
+      <c r="ABL26" s="0"/>
+      <c r="ABM26" s="0"/>
+      <c r="ABN26" s="0"/>
+      <c r="ABO26" s="0"/>
+      <c r="ABP26" s="0"/>
+      <c r="ABQ26" s="0"/>
+      <c r="ABR26" s="0"/>
+      <c r="ABS26" s="0"/>
+      <c r="ABT26" s="0"/>
+      <c r="ABU26" s="0"/>
+      <c r="ABV26" s="0"/>
+      <c r="ABW26" s="0"/>
+      <c r="ABX26" s="0"/>
+      <c r="ABY26" s="0"/>
+      <c r="ABZ26" s="0"/>
+      <c r="ACA26" s="0"/>
+      <c r="ACB26" s="0"/>
+      <c r="ACC26" s="0"/>
+      <c r="ACD26" s="0"/>
+      <c r="ACE26" s="0"/>
+      <c r="ACF26" s="0"/>
+      <c r="ACG26" s="0"/>
+      <c r="ACH26" s="0"/>
+      <c r="ACI26" s="0"/>
+      <c r="ACJ26" s="0"/>
+      <c r="ACK26" s="0"/>
+      <c r="ACL26" s="0"/>
+      <c r="ACM26" s="0"/>
+      <c r="ACN26" s="0"/>
+      <c r="ACO26" s="0"/>
+      <c r="ACP26" s="0"/>
+      <c r="ACQ26" s="0"/>
+      <c r="ACR26" s="0"/>
+      <c r="ACS26" s="0"/>
+      <c r="ACT26" s="0"/>
+      <c r="ACU26" s="0"/>
+      <c r="ACV26" s="0"/>
+      <c r="ACW26" s="0"/>
+      <c r="ACX26" s="0"/>
+      <c r="ACY26" s="0"/>
+      <c r="ACZ26" s="0"/>
+      <c r="ADA26" s="0"/>
+      <c r="ADB26" s="0"/>
+      <c r="ADC26" s="0"/>
+      <c r="ADD26" s="0"/>
+      <c r="ADE26" s="0"/>
+      <c r="ADF26" s="0"/>
+      <c r="ADG26" s="0"/>
+      <c r="ADH26" s="0"/>
+      <c r="ADI26" s="0"/>
+      <c r="ADJ26" s="0"/>
+      <c r="ADK26" s="0"/>
+      <c r="ADL26" s="0"/>
+      <c r="ADM26" s="0"/>
+      <c r="ADN26" s="0"/>
+      <c r="ADO26" s="0"/>
+      <c r="ADP26" s="0"/>
+      <c r="ADQ26" s="0"/>
+      <c r="ADR26" s="0"/>
+      <c r="ADS26" s="0"/>
+      <c r="ADT26" s="0"/>
+      <c r="ADU26" s="0"/>
+      <c r="ADV26" s="0"/>
+      <c r="ADW26" s="0"/>
+      <c r="ADX26" s="0"/>
+      <c r="ADY26" s="0"/>
+      <c r="ADZ26" s="0"/>
+      <c r="AEA26" s="0"/>
+      <c r="AEB26" s="0"/>
+      <c r="AEC26" s="0"/>
+      <c r="AED26" s="0"/>
+      <c r="AEE26" s="0"/>
+      <c r="AEF26" s="0"/>
+      <c r="AEG26" s="0"/>
+      <c r="AEH26" s="0"/>
+      <c r="AEI26" s="0"/>
+      <c r="AEJ26" s="0"/>
+      <c r="AEK26" s="0"/>
+      <c r="AEL26" s="0"/>
+      <c r="AEM26" s="0"/>
+      <c r="AEN26" s="0"/>
+      <c r="AEO26" s="0"/>
+      <c r="AEP26" s="0"/>
+      <c r="AEQ26" s="0"/>
+      <c r="AER26" s="0"/>
+      <c r="AES26" s="0"/>
+      <c r="AET26" s="0"/>
+      <c r="AEU26" s="0"/>
+      <c r="AEV26" s="0"/>
+      <c r="AEW26" s="0"/>
+      <c r="AEX26" s="0"/>
+      <c r="AEY26" s="0"/>
+      <c r="AEZ26" s="0"/>
+      <c r="AFA26" s="0"/>
+      <c r="AFB26" s="0"/>
+      <c r="AFC26" s="0"/>
+      <c r="AFD26" s="0"/>
+      <c r="AFE26" s="0"/>
+      <c r="AFF26" s="0"/>
+      <c r="AFG26" s="0"/>
+      <c r="AFH26" s="0"/>
+      <c r="AFI26" s="0"/>
+      <c r="AFJ26" s="0"/>
+      <c r="AFK26" s="0"/>
+      <c r="AFL26" s="0"/>
+      <c r="AFM26" s="0"/>
+      <c r="AFN26" s="0"/>
+      <c r="AFO26" s="0"/>
+      <c r="AFP26" s="0"/>
+      <c r="AFQ26" s="0"/>
+      <c r="AFR26" s="0"/>
+      <c r="AFS26" s="0"/>
+      <c r="AFT26" s="0"/>
+      <c r="AFU26" s="0"/>
+      <c r="AFV26" s="0"/>
+      <c r="AFW26" s="0"/>
+      <c r="AFX26" s="0"/>
+      <c r="AFY26" s="0"/>
+      <c r="AFZ26" s="0"/>
+      <c r="AGA26" s="0"/>
+      <c r="AGB26" s="0"/>
+      <c r="AGC26" s="0"/>
+      <c r="AGD26" s="0"/>
+      <c r="AGE26" s="0"/>
+      <c r="AGF26" s="0"/>
+      <c r="AGG26" s="0"/>
+      <c r="AGH26" s="0"/>
+      <c r="AGI26" s="0"/>
+      <c r="AGJ26" s="0"/>
+      <c r="AGK26" s="0"/>
+      <c r="AGL26" s="0"/>
+      <c r="AGM26" s="0"/>
+      <c r="AGN26" s="0"/>
+      <c r="AGO26" s="0"/>
+      <c r="AGP26" s="0"/>
+      <c r="AGQ26" s="0"/>
+      <c r="AGR26" s="0"/>
+      <c r="AGS26" s="0"/>
+      <c r="AGT26" s="0"/>
+      <c r="AGU26" s="0"/>
+      <c r="AGV26" s="0"/>
+      <c r="AGW26" s="0"/>
+      <c r="AGX26" s="0"/>
+      <c r="AGY26" s="0"/>
+      <c r="AGZ26" s="0"/>
+      <c r="AHA26" s="0"/>
+      <c r="AHB26" s="0"/>
+      <c r="AHC26" s="0"/>
+      <c r="AHD26" s="0"/>
+      <c r="AHE26" s="0"/>
+      <c r="AHF26" s="0"/>
+      <c r="AHG26" s="0"/>
+      <c r="AHH26" s="0"/>
+      <c r="AHI26" s="0"/>
+      <c r="AHJ26" s="0"/>
+      <c r="AHK26" s="0"/>
+      <c r="AHL26" s="0"/>
+      <c r="AHM26" s="0"/>
+      <c r="AHN26" s="0"/>
+      <c r="AHO26" s="0"/>
+      <c r="AHP26" s="0"/>
+      <c r="AHQ26" s="0"/>
+      <c r="AHR26" s="0"/>
+      <c r="AHS26" s="0"/>
+      <c r="AHT26" s="0"/>
+      <c r="AHU26" s="0"/>
+      <c r="AHV26" s="0"/>
+      <c r="AHW26" s="0"/>
+      <c r="AHX26" s="0"/>
+      <c r="AHY26" s="0"/>
+      <c r="AHZ26" s="0"/>
+      <c r="AIA26" s="0"/>
+      <c r="AIB26" s="0"/>
+      <c r="AIC26" s="0"/>
+      <c r="AID26" s="0"/>
+      <c r="AIE26" s="0"/>
+      <c r="AIF26" s="0"/>
+      <c r="AIG26" s="0"/>
+      <c r="AIH26" s="0"/>
+      <c r="AII26" s="0"/>
+      <c r="AIJ26" s="0"/>
+      <c r="AIK26" s="0"/>
+      <c r="AIL26" s="0"/>
+      <c r="AIM26" s="0"/>
+      <c r="AIN26" s="0"/>
+      <c r="AIO26" s="0"/>
+      <c r="AIP26" s="0"/>
+      <c r="AIQ26" s="0"/>
+      <c r="AIR26" s="0"/>
+      <c r="AIS26" s="0"/>
+      <c r="AIT26" s="0"/>
+      <c r="AIU26" s="0"/>
+      <c r="AIV26" s="0"/>
+      <c r="AIW26" s="0"/>
+      <c r="AIX26" s="0"/>
+      <c r="AIY26" s="0"/>
+      <c r="AIZ26" s="0"/>
+      <c r="AJA26" s="0"/>
+      <c r="AJB26" s="0"/>
+      <c r="AJC26" s="0"/>
+      <c r="AJD26" s="0"/>
+      <c r="AJE26" s="0"/>
+      <c r="AJF26" s="0"/>
+      <c r="AJG26" s="0"/>
+      <c r="AJH26" s="0"/>
+      <c r="AJI26" s="0"/>
+      <c r="AJJ26" s="0"/>
+      <c r="AJK26" s="0"/>
+      <c r="AJL26" s="0"/>
+      <c r="AJM26" s="0"/>
+      <c r="AJN26" s="0"/>
+      <c r="AJO26" s="0"/>
+      <c r="AJP26" s="0"/>
+      <c r="AJQ26" s="0"/>
+      <c r="AJR26" s="0"/>
+      <c r="AJS26" s="0"/>
+      <c r="AJT26" s="0"/>
+      <c r="AJU26" s="0"/>
+      <c r="AJV26" s="0"/>
+      <c r="AJW26" s="0"/>
+      <c r="AJX26" s="0"/>
+      <c r="AJY26" s="0"/>
+      <c r="AJZ26" s="0"/>
+      <c r="AKA26" s="0"/>
+      <c r="AKB26" s="0"/>
+      <c r="AKC26" s="0"/>
+      <c r="AKD26" s="0"/>
+      <c r="AKE26" s="0"/>
+      <c r="AKF26" s="0"/>
+      <c r="AKG26" s="0"/>
+      <c r="AKH26" s="0"/>
+      <c r="AKI26" s="0"/>
+      <c r="AKJ26" s="0"/>
+      <c r="AKK26" s="0"/>
+      <c r="AKL26" s="0"/>
+      <c r="AKM26" s="0"/>
+      <c r="AKN26" s="0"/>
+      <c r="AKO26" s="0"/>
+      <c r="AKP26" s="0"/>
+      <c r="AKQ26" s="0"/>
+      <c r="AKR26" s="0"/>
+      <c r="AKS26" s="0"/>
+      <c r="AKT26" s="0"/>
+      <c r="AKU26" s="0"/>
+      <c r="AKV26" s="0"/>
+      <c r="AKW26" s="0"/>
+      <c r="AKX26" s="0"/>
+      <c r="AKY26" s="0"/>
+      <c r="AKZ26" s="0"/>
+      <c r="ALA26" s="0"/>
+      <c r="ALB26" s="0"/>
+      <c r="ALC26" s="0"/>
+      <c r="ALD26" s="0"/>
+      <c r="ALE26" s="0"/>
+      <c r="ALF26" s="0"/>
+      <c r="ALG26" s="0"/>
+      <c r="ALH26" s="0"/>
+      <c r="ALI26" s="0"/>
+      <c r="ALJ26" s="0"/>
+      <c r="ALK26" s="0"/>
+      <c r="ALL26" s="0"/>
+      <c r="ALM26" s="0"/>
+      <c r="ALN26" s="0"/>
+      <c r="ALO26" s="0"/>
+      <c r="ALP26" s="0"/>
+      <c r="ALQ26" s="0"/>
+      <c r="ALR26" s="0"/>
+      <c r="ALS26" s="0"/>
+      <c r="ALT26" s="0"/>
+      <c r="ALU26" s="0"/>
+      <c r="ALV26" s="0"/>
+      <c r="ALW26" s="0"/>
+      <c r="ALX26" s="0"/>
+      <c r="ALY26" s="0"/>
+      <c r="ALZ26" s="0"/>
+      <c r="AMA26" s="0"/>
+      <c r="AMB26" s="0"/>
+      <c r="AMC26" s="0"/>
+      <c r="AMD26" s="0"/>
+      <c r="AME26" s="0"/>
+      <c r="AMF26" s="0"/>
+      <c r="AMG26" s="0"/>
+      <c r="AMH26" s="0"/>
+      <c r="AMI26" s="0"/>
+      <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+      <c r="AH27" s="0"/>
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="0"/>
+      <c r="AK27" s="0"/>
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="0"/>
+      <c r="AN27" s="0"/>
+      <c r="AO27" s="0"/>
+      <c r="AP27" s="0"/>
+      <c r="AQ27" s="0"/>
+      <c r="AR27" s="0"/>
+      <c r="AS27" s="0"/>
+      <c r="AT27" s="0"/>
+      <c r="AU27" s="0"/>
+      <c r="AV27" s="0"/>
+      <c r="AW27" s="0"/>
+      <c r="AX27" s="0"/>
+      <c r="AY27" s="0"/>
+      <c r="AZ27" s="0"/>
+      <c r="BA27" s="0"/>
+      <c r="BB27" s="0"/>
+      <c r="BC27" s="0"/>
+      <c r="BD27" s="0"/>
+      <c r="BE27" s="0"/>
+      <c r="BF27" s="0"/>
+      <c r="BG27" s="0"/>
+      <c r="BH27" s="0"/>
+      <c r="BI27" s="0"/>
+      <c r="BJ27" s="0"/>
+      <c r="BK27" s="0"/>
+      <c r="BL27" s="0"/>
+      <c r="BM27" s="0"/>
+      <c r="BN27" s="0"/>
+      <c r="BO27" s="0"/>
+      <c r="BP27" s="0"/>
+      <c r="BQ27" s="0"/>
+      <c r="BR27" s="0"/>
+      <c r="BS27" s="0"/>
+      <c r="BT27" s="0"/>
+      <c r="BU27" s="0"/>
+      <c r="BV27" s="0"/>
+      <c r="BW27" s="0"/>
+      <c r="BX27" s="0"/>
+      <c r="BY27" s="0"/>
+      <c r="BZ27" s="0"/>
+      <c r="CA27" s="0"/>
+      <c r="CB27" s="0"/>
+      <c r="CC27" s="0"/>
+      <c r="CD27" s="0"/>
+      <c r="CE27" s="0"/>
+      <c r="CF27" s="0"/>
+      <c r="CG27" s="0"/>
+      <c r="CH27" s="0"/>
+      <c r="CI27" s="0"/>
+      <c r="CJ27" s="0"/>
+      <c r="CK27" s="0"/>
+      <c r="CL27" s="0"/>
+      <c r="CM27" s="0"/>
+      <c r="CN27" s="0"/>
+      <c r="CO27" s="0"/>
+      <c r="CP27" s="0"/>
+      <c r="CQ27" s="0"/>
+      <c r="CR27" s="0"/>
+      <c r="CS27" s="0"/>
+      <c r="CT27" s="0"/>
+      <c r="CU27" s="0"/>
+      <c r="CV27" s="0"/>
+      <c r="CW27" s="0"/>
+      <c r="CX27" s="0"/>
+      <c r="CY27" s="0"/>
+      <c r="CZ27" s="0"/>
+      <c r="DA27" s="0"/>
+      <c r="DB27" s="0"/>
+      <c r="DC27" s="0"/>
+      <c r="DD27" s="0"/>
+      <c r="DE27" s="0"/>
+      <c r="DF27" s="0"/>
+      <c r="DG27" s="0"/>
+      <c r="DH27" s="0"/>
+      <c r="DI27" s="0"/>
+      <c r="DJ27" s="0"/>
+      <c r="DK27" s="0"/>
+      <c r="DL27" s="0"/>
+      <c r="DM27" s="0"/>
+      <c r="DN27" s="0"/>
+      <c r="DO27" s="0"/>
+      <c r="DP27" s="0"/>
+      <c r="DQ27" s="0"/>
+      <c r="DR27" s="0"/>
+      <c r="DS27" s="0"/>
+      <c r="DT27" s="0"/>
+      <c r="DU27" s="0"/>
+      <c r="DV27" s="0"/>
+      <c r="DW27" s="0"/>
+      <c r="DX27" s="0"/>
+      <c r="DY27" s="0"/>
+      <c r="DZ27" s="0"/>
+      <c r="EA27" s="0"/>
+      <c r="EB27" s="0"/>
+      <c r="EC27" s="0"/>
+      <c r="ED27" s="0"/>
+      <c r="EE27" s="0"/>
+      <c r="EF27" s="0"/>
+      <c r="EG27" s="0"/>
+      <c r="EH27" s="0"/>
+      <c r="EI27" s="0"/>
+      <c r="EJ27" s="0"/>
+      <c r="EK27" s="0"/>
+      <c r="EL27" s="0"/>
+      <c r="EM27" s="0"/>
+      <c r="EN27" s="0"/>
+      <c r="EO27" s="0"/>
+      <c r="EP27" s="0"/>
+      <c r="EQ27" s="0"/>
+      <c r="ER27" s="0"/>
+      <c r="ES27" s="0"/>
+      <c r="ET27" s="0"/>
+      <c r="EU27" s="0"/>
+      <c r="EV27" s="0"/>
+      <c r="EW27" s="0"/>
+      <c r="EX27" s="0"/>
+      <c r="EY27" s="0"/>
+      <c r="EZ27" s="0"/>
+      <c r="FA27" s="0"/>
+      <c r="FB27" s="0"/>
+      <c r="FC27" s="0"/>
+      <c r="FD27" s="0"/>
+      <c r="FE27" s="0"/>
+      <c r="FF27" s="0"/>
+      <c r="FG27" s="0"/>
+      <c r="FH27" s="0"/>
+      <c r="FI27" s="0"/>
+      <c r="FJ27" s="0"/>
+      <c r="FK27" s="0"/>
+      <c r="FL27" s="0"/>
+      <c r="FM27" s="0"/>
+      <c r="FN27" s="0"/>
+      <c r="FO27" s="0"/>
+      <c r="FP27" s="0"/>
+      <c r="FQ27" s="0"/>
+      <c r="FR27" s="0"/>
+      <c r="FS27" s="0"/>
+      <c r="FT27" s="0"/>
+      <c r="FU27" s="0"/>
+      <c r="FV27" s="0"/>
+      <c r="FW27" s="0"/>
+      <c r="FX27" s="0"/>
+      <c r="FY27" s="0"/>
+      <c r="FZ27" s="0"/>
+      <c r="GA27" s="0"/>
+      <c r="GB27" s="0"/>
+      <c r="GC27" s="0"/>
+      <c r="GD27" s="0"/>
+      <c r="GE27" s="0"/>
+      <c r="GF27" s="0"/>
+      <c r="GG27" s="0"/>
+      <c r="GH27" s="0"/>
+      <c r="GI27" s="0"/>
+      <c r="GJ27" s="0"/>
+      <c r="GK27" s="0"/>
+      <c r="GL27" s="0"/>
+      <c r="GM27" s="0"/>
+      <c r="GN27" s="0"/>
+      <c r="GO27" s="0"/>
+      <c r="GP27" s="0"/>
+      <c r="GQ27" s="0"/>
+      <c r="GR27" s="0"/>
+      <c r="GS27" s="0"/>
+      <c r="GT27" s="0"/>
+      <c r="GU27" s="0"/>
+      <c r="GV27" s="0"/>
+      <c r="GW27" s="0"/>
+      <c r="GX27" s="0"/>
+      <c r="GY27" s="0"/>
+      <c r="GZ27" s="0"/>
+      <c r="HA27" s="0"/>
+      <c r="HB27" s="0"/>
+      <c r="HC27" s="0"/>
+      <c r="HD27" s="0"/>
+      <c r="HE27" s="0"/>
+      <c r="HF27" s="0"/>
+      <c r="HG27" s="0"/>
+      <c r="HH27" s="0"/>
+      <c r="HI27" s="0"/>
+      <c r="HJ27" s="0"/>
+      <c r="HK27" s="0"/>
+      <c r="HL27" s="0"/>
+      <c r="HM27" s="0"/>
+      <c r="HN27" s="0"/>
+      <c r="HO27" s="0"/>
+      <c r="HP27" s="0"/>
+      <c r="HQ27" s="0"/>
+      <c r="HR27" s="0"/>
+      <c r="HS27" s="0"/>
+      <c r="HT27" s="0"/>
+      <c r="HU27" s="0"/>
+      <c r="HV27" s="0"/>
+      <c r="HW27" s="0"/>
+      <c r="HX27" s="0"/>
+      <c r="HY27" s="0"/>
+      <c r="HZ27" s="0"/>
+      <c r="IA27" s="0"/>
+      <c r="IB27" s="0"/>
+      <c r="IC27" s="0"/>
+      <c r="ID27" s="0"/>
+      <c r="IE27" s="0"/>
+      <c r="IF27" s="0"/>
+      <c r="IG27" s="0"/>
+      <c r="IH27" s="0"/>
+      <c r="II27" s="0"/>
+      <c r="IJ27" s="0"/>
+      <c r="IK27" s="0"/>
+      <c r="IL27" s="0"/>
+      <c r="IM27" s="0"/>
+      <c r="IN27" s="0"/>
+      <c r="IO27" s="0"/>
+      <c r="IP27" s="0"/>
+      <c r="IQ27" s="0"/>
+      <c r="IR27" s="0"/>
+      <c r="IS27" s="0"/>
+      <c r="IT27" s="0"/>
+      <c r="IU27" s="0"/>
+      <c r="IV27" s="0"/>
+      <c r="IW27" s="0"/>
+      <c r="IX27" s="0"/>
+      <c r="IY27" s="0"/>
+      <c r="IZ27" s="0"/>
+      <c r="JA27" s="0"/>
+      <c r="JB27" s="0"/>
+      <c r="JC27" s="0"/>
+      <c r="JD27" s="0"/>
+      <c r="JE27" s="0"/>
+      <c r="JF27" s="0"/>
+      <c r="JG27" s="0"/>
+      <c r="JH27" s="0"/>
+      <c r="JI27" s="0"/>
+      <c r="JJ27" s="0"/>
+      <c r="JK27" s="0"/>
+      <c r="JL27" s="0"/>
+      <c r="JM27" s="0"/>
+      <c r="JN27" s="0"/>
+      <c r="JO27" s="0"/>
+      <c r="JP27" s="0"/>
+      <c r="JQ27" s="0"/>
+      <c r="JR27" s="0"/>
+      <c r="JS27" s="0"/>
+      <c r="JT27" s="0"/>
+      <c r="JU27" s="0"/>
+      <c r="JV27" s="0"/>
+      <c r="JW27" s="0"/>
+      <c r="JX27" s="0"/>
+      <c r="JY27" s="0"/>
+      <c r="JZ27" s="0"/>
+      <c r="KA27" s="0"/>
+      <c r="KB27" s="0"/>
+      <c r="KC27" s="0"/>
+      <c r="KD27" s="0"/>
+      <c r="KE27" s="0"/>
+      <c r="KF27" s="0"/>
+      <c r="KG27" s="0"/>
+      <c r="KH27" s="0"/>
+      <c r="KI27" s="0"/>
+      <c r="KJ27" s="0"/>
+      <c r="KK27" s="0"/>
+      <c r="KL27" s="0"/>
+      <c r="KM27" s="0"/>
+      <c r="KN27" s="0"/>
+      <c r="KO27" s="0"/>
+      <c r="KP27" s="0"/>
+      <c r="KQ27" s="0"/>
+      <c r="KR27" s="0"/>
+      <c r="KS27" s="0"/>
+      <c r="KT27" s="0"/>
+      <c r="KU27" s="0"/>
+      <c r="KV27" s="0"/>
+      <c r="KW27" s="0"/>
+      <c r="KX27" s="0"/>
+      <c r="KY27" s="0"/>
+      <c r="KZ27" s="0"/>
+      <c r="LA27" s="0"/>
+      <c r="LB27" s="0"/>
+      <c r="LC27" s="0"/>
+      <c r="LD27" s="0"/>
+      <c r="LE27" s="0"/>
+      <c r="LF27" s="0"/>
+      <c r="LG27" s="0"/>
+      <c r="LH27" s="0"/>
+      <c r="LI27" s="0"/>
+      <c r="LJ27" s="0"/>
+      <c r="LK27" s="0"/>
+      <c r="LL27" s="0"/>
+      <c r="LM27" s="0"/>
+      <c r="LN27" s="0"/>
+      <c r="LO27" s="0"/>
+      <c r="LP27" s="0"/>
+      <c r="LQ27" s="0"/>
+      <c r="LR27" s="0"/>
+      <c r="LS27" s="0"/>
+      <c r="LT27" s="0"/>
+      <c r="LU27" s="0"/>
+      <c r="LV27" s="0"/>
+      <c r="LW27" s="0"/>
+      <c r="LX27" s="0"/>
+      <c r="LY27" s="0"/>
+      <c r="LZ27" s="0"/>
+      <c r="MA27" s="0"/>
+      <c r="MB27" s="0"/>
+      <c r="MC27" s="0"/>
+      <c r="MD27" s="0"/>
+      <c r="ME27" s="0"/>
+      <c r="MF27" s="0"/>
+      <c r="MG27" s="0"/>
+      <c r="MH27" s="0"/>
+      <c r="MI27" s="0"/>
+      <c r="MJ27" s="0"/>
+      <c r="MK27" s="0"/>
+      <c r="ML27" s="0"/>
+      <c r="MM27" s="0"/>
+      <c r="MN27" s="0"/>
+      <c r="MO27" s="0"/>
+      <c r="MP27" s="0"/>
+      <c r="MQ27" s="0"/>
+      <c r="MR27" s="0"/>
+      <c r="MS27" s="0"/>
+      <c r="MT27" s="0"/>
+      <c r="MU27" s="0"/>
+      <c r="MV27" s="0"/>
+      <c r="MW27" s="0"/>
+      <c r="MX27" s="0"/>
+      <c r="MY27" s="0"/>
+      <c r="MZ27" s="0"/>
+      <c r="NA27" s="0"/>
+      <c r="NB27" s="0"/>
+      <c r="NC27" s="0"/>
+      <c r="ND27" s="0"/>
+      <c r="NE27" s="0"/>
+      <c r="NF27" s="0"/>
+      <c r="NG27" s="0"/>
+      <c r="NH27" s="0"/>
+      <c r="NI27" s="0"/>
+      <c r="NJ27" s="0"/>
+      <c r="NK27" s="0"/>
+      <c r="NL27" s="0"/>
+      <c r="NM27" s="0"/>
+      <c r="NN27" s="0"/>
+      <c r="NO27" s="0"/>
+      <c r="NP27" s="0"/>
+      <c r="NQ27" s="0"/>
+      <c r="NR27" s="0"/>
+      <c r="NS27" s="0"/>
+      <c r="NT27" s="0"/>
+      <c r="NU27" s="0"/>
+      <c r="NV27" s="0"/>
+      <c r="NW27" s="0"/>
+      <c r="NX27" s="0"/>
+      <c r="NY27" s="0"/>
+      <c r="NZ27" s="0"/>
+      <c r="OA27" s="0"/>
+      <c r="OB27" s="0"/>
+      <c r="OC27" s="0"/>
+      <c r="OD27" s="0"/>
+      <c r="OE27" s="0"/>
+      <c r="OF27" s="0"/>
+      <c r="OG27" s="0"/>
+      <c r="OH27" s="0"/>
+      <c r="OI27" s="0"/>
+      <c r="OJ27" s="0"/>
+      <c r="OK27" s="0"/>
+      <c r="OL27" s="0"/>
+      <c r="OM27" s="0"/>
+      <c r="ON27" s="0"/>
+      <c r="OO27" s="0"/>
+      <c r="OP27" s="0"/>
+      <c r="OQ27" s="0"/>
+      <c r="OR27" s="0"/>
+      <c r="OS27" s="0"/>
+      <c r="OT27" s="0"/>
+      <c r="OU27" s="0"/>
+      <c r="OV27" s="0"/>
+      <c r="OW27" s="0"/>
+      <c r="OX27" s="0"/>
+      <c r="OY27" s="0"/>
+      <c r="OZ27" s="0"/>
+      <c r="PA27" s="0"/>
+      <c r="PB27" s="0"/>
+      <c r="PC27" s="0"/>
+      <c r="PD27" s="0"/>
+      <c r="PE27" s="0"/>
+      <c r="PF27" s="0"/>
+      <c r="PG27" s="0"/>
+      <c r="PH27" s="0"/>
+      <c r="PI27" s="0"/>
+      <c r="PJ27" s="0"/>
+      <c r="PK27" s="0"/>
+      <c r="PL27" s="0"/>
+      <c r="PM27" s="0"/>
+      <c r="PN27" s="0"/>
+      <c r="PO27" s="0"/>
+      <c r="PP27" s="0"/>
+      <c r="PQ27" s="0"/>
+      <c r="PR27" s="0"/>
+      <c r="PS27" s="0"/>
+      <c r="PT27" s="0"/>
+      <c r="PU27" s="0"/>
+      <c r="PV27" s="0"/>
+      <c r="PW27" s="0"/>
+      <c r="PX27" s="0"/>
+      <c r="PY27" s="0"/>
+      <c r="PZ27" s="0"/>
+      <c r="QA27" s="0"/>
+      <c r="QB27" s="0"/>
+      <c r="QC27" s="0"/>
+      <c r="QD27" s="0"/>
+      <c r="QE27" s="0"/>
+      <c r="QF27" s="0"/>
+      <c r="QG27" s="0"/>
+      <c r="QH27" s="0"/>
+      <c r="QI27" s="0"/>
+      <c r="QJ27" s="0"/>
+      <c r="QK27" s="0"/>
+      <c r="QL27" s="0"/>
+      <c r="QM27" s="0"/>
+      <c r="QN27" s="0"/>
+      <c r="QO27" s="0"/>
+      <c r="QP27" s="0"/>
+      <c r="QQ27" s="0"/>
+      <c r="QR27" s="0"/>
+      <c r="QS27" s="0"/>
+      <c r="QT27" s="0"/>
+      <c r="QU27" s="0"/>
+      <c r="QV27" s="0"/>
+      <c r="QW27" s="0"/>
+      <c r="QX27" s="0"/>
+      <c r="QY27" s="0"/>
+      <c r="QZ27" s="0"/>
+      <c r="RA27" s="0"/>
+      <c r="RB27" s="0"/>
+      <c r="RC27" s="0"/>
+      <c r="RD27" s="0"/>
+      <c r="RE27" s="0"/>
+      <c r="RF27" s="0"/>
+      <c r="RG27" s="0"/>
+      <c r="RH27" s="0"/>
+      <c r="RI27" s="0"/>
+      <c r="RJ27" s="0"/>
+      <c r="RK27" s="0"/>
+      <c r="RL27" s="0"/>
+      <c r="RM27" s="0"/>
+      <c r="RN27" s="0"/>
+      <c r="RO27" s="0"/>
+      <c r="RP27" s="0"/>
+      <c r="RQ27" s="0"/>
+      <c r="RR27" s="0"/>
+      <c r="RS27" s="0"/>
+      <c r="RT27" s="0"/>
+      <c r="RU27" s="0"/>
+      <c r="RV27" s="0"/>
+      <c r="RW27" s="0"/>
+      <c r="RX27" s="0"/>
+      <c r="RY27" s="0"/>
+      <c r="RZ27" s="0"/>
+      <c r="SA27" s="0"/>
+      <c r="SB27" s="0"/>
+      <c r="SC27" s="0"/>
+      <c r="SD27" s="0"/>
+      <c r="SE27" s="0"/>
+      <c r="SF27" s="0"/>
+      <c r="SG27" s="0"/>
+      <c r="SH27" s="0"/>
+      <c r="SI27" s="0"/>
+      <c r="SJ27" s="0"/>
+      <c r="SK27" s="0"/>
+      <c r="SL27" s="0"/>
+      <c r="SM27" s="0"/>
+      <c r="SN27" s="0"/>
+      <c r="SO27" s="0"/>
+      <c r="SP27" s="0"/>
+      <c r="SQ27" s="0"/>
+      <c r="SR27" s="0"/>
+      <c r="SS27" s="0"/>
+      <c r="ST27" s="0"/>
+      <c r="SU27" s="0"/>
+      <c r="SV27" s="0"/>
+      <c r="SW27" s="0"/>
+      <c r="SX27" s="0"/>
+      <c r="SY27" s="0"/>
+      <c r="SZ27" s="0"/>
+      <c r="TA27" s="0"/>
+      <c r="TB27" s="0"/>
+      <c r="TC27" s="0"/>
+      <c r="TD27" s="0"/>
+      <c r="TE27" s="0"/>
+      <c r="TF27" s="0"/>
+      <c r="TG27" s="0"/>
+      <c r="TH27" s="0"/>
+      <c r="TI27" s="0"/>
+      <c r="TJ27" s="0"/>
+      <c r="TK27" s="0"/>
+      <c r="TL27" s="0"/>
+      <c r="TM27" s="0"/>
+      <c r="TN27" s="0"/>
+      <c r="TO27" s="0"/>
+      <c r="TP27" s="0"/>
+      <c r="TQ27" s="0"/>
+      <c r="TR27" s="0"/>
+      <c r="TS27" s="0"/>
+      <c r="TT27" s="0"/>
+      <c r="TU27" s="0"/>
+      <c r="TV27" s="0"/>
+      <c r="TW27" s="0"/>
+      <c r="TX27" s="0"/>
+      <c r="TY27" s="0"/>
+      <c r="TZ27" s="0"/>
+      <c r="UA27" s="0"/>
+      <c r="UB27" s="0"/>
+      <c r="UC27" s="0"/>
+      <c r="UD27" s="0"/>
+      <c r="UE27" s="0"/>
+      <c r="UF27" s="0"/>
+      <c r="UG27" s="0"/>
+      <c r="UH27" s="0"/>
+      <c r="UI27" s="0"/>
+      <c r="UJ27" s="0"/>
+      <c r="UK27" s="0"/>
+      <c r="UL27" s="0"/>
+      <c r="UM27" s="0"/>
+      <c r="UN27" s="0"/>
+      <c r="UO27" s="0"/>
+      <c r="UP27" s="0"/>
+      <c r="UQ27" s="0"/>
+      <c r="UR27" s="0"/>
+      <c r="US27" s="0"/>
+      <c r="UT27" s="0"/>
+      <c r="UU27" s="0"/>
+      <c r="UV27" s="0"/>
+      <c r="UW27" s="0"/>
+      <c r="UX27" s="0"/>
+      <c r="UY27" s="0"/>
+      <c r="UZ27" s="0"/>
+      <c r="VA27" s="0"/>
+      <c r="VB27" s="0"/>
+      <c r="VC27" s="0"/>
+      <c r="VD27" s="0"/>
+      <c r="VE27" s="0"/>
+      <c r="VF27" s="0"/>
+      <c r="VG27" s="0"/>
+      <c r="VH27" s="0"/>
+      <c r="VI27" s="0"/>
+      <c r="VJ27" s="0"/>
+      <c r="VK27" s="0"/>
+      <c r="VL27" s="0"/>
+      <c r="VM27" s="0"/>
+      <c r="VN27" s="0"/>
+      <c r="VO27" s="0"/>
+      <c r="VP27" s="0"/>
+      <c r="VQ27" s="0"/>
+      <c r="VR27" s="0"/>
+      <c r="VS27" s="0"/>
+      <c r="VT27" s="0"/>
+      <c r="VU27" s="0"/>
+      <c r="VV27" s="0"/>
+      <c r="VW27" s="0"/>
+      <c r="VX27" s="0"/>
+      <c r="VY27" s="0"/>
+      <c r="VZ27" s="0"/>
+      <c r="WA27" s="0"/>
+      <c r="WB27" s="0"/>
+      <c r="WC27" s="0"/>
+      <c r="WD27" s="0"/>
+      <c r="WE27" s="0"/>
+      <c r="WF27" s="0"/>
+      <c r="WG27" s="0"/>
+      <c r="WH27" s="0"/>
+      <c r="WI27" s="0"/>
+      <c r="WJ27" s="0"/>
+      <c r="WK27" s="0"/>
+      <c r="WL27" s="0"/>
+      <c r="WM27" s="0"/>
+      <c r="WN27" s="0"/>
+      <c r="WO27" s="0"/>
+      <c r="WP27" s="0"/>
+      <c r="WQ27" s="0"/>
+      <c r="WR27" s="0"/>
+      <c r="WS27" s="0"/>
+      <c r="WT27" s="0"/>
+      <c r="WU27" s="0"/>
+      <c r="WV27" s="0"/>
+      <c r="WW27" s="0"/>
+      <c r="WX27" s="0"/>
+      <c r="WY27" s="0"/>
+      <c r="WZ27" s="0"/>
+      <c r="XA27" s="0"/>
+      <c r="XB27" s="0"/>
+      <c r="XC27" s="0"/>
+      <c r="XD27" s="0"/>
+      <c r="XE27" s="0"/>
+      <c r="XF27" s="0"/>
+      <c r="XG27" s="0"/>
+      <c r="XH27" s="0"/>
+      <c r="XI27" s="0"/>
+      <c r="XJ27" s="0"/>
+      <c r="XK27" s="0"/>
+      <c r="XL27" s="0"/>
+      <c r="XM27" s="0"/>
+      <c r="XN27" s="0"/>
+      <c r="XO27" s="0"/>
+      <c r="XP27" s="0"/>
+      <c r="XQ27" s="0"/>
+      <c r="XR27" s="0"/>
+      <c r="XS27" s="0"/>
+      <c r="XT27" s="0"/>
+      <c r="XU27" s="0"/>
+      <c r="XV27" s="0"/>
+      <c r="XW27" s="0"/>
+      <c r="XX27" s="0"/>
+      <c r="XY27" s="0"/>
+      <c r="XZ27" s="0"/>
+      <c r="YA27" s="0"/>
+      <c r="YB27" s="0"/>
+      <c r="YC27" s="0"/>
+      <c r="YD27" s="0"/>
+      <c r="YE27" s="0"/>
+      <c r="YF27" s="0"/>
+      <c r="YG27" s="0"/>
+      <c r="YH27" s="0"/>
+      <c r="YI27" s="0"/>
+      <c r="YJ27" s="0"/>
+      <c r="YK27" s="0"/>
+      <c r="YL27" s="0"/>
+      <c r="YM27" s="0"/>
+      <c r="YN27" s="0"/>
+      <c r="YO27" s="0"/>
+      <c r="YP27" s="0"/>
+      <c r="YQ27" s="0"/>
+      <c r="YR27" s="0"/>
+      <c r="YS27" s="0"/>
+      <c r="YT27" s="0"/>
+      <c r="YU27" s="0"/>
+      <c r="YV27" s="0"/>
+      <c r="YW27" s="0"/>
+      <c r="YX27" s="0"/>
+      <c r="YY27" s="0"/>
+      <c r="YZ27" s="0"/>
+      <c r="ZA27" s="0"/>
+      <c r="ZB27" s="0"/>
+      <c r="ZC27" s="0"/>
+      <c r="ZD27" s="0"/>
+      <c r="ZE27" s="0"/>
+      <c r="ZF27" s="0"/>
+      <c r="ZG27" s="0"/>
+      <c r="ZH27" s="0"/>
+      <c r="ZI27" s="0"/>
+      <c r="ZJ27" s="0"/>
+      <c r="ZK27" s="0"/>
+      <c r="ZL27" s="0"/>
+      <c r="ZM27" s="0"/>
+      <c r="ZN27" s="0"/>
+      <c r="ZO27" s="0"/>
+      <c r="ZP27" s="0"/>
+      <c r="ZQ27" s="0"/>
+      <c r="ZR27" s="0"/>
+      <c r="ZS27" s="0"/>
+      <c r="ZT27" s="0"/>
+      <c r="ZU27" s="0"/>
+      <c r="ZV27" s="0"/>
+      <c r="ZW27" s="0"/>
+      <c r="ZX27" s="0"/>
+      <c r="ZY27" s="0"/>
+      <c r="ZZ27" s="0"/>
+      <c r="AAA27" s="0"/>
+      <c r="AAB27" s="0"/>
+      <c r="AAC27" s="0"/>
+      <c r="AAD27" s="0"/>
+      <c r="AAE27" s="0"/>
+      <c r="AAF27" s="0"/>
+      <c r="AAG27" s="0"/>
+      <c r="AAH27" s="0"/>
+      <c r="AAI27" s="0"/>
+      <c r="AAJ27" s="0"/>
+      <c r="AAK27" s="0"/>
+      <c r="AAL27" s="0"/>
+      <c r="AAM27" s="0"/>
+      <c r="AAN27" s="0"/>
+      <c r="AAO27" s="0"/>
+      <c r="AAP27" s="0"/>
+      <c r="AAQ27" s="0"/>
+      <c r="AAR27" s="0"/>
+      <c r="AAS27" s="0"/>
+      <c r="AAT27" s="0"/>
+      <c r="AAU27" s="0"/>
+      <c r="AAV27" s="0"/>
+      <c r="AAW27" s="0"/>
+      <c r="AAX27" s="0"/>
+      <c r="AAY27" s="0"/>
+      <c r="AAZ27" s="0"/>
+      <c r="ABA27" s="0"/>
+      <c r="ABB27" s="0"/>
+      <c r="ABC27" s="0"/>
+      <c r="ABD27" s="0"/>
+      <c r="ABE27" s="0"/>
+      <c r="ABF27" s="0"/>
+      <c r="ABG27" s="0"/>
+      <c r="ABH27" s="0"/>
+      <c r="ABI27" s="0"/>
+      <c r="ABJ27" s="0"/>
+      <c r="ABK27" s="0"/>
+      <c r="ABL27" s="0"/>
+      <c r="ABM27" s="0"/>
+      <c r="ABN27" s="0"/>
+      <c r="ABO27" s="0"/>
+      <c r="ABP27" s="0"/>
+      <c r="ABQ27" s="0"/>
+      <c r="ABR27" s="0"/>
+      <c r="ABS27" s="0"/>
+      <c r="ABT27" s="0"/>
+      <c r="ABU27" s="0"/>
+      <c r="ABV27" s="0"/>
+      <c r="ABW27" s="0"/>
+      <c r="ABX27" s="0"/>
+      <c r="ABY27" s="0"/>
+      <c r="ABZ27" s="0"/>
+      <c r="ACA27" s="0"/>
+      <c r="ACB27" s="0"/>
+      <c r="ACC27" s="0"/>
+      <c r="ACD27" s="0"/>
+      <c r="ACE27" s="0"/>
+      <c r="ACF27" s="0"/>
+      <c r="ACG27" s="0"/>
+      <c r="ACH27" s="0"/>
+      <c r="ACI27" s="0"/>
+      <c r="ACJ27" s="0"/>
+      <c r="ACK27" s="0"/>
+      <c r="ACL27" s="0"/>
+      <c r="ACM27" s="0"/>
+      <c r="ACN27" s="0"/>
+      <c r="ACO27" s="0"/>
+      <c r="ACP27" s="0"/>
+      <c r="ACQ27" s="0"/>
+      <c r="ACR27" s="0"/>
+      <c r="ACS27" s="0"/>
+      <c r="ACT27" s="0"/>
+      <c r="ACU27" s="0"/>
+      <c r="ACV27" s="0"/>
+      <c r="ACW27" s="0"/>
+      <c r="ACX27" s="0"/>
+      <c r="ACY27" s="0"/>
+      <c r="ACZ27" s="0"/>
+      <c r="ADA27" s="0"/>
+      <c r="ADB27" s="0"/>
+      <c r="ADC27" s="0"/>
+      <c r="ADD27" s="0"/>
+      <c r="ADE27" s="0"/>
+      <c r="ADF27" s="0"/>
+      <c r="ADG27" s="0"/>
+      <c r="ADH27" s="0"/>
+      <c r="ADI27" s="0"/>
+      <c r="ADJ27" s="0"/>
+      <c r="ADK27" s="0"/>
+      <c r="ADL27" s="0"/>
+      <c r="ADM27" s="0"/>
+      <c r="ADN27" s="0"/>
+      <c r="ADO27" s="0"/>
+      <c r="ADP27" s="0"/>
+      <c r="ADQ27" s="0"/>
+      <c r="ADR27" s="0"/>
+      <c r="ADS27" s="0"/>
+      <c r="ADT27" s="0"/>
+      <c r="ADU27" s="0"/>
+      <c r="ADV27" s="0"/>
+      <c r="ADW27" s="0"/>
+      <c r="ADX27" s="0"/>
+      <c r="ADY27" s="0"/>
+      <c r="ADZ27" s="0"/>
+      <c r="AEA27" s="0"/>
+      <c r="AEB27" s="0"/>
+      <c r="AEC27" s="0"/>
+      <c r="AED27" s="0"/>
+      <c r="AEE27" s="0"/>
+      <c r="AEF27" s="0"/>
+      <c r="AEG27" s="0"/>
+      <c r="AEH27" s="0"/>
+      <c r="AEI27" s="0"/>
+      <c r="AEJ27" s="0"/>
+      <c r="AEK27" s="0"/>
+      <c r="AEL27" s="0"/>
+      <c r="AEM27" s="0"/>
+      <c r="AEN27" s="0"/>
+      <c r="AEO27" s="0"/>
+      <c r="AEP27" s="0"/>
+      <c r="AEQ27" s="0"/>
+      <c r="AER27" s="0"/>
+      <c r="AES27" s="0"/>
+      <c r="AET27" s="0"/>
+      <c r="AEU27" s="0"/>
+      <c r="AEV27" s="0"/>
+      <c r="AEW27" s="0"/>
+      <c r="AEX27" s="0"/>
+      <c r="AEY27" s="0"/>
+      <c r="AEZ27" s="0"/>
+      <c r="AFA27" s="0"/>
+      <c r="AFB27" s="0"/>
+      <c r="AFC27" s="0"/>
+      <c r="AFD27" s="0"/>
+      <c r="AFE27" s="0"/>
+      <c r="AFF27" s="0"/>
+      <c r="AFG27" s="0"/>
+      <c r="AFH27" s="0"/>
+      <c r="AFI27" s="0"/>
+      <c r="AFJ27" s="0"/>
+      <c r="AFK27" s="0"/>
+      <c r="AFL27" s="0"/>
+      <c r="AFM27" s="0"/>
+      <c r="AFN27" s="0"/>
+      <c r="AFO27" s="0"/>
+      <c r="AFP27" s="0"/>
+      <c r="AFQ27" s="0"/>
+      <c r="AFR27" s="0"/>
+      <c r="AFS27" s="0"/>
+      <c r="AFT27" s="0"/>
+      <c r="AFU27" s="0"/>
+      <c r="AFV27" s="0"/>
+      <c r="AFW27" s="0"/>
+      <c r="AFX27" s="0"/>
+      <c r="AFY27" s="0"/>
+      <c r="AFZ27" s="0"/>
+      <c r="AGA27" s="0"/>
+      <c r="AGB27" s="0"/>
+      <c r="AGC27" s="0"/>
+      <c r="AGD27" s="0"/>
+      <c r="AGE27" s="0"/>
+      <c r="AGF27" s="0"/>
+      <c r="AGG27" s="0"/>
+      <c r="AGH27" s="0"/>
+      <c r="AGI27" s="0"/>
+      <c r="AGJ27" s="0"/>
+      <c r="AGK27" s="0"/>
+      <c r="AGL27" s="0"/>
+      <c r="AGM27" s="0"/>
+      <c r="AGN27" s="0"/>
+      <c r="AGO27" s="0"/>
+      <c r="AGP27" s="0"/>
+      <c r="AGQ27" s="0"/>
+      <c r="AGR27" s="0"/>
+      <c r="AGS27" s="0"/>
+      <c r="AGT27" s="0"/>
+      <c r="AGU27" s="0"/>
+      <c r="AGV27" s="0"/>
+      <c r="AGW27" s="0"/>
+      <c r="AGX27" s="0"/>
+      <c r="AGY27" s="0"/>
+      <c r="AGZ27" s="0"/>
+      <c r="AHA27" s="0"/>
+      <c r="AHB27" s="0"/>
+      <c r="AHC27" s="0"/>
+      <c r="AHD27" s="0"/>
+      <c r="AHE27" s="0"/>
+      <c r="AHF27" s="0"/>
+      <c r="AHG27" s="0"/>
+      <c r="AHH27" s="0"/>
+      <c r="AHI27" s="0"/>
+      <c r="AHJ27" s="0"/>
+      <c r="AHK27" s="0"/>
+      <c r="AHL27" s="0"/>
+      <c r="AHM27" s="0"/>
+      <c r="AHN27" s="0"/>
+      <c r="AHO27" s="0"/>
+      <c r="AHP27" s="0"/>
+      <c r="AHQ27" s="0"/>
+      <c r="AHR27" s="0"/>
+      <c r="AHS27" s="0"/>
+      <c r="AHT27" s="0"/>
+      <c r="AHU27" s="0"/>
+      <c r="AHV27" s="0"/>
+      <c r="AHW27" s="0"/>
+      <c r="AHX27" s="0"/>
+      <c r="AHY27" s="0"/>
+      <c r="AHZ27" s="0"/>
+      <c r="AIA27" s="0"/>
+      <c r="AIB27" s="0"/>
+      <c r="AIC27" s="0"/>
+      <c r="AID27" s="0"/>
+      <c r="AIE27" s="0"/>
+      <c r="AIF27" s="0"/>
+      <c r="AIG27" s="0"/>
+      <c r="AIH27" s="0"/>
+      <c r="AII27" s="0"/>
+      <c r="AIJ27" s="0"/>
+      <c r="AIK27" s="0"/>
+      <c r="AIL27" s="0"/>
+      <c r="AIM27" s="0"/>
+      <c r="AIN27" s="0"/>
+      <c r="AIO27" s="0"/>
+      <c r="AIP27" s="0"/>
+      <c r="AIQ27" s="0"/>
+      <c r="AIR27" s="0"/>
+      <c r="AIS27" s="0"/>
+      <c r="AIT27" s="0"/>
+      <c r="AIU27" s="0"/>
+      <c r="AIV27" s="0"/>
+      <c r="AIW27" s="0"/>
+      <c r="AIX27" s="0"/>
+      <c r="AIY27" s="0"/>
+      <c r="AIZ27" s="0"/>
+      <c r="AJA27" s="0"/>
+      <c r="AJB27" s="0"/>
+      <c r="AJC27" s="0"/>
+      <c r="AJD27" s="0"/>
+      <c r="AJE27" s="0"/>
+      <c r="AJF27" s="0"/>
+      <c r="AJG27" s="0"/>
+      <c r="AJH27" s="0"/>
+      <c r="AJI27" s="0"/>
+      <c r="AJJ27" s="0"/>
+      <c r="AJK27" s="0"/>
+      <c r="AJL27" s="0"/>
+      <c r="AJM27" s="0"/>
+      <c r="AJN27" s="0"/>
+      <c r="AJO27" s="0"/>
+      <c r="AJP27" s="0"/>
+      <c r="AJQ27" s="0"/>
+      <c r="AJR27" s="0"/>
+      <c r="AJS27" s="0"/>
+      <c r="AJT27" s="0"/>
+      <c r="AJU27" s="0"/>
+      <c r="AJV27" s="0"/>
+      <c r="AJW27" s="0"/>
+      <c r="AJX27" s="0"/>
+      <c r="AJY27" s="0"/>
+      <c r="AJZ27" s="0"/>
+      <c r="AKA27" s="0"/>
+      <c r="AKB27" s="0"/>
+      <c r="AKC27" s="0"/>
+      <c r="AKD27" s="0"/>
+      <c r="AKE27" s="0"/>
+      <c r="AKF27" s="0"/>
+      <c r="AKG27" s="0"/>
+      <c r="AKH27" s="0"/>
+      <c r="AKI27" s="0"/>
+      <c r="AKJ27" s="0"/>
+      <c r="AKK27" s="0"/>
+      <c r="AKL27" s="0"/>
+      <c r="AKM27" s="0"/>
+      <c r="AKN27" s="0"/>
+      <c r="AKO27" s="0"/>
+      <c r="AKP27" s="0"/>
+      <c r="AKQ27" s="0"/>
+      <c r="AKR27" s="0"/>
+      <c r="AKS27" s="0"/>
+      <c r="AKT27" s="0"/>
+      <c r="AKU27" s="0"/>
+      <c r="AKV27" s="0"/>
+      <c r="AKW27" s="0"/>
+      <c r="AKX27" s="0"/>
+      <c r="AKY27" s="0"/>
+      <c r="AKZ27" s="0"/>
+      <c r="ALA27" s="0"/>
+      <c r="ALB27" s="0"/>
+      <c r="ALC27" s="0"/>
+      <c r="ALD27" s="0"/>
+      <c r="ALE27" s="0"/>
+      <c r="ALF27" s="0"/>
+      <c r="ALG27" s="0"/>
+      <c r="ALH27" s="0"/>
+      <c r="ALI27" s="0"/>
+      <c r="ALJ27" s="0"/>
+      <c r="ALK27" s="0"/>
+      <c r="ALL27" s="0"/>
+      <c r="ALM27" s="0"/>
+      <c r="ALN27" s="0"/>
+      <c r="ALO27" s="0"/>
+      <c r="ALP27" s="0"/>
+      <c r="ALQ27" s="0"/>
+      <c r="ALR27" s="0"/>
+      <c r="ALS27" s="0"/>
+      <c r="ALT27" s="0"/>
+      <c r="ALU27" s="0"/>
+      <c r="ALV27" s="0"/>
+      <c r="ALW27" s="0"/>
+      <c r="ALX27" s="0"/>
+      <c r="ALY27" s="0"/>
+      <c r="ALZ27" s="0"/>
+      <c r="AMA27" s="0"/>
+      <c r="AMB27" s="0"/>
+      <c r="AMC27" s="0"/>
+      <c r="AMD27" s="0"/>
+      <c r="AME27" s="0"/>
+      <c r="AMF27" s="0"/>
+      <c r="AMG27" s="0"/>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AO28" s="0"/>
+      <c r="AP28" s="0"/>
+      <c r="AQ28" s="0"/>
+      <c r="AR28" s="0"/>
+      <c r="AS28" s="0"/>
+      <c r="AT28" s="0"/>
+      <c r="AU28" s="0"/>
+      <c r="AV28" s="0"/>
+      <c r="AW28" s="0"/>
+      <c r="AX28" s="0"/>
+      <c r="AY28" s="0"/>
+      <c r="AZ28" s="0"/>
+      <c r="BA28" s="0"/>
+      <c r="BB28" s="0"/>
+      <c r="BC28" s="0"/>
+      <c r="BD28" s="0"/>
+      <c r="BE28" s="0"/>
+      <c r="BF28" s="0"/>
+      <c r="BG28" s="0"/>
+      <c r="BH28" s="0"/>
+      <c r="BI28" s="0"/>
+      <c r="BJ28" s="0"/>
+      <c r="BK28" s="0"/>
+      <c r="BL28" s="0"/>
+      <c r="BM28" s="0"/>
+      <c r="BN28" s="0"/>
+      <c r="BO28" s="0"/>
+      <c r="BP28" s="0"/>
+      <c r="BQ28" s="0"/>
+      <c r="BR28" s="0"/>
+      <c r="BS28" s="0"/>
+      <c r="BT28" s="0"/>
+      <c r="BU28" s="0"/>
+      <c r="BV28" s="0"/>
+      <c r="BW28" s="0"/>
+      <c r="BX28" s="0"/>
+      <c r="BY28" s="0"/>
+      <c r="BZ28" s="0"/>
+      <c r="CA28" s="0"/>
+      <c r="CB28" s="0"/>
+      <c r="CC28" s="0"/>
+      <c r="CD28" s="0"/>
+      <c r="CE28" s="0"/>
+      <c r="CF28" s="0"/>
+      <c r="CG28" s="0"/>
+      <c r="CH28" s="0"/>
+      <c r="CI28" s="0"/>
+      <c r="CJ28" s="0"/>
+      <c r="CK28" s="0"/>
+      <c r="CL28" s="0"/>
+      <c r="CM28" s="0"/>
+      <c r="CN28" s="0"/>
+      <c r="CO28" s="0"/>
+      <c r="CP28" s="0"/>
+      <c r="CQ28" s="0"/>
+      <c r="CR28" s="0"/>
+      <c r="CS28" s="0"/>
+      <c r="CT28" s="0"/>
+      <c r="CU28" s="0"/>
+      <c r="CV28" s="0"/>
+      <c r="CW28" s="0"/>
+      <c r="CX28" s="0"/>
+      <c r="CY28" s="0"/>
+      <c r="CZ28" s="0"/>
+      <c r="DA28" s="0"/>
+      <c r="DB28" s="0"/>
+      <c r="DC28" s="0"/>
+      <c r="DD28" s="0"/>
+      <c r="DE28" s="0"/>
+      <c r="DF28" s="0"/>
+      <c r="DG28" s="0"/>
+      <c r="DH28" s="0"/>
+      <c r="DI28" s="0"/>
+      <c r="DJ28" s="0"/>
+      <c r="DK28" s="0"/>
+      <c r="DL28" s="0"/>
+      <c r="DM28" s="0"/>
+      <c r="DN28" s="0"/>
+      <c r="DO28" s="0"/>
+      <c r="DP28" s="0"/>
+      <c r="DQ28" s="0"/>
+      <c r="DR28" s="0"/>
+      <c r="DS28" s="0"/>
+      <c r="DT28" s="0"/>
+      <c r="DU28" s="0"/>
+      <c r="DV28" s="0"/>
+      <c r="DW28" s="0"/>
+      <c r="DX28" s="0"/>
+      <c r="DY28" s="0"/>
+      <c r="DZ28" s="0"/>
+      <c r="EA28" s="0"/>
+      <c r="EB28" s="0"/>
+      <c r="EC28" s="0"/>
+      <c r="ED28" s="0"/>
+      <c r="EE28" s="0"/>
+      <c r="EF28" s="0"/>
+      <c r="EG28" s="0"/>
+      <c r="EH28" s="0"/>
+      <c r="EI28" s="0"/>
+      <c r="EJ28" s="0"/>
+      <c r="EK28" s="0"/>
+      <c r="EL28" s="0"/>
+      <c r="EM28" s="0"/>
+      <c r="EN28" s="0"/>
+      <c r="EO28" s="0"/>
+      <c r="EP28" s="0"/>
+      <c r="EQ28" s="0"/>
+      <c r="ER28" s="0"/>
+      <c r="ES28" s="0"/>
+      <c r="ET28" s="0"/>
+      <c r="EU28" s="0"/>
+      <c r="EV28" s="0"/>
+      <c r="EW28" s="0"/>
+      <c r="EX28" s="0"/>
+      <c r="EY28" s="0"/>
+      <c r="EZ28" s="0"/>
+      <c r="FA28" s="0"/>
+      <c r="FB28" s="0"/>
+      <c r="FC28" s="0"/>
+      <c r="FD28" s="0"/>
+      <c r="FE28" s="0"/>
+      <c r="FF28" s="0"/>
+      <c r="FG28" s="0"/>
+      <c r="FH28" s="0"/>
+      <c r="FI28" s="0"/>
+      <c r="FJ28" s="0"/>
+      <c r="FK28" s="0"/>
+      <c r="FL28" s="0"/>
+      <c r="FM28" s="0"/>
+      <c r="FN28" s="0"/>
+      <c r="FO28" s="0"/>
+      <c r="FP28" s="0"/>
+      <c r="FQ28" s="0"/>
+      <c r="FR28" s="0"/>
+      <c r="FS28" s="0"/>
+      <c r="FT28" s="0"/>
+      <c r="FU28" s="0"/>
+      <c r="FV28" s="0"/>
+      <c r="FW28" s="0"/>
+      <c r="FX28" s="0"/>
+      <c r="FY28" s="0"/>
+      <c r="FZ28" s="0"/>
+      <c r="GA28" s="0"/>
+      <c r="GB28" s="0"/>
+      <c r="GC28" s="0"/>
+      <c r="GD28" s="0"/>
+      <c r="GE28" s="0"/>
+      <c r="GF28" s="0"/>
+      <c r="GG28" s="0"/>
+      <c r="GH28" s="0"/>
+      <c r="GI28" s="0"/>
+      <c r="GJ28" s="0"/>
+      <c r="GK28" s="0"/>
+      <c r="GL28" s="0"/>
+      <c r="GM28" s="0"/>
+      <c r="GN28" s="0"/>
+      <c r="GO28" s="0"/>
+      <c r="GP28" s="0"/>
+      <c r="GQ28" s="0"/>
+      <c r="GR28" s="0"/>
+      <c r="GS28" s="0"/>
+      <c r="GT28" s="0"/>
+      <c r="GU28" s="0"/>
+      <c r="GV28" s="0"/>
+      <c r="GW28" s="0"/>
+      <c r="GX28" s="0"/>
+      <c r="GY28" s="0"/>
+      <c r="GZ28" s="0"/>
+      <c r="HA28" s="0"/>
+      <c r="HB28" s="0"/>
+      <c r="HC28" s="0"/>
+      <c r="HD28" s="0"/>
+      <c r="HE28" s="0"/>
+      <c r="HF28" s="0"/>
+      <c r="HG28" s="0"/>
+      <c r="HH28" s="0"/>
+      <c r="HI28" s="0"/>
+      <c r="HJ28" s="0"/>
+      <c r="HK28" s="0"/>
+      <c r="HL28" s="0"/>
+      <c r="HM28" s="0"/>
+      <c r="HN28" s="0"/>
+      <c r="HO28" s="0"/>
+      <c r="HP28" s="0"/>
+      <c r="HQ28" s="0"/>
+      <c r="HR28" s="0"/>
+      <c r="HS28" s="0"/>
+      <c r="HT28" s="0"/>
+      <c r="HU28" s="0"/>
+      <c r="HV28" s="0"/>
+      <c r="HW28" s="0"/>
+      <c r="HX28" s="0"/>
+      <c r="HY28" s="0"/>
+      <c r="HZ28" s="0"/>
+      <c r="IA28" s="0"/>
+      <c r="IB28" s="0"/>
+      <c r="IC28" s="0"/>
+      <c r="ID28" s="0"/>
+      <c r="IE28" s="0"/>
+      <c r="IF28" s="0"/>
+      <c r="IG28" s="0"/>
+      <c r="IH28" s="0"/>
+      <c r="II28" s="0"/>
+      <c r="IJ28" s="0"/>
+      <c r="IK28" s="0"/>
+      <c r="IL28" s="0"/>
+      <c r="IM28" s="0"/>
+      <c r="IN28" s="0"/>
+      <c r="IO28" s="0"/>
+      <c r="IP28" s="0"/>
+      <c r="IQ28" s="0"/>
+      <c r="IR28" s="0"/>
+      <c r="IS28" s="0"/>
+      <c r="IT28" s="0"/>
+      <c r="IU28" s="0"/>
+      <c r="IV28" s="0"/>
+      <c r="IW28" s="0"/>
+      <c r="IX28" s="0"/>
+      <c r="IY28" s="0"/>
+      <c r="IZ28" s="0"/>
+      <c r="JA28" s="0"/>
+      <c r="JB28" s="0"/>
+      <c r="JC28" s="0"/>
+      <c r="JD28" s="0"/>
+      <c r="JE28" s="0"/>
+      <c r="JF28" s="0"/>
+      <c r="JG28" s="0"/>
+      <c r="JH28" s="0"/>
+      <c r="JI28" s="0"/>
+      <c r="JJ28" s="0"/>
+      <c r="JK28" s="0"/>
+      <c r="JL28" s="0"/>
+      <c r="JM28" s="0"/>
+      <c r="JN28" s="0"/>
+      <c r="JO28" s="0"/>
+      <c r="JP28" s="0"/>
+      <c r="JQ28" s="0"/>
+      <c r="JR28" s="0"/>
+      <c r="JS28" s="0"/>
+      <c r="JT28" s="0"/>
+      <c r="JU28" s="0"/>
+      <c r="JV28" s="0"/>
+      <c r="JW28" s="0"/>
+      <c r="JX28" s="0"/>
+      <c r="JY28" s="0"/>
+      <c r="JZ28" s="0"/>
+      <c r="KA28" s="0"/>
+      <c r="KB28" s="0"/>
+      <c r="KC28" s="0"/>
+      <c r="KD28" s="0"/>
+      <c r="KE28" s="0"/>
+      <c r="KF28" s="0"/>
+      <c r="KG28" s="0"/>
+      <c r="KH28" s="0"/>
+      <c r="KI28" s="0"/>
+      <c r="KJ28" s="0"/>
+      <c r="KK28" s="0"/>
+      <c r="KL28" s="0"/>
+      <c r="KM28" s="0"/>
+      <c r="KN28" s="0"/>
+      <c r="KO28" s="0"/>
+      <c r="KP28" s="0"/>
+      <c r="KQ28" s="0"/>
+      <c r="KR28" s="0"/>
+      <c r="KS28" s="0"/>
+      <c r="KT28" s="0"/>
+      <c r="KU28" s="0"/>
+      <c r="KV28" s="0"/>
+      <c r="KW28" s="0"/>
+      <c r="KX28" s="0"/>
+      <c r="KY28" s="0"/>
+      <c r="KZ28" s="0"/>
+      <c r="LA28" s="0"/>
+      <c r="LB28" s="0"/>
+      <c r="LC28" s="0"/>
+      <c r="LD28" s="0"/>
+      <c r="LE28" s="0"/>
+      <c r="LF28" s="0"/>
+      <c r="LG28" s="0"/>
+      <c r="LH28" s="0"/>
+      <c r="LI28" s="0"/>
+      <c r="LJ28" s="0"/>
+      <c r="LK28" s="0"/>
+      <c r="LL28" s="0"/>
+      <c r="LM28" s="0"/>
+      <c r="LN28" s="0"/>
+      <c r="LO28" s="0"/>
+      <c r="LP28" s="0"/>
+      <c r="LQ28" s="0"/>
+      <c r="LR28" s="0"/>
+      <c r="LS28" s="0"/>
+      <c r="LT28" s="0"/>
+      <c r="LU28" s="0"/>
+      <c r="LV28" s="0"/>
+      <c r="LW28" s="0"/>
+      <c r="LX28" s="0"/>
+      <c r="LY28" s="0"/>
+      <c r="LZ28" s="0"/>
+      <c r="MA28" s="0"/>
+      <c r="MB28" s="0"/>
+      <c r="MC28" s="0"/>
+      <c r="MD28" s="0"/>
+      <c r="ME28" s="0"/>
+      <c r="MF28" s="0"/>
+      <c r="MG28" s="0"/>
+      <c r="MH28" s="0"/>
+      <c r="MI28" s="0"/>
+      <c r="MJ28" s="0"/>
+      <c r="MK28" s="0"/>
+      <c r="ML28" s="0"/>
+      <c r="MM28" s="0"/>
+      <c r="MN28" s="0"/>
+      <c r="MO28" s="0"/>
+      <c r="MP28" s="0"/>
+      <c r="MQ28" s="0"/>
+      <c r="MR28" s="0"/>
+      <c r="MS28" s="0"/>
+      <c r="MT28" s="0"/>
+      <c r="MU28" s="0"/>
+      <c r="MV28" s="0"/>
+      <c r="MW28" s="0"/>
+      <c r="MX28" s="0"/>
+      <c r="MY28" s="0"/>
+      <c r="MZ28" s="0"/>
+      <c r="NA28" s="0"/>
+      <c r="NB28" s="0"/>
+      <c r="NC28" s="0"/>
+      <c r="ND28" s="0"/>
+      <c r="NE28" s="0"/>
+      <c r="NF28" s="0"/>
+      <c r="NG28" s="0"/>
+      <c r="NH28" s="0"/>
+      <c r="NI28" s="0"/>
+      <c r="NJ28" s="0"/>
+      <c r="NK28" s="0"/>
+      <c r="NL28" s="0"/>
+      <c r="NM28" s="0"/>
+      <c r="NN28" s="0"/>
+      <c r="NO28" s="0"/>
+      <c r="NP28" s="0"/>
+      <c r="NQ28" s="0"/>
+      <c r="NR28" s="0"/>
+      <c r="NS28" s="0"/>
+      <c r="NT28" s="0"/>
+      <c r="NU28" s="0"/>
+      <c r="NV28" s="0"/>
+      <c r="NW28" s="0"/>
+      <c r="NX28" s="0"/>
+      <c r="NY28" s="0"/>
+      <c r="NZ28" s="0"/>
+      <c r="OA28" s="0"/>
+      <c r="OB28" s="0"/>
+      <c r="OC28" s="0"/>
+      <c r="OD28" s="0"/>
+      <c r="OE28" s="0"/>
+      <c r="OF28" s="0"/>
+      <c r="OG28" s="0"/>
+      <c r="OH28" s="0"/>
+      <c r="OI28" s="0"/>
+      <c r="OJ28" s="0"/>
+      <c r="OK28" s="0"/>
+      <c r="OL28" s="0"/>
+      <c r="OM28" s="0"/>
+      <c r="ON28" s="0"/>
+      <c r="OO28" s="0"/>
+      <c r="OP28" s="0"/>
+      <c r="OQ28" s="0"/>
+      <c r="OR28" s="0"/>
+      <c r="OS28" s="0"/>
+      <c r="OT28" s="0"/>
+      <c r="OU28" s="0"/>
+      <c r="OV28" s="0"/>
+      <c r="OW28" s="0"/>
+      <c r="OX28" s="0"/>
+      <c r="OY28" s="0"/>
+      <c r="OZ28" s="0"/>
+      <c r="PA28" s="0"/>
+      <c r="PB28" s="0"/>
+      <c r="PC28" s="0"/>
+      <c r="PD28" s="0"/>
+      <c r="PE28" s="0"/>
+      <c r="PF28" s="0"/>
+      <c r="PG28" s="0"/>
+      <c r="PH28" s="0"/>
+      <c r="PI28" s="0"/>
+      <c r="PJ28" s="0"/>
+      <c r="PK28" s="0"/>
+      <c r="PL28" s="0"/>
+      <c r="PM28" s="0"/>
+      <c r="PN28" s="0"/>
+      <c r="PO28" s="0"/>
+      <c r="PP28" s="0"/>
+      <c r="PQ28" s="0"/>
+      <c r="PR28" s="0"/>
+      <c r="PS28" s="0"/>
+      <c r="PT28" s="0"/>
+      <c r="PU28" s="0"/>
+      <c r="PV28" s="0"/>
+      <c r="PW28" s="0"/>
+      <c r="PX28" s="0"/>
+      <c r="PY28" s="0"/>
+      <c r="PZ28" s="0"/>
+      <c r="QA28" s="0"/>
+      <c r="QB28" s="0"/>
+      <c r="QC28" s="0"/>
+      <c r="QD28" s="0"/>
+      <c r="QE28" s="0"/>
+      <c r="QF28" s="0"/>
+      <c r="QG28" s="0"/>
+      <c r="QH28" s="0"/>
+      <c r="QI28" s="0"/>
+      <c r="QJ28" s="0"/>
+      <c r="QK28" s="0"/>
+      <c r="QL28" s="0"/>
+      <c r="QM28" s="0"/>
+      <c r="QN28" s="0"/>
+      <c r="QO28" s="0"/>
+      <c r="QP28" s="0"/>
+      <c r="QQ28" s="0"/>
+      <c r="QR28" s="0"/>
+      <c r="QS28" s="0"/>
+      <c r="QT28" s="0"/>
+      <c r="QU28" s="0"/>
+      <c r="QV28" s="0"/>
+      <c r="QW28" s="0"/>
+      <c r="QX28" s="0"/>
+      <c r="QY28" s="0"/>
+      <c r="QZ28" s="0"/>
+      <c r="RA28" s="0"/>
+      <c r="RB28" s="0"/>
+      <c r="RC28" s="0"/>
+      <c r="RD28" s="0"/>
+      <c r="RE28" s="0"/>
+      <c r="RF28" s="0"/>
+      <c r="RG28" s="0"/>
+      <c r="RH28" s="0"/>
+      <c r="RI28" s="0"/>
+      <c r="RJ28" s="0"/>
+      <c r="RK28" s="0"/>
+      <c r="RL28" s="0"/>
+      <c r="RM28" s="0"/>
+      <c r="RN28" s="0"/>
+      <c r="RO28" s="0"/>
+      <c r="RP28" s="0"/>
+      <c r="RQ28" s="0"/>
+      <c r="RR28" s="0"/>
+      <c r="RS28" s="0"/>
+      <c r="RT28" s="0"/>
+      <c r="RU28" s="0"/>
+      <c r="RV28" s="0"/>
+      <c r="RW28" s="0"/>
+      <c r="RX28" s="0"/>
+      <c r="RY28" s="0"/>
+      <c r="RZ28" s="0"/>
+      <c r="SA28" s="0"/>
+      <c r="SB28" s="0"/>
+      <c r="SC28" s="0"/>
+      <c r="SD28" s="0"/>
+      <c r="SE28" s="0"/>
+      <c r="SF28" s="0"/>
+      <c r="SG28" s="0"/>
+      <c r="SH28" s="0"/>
+      <c r="SI28" s="0"/>
+      <c r="SJ28" s="0"/>
+      <c r="SK28" s="0"/>
+      <c r="SL28" s="0"/>
+      <c r="SM28" s="0"/>
+      <c r="SN28" s="0"/>
+      <c r="SO28" s="0"/>
+      <c r="SP28" s="0"/>
+      <c r="SQ28" s="0"/>
+      <c r="SR28" s="0"/>
+      <c r="SS28" s="0"/>
+      <c r="ST28" s="0"/>
+      <c r="SU28" s="0"/>
+      <c r="SV28" s="0"/>
+      <c r="SW28" s="0"/>
+      <c r="SX28" s="0"/>
+      <c r="SY28" s="0"/>
+      <c r="SZ28" s="0"/>
+      <c r="TA28" s="0"/>
+      <c r="TB28" s="0"/>
+      <c r="TC28" s="0"/>
+      <c r="TD28" s="0"/>
+      <c r="TE28" s="0"/>
+      <c r="TF28" s="0"/>
+      <c r="TG28" s="0"/>
+      <c r="TH28" s="0"/>
+      <c r="TI28" s="0"/>
+      <c r="TJ28" s="0"/>
+      <c r="TK28" s="0"/>
+      <c r="TL28" s="0"/>
+      <c r="TM28" s="0"/>
+      <c r="TN28" s="0"/>
+      <c r="TO28" s="0"/>
+      <c r="TP28" s="0"/>
+      <c r="TQ28" s="0"/>
+      <c r="TR28" s="0"/>
+      <c r="TS28" s="0"/>
+      <c r="TT28" s="0"/>
+      <c r="TU28" s="0"/>
+      <c r="TV28" s="0"/>
+      <c r="TW28" s="0"/>
+      <c r="TX28" s="0"/>
+      <c r="TY28" s="0"/>
+      <c r="TZ28" s="0"/>
+      <c r="UA28" s="0"/>
+      <c r="UB28" s="0"/>
+      <c r="UC28" s="0"/>
+      <c r="UD28" s="0"/>
+      <c r="UE28" s="0"/>
+      <c r="UF28" s="0"/>
+      <c r="UG28" s="0"/>
+      <c r="UH28" s="0"/>
+      <c r="UI28" s="0"/>
+      <c r="UJ28" s="0"/>
+      <c r="UK28" s="0"/>
+      <c r="UL28" s="0"/>
+      <c r="UM28" s="0"/>
+      <c r="UN28" s="0"/>
+      <c r="UO28" s="0"/>
+      <c r="UP28" s="0"/>
+      <c r="UQ28" s="0"/>
+      <c r="UR28" s="0"/>
+      <c r="US28" s="0"/>
+      <c r="UT28" s="0"/>
+      <c r="UU28" s="0"/>
+      <c r="UV28" s="0"/>
+      <c r="UW28" s="0"/>
+      <c r="UX28" s="0"/>
+      <c r="UY28" s="0"/>
+      <c r="UZ28" s="0"/>
+      <c r="VA28" s="0"/>
+      <c r="VB28" s="0"/>
+      <c r="VC28" s="0"/>
+      <c r="VD28" s="0"/>
+      <c r="VE28" s="0"/>
+      <c r="VF28" s="0"/>
+      <c r="VG28" s="0"/>
+      <c r="VH28" s="0"/>
+      <c r="VI28" s="0"/>
+      <c r="VJ28" s="0"/>
+      <c r="VK28" s="0"/>
+      <c r="VL28" s="0"/>
+      <c r="VM28" s="0"/>
+      <c r="VN28" s="0"/>
+      <c r="VO28" s="0"/>
+      <c r="VP28" s="0"/>
+      <c r="VQ28" s="0"/>
+      <c r="VR28" s="0"/>
+      <c r="VS28" s="0"/>
+      <c r="VT28" s="0"/>
+      <c r="VU28" s="0"/>
+      <c r="VV28" s="0"/>
+      <c r="VW28" s="0"/>
+      <c r="VX28" s="0"/>
+      <c r="VY28" s="0"/>
+      <c r="VZ28" s="0"/>
+      <c r="WA28" s="0"/>
+      <c r="WB28" s="0"/>
+      <c r="WC28" s="0"/>
+      <c r="WD28" s="0"/>
+      <c r="WE28" s="0"/>
+      <c r="WF28" s="0"/>
+      <c r="WG28" s="0"/>
+      <c r="WH28" s="0"/>
+      <c r="WI28" s="0"/>
+      <c r="WJ28" s="0"/>
+      <c r="WK28" s="0"/>
+      <c r="WL28" s="0"/>
+      <c r="WM28" s="0"/>
+      <c r="WN28" s="0"/>
+      <c r="WO28" s="0"/>
+      <c r="WP28" s="0"/>
+      <c r="WQ28" s="0"/>
+      <c r="WR28" s="0"/>
+      <c r="WS28" s="0"/>
+      <c r="WT28" s="0"/>
+      <c r="WU28" s="0"/>
+      <c r="WV28" s="0"/>
+      <c r="WW28" s="0"/>
+      <c r="WX28" s="0"/>
+      <c r="WY28" s="0"/>
+      <c r="WZ28" s="0"/>
+      <c r="XA28" s="0"/>
+      <c r="XB28" s="0"/>
+      <c r="XC28" s="0"/>
+      <c r="XD28" s="0"/>
+      <c r="XE28" s="0"/>
+      <c r="XF28" s="0"/>
+      <c r="XG28" s="0"/>
+      <c r="XH28" s="0"/>
+      <c r="XI28" s="0"/>
+      <c r="XJ28" s="0"/>
+      <c r="XK28" s="0"/>
+      <c r="XL28" s="0"/>
+      <c r="XM28" s="0"/>
+      <c r="XN28" s="0"/>
+      <c r="XO28" s="0"/>
+      <c r="XP28" s="0"/>
+      <c r="XQ28" s="0"/>
+      <c r="XR28" s="0"/>
+      <c r="XS28" s="0"/>
+      <c r="XT28" s="0"/>
+      <c r="XU28" s="0"/>
+      <c r="XV28" s="0"/>
+      <c r="XW28" s="0"/>
+      <c r="XX28" s="0"/>
+      <c r="XY28" s="0"/>
+      <c r="XZ28" s="0"/>
+      <c r="YA28" s="0"/>
+      <c r="YB28" s="0"/>
+      <c r="YC28" s="0"/>
+      <c r="YD28" s="0"/>
+      <c r="YE28" s="0"/>
+      <c r="YF28" s="0"/>
+      <c r="YG28" s="0"/>
+      <c r="YH28" s="0"/>
+      <c r="YI28" s="0"/>
+      <c r="YJ28" s="0"/>
+      <c r="YK28" s="0"/>
+      <c r="YL28" s="0"/>
+      <c r="YM28" s="0"/>
+      <c r="YN28" s="0"/>
+      <c r="YO28" s="0"/>
+      <c r="YP28" s="0"/>
+      <c r="YQ28" s="0"/>
+      <c r="YR28" s="0"/>
+      <c r="YS28" s="0"/>
+      <c r="YT28" s="0"/>
+      <c r="YU28" s="0"/>
+      <c r="YV28" s="0"/>
+      <c r="YW28" s="0"/>
+      <c r="YX28" s="0"/>
+      <c r="YY28" s="0"/>
+      <c r="YZ28" s="0"/>
+      <c r="ZA28" s="0"/>
+      <c r="ZB28" s="0"/>
+      <c r="ZC28" s="0"/>
+      <c r="ZD28" s="0"/>
+      <c r="ZE28" s="0"/>
+      <c r="ZF28" s="0"/>
+      <c r="ZG28" s="0"/>
+      <c r="ZH28" s="0"/>
+      <c r="ZI28" s="0"/>
+      <c r="ZJ28" s="0"/>
+      <c r="ZK28" s="0"/>
+      <c r="ZL28" s="0"/>
+      <c r="ZM28" s="0"/>
+      <c r="ZN28" s="0"/>
+      <c r="ZO28" s="0"/>
+      <c r="ZP28" s="0"/>
+      <c r="ZQ28" s="0"/>
+      <c r="ZR28" s="0"/>
+      <c r="ZS28" s="0"/>
+      <c r="ZT28" s="0"/>
+      <c r="ZU28" s="0"/>
+      <c r="ZV28" s="0"/>
+      <c r="ZW28" s="0"/>
+      <c r="ZX28" s="0"/>
+      <c r="ZY28" s="0"/>
+      <c r="ZZ28" s="0"/>
+      <c r="AAA28" s="0"/>
+      <c r="AAB28" s="0"/>
+      <c r="AAC28" s="0"/>
+      <c r="AAD28" s="0"/>
+      <c r="AAE28" s="0"/>
+      <c r="AAF28" s="0"/>
+      <c r="AAG28" s="0"/>
+      <c r="AAH28" s="0"/>
+      <c r="AAI28" s="0"/>
+      <c r="AAJ28" s="0"/>
+      <c r="AAK28" s="0"/>
+      <c r="AAL28" s="0"/>
+      <c r="AAM28" s="0"/>
+      <c r="AAN28" s="0"/>
+      <c r="AAO28" s="0"/>
+      <c r="AAP28" s="0"/>
+      <c r="AAQ28" s="0"/>
+      <c r="AAR28" s="0"/>
+      <c r="AAS28" s="0"/>
+      <c r="AAT28" s="0"/>
+      <c r="AAU28" s="0"/>
+      <c r="AAV28" s="0"/>
+      <c r="AAW28" s="0"/>
+      <c r="AAX28" s="0"/>
+      <c r="AAY28" s="0"/>
+      <c r="AAZ28" s="0"/>
+      <c r="ABA28" s="0"/>
+      <c r="ABB28" s="0"/>
+      <c r="ABC28" s="0"/>
+      <c r="ABD28" s="0"/>
+      <c r="ABE28" s="0"/>
+      <c r="ABF28" s="0"/>
+      <c r="ABG28" s="0"/>
+      <c r="ABH28" s="0"/>
+      <c r="ABI28" s="0"/>
+      <c r="ABJ28" s="0"/>
+      <c r="ABK28" s="0"/>
+      <c r="ABL28" s="0"/>
+      <c r="ABM28" s="0"/>
+      <c r="ABN28" s="0"/>
+      <c r="ABO28" s="0"/>
+      <c r="ABP28" s="0"/>
+      <c r="ABQ28" s="0"/>
+      <c r="ABR28" s="0"/>
+      <c r="ABS28" s="0"/>
+      <c r="ABT28" s="0"/>
+      <c r="ABU28" s="0"/>
+      <c r="ABV28" s="0"/>
+      <c r="ABW28" s="0"/>
+      <c r="ABX28" s="0"/>
+      <c r="ABY28" s="0"/>
+      <c r="ABZ28" s="0"/>
+      <c r="ACA28" s="0"/>
+      <c r="ACB28" s="0"/>
+      <c r="ACC28" s="0"/>
+      <c r="ACD28" s="0"/>
+      <c r="ACE28" s="0"/>
+      <c r="ACF28" s="0"/>
+      <c r="ACG28" s="0"/>
+      <c r="ACH28" s="0"/>
+      <c r="ACI28" s="0"/>
+      <c r="ACJ28" s="0"/>
+      <c r="ACK28" s="0"/>
+      <c r="ACL28" s="0"/>
+      <c r="ACM28" s="0"/>
+      <c r="ACN28" s="0"/>
+      <c r="ACO28" s="0"/>
+      <c r="ACP28" s="0"/>
+      <c r="ACQ28" s="0"/>
+      <c r="ACR28" s="0"/>
+      <c r="ACS28" s="0"/>
+      <c r="ACT28" s="0"/>
+      <c r="ACU28" s="0"/>
+      <c r="ACV28" s="0"/>
+      <c r="ACW28" s="0"/>
+      <c r="ACX28" s="0"/>
+      <c r="ACY28" s="0"/>
+      <c r="ACZ28" s="0"/>
+      <c r="ADA28" s="0"/>
+      <c r="ADB28" s="0"/>
+      <c r="ADC28" s="0"/>
+      <c r="ADD28" s="0"/>
+      <c r="ADE28" s="0"/>
+      <c r="ADF28" s="0"/>
+      <c r="ADG28" s="0"/>
+      <c r="ADH28" s="0"/>
+      <c r="ADI28" s="0"/>
+      <c r="ADJ28" s="0"/>
+      <c r="ADK28" s="0"/>
+      <c r="ADL28" s="0"/>
+      <c r="ADM28" s="0"/>
+      <c r="ADN28" s="0"/>
+      <c r="ADO28" s="0"/>
+      <c r="ADP28" s="0"/>
+      <c r="ADQ28" s="0"/>
+      <c r="ADR28" s="0"/>
+      <c r="ADS28" s="0"/>
+      <c r="ADT28" s="0"/>
+      <c r="ADU28" s="0"/>
+      <c r="ADV28" s="0"/>
+      <c r="ADW28" s="0"/>
+      <c r="ADX28" s="0"/>
+      <c r="ADY28" s="0"/>
+      <c r="ADZ28" s="0"/>
+      <c r="AEA28" s="0"/>
+      <c r="AEB28" s="0"/>
+      <c r="AEC28" s="0"/>
+      <c r="AED28" s="0"/>
+      <c r="AEE28" s="0"/>
+      <c r="AEF28" s="0"/>
+      <c r="AEG28" s="0"/>
+      <c r="AEH28" s="0"/>
+      <c r="AEI28" s="0"/>
+      <c r="AEJ28" s="0"/>
+      <c r="AEK28" s="0"/>
+      <c r="AEL28" s="0"/>
+      <c r="AEM28" s="0"/>
+      <c r="AEN28" s="0"/>
+      <c r="AEO28" s="0"/>
+      <c r="AEP28" s="0"/>
+      <c r="AEQ28" s="0"/>
+      <c r="AER28" s="0"/>
+      <c r="AES28" s="0"/>
+      <c r="AET28" s="0"/>
+      <c r="AEU28" s="0"/>
+      <c r="AEV28" s="0"/>
+      <c r="AEW28" s="0"/>
+      <c r="AEX28" s="0"/>
+      <c r="AEY28" s="0"/>
+      <c r="AEZ28" s="0"/>
+      <c r="AFA28" s="0"/>
+      <c r="AFB28" s="0"/>
+      <c r="AFC28" s="0"/>
+      <c r="AFD28" s="0"/>
+      <c r="AFE28" s="0"/>
+      <c r="AFF28" s="0"/>
+      <c r="AFG28" s="0"/>
+      <c r="AFH28" s="0"/>
+      <c r="AFI28" s="0"/>
+      <c r="AFJ28" s="0"/>
+      <c r="AFK28" s="0"/>
+      <c r="AFL28" s="0"/>
+      <c r="AFM28" s="0"/>
+      <c r="AFN28" s="0"/>
+      <c r="AFO28" s="0"/>
+      <c r="AFP28" s="0"/>
+      <c r="AFQ28" s="0"/>
+      <c r="AFR28" s="0"/>
+      <c r="AFS28" s="0"/>
+      <c r="AFT28" s="0"/>
+      <c r="AFU28" s="0"/>
+      <c r="AFV28" s="0"/>
+      <c r="AFW28" s="0"/>
+      <c r="AFX28" s="0"/>
+      <c r="AFY28" s="0"/>
+      <c r="AFZ28" s="0"/>
+      <c r="AGA28" s="0"/>
+      <c r="AGB28" s="0"/>
+      <c r="AGC28" s="0"/>
+      <c r="AGD28" s="0"/>
+      <c r="AGE28" s="0"/>
+      <c r="AGF28" s="0"/>
+      <c r="AGG28" s="0"/>
+      <c r="AGH28" s="0"/>
+      <c r="AGI28" s="0"/>
+      <c r="AGJ28" s="0"/>
+      <c r="AGK28" s="0"/>
+      <c r="AGL28" s="0"/>
+      <c r="AGM28" s="0"/>
+      <c r="AGN28" s="0"/>
+      <c r="AGO28" s="0"/>
+      <c r="AGP28" s="0"/>
+      <c r="AGQ28" s="0"/>
+      <c r="AGR28" s="0"/>
+      <c r="AGS28" s="0"/>
+      <c r="AGT28" s="0"/>
+      <c r="AGU28" s="0"/>
+      <c r="AGV28" s="0"/>
+      <c r="AGW28" s="0"/>
+      <c r="AGX28" s="0"/>
+      <c r="AGY28" s="0"/>
+      <c r="AGZ28" s="0"/>
+      <c r="AHA28" s="0"/>
+      <c r="AHB28" s="0"/>
+      <c r="AHC28" s="0"/>
+      <c r="AHD28" s="0"/>
+      <c r="AHE28" s="0"/>
+      <c r="AHF28" s="0"/>
+      <c r="AHG28" s="0"/>
+      <c r="AHH28" s="0"/>
+      <c r="AHI28" s="0"/>
+      <c r="AHJ28" s="0"/>
+      <c r="AHK28" s="0"/>
+      <c r="AHL28" s="0"/>
+      <c r="AHM28" s="0"/>
+      <c r="AHN28" s="0"/>
+      <c r="AHO28" s="0"/>
+      <c r="AHP28" s="0"/>
+      <c r="AHQ28" s="0"/>
+      <c r="AHR28" s="0"/>
+      <c r="AHS28" s="0"/>
+      <c r="AHT28" s="0"/>
+      <c r="AHU28" s="0"/>
+      <c r="AHV28" s="0"/>
+      <c r="AHW28" s="0"/>
+      <c r="AHX28" s="0"/>
+      <c r="AHY28" s="0"/>
+      <c r="AHZ28" s="0"/>
+      <c r="AIA28" s="0"/>
+      <c r="AIB28" s="0"/>
+      <c r="AIC28" s="0"/>
+      <c r="AID28" s="0"/>
+      <c r="AIE28" s="0"/>
+      <c r="AIF28" s="0"/>
+      <c r="AIG28" s="0"/>
+      <c r="AIH28" s="0"/>
+      <c r="AII28" s="0"/>
+      <c r="AIJ28" s="0"/>
+      <c r="AIK28" s="0"/>
+      <c r="AIL28" s="0"/>
+      <c r="AIM28" s="0"/>
+      <c r="AIN28" s="0"/>
+      <c r="AIO28" s="0"/>
+      <c r="AIP28" s="0"/>
+      <c r="AIQ28" s="0"/>
+      <c r="AIR28" s="0"/>
+      <c r="AIS28" s="0"/>
+      <c r="AIT28" s="0"/>
+      <c r="AIU28" s="0"/>
+      <c r="AIV28" s="0"/>
+      <c r="AIW28" s="0"/>
+      <c r="AIX28" s="0"/>
+      <c r="AIY28" s="0"/>
+      <c r="AIZ28" s="0"/>
+      <c r="AJA28" s="0"/>
+      <c r="AJB28" s="0"/>
+      <c r="AJC28" s="0"/>
+      <c r="AJD28" s="0"/>
+      <c r="AJE28" s="0"/>
+      <c r="AJF28" s="0"/>
+      <c r="AJG28" s="0"/>
+      <c r="AJH28" s="0"/>
+      <c r="AJI28" s="0"/>
+      <c r="AJJ28" s="0"/>
+      <c r="AJK28" s="0"/>
+      <c r="AJL28" s="0"/>
+      <c r="AJM28" s="0"/>
+      <c r="AJN28" s="0"/>
+      <c r="AJO28" s="0"/>
+      <c r="AJP28" s="0"/>
+      <c r="AJQ28" s="0"/>
+      <c r="AJR28" s="0"/>
+      <c r="AJS28" s="0"/>
+      <c r="AJT28" s="0"/>
+      <c r="AJU28" s="0"/>
+      <c r="AJV28" s="0"/>
+      <c r="AJW28" s="0"/>
+      <c r="AJX28" s="0"/>
+      <c r="AJY28" s="0"/>
+      <c r="AJZ28" s="0"/>
+      <c r="AKA28" s="0"/>
+      <c r="AKB28" s="0"/>
+      <c r="AKC28" s="0"/>
+      <c r="AKD28" s="0"/>
+      <c r="AKE28" s="0"/>
+      <c r="AKF28" s="0"/>
+      <c r="AKG28" s="0"/>
+      <c r="AKH28" s="0"/>
+      <c r="AKI28" s="0"/>
+      <c r="AKJ28" s="0"/>
+      <c r="AKK28" s="0"/>
+      <c r="AKL28" s="0"/>
+      <c r="AKM28" s="0"/>
+      <c r="AKN28" s="0"/>
+      <c r="AKO28" s="0"/>
+      <c r="AKP28" s="0"/>
+      <c r="AKQ28" s="0"/>
+      <c r="AKR28" s="0"/>
+      <c r="AKS28" s="0"/>
+      <c r="AKT28" s="0"/>
+      <c r="AKU28" s="0"/>
+      <c r="AKV28" s="0"/>
+      <c r="AKW28" s="0"/>
+      <c r="AKX28" s="0"/>
+      <c r="AKY28" s="0"/>
+      <c r="AKZ28" s="0"/>
+      <c r="ALA28" s="0"/>
+      <c r="ALB28" s="0"/>
+      <c r="ALC28" s="0"/>
+      <c r="ALD28" s="0"/>
+      <c r="ALE28" s="0"/>
+      <c r="ALF28" s="0"/>
+      <c r="ALG28" s="0"/>
+      <c r="ALH28" s="0"/>
+      <c r="ALI28" s="0"/>
+      <c r="ALJ28" s="0"/>
+      <c r="ALK28" s="0"/>
+      <c r="ALL28" s="0"/>
+      <c r="ALM28" s="0"/>
+      <c r="ALN28" s="0"/>
+      <c r="ALO28" s="0"/>
+      <c r="ALP28" s="0"/>
+      <c r="ALQ28" s="0"/>
+      <c r="ALR28" s="0"/>
+      <c r="ALS28" s="0"/>
+      <c r="ALT28" s="0"/>
+      <c r="ALU28" s="0"/>
+      <c r="ALV28" s="0"/>
+      <c r="ALW28" s="0"/>
+      <c r="ALX28" s="0"/>
+      <c r="ALY28" s="0"/>
+      <c r="ALZ28" s="0"/>
+      <c r="AMA28" s="0"/>
+      <c r="AMB28" s="0"/>
+      <c r="AMC28" s="0"/>
+      <c r="AMD28" s="0"/>
+      <c r="AME28" s="0"/>
+      <c r="AMF28" s="0"/>
+      <c r="AMG28" s="0"/>
+      <c r="AMH28" s="0"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
@@ -57951,7 +63061,7 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -58999,8 +64109,8 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -59798,8 +64908,8 @@
       <c r="B28" s="3" t="n">
         <v>-6.712168</v>
       </c>
-      <c r="C28" s="3" t="n">
-        <v>-5.762739</v>
+      <c r="C28" s="0" t="n">
+        <v>-5.7627393804168</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>471</v>
@@ -60592,7 +65702,7 @@
   </sheetPr>
   <dimension ref="A1:DN18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="BC1" activeCellId="0" sqref="BC1"/>
@@ -67135,7 +72245,7 @@
   </sheetPr>
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I126" activeCellId="0" sqref="I126"/>
     </sheetView>
   </sheetViews>
@@ -70591,8 +75701,8 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -70664,8 +75774,8 @@
       <c r="C2" s="0" t="n">
         <v>0.58078654836219</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>-1.0327580179</v>
+      <c r="D2" s="0" t="n">
+        <v>-1.05872106311096</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
@@ -70705,8 +75815,8 @@
       <c r="C3" s="0" t="n">
         <v>-0.874606576723956</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>-1.3491473003</v>
+      <c r="D3" s="0" t="n">
+        <v>-1.34914730027501</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
@@ -70746,8 +75856,8 @@
       <c r="C4" s="0" t="n">
         <v>2.48286633565843</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0.0467777832</v>
+      <c r="D4" s="0" t="n">
+        <v>-0.813541735470234</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>80</v>
@@ -70787,8 +75897,8 @@
       <c r="C5" s="0" t="n">
         <v>-0.226967771296975</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>-0.3907198827</v>
+      <c r="D5" s="0" t="n">
+        <v>-0.4073283680204</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>70</v>
@@ -70828,8 +75938,8 @@
       <c r="C6" s="0" t="n">
         <v>-0.352802726236864</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>-0.4647485063</v>
+      <c r="D6" s="0" t="n">
+        <v>-0.512447619623976</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>90</v>
@@ -70869,8 +75979,8 @@
       <c r="C7" s="0" t="n">
         <v>-1.13987663152159</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>-0.0793733519</v>
+      <c r="D7" s="0" t="n">
+        <v>-0.168872933275566</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>95</v>
@@ -70910,8 +76020,8 @@
       <c r="C8" s="0" t="n">
         <v>0.266483118877442</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>-0.4397228576</v>
+      <c r="D8" s="0" t="n">
+        <v>-0.470524294531299</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>10</v>
@@ -70951,8 +76061,8 @@
       <c r="C9" s="0" t="n">
         <v>0.711826978356831</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>-0.8132727202</v>
+      <c r="D9" s="0" t="n">
+        <v>-0.853663540587834</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>95</v>
@@ -70992,8 +76102,8 @@
       <c r="C10" s="0" t="n">
         <v>-1.13027237003504</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>-0.5615095885</v>
+      <c r="D10" s="0" t="n">
+        <v>-0.577637632640595</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>90</v>
@@ -71033,8 +76143,8 @@
       <c r="C11" s="0" t="n">
         <v>-0.041309318309778</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>-1.4036735598</v>
+      <c r="D11" s="0" t="n">
+        <v>-1.40367355983834</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>60</v>
@@ -71074,8 +76184,8 @@
       <c r="C12" s="0" t="n">
         <v>-0.372276672277869</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>-0.9105906413</v>
+      <c r="D12" s="0" t="n">
+        <v>-0.950689234952239</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
@@ -71115,8 +76225,8 @@
       <c r="C13" s="0" t="n">
         <v>1.54482534600867</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>-0.8882338263</v>
+      <c r="D13" s="0" t="n">
+        <v>-0.927207342522769</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>10</v>
@@ -71156,8 +76266,8 @@
       <c r="C14" s="0" t="n">
         <v>-1.67080848311984</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>-0.0183800111</v>
+      <c r="D14" s="0" t="n">
+        <v>-0.042295058800366</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>70</v>
@@ -71197,8 +76307,8 @@
       <c r="C15" s="0" t="n">
         <v>3.07534325002327</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <v>-0.2870239301</v>
+      <c r="D15" s="0" t="n">
+        <v>-0.311923597388287</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
@@ -71238,8 +76348,8 @@
       <c r="C16" s="0" t="n">
         <v>0.777853466462311</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <v>-1.5911323905</v>
+      <c r="D16" s="0" t="n">
+        <v>-1.62531364518787</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>20</v>
@@ -71279,8 +76389,8 @@
       <c r="C17" s="0" t="n">
         <v>-1.61343961951241</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>-0.1994484606</v>
+      <c r="D17" s="0" t="n">
+        <v>-0.204290191782785</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>70</v>
@@ -71320,8 +76430,8 @@
       <c r="C18" s="0" t="n">
         <v>-0.591021877732271</v>
       </c>
-      <c r="D18" s="3" t="n">
-        <v>0.0474870013</v>
+      <c r="D18" s="0" t="n">
+        <v>-0.0142008383346675</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>20</v>
